--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -153,6 +153,36 @@
   </si>
   <si>
     <t>CANALES  200-1</t>
+  </si>
+  <si>
+    <t>19770--</t>
+  </si>
+  <si>
+    <t>19782--</t>
+  </si>
+  <si>
+    <t>19791--</t>
+  </si>
+  <si>
+    <t>MIGUEL HERRERA</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6908</t>
+  </si>
+  <si>
+    <t>Transferencia s</t>
+  </si>
+  <si>
+    <t>JOSE LUIS OLVERA</t>
+  </si>
+  <si>
+    <t>TRIPAS</t>
+  </si>
+  <si>
+    <t>FOLIO 10595</t>
+  </si>
+  <si>
+    <t>A1019</t>
   </si>
 </sst>
 </file>
@@ -641,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1379,12 +1409,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="457">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,9 +1917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,15 +1935,6 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,18 +1961,6 @@
     </xf>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2461,18 +2478,99 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2485,146 +2583,41 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2916,22 +2909,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="332" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="332" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="332" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="353" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="333" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="334" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="337" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="333" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="385"/>
+    <col min="2" max="2" width="28.5703125" style="324" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="324" customWidth="1"/>
+    <col min="4" max="4" width="11" style="324" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="345" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="325" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="326" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="329" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="325" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="377"/>
     <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.42578125" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2939,30 +2935,30 @@
     <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="396" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="370" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="349"/>
-    <col min="22" max="22" width="11.42578125" style="364"/>
+    <col min="19" max="19" width="12.42578125" style="388" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="362" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="341"/>
+    <col min="22" max="22" width="11.42578125" style="356"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="446" t="s">
+      <c r="A1" s="396" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="446"/>
-      <c r="C1" s="446"/>
-      <c r="D1" s="446"/>
-      <c r="E1" s="446"/>
-      <c r="F1" s="446"/>
-      <c r="G1" s="446"/>
-      <c r="H1" s="446"/>
-      <c r="I1" s="446"/>
-      <c r="J1" s="446"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="398"/>
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="396"/>
+      <c r="I1" s="396"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
+      <c r="O1" s="390"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
       <c r="U1" s="6" t="s">
@@ -2971,27 +2967,27 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="447" t="s">
+      <c r="W1" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="448"/>
+      <c r="X1" s="398"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="446"/>
-      <c r="B2" s="446"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446"/>
-      <c r="G2" s="446"/>
-      <c r="H2" s="446"/>
-      <c r="I2" s="446"/>
-      <c r="J2" s="446"/>
-      <c r="K2" s="399"/>
-      <c r="L2" s="399"/>
-      <c r="M2" s="399"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
+      <c r="A2" s="396"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="392"/>
+      <c r="O2" s="393"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -3040,10 +3036,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="449" t="s">
+      <c r="O3" s="399" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="450"/>
+      <c r="P3" s="400"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3077,9 @@
       <c r="G4" s="42">
         <v>44564</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="I4" s="44">
         <v>21980</v>
       </c>
@@ -3100,8 +3098,12 @@
       </c>
       <c r="O4" s="49"/>
       <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
+      <c r="Q4" s="51">
+        <v>25140</v>
+      </c>
+      <c r="R4" s="52">
+        <v>44568</v>
+      </c>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
       <c r="U4" s="55"/>
@@ -3129,7 +3131,9 @@
       <c r="G5" s="64">
         <v>44564</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="65" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="66">
         <v>4770</v>
       </c>
@@ -3148,8 +3152,12 @@
       </c>
       <c r="O5" s="68"/>
       <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
+      <c r="Q5" s="70">
+        <v>0</v>
+      </c>
+      <c r="R5" s="71">
+        <v>44568</v>
+      </c>
       <c r="S5" s="53"/>
       <c r="T5" s="54"/>
       <c r="U5" s="55"/>
@@ -3177,7 +3185,9 @@
       <c r="G6" s="64">
         <v>44566</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" s="66">
         <v>21870</v>
       </c>
@@ -3196,8 +3206,12 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="69"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
+      <c r="Q6" s="70">
+        <v>24940</v>
+      </c>
+      <c r="R6" s="71">
+        <v>44568</v>
+      </c>
       <c r="S6" s="53"/>
       <c r="T6" s="54"/>
       <c r="U6" s="55"/>
@@ -3225,7 +3239,9 @@
       <c r="G7" s="64">
         <v>44566</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="65" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="66">
         <v>5415</v>
       </c>
@@ -3244,8 +3260,12 @@
       </c>
       <c r="O7" s="68"/>
       <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="71"/>
+      <c r="Q7" s="70">
+        <v>0</v>
+      </c>
+      <c r="R7" s="71">
+        <v>44568</v>
+      </c>
       <c r="S7" s="53"/>
       <c r="T7" s="54"/>
       <c r="U7" s="55"/>
@@ -3273,7 +3293,9 @@
       <c r="G8" s="64">
         <v>44568</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="65" t="s">
+        <v>45</v>
+      </c>
       <c r="I8" s="66">
         <v>20760</v>
       </c>
@@ -3292,8 +3314,12 @@
       </c>
       <c r="O8" s="75"/>
       <c r="P8" s="76"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
+      <c r="Q8" s="70">
+        <v>25140</v>
+      </c>
+      <c r="R8" s="71">
+        <v>44568</v>
+      </c>
       <c r="S8" s="53"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
@@ -3321,7 +3347,9 @@
       <c r="G9" s="64">
         <v>44568</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="65" t="s">
+        <v>45</v>
+      </c>
       <c r="I9" s="66">
         <v>5595</v>
       </c>
@@ -3340,8 +3368,12 @@
       </c>
       <c r="O9" s="75"/>
       <c r="P9" s="76"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="71"/>
+      <c r="Q9" s="70">
+        <v>0</v>
+      </c>
+      <c r="R9" s="71">
+        <v>44568</v>
+      </c>
       <c r="S9" s="53"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
@@ -3369,7 +3401,9 @@
       <c r="G10" s="64">
         <v>44570</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="65" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="66">
         <v>22600</v>
       </c>
@@ -4990,34 +5024,52 @@
       <c r="U54" s="169"/>
       <c r="V54" s="170"/>
     </row>
-    <row r="55" spans="1:24" s="171" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="59"/>
+    <row r="55" spans="1:24" s="171" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="B55" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="159"/>
+      <c r="C55" s="159" t="s">
+        <v>47</v>
+      </c>
       <c r="D55" s="160"/>
       <c r="E55" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F55" s="161"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="161"/>
+      <c r="F55" s="161">
+        <v>1844</v>
+      </c>
+      <c r="G55" s="162">
+        <v>44564</v>
+      </c>
+      <c r="H55" s="163">
+        <v>767</v>
+      </c>
+      <c r="I55" s="161">
+        <v>1844</v>
+      </c>
       <c r="J55" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="46"/>
+      <c r="K55" s="46">
+        <v>91</v>
+      </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
       <c r="N55" s="164">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="99"/>
-      <c r="P55" s="172"/>
+        <v>167804</v>
+      </c>
+      <c r="O55" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="P55" s="172">
+        <v>44572</v>
+      </c>
       <c r="Q55" s="138"/>
       <c r="R55" s="168"/>
       <c r="S55" s="102"/>
@@ -5063,11 +5115,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="451"/>
+      <c r="A57" s="401"/>
       <c r="B57" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="453"/>
+      <c r="C57" s="403"/>
       <c r="D57" s="177"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5075,7 +5127,7 @@
       </c>
       <c r="F57" s="161"/>
       <c r="G57" s="162"/>
-      <c r="H57" s="414"/>
+      <c r="H57" s="405"/>
       <c r="I57" s="161"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5088,8 +5140,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="404"/>
-      <c r="P57" s="444"/>
+      <c r="O57" s="407"/>
+      <c r="P57" s="409"/>
       <c r="Q57" s="176"/>
       <c r="R57" s="139"/>
       <c r="S57" s="102"/>
@@ -5098,11 +5150,11 @@
       <c r="V57" s="56"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="452"/>
+      <c r="A58" s="402"/>
       <c r="B58" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="454"/>
+      <c r="C58" s="404"/>
       <c r="D58" s="177"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5110,7 +5162,7 @@
       </c>
       <c r="F58" s="161"/>
       <c r="G58" s="162"/>
-      <c r="H58" s="415"/>
+      <c r="H58" s="406"/>
       <c r="I58" s="161"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5123,8 +5175,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="455"/>
-      <c r="P58" s="456"/>
+      <c r="O58" s="408"/>
+      <c r="P58" s="410"/>
       <c r="Q58" s="176"/>
       <c r="R58" s="139"/>
       <c r="S58" s="102"/>
@@ -5133,11 +5185,11 @@
       <c r="V58" s="56"/>
     </row>
     <row r="59" spans="1:24" s="171" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="434"/>
+      <c r="A59" s="414"/>
       <c r="B59" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="436"/>
+      <c r="C59" s="416"/>
       <c r="D59" s="175"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5145,7 +5197,7 @@
       </c>
       <c r="F59" s="161"/>
       <c r="G59" s="162"/>
-      <c r="H59" s="414"/>
+      <c r="H59" s="405"/>
       <c r="I59" s="161"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5158,8 +5210,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="428"/>
-      <c r="P59" s="438"/>
+      <c r="O59" s="176"/>
+      <c r="P59" s="64"/>
       <c r="Q59" s="179"/>
       <c r="R59" s="168"/>
       <c r="S59" s="102"/>
@@ -5170,11 +5222,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="435"/>
+      <c r="A60" s="415"/>
       <c r="B60" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="437"/>
+      <c r="C60" s="417"/>
       <c r="D60" s="180"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5182,7 +5234,7 @@
       </c>
       <c r="F60" s="161"/>
       <c r="G60" s="162"/>
-      <c r="H60" s="415"/>
+      <c r="H60" s="406"/>
       <c r="I60" s="161"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5195,8 +5247,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O60" s="430"/>
-      <c r="P60" s="439"/>
+      <c r="O60" s="176"/>
+      <c r="P60" s="64"/>
       <c r="Q60" s="179"/>
       <c r="R60" s="139"/>
       <c r="S60" s="102"/>
@@ -5238,31 +5290,51 @@
       <c r="V61" s="56"/>
     </row>
     <row r="62" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="186"/>
-      <c r="B62" s="187"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="189"/>
+      <c r="A62" s="186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="440" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="187" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="188"/>
       <c r="E62" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F62" s="161"/>
-      <c r="G62" s="162"/>
-      <c r="H62" s="163"/>
-      <c r="I62" s="161"/>
+      <c r="F62" s="161">
+        <v>410</v>
+      </c>
+      <c r="G62" s="162">
+        <v>44565</v>
+      </c>
+      <c r="H62" s="163" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="161">
+        <v>410</v>
+      </c>
       <c r="J62" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="178"/>
+      <c r="K62" s="178">
+        <v>65</v>
+      </c>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="176"/>
-      <c r="P62" s="172"/>
+        <v>26650</v>
+      </c>
+      <c r="O62" s="176" t="s">
+        <v>48</v>
+      </c>
+      <c r="P62" s="172">
+        <v>44572</v>
+      </c>
       <c r="Q62" s="176"/>
       <c r="R62" s="139"/>
       <c r="S62" s="102"/>
@@ -5270,18 +5342,15 @@
       <c r="U62" s="55"/>
       <c r="V62" s="56"/>
     </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="190"/>
-      <c r="B63" s="191"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="183"/>
-      <c r="E63" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="161"/>
-      <c r="G63" s="162"/>
-      <c r="H63" s="163"/>
+    <row r="63" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="198"/>
+      <c r="B63" s="431"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="432"/>
+      <c r="G63" s="199"/>
+      <c r="H63" s="395"/>
       <c r="I63" s="161"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -5298,23 +5367,23 @@
       <c r="P63" s="172"/>
       <c r="Q63" s="176"/>
       <c r="R63" s="139"/>
-      <c r="S63" s="193"/>
+      <c r="S63" s="192"/>
       <c r="T63" s="54"/>
       <c r="U63" s="55"/>
       <c r="V63" s="56"/>
     </row>
-    <row r="64" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="410"/>
-      <c r="B64" s="194"/>
-      <c r="C64" s="440"/>
-      <c r="D64" s="195"/>
-      <c r="E64" s="40">
+    <row r="64" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="189"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="195"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="161"/>
       <c r="G64" s="162"/>
-      <c r="H64" s="442"/>
+      <c r="H64" s="437"/>
       <c r="I64" s="161"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -5327,27 +5396,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="404"/>
-      <c r="P64" s="444"/>
+      <c r="O64" s="407"/>
+      <c r="P64" s="409"/>
       <c r="Q64" s="176"/>
       <c r="R64" s="139"/>
-      <c r="S64" s="193"/>
+      <c r="S64" s="192"/>
       <c r="T64" s="54"/>
       <c r="U64" s="55"/>
       <c r="V64" s="56"/>
     </row>
-    <row r="65" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="411"/>
-      <c r="B65" s="194"/>
-      <c r="C65" s="441"/>
-      <c r="D65" s="195"/>
-      <c r="E65" s="40">
+    <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="189"/>
+      <c r="B65" s="190"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F65" s="161"/>
       <c r="G65" s="162"/>
-      <c r="H65" s="443"/>
+      <c r="H65" s="437"/>
       <c r="I65" s="161"/>
       <c r="J65" s="45">
         <f t="shared" si="0"/>
@@ -5360,21 +5429,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="405"/>
-      <c r="P65" s="445"/>
+      <c r="O65" s="420"/>
+      <c r="P65" s="421"/>
       <c r="Q65" s="176"/>
       <c r="R65" s="139"/>
-      <c r="S65" s="193"/>
+      <c r="S65" s="192"/>
       <c r="T65" s="54"/>
       <c r="U65" s="55"/>
       <c r="V65" s="56"/>
     </row>
-    <row r="66" spans="1:22" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="190"/>
-      <c r="B66" s="191"/>
-      <c r="C66" s="196"/>
+    <row r="66" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="189"/>
+      <c r="B66" s="190"/>
+      <c r="C66" s="195"/>
       <c r="D66" s="183"/>
-      <c r="E66" s="40">
+      <c r="E66" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5394,20 +5463,20 @@
         <v>0</v>
       </c>
       <c r="O66" s="176"/>
-      <c r="P66" s="197"/>
+      <c r="P66" s="193"/>
       <c r="Q66" s="176"/>
       <c r="R66" s="139"/>
-      <c r="S66" s="193"/>
+      <c r="S66" s="192"/>
       <c r="T66" s="54"/>
       <c r="U66" s="55"/>
       <c r="V66" s="56"/>
     </row>
-    <row r="67" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="198"/>
-      <c r="B67" s="191"/>
+    <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="194"/>
+      <c r="B67" s="190"/>
       <c r="C67" s="183"/>
       <c r="D67" s="183"/>
-      <c r="E67" s="40">
+      <c r="E67" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5427,20 +5496,20 @@
         <v>0</v>
       </c>
       <c r="O67" s="176"/>
-      <c r="P67" s="197"/>
+      <c r="P67" s="193"/>
       <c r="Q67" s="176"/>
       <c r="R67" s="139"/>
-      <c r="S67" s="193"/>
+      <c r="S67" s="192"/>
       <c r="T67" s="54"/>
       <c r="U67" s="55"/>
       <c r="V67" s="56"/>
     </row>
-    <row r="68" spans="1:22" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="190"/>
-      <c r="B68" s="191"/>
-      <c r="C68" s="199"/>
+    <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="189"/>
+      <c r="B68" s="190"/>
+      <c r="C68" s="195"/>
       <c r="D68" s="183"/>
-      <c r="E68" s="40">
+      <c r="E68" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5460,20 +5529,20 @@
         <v>0</v>
       </c>
       <c r="O68" s="176"/>
-      <c r="P68" s="197"/>
+      <c r="P68" s="193"/>
       <c r="Q68" s="176"/>
       <c r="R68" s="139"/>
-      <c r="S68" s="193"/>
+      <c r="S68" s="192"/>
       <c r="T68" s="54"/>
       <c r="U68" s="55"/>
       <c r="V68" s="56"/>
     </row>
-    <row r="69" spans="1:22" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="190"/>
-      <c r="B69" s="200"/>
-      <c r="C69" s="199"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="40">
+    <row r="69" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="189"/>
+      <c r="B69" s="196"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="62">
         <f t="shared" ref="E69:E138" si="3">D69*F69</f>
         <v>0</v>
       </c>
@@ -5493,20 +5562,20 @@
         <v>0</v>
       </c>
       <c r="O69" s="176"/>
-      <c r="P69" s="197"/>
+      <c r="P69" s="193"/>
       <c r="Q69" s="176"/>
       <c r="R69" s="139"/>
-      <c r="S69" s="193"/>
+      <c r="S69" s="192"/>
       <c r="T69" s="54"/>
       <c r="U69" s="55"/>
       <c r="V69" s="56"/>
     </row>
-    <row r="70" spans="1:22" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="190"/>
-      <c r="B70" s="201"/>
-      <c r="C70" s="199"/>
+    <row r="70" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="189"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="195"/>
       <c r="D70" s="183"/>
-      <c r="E70" s="40">
+      <c r="E70" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5526,25 +5595,25 @@
         <v>0</v>
       </c>
       <c r="O70" s="176"/>
-      <c r="P70" s="197"/>
+      <c r="P70" s="193"/>
       <c r="Q70" s="176"/>
       <c r="R70" s="139"/>
-      <c r="S70" s="193"/>
+      <c r="S70" s="192"/>
       <c r="T70" s="54"/>
       <c r="U70" s="55"/>
       <c r="V70" s="56"/>
     </row>
-    <row r="71" spans="1:22" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="202"/>
-      <c r="B71" s="191"/>
-      <c r="C71" s="199"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="40">
+    <row r="71" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="189"/>
+      <c r="B71" s="190"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F71" s="161"/>
-      <c r="G71" s="203"/>
+      <c r="G71" s="162"/>
       <c r="H71" s="163"/>
       <c r="I71" s="161"/>
       <c r="J71" s="45">
@@ -5558,27 +5627,27 @@
         <f>K71*I71</f>
         <v>0</v>
       </c>
-      <c r="O71" s="204"/>
-      <c r="P71" s="205"/>
+      <c r="O71" s="200"/>
+      <c r="P71" s="201"/>
       <c r="Q71" s="176"/>
       <c r="R71" s="139"/>
-      <c r="S71" s="193"/>
+      <c r="S71" s="192"/>
       <c r="T71" s="54"/>
       <c r="U71" s="55"/>
       <c r="V71" s="56"/>
     </row>
-    <row r="72" spans="1:22" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="418"/>
-      <c r="B72" s="206"/>
-      <c r="C72" s="412"/>
-      <c r="D72" s="199"/>
-      <c r="E72" s="40">
+    <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="189"/>
+      <c r="B72" s="196"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="207"/>
-      <c r="G72" s="422"/>
-      <c r="H72" s="425"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="438"/>
+      <c r="H72" s="439"/>
       <c r="I72" s="161"/>
       <c r="J72" s="45">
         <f>I72-F72</f>
@@ -5591,27 +5660,27 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="428"/>
-      <c r="P72" s="431"/>
+      <c r="O72" s="418"/>
+      <c r="P72" s="411"/>
       <c r="Q72" s="179"/>
       <c r="R72" s="139"/>
-      <c r="S72" s="193"/>
+      <c r="S72" s="192"/>
       <c r="T72" s="54"/>
       <c r="U72" s="55"/>
       <c r="V72" s="56"/>
     </row>
-    <row r="73" spans="1:22" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="419"/>
-      <c r="B73" s="206"/>
-      <c r="C73" s="421"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="40">
+    <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="189"/>
+      <c r="B73" s="196"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="207"/>
-      <c r="G73" s="423"/>
-      <c r="H73" s="426"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="438"/>
+      <c r="H73" s="439"/>
       <c r="I73" s="161"/>
       <c r="J73" s="45">
         <f>I73-F73</f>
@@ -5624,27 +5693,27 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="429"/>
-      <c r="P73" s="432"/>
+      <c r="O73" s="422"/>
+      <c r="P73" s="412"/>
       <c r="Q73" s="179"/>
       <c r="R73" s="139"/>
-      <c r="S73" s="193"/>
+      <c r="S73" s="192"/>
       <c r="T73" s="54"/>
       <c r="U73" s="55"/>
       <c r="V73" s="56"/>
     </row>
-    <row r="74" spans="1:22" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="419"/>
-      <c r="B74" s="206"/>
-      <c r="C74" s="421"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="40">
+    <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="189"/>
+      <c r="B74" s="196"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="207"/>
-      <c r="G74" s="423"/>
-      <c r="H74" s="426"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="438"/>
+      <c r="H74" s="439"/>
       <c r="I74" s="161"/>
       <c r="J74" s="45">
         <f>I74-F74</f>
@@ -5657,27 +5726,27 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="429"/>
-      <c r="P74" s="432"/>
+      <c r="O74" s="422"/>
+      <c r="P74" s="412"/>
       <c r="Q74" s="179"/>
       <c r="R74" s="139"/>
-      <c r="S74" s="193"/>
+      <c r="S74" s="192"/>
       <c r="T74" s="54"/>
       <c r="U74" s="55"/>
       <c r="V74" s="56"/>
     </row>
-    <row r="75" spans="1:22" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="420"/>
-      <c r="B75" s="206"/>
-      <c r="C75" s="413"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="40">
+    <row r="75" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="189"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="207"/>
-      <c r="G75" s="424"/>
-      <c r="H75" s="427"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="438"/>
+      <c r="H75" s="439"/>
       <c r="I75" s="161"/>
       <c r="J75" s="45">
         <f>I75-F75</f>
@@ -5690,26 +5759,26 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="430"/>
-      <c r="P75" s="433"/>
+      <c r="O75" s="419"/>
+      <c r="P75" s="413"/>
       <c r="Q75" s="179"/>
       <c r="R75" s="139"/>
-      <c r="S75" s="193"/>
+      <c r="S75" s="192"/>
       <c r="T75" s="54"/>
       <c r="U75" s="55"/>
       <c r="V75" s="56"/>
     </row>
-    <row r="76" spans="1:22" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="208"/>
-      <c r="B76" s="191"/>
-      <c r="C76" s="199"/>
+    <row r="76" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="189"/>
+      <c r="B76" s="190"/>
+      <c r="C76" s="195"/>
       <c r="D76" s="183"/>
-      <c r="E76" s="40">
+      <c r="E76" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F76" s="161"/>
-      <c r="G76" s="209"/>
+      <c r="G76" s="162"/>
       <c r="H76" s="163"/>
       <c r="I76" s="161"/>
       <c r="J76" s="45">
@@ -5724,20 +5793,20 @@
         <v>0</v>
       </c>
       <c r="O76" s="184"/>
-      <c r="P76" s="210"/>
+      <c r="P76" s="202"/>
       <c r="Q76" s="176"/>
       <c r="R76" s="139"/>
-      <c r="S76" s="193"/>
+      <c r="S76" s="192"/>
       <c r="T76" s="54"/>
       <c r="U76" s="55"/>
       <c r="V76" s="56"/>
     </row>
-    <row r="77" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="190"/>
-      <c r="B77" s="191"/>
-      <c r="C77" s="199"/>
-      <c r="D77" s="211"/>
-      <c r="E77" s="40">
+    <row r="77" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="189"/>
+      <c r="B77" s="190"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="203"/>
+      <c r="E77" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5757,26 +5826,26 @@
         <v>0</v>
       </c>
       <c r="O77" s="176"/>
-      <c r="P77" s="197"/>
+      <c r="P77" s="193"/>
       <c r="Q77" s="176"/>
       <c r="R77" s="139"/>
-      <c r="S77" s="193"/>
+      <c r="S77" s="192"/>
       <c r="T77" s="54"/>
       <c r="U77" s="55"/>
       <c r="V77" s="56"/>
     </row>
-    <row r="78" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="410"/>
-      <c r="B78" s="191"/>
-      <c r="C78" s="412"/>
-      <c r="D78" s="211"/>
-      <c r="E78" s="40">
+    <row r="78" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="189"/>
+      <c r="B78" s="190"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="161"/>
       <c r="G78" s="162"/>
-      <c r="H78" s="414"/>
+      <c r="H78" s="439"/>
       <c r="I78" s="161"/>
       <c r="J78" s="45">
         <f t="shared" si="0"/>
@@ -5789,27 +5858,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="404"/>
-      <c r="P78" s="416"/>
+      <c r="O78" s="407"/>
+      <c r="P78" s="429"/>
       <c r="Q78" s="176"/>
       <c r="R78" s="139"/>
-      <c r="S78" s="193"/>
+      <c r="S78" s="192"/>
       <c r="T78" s="54"/>
       <c r="U78" s="55"/>
       <c r="V78" s="56"/>
     </row>
-    <row r="79" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="411"/>
-      <c r="B79" s="191"/>
-      <c r="C79" s="413"/>
-      <c r="D79" s="211"/>
-      <c r="E79" s="40">
+    <row r="79" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="189"/>
+      <c r="B79" s="190"/>
+      <c r="C79" s="195"/>
+      <c r="D79" s="203"/>
+      <c r="E79" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="161"/>
       <c r="G79" s="162"/>
-      <c r="H79" s="415"/>
+      <c r="H79" s="439"/>
       <c r="I79" s="161"/>
       <c r="J79" s="45">
         <f t="shared" si="0"/>
@@ -5822,27 +5891,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="405"/>
-      <c r="P79" s="417"/>
+      <c r="O79" s="420"/>
+      <c r="P79" s="430"/>
       <c r="Q79" s="176"/>
       <c r="R79" s="139"/>
-      <c r="S79" s="193"/>
+      <c r="S79" s="192"/>
       <c r="T79" s="54"/>
       <c r="U79" s="55"/>
       <c r="V79" s="56"/>
     </row>
-    <row r="80" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="410"/>
-      <c r="B80" s="191"/>
-      <c r="C80" s="412"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="40">
+    <row r="80" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="189"/>
+      <c r="B80" s="190"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="204"/>
+      <c r="E80" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="161"/>
       <c r="G80" s="162"/>
-      <c r="H80" s="414"/>
+      <c r="H80" s="439"/>
       <c r="I80" s="161"/>
       <c r="J80" s="45">
         <f t="shared" si="0"/>
@@ -5855,27 +5924,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="404"/>
-      <c r="P80" s="416"/>
+      <c r="O80" s="407"/>
+      <c r="P80" s="429"/>
       <c r="Q80" s="176"/>
       <c r="R80" s="168"/>
-      <c r="S80" s="193"/>
+      <c r="S80" s="192"/>
       <c r="T80" s="54"/>
       <c r="U80" s="169"/>
       <c r="V80" s="170"/>
     </row>
-    <row r="81" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="411"/>
-      <c r="B81" s="191"/>
-      <c r="C81" s="413"/>
-      <c r="D81" s="212"/>
-      <c r="E81" s="40">
+    <row r="81" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="189"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F81" s="161"/>
       <c r="G81" s="162"/>
-      <c r="H81" s="415"/>
+      <c r="H81" s="439"/>
       <c r="I81" s="161"/>
       <c r="J81" s="45">
         <f t="shared" si="0"/>
@@ -5888,21 +5957,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="405"/>
-      <c r="P81" s="417"/>
+      <c r="O81" s="420"/>
+      <c r="P81" s="430"/>
       <c r="Q81" s="176"/>
       <c r="R81" s="168"/>
-      <c r="S81" s="193"/>
+      <c r="S81" s="192"/>
       <c r="T81" s="54"/>
       <c r="U81" s="169"/>
       <c r="V81" s="170"/>
     </row>
-    <row r="82" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="77"/>
-      <c r="B82" s="191"/>
-      <c r="C82" s="213"/>
-      <c r="D82" s="214"/>
-      <c r="E82" s="40">
+      <c r="B82" s="190"/>
+      <c r="C82" s="205"/>
+      <c r="D82" s="206"/>
+      <c r="E82" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5922,20 +5991,20 @@
         <v>0</v>
       </c>
       <c r="O82" s="176"/>
-      <c r="P82" s="197"/>
+      <c r="P82" s="193"/>
       <c r="Q82" s="176"/>
       <c r="R82" s="168"/>
-      <c r="S82" s="193"/>
+      <c r="S82" s="192"/>
       <c r="T82" s="54"/>
       <c r="U82" s="169"/>
       <c r="V82" s="170"/>
     </row>
-    <row r="83" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="77"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="214"/>
-      <c r="E83" s="40">
+      <c r="B83" s="190"/>
+      <c r="C83" s="207"/>
+      <c r="D83" s="206"/>
+      <c r="E83" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5955,20 +6024,20 @@
         <v>0</v>
       </c>
       <c r="O83" s="176"/>
-      <c r="P83" s="216"/>
+      <c r="P83" s="208"/>
       <c r="Q83" s="176"/>
       <c r="R83" s="168"/>
-      <c r="S83" s="193"/>
+      <c r="S83" s="192"/>
       <c r="T83" s="54"/>
       <c r="U83" s="169"/>
       <c r="V83" s="170"/>
     </row>
-    <row r="84" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="77"/>
-      <c r="B84" s="191"/>
-      <c r="C84" s="214"/>
-      <c r="D84" s="217"/>
-      <c r="E84" s="40">
+      <c r="B84" s="190"/>
+      <c r="C84" s="206"/>
+      <c r="D84" s="209"/>
+      <c r="E84" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5988,26 +6057,26 @@
         <v>0</v>
       </c>
       <c r="O84" s="176"/>
-      <c r="P84" s="216"/>
+      <c r="P84" s="208"/>
       <c r="Q84" s="176"/>
       <c r="R84" s="168"/>
-      <c r="S84" s="193"/>
+      <c r="S84" s="192"/>
       <c r="T84" s="54"/>
       <c r="U84" s="169"/>
       <c r="V84" s="170"/>
     </row>
-    <row r="85" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="218"/>
+    <row r="85" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="210"/>
       <c r="B85" s="137"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="219"/>
-      <c r="E85" s="40">
+      <c r="C85" s="203"/>
+      <c r="D85" s="211"/>
+      <c r="E85" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F85" s="66"/>
       <c r="G85" s="127"/>
-      <c r="H85" s="220"/>
+      <c r="H85" s="212"/>
       <c r="I85" s="66"/>
       <c r="J85" s="45">
         <f t="shared" si="0"/>
@@ -6021,158 +6090,158 @@
         <v>0</v>
       </c>
       <c r="O85" s="176"/>
-      <c r="P85" s="216"/>
+      <c r="P85" s="208"/>
       <c r="Q85" s="176"/>
       <c r="R85" s="139"/>
-      <c r="S85" s="193"/>
+      <c r="S85" s="192"/>
       <c r="T85" s="54"/>
       <c r="U85" s="55"/>
       <c r="V85" s="56"/>
     </row>
-    <row r="86" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="218"/>
+    <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="210"/>
       <c r="B86" s="137"/>
-      <c r="C86" s="221"/>
-      <c r="D86" s="219"/>
-      <c r="E86" s="40">
+      <c r="C86" s="213"/>
+      <c r="D86" s="211"/>
+      <c r="E86" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86" s="66"/>
       <c r="G86" s="127"/>
-      <c r="H86" s="220"/>
+      <c r="H86" s="212"/>
       <c r="I86" s="66"/>
       <c r="J86" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K86" s="110"/>
-      <c r="L86" s="402"/>
-      <c r="M86" s="403"/>
+      <c r="L86" s="423"/>
+      <c r="M86" s="424"/>
       <c r="N86" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O86" s="176"/>
-      <c r="P86" s="216"/>
+      <c r="P86" s="208"/>
       <c r="Q86" s="176"/>
       <c r="R86" s="139"/>
-      <c r="S86" s="193"/>
+      <c r="S86" s="192"/>
       <c r="T86" s="54"/>
       <c r="U86" s="55"/>
       <c r="V86" s="56"/>
     </row>
-    <row r="87" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="218"/>
+    <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="210"/>
       <c r="B87" s="137"/>
-      <c r="C87" s="222"/>
-      <c r="D87" s="219"/>
-      <c r="E87" s="40">
+      <c r="C87" s="214"/>
+      <c r="D87" s="211"/>
+      <c r="E87" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="127"/>
-      <c r="H87" s="220"/>
+      <c r="H87" s="212"/>
       <c r="I87" s="66"/>
       <c r="J87" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K87" s="110"/>
-      <c r="L87" s="402"/>
-      <c r="M87" s="403"/>
+      <c r="L87" s="423"/>
+      <c r="M87" s="424"/>
       <c r="N87" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O87" s="176"/>
-      <c r="P87" s="216"/>
+      <c r="P87" s="208"/>
       <c r="Q87" s="176"/>
       <c r="R87" s="139"/>
-      <c r="S87" s="193"/>
+      <c r="S87" s="192"/>
       <c r="T87" s="54"/>
       <c r="U87" s="55"/>
       <c r="V87" s="56"/>
     </row>
-    <row r="88" spans="1:22" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="223"/>
+    <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="215"/>
       <c r="B88" s="137"/>
-      <c r="C88" s="224"/>
-      <c r="D88" s="219"/>
-      <c r="E88" s="40">
+      <c r="C88" s="216"/>
+      <c r="D88" s="211"/>
+      <c r="E88" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="66"/>
       <c r="G88" s="127"/>
-      <c r="H88" s="220"/>
+      <c r="H88" s="212"/>
       <c r="I88" s="66"/>
       <c r="J88" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K88" s="110"/>
-      <c r="L88" s="225"/>
-      <c r="M88" s="225"/>
+      <c r="L88" s="217"/>
+      <c r="M88" s="217"/>
       <c r="N88" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O88" s="176"/>
-      <c r="P88" s="216"/>
+      <c r="P88" s="208"/>
       <c r="Q88" s="176"/>
       <c r="R88" s="139"/>
-      <c r="S88" s="193"/>
+      <c r="S88" s="192"/>
       <c r="T88" s="54"/>
       <c r="U88" s="55"/>
       <c r="V88" s="56"/>
     </row>
-    <row r="89" spans="1:22" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="226"/>
+    <row r="89" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="218"/>
       <c r="B89" s="137"/>
-      <c r="C89" s="227"/>
-      <c r="D89" s="219"/>
-      <c r="E89" s="40">
+      <c r="C89" s="219"/>
+      <c r="D89" s="211"/>
+      <c r="E89" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F89" s="66"/>
       <c r="G89" s="127"/>
-      <c r="H89" s="220"/>
+      <c r="H89" s="212"/>
       <c r="I89" s="66"/>
       <c r="J89" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K89" s="110"/>
-      <c r="L89" s="225"/>
-      <c r="M89" s="225"/>
+      <c r="L89" s="217"/>
+      <c r="M89" s="217"/>
       <c r="N89" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O89" s="176"/>
-      <c r="P89" s="216"/>
+      <c r="P89" s="208"/>
       <c r="Q89" s="176"/>
       <c r="R89" s="139"/>
-      <c r="S89" s="193"/>
+      <c r="S89" s="192"/>
       <c r="T89" s="54"/>
       <c r="U89" s="55"/>
       <c r="V89" s="56"/>
     </row>
-    <row r="90" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="228"/>
+    <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="220"/>
       <c r="B90" s="137"/>
-      <c r="C90" s="219"/>
-      <c r="D90" s="219"/>
-      <c r="E90" s="40">
+      <c r="C90" s="211"/>
+      <c r="D90" s="211"/>
+      <c r="E90" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="66"/>
       <c r="G90" s="127"/>
-      <c r="H90" s="220"/>
+      <c r="H90" s="212"/>
       <c r="I90" s="66"/>
       <c r="J90" s="45">
         <f t="shared" si="0"/>
@@ -6186,26 +6255,26 @@
         <v>0</v>
       </c>
       <c r="O90" s="176"/>
-      <c r="P90" s="216"/>
+      <c r="P90" s="208"/>
       <c r="Q90" s="176"/>
       <c r="R90" s="139"/>
-      <c r="S90" s="193"/>
+      <c r="S90" s="192"/>
       <c r="T90" s="54"/>
       <c r="U90" s="55"/>
       <c r="V90" s="56"/>
     </row>
-    <row r="91" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="228"/>
+    <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="220"/>
       <c r="B91" s="137"/>
-      <c r="C91" s="219"/>
-      <c r="D91" s="219"/>
-      <c r="E91" s="40">
+      <c r="C91" s="211"/>
+      <c r="D91" s="211"/>
+      <c r="E91" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F91" s="66"/>
       <c r="G91" s="127"/>
-      <c r="H91" s="220"/>
+      <c r="H91" s="212"/>
       <c r="I91" s="66"/>
       <c r="J91" s="45">
         <f t="shared" si="0"/>
@@ -6219,26 +6288,26 @@
         <v>0</v>
       </c>
       <c r="O91" s="176"/>
-      <c r="P91" s="216"/>
+      <c r="P91" s="208"/>
       <c r="Q91" s="176"/>
       <c r="R91" s="139"/>
-      <c r="S91" s="193"/>
+      <c r="S91" s="192"/>
       <c r="T91" s="54"/>
       <c r="U91" s="55"/>
       <c r="V91" s="56"/>
     </row>
-    <row r="92" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="228"/>
+    <row r="92" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="220"/>
       <c r="B92" s="137"/>
-      <c r="C92" s="219"/>
-      <c r="D92" s="219"/>
-      <c r="E92" s="40">
+      <c r="C92" s="211"/>
+      <c r="D92" s="211"/>
+      <c r="E92" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="66"/>
       <c r="G92" s="127"/>
-      <c r="H92" s="220"/>
+      <c r="H92" s="212"/>
       <c r="I92" s="66"/>
       <c r="J92" s="45">
         <f t="shared" si="0"/>
@@ -6252,26 +6321,26 @@
         <v>0</v>
       </c>
       <c r="O92" s="176"/>
-      <c r="P92" s="216"/>
+      <c r="P92" s="208"/>
       <c r="Q92" s="176"/>
       <c r="R92" s="139"/>
-      <c r="S92" s="193"/>
+      <c r="S92" s="192"/>
       <c r="T92" s="54"/>
       <c r="U92" s="55"/>
       <c r="V92" s="56"/>
     </row>
-    <row r="93" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="218"/>
+    <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="210"/>
       <c r="B93" s="137"/>
-      <c r="C93" s="211"/>
-      <c r="D93" s="219"/>
-      <c r="E93" s="40">
+      <c r="C93" s="203"/>
+      <c r="D93" s="211"/>
+      <c r="E93" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="66"/>
       <c r="G93" s="127"/>
-      <c r="H93" s="220"/>
+      <c r="H93" s="212"/>
       <c r="I93" s="66"/>
       <c r="J93" s="45">
         <f t="shared" si="0"/>
@@ -6284,27 +6353,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="404"/>
-      <c r="P93" s="406"/>
+      <c r="O93" s="407"/>
+      <c r="P93" s="425"/>
       <c r="Q93" s="176"/>
       <c r="R93" s="139"/>
-      <c r="S93" s="193"/>
+      <c r="S93" s="192"/>
       <c r="T93" s="54"/>
       <c r="U93" s="55"/>
       <c r="V93" s="56"/>
     </row>
-    <row r="94" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="218"/>
+    <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="210"/>
       <c r="B94" s="137"/>
-      <c r="C94" s="211"/>
-      <c r="D94" s="219"/>
-      <c r="E94" s="40">
+      <c r="C94" s="203"/>
+      <c r="D94" s="211"/>
+      <c r="E94" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F94" s="66"/>
       <c r="G94" s="127"/>
-      <c r="H94" s="220"/>
+      <c r="H94" s="212"/>
       <c r="I94" s="66"/>
       <c r="J94" s="45">
         <f t="shared" si="0"/>
@@ -6317,27 +6386,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="405"/>
-      <c r="P94" s="407"/>
+      <c r="O94" s="420"/>
+      <c r="P94" s="426"/>
       <c r="Q94" s="176"/>
       <c r="R94" s="139"/>
-      <c r="S94" s="193"/>
+      <c r="S94" s="192"/>
       <c r="T94" s="54"/>
       <c r="U94" s="55"/>
       <c r="V94" s="56"/>
     </row>
-    <row r="95" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="137"/>
       <c r="B95" s="137"/>
-      <c r="C95" s="219"/>
-      <c r="D95" s="219"/>
-      <c r="E95" s="40">
+      <c r="C95" s="211"/>
+      <c r="D95" s="211"/>
+      <c r="E95" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="66"/>
       <c r="G95" s="127"/>
-      <c r="H95" s="220"/>
+      <c r="H95" s="212"/>
       <c r="I95" s="66"/>
       <c r="J95" s="45">
         <f t="shared" si="0"/>
@@ -6351,26 +6420,26 @@
         <v>0</v>
       </c>
       <c r="O95" s="176"/>
-      <c r="P95" s="216"/>
+      <c r="P95" s="208"/>
       <c r="Q95" s="176"/>
       <c r="R95" s="139"/>
-      <c r="S95" s="193"/>
+      <c r="S95" s="192"/>
       <c r="T95" s="54"/>
       <c r="U95" s="55"/>
       <c r="V95" s="56"/>
     </row>
-    <row r="96" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="137"/>
       <c r="B96" s="137"/>
-      <c r="C96" s="219"/>
-      <c r="D96" s="219"/>
-      <c r="E96" s="40">
+      <c r="C96" s="211"/>
+      <c r="D96" s="211"/>
+      <c r="E96" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="127"/>
-      <c r="H96" s="220"/>
+      <c r="H96" s="212"/>
       <c r="I96" s="66"/>
       <c r="J96" s="45">
         <f t="shared" si="0"/>
@@ -6384,20 +6453,20 @@
         <v>0</v>
       </c>
       <c r="O96" s="176"/>
-      <c r="P96" s="216"/>
+      <c r="P96" s="208"/>
       <c r="Q96" s="176"/>
       <c r="R96" s="139"/>
-      <c r="S96" s="193"/>
+      <c r="S96" s="192"/>
       <c r="T96" s="54"/>
       <c r="U96" s="55"/>
       <c r="V96" s="56"/>
     </row>
-    <row r="97" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="123"/>
       <c r="B97" s="137"/>
-      <c r="C97" s="229"/>
-      <c r="D97" s="229"/>
-      <c r="E97" s="40">
+      <c r="C97" s="221"/>
+      <c r="D97" s="221"/>
+      <c r="E97" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6417,20 +6486,20 @@
         <v>0</v>
       </c>
       <c r="O97" s="176"/>
-      <c r="P97" s="216"/>
+      <c r="P97" s="208"/>
       <c r="Q97" s="176"/>
       <c r="R97" s="139"/>
-      <c r="S97" s="193"/>
+      <c r="S97" s="192"/>
       <c r="T97" s="54"/>
       <c r="U97" s="55"/>
       <c r="V97" s="56"/>
     </row>
-    <row r="98" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="190"/>
-      <c r="B98" s="218"/>
-      <c r="C98" s="224"/>
-      <c r="D98" s="224"/>
-      <c r="E98" s="40">
+    <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="189"/>
+      <c r="B98" s="210"/>
+      <c r="C98" s="216"/>
+      <c r="D98" s="216"/>
+      <c r="E98" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6450,20 +6519,20 @@
         <v>0</v>
       </c>
       <c r="O98" s="176"/>
-      <c r="P98" s="216"/>
+      <c r="P98" s="208"/>
       <c r="Q98" s="176"/>
       <c r="R98" s="139"/>
-      <c r="S98" s="193"/>
+      <c r="S98" s="192"/>
       <c r="T98" s="54"/>
       <c r="U98" s="55"/>
       <c r="V98" s="56"/>
     </row>
-    <row r="99" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="190"/>
-      <c r="B99" s="218"/>
-      <c r="C99" s="229"/>
-      <c r="D99" s="229"/>
-      <c r="E99" s="40">
+    <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="189"/>
+      <c r="B99" s="210"/>
+      <c r="C99" s="221"/>
+      <c r="D99" s="221"/>
+      <c r="E99" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6483,20 +6552,20 @@
         <v>0</v>
       </c>
       <c r="O99" s="176"/>
-      <c r="P99" s="216"/>
+      <c r="P99" s="208"/>
       <c r="Q99" s="176"/>
       <c r="R99" s="139"/>
-      <c r="S99" s="193"/>
+      <c r="S99" s="192"/>
       <c r="T99" s="54"/>
       <c r="U99" s="55"/>
       <c r="V99" s="56"/>
     </row>
-    <row r="100" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="190"/>
-      <c r="B100" s="218"/>
-      <c r="C100" s="229"/>
-      <c r="D100" s="229"/>
-      <c r="E100" s="40">
+    <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="189"/>
+      <c r="B100" s="210"/>
+      <c r="C100" s="221"/>
+      <c r="D100" s="221"/>
+      <c r="E100" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6516,20 +6585,20 @@
         <v>0</v>
       </c>
       <c r="O100" s="176"/>
-      <c r="P100" s="216"/>
+      <c r="P100" s="208"/>
       <c r="Q100" s="176"/>
       <c r="R100" s="139"/>
-      <c r="S100" s="193"/>
+      <c r="S100" s="192"/>
       <c r="T100" s="54"/>
       <c r="U100" s="55"/>
       <c r="V100" s="56"/>
     </row>
-    <row r="101" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="128"/>
       <c r="B101" s="137"/>
-      <c r="C101" s="229"/>
-      <c r="D101" s="229"/>
-      <c r="E101" s="40">
+      <c r="C101" s="221"/>
+      <c r="D101" s="221"/>
+      <c r="E101" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6549,20 +6618,20 @@
         <v>0</v>
       </c>
       <c r="O101" s="176"/>
-      <c r="P101" s="216"/>
+      <c r="P101" s="208"/>
       <c r="Q101" s="176"/>
       <c r="R101" s="139"/>
-      <c r="S101" s="193"/>
-      <c r="T101" s="193"/>
+      <c r="S101" s="192"/>
+      <c r="T101" s="192"/>
       <c r="U101" s="55"/>
       <c r="V101" s="56"/>
     </row>
-    <row r="102" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="128"/>
       <c r="B102" s="137"/>
-      <c r="C102" s="229"/>
-      <c r="D102" s="229"/>
-      <c r="E102" s="40">
+      <c r="C102" s="221"/>
+      <c r="D102" s="221"/>
+      <c r="E102" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6582,20 +6651,20 @@
         <v>0</v>
       </c>
       <c r="O102" s="176"/>
-      <c r="P102" s="216"/>
+      <c r="P102" s="208"/>
       <c r="Q102" s="176"/>
       <c r="R102" s="139"/>
-      <c r="S102" s="193"/>
-      <c r="T102" s="193"/>
+      <c r="S102" s="192"/>
+      <c r="T102" s="192"/>
       <c r="U102" s="55"/>
       <c r="V102" s="56"/>
     </row>
-    <row r="103" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="128"/>
       <c r="B103" s="137"/>
-      <c r="C103" s="229"/>
-      <c r="D103" s="229"/>
-      <c r="E103" s="40">
+      <c r="C103" s="221"/>
+      <c r="D103" s="221"/>
+      <c r="E103" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6615,20 +6684,20 @@
         <v>0</v>
       </c>
       <c r="O103" s="176"/>
-      <c r="P103" s="216"/>
+      <c r="P103" s="208"/>
       <c r="Q103" s="176"/>
       <c r="R103" s="139"/>
-      <c r="S103" s="193"/>
-      <c r="T103" s="193"/>
+      <c r="S103" s="192"/>
+      <c r="T103" s="192"/>
       <c r="U103" s="55"/>
       <c r="V103" s="56"/>
     </row>
-    <row r="104" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="137"/>
-      <c r="B104" s="230"/>
-      <c r="C104" s="229"/>
-      <c r="D104" s="229"/>
-      <c r="E104" s="40">
+      <c r="B104" s="222"/>
+      <c r="C104" s="221"/>
+      <c r="D104" s="221"/>
+      <c r="E104" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6648,20 +6717,20 @@
         <v>0</v>
       </c>
       <c r="O104" s="176"/>
-      <c r="P104" s="216"/>
+      <c r="P104" s="208"/>
       <c r="Q104" s="176"/>
       <c r="R104" s="139"/>
-      <c r="S104" s="193"/>
+      <c r="S104" s="192"/>
       <c r="T104" s="54"/>
       <c r="U104" s="55"/>
       <c r="V104" s="56"/>
     </row>
-    <row r="105" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="137"/>
       <c r="B105" s="137"/>
-      <c r="C105" s="229"/>
-      <c r="D105" s="229"/>
-      <c r="E105" s="40">
+      <c r="C105" s="221"/>
+      <c r="D105" s="221"/>
+      <c r="E105" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6681,20 +6750,20 @@
         <v>0</v>
       </c>
       <c r="O105" s="176"/>
-      <c r="P105" s="216"/>
+      <c r="P105" s="208"/>
       <c r="Q105" s="176"/>
       <c r="R105" s="139"/>
-      <c r="S105" s="193"/>
+      <c r="S105" s="192"/>
       <c r="T105" s="54"/>
       <c r="U105" s="55"/>
       <c r="V105" s="56"/>
     </row>
-    <row r="106" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="137"/>
       <c r="B106" s="137"/>
-      <c r="C106" s="229"/>
-      <c r="D106" s="229"/>
-      <c r="E106" s="40">
+      <c r="C106" s="221"/>
+      <c r="D106" s="221"/>
+      <c r="E106" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6714,20 +6783,20 @@
         <v>0</v>
       </c>
       <c r="O106" s="176"/>
-      <c r="P106" s="216"/>
+      <c r="P106" s="208"/>
       <c r="Q106" s="176"/>
       <c r="R106" s="139"/>
-      <c r="S106" s="193"/>
+      <c r="S106" s="192"/>
       <c r="T106" s="54"/>
       <c r="U106" s="55"/>
       <c r="V106" s="56"/>
     </row>
-    <row r="107" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="190"/>
+    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="189"/>
       <c r="B107" s="137"/>
-      <c r="C107" s="229"/>
-      <c r="D107" s="229"/>
-      <c r="E107" s="40">
+      <c r="C107" s="221"/>
+      <c r="D107" s="221"/>
+      <c r="E107" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6747,26 +6816,26 @@
         <v>0</v>
       </c>
       <c r="O107" s="176"/>
-      <c r="P107" s="216"/>
+      <c r="P107" s="208"/>
       <c r="Q107" s="176"/>
       <c r="R107" s="139"/>
-      <c r="S107" s="193"/>
+      <c r="S107" s="192"/>
       <c r="T107" s="54"/>
       <c r="U107" s="55"/>
       <c r="V107" s="56"/>
     </row>
-    <row r="108" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="137"/>
-      <c r="B108" s="137"/>
-      <c r="C108" s="229"/>
-      <c r="D108" s="229"/>
-      <c r="E108" s="40">
+    <row r="108" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="181"/>
+      <c r="B108" s="181"/>
+      <c r="C108" s="433"/>
+      <c r="D108" s="433"/>
+      <c r="E108" s="434">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F108" s="66"/>
-      <c r="G108" s="127"/>
-      <c r="H108" s="65"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="435"/>
+      <c r="H108" s="436"/>
       <c r="I108" s="66"/>
       <c r="J108" s="45">
         <f t="shared" si="0"/>
@@ -6780,10 +6849,10 @@
         <v>0</v>
       </c>
       <c r="O108" s="176"/>
-      <c r="P108" s="216"/>
+      <c r="P108" s="208"/>
       <c r="Q108" s="176"/>
       <c r="R108" s="139"/>
-      <c r="S108" s="193"/>
+      <c r="S108" s="192"/>
       <c r="T108" s="54"/>
       <c r="U108" s="55"/>
       <c r="V108" s="56"/>
@@ -6791,8 +6860,8 @@
     <row r="109" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="137"/>
       <c r="B109" s="137"/>
-      <c r="C109" s="229"/>
-      <c r="D109" s="229"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="221"/>
       <c r="E109" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6813,19 +6882,19 @@
         <v>0</v>
       </c>
       <c r="O109" s="176"/>
-      <c r="P109" s="216"/>
+      <c r="P109" s="208"/>
       <c r="Q109" s="176"/>
       <c r="R109" s="139"/>
-      <c r="S109" s="193"/>
+      <c r="S109" s="192"/>
       <c r="T109" s="54"/>
       <c r="U109" s="55"/>
       <c r="V109" s="56"/>
     </row>
     <row r="110" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="218"/>
+      <c r="A110" s="210"/>
       <c r="B110" s="137"/>
-      <c r="C110" s="229"/>
-      <c r="D110" s="229"/>
+      <c r="C110" s="221"/>
+      <c r="D110" s="221"/>
       <c r="E110" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6846,19 +6915,19 @@
         <v>0</v>
       </c>
       <c r="O110" s="176"/>
-      <c r="P110" s="216"/>
+      <c r="P110" s="208"/>
       <c r="Q110" s="176"/>
       <c r="R110" s="139"/>
-      <c r="S110" s="193"/>
+      <c r="S110" s="192"/>
       <c r="T110" s="54"/>
       <c r="U110" s="55"/>
       <c r="V110" s="56"/>
     </row>
     <row r="111" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="218"/>
+      <c r="A111" s="210"/>
       <c r="B111" s="137"/>
-      <c r="C111" s="229"/>
-      <c r="D111" s="229"/>
+      <c r="C111" s="221"/>
+      <c r="D111" s="221"/>
       <c r="E111" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6879,19 +6948,19 @@
         <v>0</v>
       </c>
       <c r="O111" s="176"/>
-      <c r="P111" s="216"/>
+      <c r="P111" s="208"/>
       <c r="Q111" s="176"/>
       <c r="R111" s="139"/>
-      <c r="S111" s="193"/>
+      <c r="S111" s="192"/>
       <c r="T111" s="54"/>
       <c r="U111" s="55"/>
       <c r="V111" s="56"/>
     </row>
     <row r="112" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="218"/>
+      <c r="A112" s="210"/>
       <c r="B112" s="137"/>
-      <c r="C112" s="229"/>
-      <c r="D112" s="229"/>
+      <c r="C112" s="221"/>
+      <c r="D112" s="221"/>
       <c r="E112" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6912,10 +6981,10 @@
         <v>0</v>
       </c>
       <c r="O112" s="176"/>
-      <c r="P112" s="216"/>
+      <c r="P112" s="208"/>
       <c r="Q112" s="176"/>
       <c r="R112" s="139"/>
-      <c r="S112" s="193"/>
+      <c r="S112" s="192"/>
       <c r="T112" s="54"/>
       <c r="U112" s="55"/>
       <c r="V112" s="56"/>
@@ -6923,8 +6992,8 @@
     <row r="113" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="137"/>
       <c r="B113" s="137"/>
-      <c r="C113" s="229"/>
-      <c r="D113" s="229"/>
+      <c r="C113" s="221"/>
+      <c r="D113" s="221"/>
       <c r="E113" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6945,19 +7014,19 @@
         <v>0</v>
       </c>
       <c r="O113" s="176"/>
-      <c r="P113" s="216"/>
+      <c r="P113" s="208"/>
       <c r="Q113" s="176"/>
       <c r="R113" s="139"/>
-      <c r="S113" s="193"/>
+      <c r="S113" s="192"/>
       <c r="T113" s="54"/>
       <c r="U113" s="55"/>
       <c r="V113" s="56"/>
     </row>
     <row r="114" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="198"/>
+      <c r="A114" s="194"/>
       <c r="B114" s="137"/>
-      <c r="C114" s="229"/>
-      <c r="D114" s="229"/>
+      <c r="C114" s="221"/>
+      <c r="D114" s="221"/>
       <c r="E114" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6978,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="O114" s="176"/>
-      <c r="P114" s="216"/>
+      <c r="P114" s="208"/>
       <c r="Q114" s="176"/>
       <c r="R114" s="139"/>
-      <c r="S114" s="193"/>
+      <c r="S114" s="192"/>
       <c r="T114" s="54"/>
       <c r="U114" s="55"/>
       <c r="V114" s="56"/>
@@ -6989,8 +7058,8 @@
     <row r="115" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="128"/>
       <c r="B115" s="137"/>
-      <c r="C115" s="229"/>
-      <c r="D115" s="229"/>
+      <c r="C115" s="221"/>
+      <c r="D115" s="221"/>
       <c r="E115" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7011,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="O115" s="176"/>
-      <c r="P115" s="216"/>
+      <c r="P115" s="208"/>
       <c r="Q115" s="176"/>
       <c r="R115" s="139"/>
-      <c r="S115" s="193"/>
+      <c r="S115" s="192"/>
       <c r="T115" s="54"/>
       <c r="U115" s="55"/>
       <c r="V115" s="56"/>
@@ -7022,8 +7091,8 @@
     <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="128"/>
       <c r="B116" s="137"/>
-      <c r="C116" s="229"/>
-      <c r="D116" s="229"/>
+      <c r="C116" s="221"/>
+      <c r="D116" s="221"/>
       <c r="E116" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7044,19 +7113,19 @@
         <v>0</v>
       </c>
       <c r="O116" s="176"/>
-      <c r="P116" s="216"/>
+      <c r="P116" s="208"/>
       <c r="Q116" s="176"/>
       <c r="R116" s="139"/>
-      <c r="S116" s="193"/>
+      <c r="S116" s="192"/>
       <c r="T116" s="54"/>
       <c r="U116" s="55"/>
       <c r="V116" s="56"/>
     </row>
     <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="231"/>
+      <c r="A117" s="223"/>
       <c r="B117" s="137"/>
-      <c r="C117" s="229"/>
-      <c r="D117" s="229"/>
+      <c r="C117" s="221"/>
+      <c r="D117" s="221"/>
       <c r="E117" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7077,19 +7146,19 @@
         <v>0</v>
       </c>
       <c r="O117" s="176"/>
-      <c r="P117" s="216"/>
+      <c r="P117" s="208"/>
       <c r="Q117" s="176"/>
       <c r="R117" s="139"/>
-      <c r="S117" s="193"/>
+      <c r="S117" s="192"/>
       <c r="T117" s="54"/>
       <c r="U117" s="55"/>
       <c r="V117" s="56"/>
     </row>
     <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="232"/>
+      <c r="A118" s="224"/>
       <c r="B118" s="137"/>
-      <c r="C118" s="229"/>
-      <c r="D118" s="229"/>
+      <c r="C118" s="221"/>
+      <c r="D118" s="221"/>
       <c r="E118" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7110,19 +7179,19 @@
         <v>0</v>
       </c>
       <c r="O118" s="176"/>
-      <c r="P118" s="216"/>
+      <c r="P118" s="208"/>
       <c r="Q118" s="176"/>
       <c r="R118" s="139"/>
-      <c r="S118" s="193"/>
+      <c r="S118" s="192"/>
       <c r="T118" s="54"/>
       <c r="U118" s="55"/>
       <c r="V118" s="56"/>
     </row>
     <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="233"/>
+      <c r="A119" s="225"/>
       <c r="B119" s="137"/>
-      <c r="C119" s="229"/>
-      <c r="D119" s="229"/>
+      <c r="C119" s="221"/>
+      <c r="D119" s="221"/>
       <c r="E119" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7143,19 +7212,19 @@
         <v>0</v>
       </c>
       <c r="O119" s="176"/>
-      <c r="P119" s="216"/>
+      <c r="P119" s="208"/>
       <c r="Q119" s="176"/>
       <c r="R119" s="139"/>
-      <c r="S119" s="193"/>
+      <c r="S119" s="192"/>
       <c r="T119" s="54"/>
       <c r="U119" s="55"/>
       <c r="V119" s="56"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="233"/>
+      <c r="A120" s="225"/>
       <c r="B120" s="137"/>
-      <c r="C120" s="227"/>
-      <c r="D120" s="227"/>
+      <c r="C120" s="219"/>
+      <c r="D120" s="219"/>
       <c r="E120" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7176,26 +7245,26 @@
         <v>0</v>
       </c>
       <c r="O120" s="176"/>
-      <c r="P120" s="216"/>
+      <c r="P120" s="208"/>
       <c r="Q120" s="176"/>
       <c r="R120" s="139"/>
-      <c r="S120" s="193"/>
+      <c r="S120" s="192"/>
       <c r="T120" s="54"/>
       <c r="U120" s="55"/>
       <c r="V120" s="56"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="232"/>
+      <c r="A121" s="224"/>
       <c r="B121" s="137"/>
-      <c r="C121" s="229"/>
-      <c r="D121" s="229"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="221"/>
       <c r="E121" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F121" s="66"/>
       <c r="G121" s="127"/>
-      <c r="H121" s="234"/>
+      <c r="H121" s="226"/>
       <c r="I121" s="66"/>
       <c r="J121" s="45">
         <f t="shared" si="0"/>
@@ -7209,26 +7278,26 @@
         <v>0</v>
       </c>
       <c r="O121" s="176"/>
-      <c r="P121" s="216"/>
+      <c r="P121" s="208"/>
       <c r="Q121" s="176"/>
       <c r="R121" s="139"/>
-      <c r="S121" s="193"/>
+      <c r="S121" s="192"/>
       <c r="T121" s="54"/>
       <c r="U121" s="55"/>
       <c r="V121" s="56"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="232"/>
+      <c r="A122" s="224"/>
       <c r="B122" s="137"/>
-      <c r="C122" s="227"/>
-      <c r="D122" s="227"/>
+      <c r="C122" s="219"/>
+      <c r="D122" s="219"/>
       <c r="E122" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F122" s="66"/>
       <c r="G122" s="127"/>
-      <c r="H122" s="234"/>
+      <c r="H122" s="226"/>
       <c r="I122" s="66"/>
       <c r="J122" s="45">
         <f t="shared" si="0"/>
@@ -7242,26 +7311,26 @@
         <v>0</v>
       </c>
       <c r="O122" s="176"/>
-      <c r="P122" s="216"/>
+      <c r="P122" s="208"/>
       <c r="Q122" s="176"/>
       <c r="R122" s="139"/>
-      <c r="S122" s="193"/>
+      <c r="S122" s="192"/>
       <c r="T122" s="54"/>
       <c r="U122" s="55"/>
       <c r="V122" s="56"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="232"/>
+      <c r="A123" s="224"/>
       <c r="B123" s="137"/>
-      <c r="C123" s="229"/>
-      <c r="D123" s="229"/>
+      <c r="C123" s="221"/>
+      <c r="D123" s="221"/>
       <c r="E123" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F123" s="66"/>
       <c r="G123" s="127"/>
-      <c r="H123" s="234"/>
+      <c r="H123" s="226"/>
       <c r="I123" s="66"/>
       <c r="J123" s="45">
         <f t="shared" si="0"/>
@@ -7275,26 +7344,26 @@
         <v>0</v>
       </c>
       <c r="O123" s="176"/>
-      <c r="P123" s="216"/>
+      <c r="P123" s="208"/>
       <c r="Q123" s="176"/>
       <c r="R123" s="139"/>
-      <c r="S123" s="193"/>
+      <c r="S123" s="192"/>
       <c r="T123" s="54"/>
       <c r="U123" s="55"/>
       <c r="V123" s="56"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="232"/>
+      <c r="A124" s="224"/>
       <c r="B124" s="137"/>
-      <c r="C124" s="224"/>
-      <c r="D124" s="224"/>
+      <c r="C124" s="216"/>
+      <c r="D124" s="216"/>
       <c r="E124" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F124" s="66"/>
       <c r="G124" s="127"/>
-      <c r="H124" s="234"/>
+      <c r="H124" s="226"/>
       <c r="I124" s="66"/>
       <c r="J124" s="45">
         <f t="shared" si="0"/>
@@ -7308,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="O124" s="176"/>
-      <c r="P124" s="197"/>
+      <c r="P124" s="193"/>
       <c r="Q124" s="176"/>
       <c r="R124" s="139"/>
-      <c r="S124" s="193"/>
+      <c r="S124" s="192"/>
       <c r="T124" s="54"/>
       <c r="U124" s="55"/>
       <c r="V124" s="56"/>
@@ -7319,15 +7388,15 @@
     <row r="125" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="137"/>
       <c r="B125" s="137"/>
-      <c r="C125" s="229"/>
-      <c r="D125" s="229"/>
+      <c r="C125" s="221"/>
+      <c r="D125" s="221"/>
       <c r="E125" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F125" s="66"/>
       <c r="G125" s="127"/>
-      <c r="H125" s="235"/>
+      <c r="H125" s="227"/>
       <c r="I125" s="66"/>
       <c r="J125" s="45">
         <f t="shared" si="0"/>
@@ -7341,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="O125" s="176"/>
-      <c r="P125" s="236"/>
+      <c r="P125" s="228"/>
       <c r="Q125" s="176"/>
-      <c r="R125" s="237"/>
-      <c r="S125" s="193"/>
+      <c r="R125" s="229"/>
+      <c r="S125" s="192"/>
       <c r="T125" s="54"/>
       <c r="U125" s="55"/>
       <c r="V125" s="56"/>
@@ -7352,15 +7421,15 @@
     <row r="126" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="137"/>
       <c r="B126" s="137"/>
-      <c r="C126" s="229"/>
-      <c r="D126" s="229"/>
+      <c r="C126" s="221"/>
+      <c r="D126" s="221"/>
       <c r="E126" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F126" s="66"/>
       <c r="G126" s="127"/>
-      <c r="H126" s="235"/>
+      <c r="H126" s="227"/>
       <c r="I126" s="66"/>
       <c r="J126" s="45">
         <f t="shared" si="0"/>
@@ -7374,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="O126" s="176"/>
-      <c r="P126" s="236"/>
+      <c r="P126" s="228"/>
       <c r="Q126" s="176"/>
-      <c r="R126" s="237"/>
-      <c r="S126" s="193"/>
+      <c r="R126" s="229"/>
+      <c r="S126" s="192"/>
       <c r="T126" s="54"/>
       <c r="U126" s="55"/>
       <c r="V126" s="56"/>
@@ -7385,15 +7454,15 @@
     <row r="127" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="137"/>
       <c r="B127" s="137"/>
-      <c r="C127" s="229"/>
-      <c r="D127" s="229"/>
+      <c r="C127" s="221"/>
+      <c r="D127" s="221"/>
       <c r="E127" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F127" s="66"/>
       <c r="G127" s="127"/>
-      <c r="H127" s="235"/>
+      <c r="H127" s="227"/>
       <c r="I127" s="66"/>
       <c r="J127" s="45">
         <f t="shared" si="0"/>
@@ -7407,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="O127" s="176"/>
-      <c r="P127" s="236"/>
+      <c r="P127" s="228"/>
       <c r="Q127" s="176"/>
-      <c r="R127" s="237"/>
-      <c r="S127" s="193"/>
+      <c r="R127" s="229"/>
+      <c r="S127" s="192"/>
       <c r="T127" s="54"/>
       <c r="U127" s="55"/>
       <c r="V127" s="56"/>
@@ -7418,15 +7487,15 @@
     <row r="128" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="137"/>
       <c r="B128" s="137"/>
-      <c r="C128" s="229"/>
-      <c r="D128" s="229"/>
+      <c r="C128" s="221"/>
+      <c r="D128" s="221"/>
       <c r="E128" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="127"/>
-      <c r="H128" s="235"/>
+      <c r="H128" s="227"/>
       <c r="I128" s="66"/>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -7440,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="O128" s="176"/>
-      <c r="P128" s="236"/>
+      <c r="P128" s="228"/>
       <c r="Q128" s="176"/>
-      <c r="R128" s="237"/>
-      <c r="S128" s="193"/>
+      <c r="R128" s="229"/>
+      <c r="S128" s="192"/>
       <c r="T128" s="54"/>
       <c r="U128" s="55"/>
       <c r="V128" s="56"/>
@@ -7451,15 +7520,15 @@
     <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="123"/>
       <c r="B129" s="137"/>
-      <c r="C129" s="229"/>
-      <c r="D129" s="229"/>
+      <c r="C129" s="221"/>
+      <c r="D129" s="221"/>
       <c r="E129" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="127"/>
-      <c r="H129" s="238"/>
+      <c r="H129" s="230"/>
       <c r="I129" s="66"/>
       <c r="J129" s="45">
         <f t="shared" si="0"/>
@@ -7473,10 +7542,10 @@
         <v>0</v>
       </c>
       <c r="O129" s="108"/>
-      <c r="P129" s="239"/>
-      <c r="Q129" s="240"/>
-      <c r="R129" s="237"/>
-      <c r="S129" s="193"/>
+      <c r="P129" s="231"/>
+      <c r="Q129" s="232"/>
+      <c r="R129" s="229"/>
+      <c r="S129" s="192"/>
       <c r="T129" s="54"/>
       <c r="U129" s="55"/>
       <c r="V129" s="56"/>
@@ -7484,15 +7553,15 @@
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="137"/>
       <c r="B130" s="137"/>
-      <c r="C130" s="229"/>
-      <c r="D130" s="229"/>
+      <c r="C130" s="221"/>
+      <c r="D130" s="221"/>
       <c r="E130" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F130" s="66"/>
       <c r="G130" s="127"/>
-      <c r="H130" s="238"/>
+      <c r="H130" s="230"/>
       <c r="I130" s="66"/>
       <c r="J130" s="45">
         <f t="shared" si="0"/>
@@ -7506,10 +7575,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="108"/>
-      <c r="P130" s="239"/>
-      <c r="Q130" s="240"/>
-      <c r="R130" s="237"/>
-      <c r="S130" s="193"/>
+      <c r="P130" s="231"/>
+      <c r="Q130" s="232"/>
+      <c r="R130" s="229"/>
+      <c r="S130" s="192"/>
       <c r="T130" s="54"/>
       <c r="U130" s="55"/>
       <c r="V130" s="56"/>
@@ -7517,15 +7586,15 @@
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="128"/>
       <c r="B131" s="137"/>
-      <c r="C131" s="241"/>
-      <c r="D131" s="241"/>
+      <c r="C131" s="233"/>
+      <c r="D131" s="233"/>
       <c r="E131" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F131" s="66"/>
       <c r="G131" s="127"/>
-      <c r="H131" s="238"/>
+      <c r="H131" s="230"/>
       <c r="I131" s="66"/>
       <c r="J131" s="45">
         <f t="shared" si="0"/>
@@ -7539,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="O131" s="108"/>
-      <c r="P131" s="239"/>
-      <c r="Q131" s="240"/>
-      <c r="R131" s="237"/>
-      <c r="S131" s="193"/>
+      <c r="P131" s="231"/>
+      <c r="Q131" s="232"/>
+      <c r="R131" s="229"/>
+      <c r="S131" s="192"/>
       <c r="T131" s="54"/>
       <c r="U131" s="55"/>
       <c r="V131" s="56"/>
@@ -7550,15 +7619,15 @@
     <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="128"/>
       <c r="B132" s="137"/>
-      <c r="C132" s="241"/>
-      <c r="D132" s="241"/>
+      <c r="C132" s="233"/>
+      <c r="D132" s="233"/>
       <c r="E132" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F132" s="66"/>
       <c r="G132" s="127"/>
-      <c r="H132" s="238"/>
+      <c r="H132" s="230"/>
       <c r="I132" s="66"/>
       <c r="J132" s="45">
         <f t="shared" si="0"/>
@@ -7572,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="O132" s="108"/>
-      <c r="P132" s="239"/>
-      <c r="Q132" s="240"/>
-      <c r="R132" s="237"/>
-      <c r="S132" s="193"/>
+      <c r="P132" s="231"/>
+      <c r="Q132" s="232"/>
+      <c r="R132" s="229"/>
+      <c r="S132" s="192"/>
       <c r="T132" s="54"/>
       <c r="U132" s="55"/>
       <c r="V132" s="56"/>
@@ -7583,15 +7652,15 @@
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="128"/>
       <c r="B133" s="137"/>
-      <c r="C133" s="241"/>
-      <c r="D133" s="241"/>
+      <c r="C133" s="233"/>
+      <c r="D133" s="233"/>
       <c r="E133" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F133" s="66"/>
       <c r="G133" s="127"/>
-      <c r="H133" s="238"/>
+      <c r="H133" s="230"/>
       <c r="I133" s="66"/>
       <c r="J133" s="45">
         <f t="shared" si="0"/>
@@ -7605,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="O133" s="108"/>
-      <c r="P133" s="239"/>
-      <c r="Q133" s="240"/>
-      <c r="R133" s="237"/>
-      <c r="S133" s="193"/>
+      <c r="P133" s="231"/>
+      <c r="Q133" s="232"/>
+      <c r="R133" s="229"/>
+      <c r="S133" s="192"/>
       <c r="T133" s="54"/>
       <c r="U133" s="55"/>
       <c r="V133" s="56"/>
@@ -7616,15 +7685,15 @@
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="128"/>
       <c r="B134" s="137"/>
-      <c r="C134" s="241"/>
-      <c r="D134" s="241"/>
+      <c r="C134" s="233"/>
+      <c r="D134" s="233"/>
       <c r="E134" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F134" s="66"/>
       <c r="G134" s="127"/>
-      <c r="H134" s="238"/>
+      <c r="H134" s="230"/>
       <c r="I134" s="66"/>
       <c r="J134" s="45">
         <f t="shared" si="0"/>
@@ -7638,10 +7707,10 @@
         <v>0</v>
       </c>
       <c r="O134" s="108"/>
-      <c r="P134" s="239"/>
-      <c r="Q134" s="240"/>
-      <c r="R134" s="237"/>
-      <c r="S134" s="193"/>
+      <c r="P134" s="231"/>
+      <c r="Q134" s="232"/>
+      <c r="R134" s="229"/>
+      <c r="S134" s="192"/>
       <c r="T134" s="54"/>
       <c r="U134" s="55"/>
       <c r="V134" s="56"/>
@@ -7649,15 +7718,15 @@
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="128"/>
       <c r="B135" s="137"/>
-      <c r="C135" s="241"/>
-      <c r="D135" s="241"/>
+      <c r="C135" s="233"/>
+      <c r="D135" s="233"/>
       <c r="E135" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F135" s="66"/>
       <c r="G135" s="127"/>
-      <c r="H135" s="238"/>
+      <c r="H135" s="230"/>
       <c r="I135" s="66"/>
       <c r="J135" s="45">
         <f t="shared" si="0"/>
@@ -7671,26 +7740,26 @@
         <v>0</v>
       </c>
       <c r="O135" s="108"/>
-      <c r="P135" s="239"/>
-      <c r="Q135" s="240"/>
-      <c r="R135" s="237"/>
-      <c r="S135" s="193"/>
+      <c r="P135" s="231"/>
+      <c r="Q135" s="232"/>
+      <c r="R135" s="229"/>
+      <c r="S135" s="192"/>
       <c r="T135" s="54"/>
       <c r="U135" s="55"/>
       <c r="V135" s="56"/>
     </row>
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="232"/>
+      <c r="A136" s="224"/>
       <c r="B136" s="137"/>
-      <c r="C136" s="229"/>
-      <c r="D136" s="229"/>
+      <c r="C136" s="221"/>
+      <c r="D136" s="221"/>
       <c r="E136" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F136" s="66"/>
       <c r="G136" s="127"/>
-      <c r="H136" s="238"/>
+      <c r="H136" s="230"/>
       <c r="I136" s="66"/>
       <c r="J136" s="45">
         <f t="shared" si="0"/>
@@ -7704,26 +7773,26 @@
         <v>0</v>
       </c>
       <c r="O136" s="108"/>
-      <c r="P136" s="239"/>
-      <c r="Q136" s="240"/>
-      <c r="R136" s="237"/>
-      <c r="S136" s="193"/>
+      <c r="P136" s="231"/>
+      <c r="Q136" s="232"/>
+      <c r="R136" s="229"/>
+      <c r="S136" s="192"/>
       <c r="T136" s="54"/>
       <c r="U136" s="55"/>
       <c r="V136" s="56"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="242"/>
+      <c r="A137" s="234"/>
       <c r="B137" s="137"/>
-      <c r="C137" s="222"/>
-      <c r="D137" s="222"/>
+      <c r="C137" s="214"/>
+      <c r="D137" s="214"/>
       <c r="E137" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F137" s="66"/>
       <c r="G137" s="127"/>
-      <c r="H137" s="234"/>
+      <c r="H137" s="226"/>
       <c r="I137" s="66"/>
       <c r="J137" s="45">
         <f t="shared" si="0"/>
@@ -7737,26 +7806,26 @@
         <v>0</v>
       </c>
       <c r="O137" s="108"/>
-      <c r="P137" s="239"/>
-      <c r="Q137" s="240"/>
-      <c r="R137" s="237"/>
-      <c r="S137" s="193"/>
+      <c r="P137" s="231"/>
+      <c r="Q137" s="232"/>
+      <c r="R137" s="229"/>
+      <c r="S137" s="192"/>
       <c r="T137" s="54"/>
       <c r="U137" s="55"/>
       <c r="V137" s="56"/>
     </row>
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="242"/>
+      <c r="A138" s="234"/>
       <c r="B138" s="137"/>
-      <c r="C138" s="222"/>
-      <c r="D138" s="222"/>
+      <c r="C138" s="214"/>
+      <c r="D138" s="214"/>
       <c r="E138" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F138" s="66"/>
       <c r="G138" s="127"/>
-      <c r="H138" s="234"/>
+      <c r="H138" s="226"/>
       <c r="I138" s="66"/>
       <c r="J138" s="45">
         <f t="shared" si="0"/>
@@ -7770,26 +7839,26 @@
         <v>0</v>
       </c>
       <c r="O138" s="108"/>
-      <c r="P138" s="239"/>
-      <c r="Q138" s="243"/>
-      <c r="R138" s="237"/>
-      <c r="S138" s="193"/>
+      <c r="P138" s="231"/>
+      <c r="Q138" s="235"/>
+      <c r="R138" s="229"/>
+      <c r="S138" s="192"/>
       <c r="T138" s="54"/>
       <c r="U138" s="55"/>
       <c r="V138" s="56"/>
     </row>
     <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="242"/>
+      <c r="A139" s="234"/>
       <c r="B139" s="137"/>
-      <c r="C139" s="222"/>
-      <c r="D139" s="222"/>
+      <c r="C139" s="214"/>
+      <c r="D139" s="214"/>
       <c r="E139" s="40">
         <f t="shared" ref="E139:E202" si="4">D139*F139</f>
         <v>0</v>
       </c>
       <c r="F139" s="66"/>
       <c r="G139" s="127"/>
-      <c r="H139" s="234"/>
+      <c r="H139" s="226"/>
       <c r="I139" s="66"/>
       <c r="J139" s="45">
         <f t="shared" si="0"/>
@@ -7803,26 +7872,26 @@
         <v>0</v>
       </c>
       <c r="O139" s="108"/>
-      <c r="P139" s="239"/>
-      <c r="Q139" s="240"/>
-      <c r="R139" s="237"/>
-      <c r="S139" s="193"/>
+      <c r="P139" s="231"/>
+      <c r="Q139" s="232"/>
+      <c r="R139" s="229"/>
+      <c r="S139" s="192"/>
       <c r="T139" s="54"/>
       <c r="U139" s="55"/>
       <c r="V139" s="56"/>
     </row>
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="232"/>
+      <c r="A140" s="224"/>
       <c r="B140" s="137"/>
-      <c r="C140" s="229"/>
-      <c r="D140" s="229"/>
+      <c r="C140" s="221"/>
+      <c r="D140" s="221"/>
       <c r="E140" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F140" s="66"/>
       <c r="G140" s="127"/>
-      <c r="H140" s="234"/>
+      <c r="H140" s="226"/>
       <c r="I140" s="66"/>
       <c r="J140" s="45">
         <f t="shared" si="0"/>
@@ -7836,26 +7905,26 @@
         <v>0</v>
       </c>
       <c r="O140" s="108"/>
-      <c r="P140" s="244"/>
-      <c r="Q140" s="240"/>
-      <c r="R140" s="237"/>
-      <c r="S140" s="193"/>
+      <c r="P140" s="236"/>
+      <c r="Q140" s="232"/>
+      <c r="R140" s="229"/>
+      <c r="S140" s="192"/>
       <c r="T140" s="54"/>
       <c r="U140" s="55"/>
       <c r="V140" s="56"/>
     </row>
     <row r="141" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="232"/>
+      <c r="A141" s="224"/>
       <c r="B141" s="137"/>
-      <c r="C141" s="229"/>
-      <c r="D141" s="229"/>
+      <c r="C141" s="221"/>
+      <c r="D141" s="221"/>
       <c r="E141" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F141" s="66"/>
       <c r="G141" s="127"/>
-      <c r="H141" s="245"/>
+      <c r="H141" s="237"/>
       <c r="I141" s="66"/>
       <c r="J141" s="45">
         <f t="shared" si="0"/>
@@ -7869,26 +7938,26 @@
         <v>0</v>
       </c>
       <c r="O141" s="108"/>
-      <c r="P141" s="244"/>
-      <c r="Q141" s="240"/>
-      <c r="R141" s="237"/>
-      <c r="S141" s="193"/>
+      <c r="P141" s="236"/>
+      <c r="Q141" s="232"/>
+      <c r="R141" s="229"/>
+      <c r="S141" s="192"/>
       <c r="T141" s="54"/>
       <c r="U141" s="55"/>
       <c r="V141" s="56"/>
     </row>
     <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="232"/>
+      <c r="A142" s="224"/>
       <c r="B142" s="137"/>
-      <c r="C142" s="229"/>
-      <c r="D142" s="229"/>
+      <c r="C142" s="221"/>
+      <c r="D142" s="221"/>
       <c r="E142" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F142" s="66"/>
       <c r="G142" s="127"/>
-      <c r="H142" s="246"/>
+      <c r="H142" s="238"/>
       <c r="I142" s="66"/>
       <c r="J142" s="45">
         <f t="shared" si="0"/>
@@ -7902,26 +7971,26 @@
         <v>0</v>
       </c>
       <c r="O142" s="108"/>
-      <c r="P142" s="244"/>
-      <c r="Q142" s="240"/>
-      <c r="R142" s="237"/>
-      <c r="S142" s="193"/>
+      <c r="P142" s="236"/>
+      <c r="Q142" s="232"/>
+      <c r="R142" s="229"/>
+      <c r="S142" s="192"/>
       <c r="T142" s="54"/>
       <c r="U142" s="55"/>
       <c r="V142" s="56"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="232"/>
+      <c r="A143" s="224"/>
       <c r="B143" s="137"/>
-      <c r="C143" s="229"/>
-      <c r="D143" s="229"/>
+      <c r="C143" s="221"/>
+      <c r="D143" s="221"/>
       <c r="E143" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F143" s="66"/>
       <c r="G143" s="127"/>
-      <c r="H143" s="234"/>
+      <c r="H143" s="226"/>
       <c r="I143" s="66"/>
       <c r="J143" s="45">
         <f t="shared" si="0"/>
@@ -7935,26 +8004,26 @@
         <v>0</v>
       </c>
       <c r="O143" s="108"/>
-      <c r="P143" s="244"/>
-      <c r="Q143" s="240"/>
-      <c r="R143" s="237"/>
-      <c r="S143" s="193"/>
+      <c r="P143" s="236"/>
+      <c r="Q143" s="232"/>
+      <c r="R143" s="229"/>
+      <c r="S143" s="192"/>
       <c r="T143" s="54"/>
       <c r="U143" s="55"/>
       <c r="V143" s="56"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="247"/>
+      <c r="A144" s="239"/>
       <c r="B144" s="137"/>
-      <c r="C144" s="229"/>
-      <c r="D144" s="229"/>
+      <c r="C144" s="221"/>
+      <c r="D144" s="221"/>
       <c r="E144" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F144" s="66"/>
       <c r="G144" s="127"/>
-      <c r="H144" s="248"/>
+      <c r="H144" s="240"/>
       <c r="I144" s="66"/>
       <c r="J144" s="45">
         <f t="shared" si="0"/>
@@ -7967,27 +8036,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O144" s="249"/>
-      <c r="P144" s="250"/>
-      <c r="Q144" s="251"/>
-      <c r="R144" s="252"/>
-      <c r="S144" s="193"/>
+      <c r="O144" s="241"/>
+      <c r="P144" s="242"/>
+      <c r="Q144" s="243"/>
+      <c r="R144" s="244"/>
+      <c r="S144" s="192"/>
       <c r="T144" s="54"/>
       <c r="U144" s="55"/>
       <c r="V144" s="56"/>
     </row>
     <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="253"/>
+      <c r="A145" s="245"/>
       <c r="B145" s="137"/>
-      <c r="C145" s="229"/>
-      <c r="D145" s="229"/>
+      <c r="C145" s="221"/>
+      <c r="D145" s="221"/>
       <c r="E145" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F145" s="66"/>
-      <c r="G145" s="254"/>
-      <c r="H145" s="255"/>
+      <c r="G145" s="246"/>
+      <c r="H145" s="247"/>
       <c r="I145" s="66"/>
       <c r="J145" s="45">
         <f t="shared" si="0"/>
@@ -8000,27 +8069,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O145" s="256"/>
-      <c r="P145" s="257"/>
-      <c r="Q145" s="240"/>
-      <c r="R145" s="237"/>
-      <c r="S145" s="193"/>
+      <c r="O145" s="248"/>
+      <c r="P145" s="249"/>
+      <c r="Q145" s="232"/>
+      <c r="R145" s="229"/>
+      <c r="S145" s="192"/>
       <c r="T145" s="54"/>
       <c r="U145" s="55"/>
       <c r="V145" s="56"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="233"/>
+      <c r="A146" s="225"/>
       <c r="B146" s="137"/>
-      <c r="C146" s="229"/>
-      <c r="D146" s="229"/>
+      <c r="C146" s="221"/>
+      <c r="D146" s="221"/>
       <c r="E146" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F146" s="66"/>
-      <c r="G146" s="257"/>
-      <c r="H146" s="248"/>
+      <c r="G146" s="249"/>
+      <c r="H146" s="240"/>
       <c r="I146" s="66"/>
       <c r="J146" s="45">
         <f t="shared" si="0"/>
@@ -8033,33 +8102,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O146" s="256"/>
-      <c r="P146" s="257"/>
-      <c r="Q146" s="240"/>
-      <c r="R146" s="237"/>
-      <c r="S146" s="193"/>
+      <c r="O146" s="248"/>
+      <c r="P146" s="249"/>
+      <c r="Q146" s="232"/>
+      <c r="R146" s="229"/>
+      <c r="S146" s="192"/>
       <c r="T146" s="54"/>
       <c r="U146" s="55"/>
       <c r="V146" s="56"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="233"/>
+      <c r="A147" s="225"/>
       <c r="B147" s="137"/>
-      <c r="C147" s="229"/>
-      <c r="D147" s="229"/>
+      <c r="C147" s="221"/>
+      <c r="D147" s="221"/>
       <c r="E147" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F147" s="66"/>
-      <c r="G147" s="257"/>
-      <c r="H147" s="255"/>
+      <c r="G147" s="249"/>
+      <c r="H147" s="247"/>
       <c r="I147" s="66"/>
       <c r="J147" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K147" s="258"/>
+      <c r="K147" s="250"/>
       <c r="L147" s="109"/>
       <c r="M147" s="109" t="s">
         <v>26</v>
@@ -8068,60 +8137,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O147" s="249"/>
-      <c r="P147" s="250"/>
-      <c r="Q147" s="251"/>
-      <c r="R147" s="252"/>
-      <c r="S147" s="193"/>
+      <c r="O147" s="241"/>
+      <c r="P147" s="242"/>
+      <c r="Q147" s="243"/>
+      <c r="R147" s="244"/>
+      <c r="S147" s="192"/>
       <c r="T147" s="54"/>
       <c r="U147" s="55"/>
       <c r="V147" s="56"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="232"/>
+      <c r="A148" s="224"/>
       <c r="B148" s="137"/>
-      <c r="C148" s="229"/>
-      <c r="D148" s="229"/>
+      <c r="C148" s="221"/>
+      <c r="D148" s="221"/>
       <c r="E148" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F148" s="66"/>
-      <c r="G148" s="257"/>
-      <c r="H148" s="255"/>
+      <c r="G148" s="249"/>
+      <c r="H148" s="247"/>
       <c r="I148" s="66"/>
       <c r="J148" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K148" s="258"/>
+      <c r="K148" s="250"/>
       <c r="L148" s="109"/>
       <c r="M148" s="109"/>
       <c r="N148" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O148" s="256"/>
-      <c r="P148" s="257"/>
-      <c r="Q148" s="240"/>
-      <c r="R148" s="237"/>
-      <c r="S148" s="193"/>
+      <c r="O148" s="248"/>
+      <c r="P148" s="249"/>
+      <c r="Q148" s="232"/>
+      <c r="R148" s="229"/>
+      <c r="S148" s="192"/>
       <c r="T148" s="54"/>
       <c r="U148" s="55"/>
       <c r="V148" s="56"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="242"/>
+      <c r="A149" s="234"/>
       <c r="B149" s="137"/>
-      <c r="C149" s="259"/>
-      <c r="D149" s="259"/>
+      <c r="C149" s="251"/>
+      <c r="D149" s="251"/>
       <c r="E149" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F149" s="66"/>
-      <c r="G149" s="257"/>
-      <c r="H149" s="260"/>
+      <c r="G149" s="249"/>
+      <c r="H149" s="252"/>
       <c r="I149" s="66"/>
       <c r="J149" s="45">
         <f t="shared" si="0"/>
@@ -8134,423 +8203,423 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O149" s="261"/>
-      <c r="P149" s="262"/>
+      <c r="O149" s="253"/>
+      <c r="P149" s="254"/>
       <c r="Q149" s="138"/>
       <c r="R149" s="139"/>
-      <c r="S149" s="193"/>
+      <c r="S149" s="192"/>
       <c r="T149" s="54"/>
       <c r="U149" s="55"/>
       <c r="V149" s="56"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="263"/>
+      <c r="A150" s="255"/>
       <c r="B150" s="137"/>
-      <c r="C150" s="229"/>
-      <c r="D150" s="229"/>
+      <c r="C150" s="221"/>
+      <c r="D150" s="221"/>
       <c r="E150" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F150" s="66"/>
-      <c r="G150" s="257"/>
-      <c r="H150" s="234"/>
+      <c r="G150" s="249"/>
+      <c r="H150" s="226"/>
       <c r="I150" s="66"/>
       <c r="J150" s="45">
         <f t="shared" ref="J150:J213" si="5">I150-F150</f>
         <v>0</v>
       </c>
-      <c r="K150" s="258"/>
-      <c r="L150" s="264"/>
-      <c r="M150" s="264"/>
+      <c r="K150" s="250"/>
+      <c r="L150" s="256"/>
+      <c r="M150" s="256"/>
       <c r="N150" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O150" s="261"/>
-      <c r="P150" s="262"/>
-      <c r="Q150" s="251"/>
-      <c r="R150" s="252"/>
-      <c r="S150" s="193"/>
+      <c r="O150" s="253"/>
+      <c r="P150" s="254"/>
+      <c r="Q150" s="243"/>
+      <c r="R150" s="244"/>
+      <c r="S150" s="192"/>
       <c r="T150" s="54"/>
       <c r="U150" s="55"/>
       <c r="V150" s="56"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="232"/>
+      <c r="A151" s="224"/>
       <c r="B151" s="137"/>
-      <c r="C151" s="229"/>
-      <c r="D151" s="229"/>
+      <c r="C151" s="221"/>
+      <c r="D151" s="221"/>
       <c r="E151" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F151" s="66"/>
-      <c r="G151" s="257"/>
-      <c r="H151" s="234"/>
+      <c r="G151" s="249"/>
+      <c r="H151" s="226"/>
       <c r="I151" s="66"/>
       <c r="J151" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K151" s="258"/>
-      <c r="L151" s="264"/>
-      <c r="M151" s="264"/>
+      <c r="K151" s="250"/>
+      <c r="L151" s="256"/>
+      <c r="M151" s="256"/>
       <c r="N151" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O151" s="108"/>
-      <c r="P151" s="239"/>
-      <c r="Q151" s="251"/>
-      <c r="R151" s="252"/>
-      <c r="S151" s="193"/>
+      <c r="P151" s="231"/>
+      <c r="Q151" s="243"/>
+      <c r="R151" s="244"/>
+      <c r="S151" s="192"/>
       <c r="T151" s="54"/>
       <c r="U151" s="55"/>
       <c r="V151" s="56"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="233"/>
+      <c r="A152" s="225"/>
       <c r="B152" s="137"/>
-      <c r="C152" s="229"/>
-      <c r="D152" s="229"/>
+      <c r="C152" s="221"/>
+      <c r="D152" s="221"/>
       <c r="E152" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F152" s="66"/>
-      <c r="G152" s="257"/>
-      <c r="H152" s="265"/>
+      <c r="G152" s="249"/>
+      <c r="H152" s="257"/>
       <c r="I152" s="66"/>
       <c r="J152" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K152" s="266"/>
-      <c r="L152" s="264"/>
-      <c r="M152" s="264"/>
-      <c r="N152" s="267">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O152" s="256"/>
-      <c r="P152" s="257"/>
-      <c r="Q152" s="251"/>
-      <c r="R152" s="252"/>
-      <c r="S152" s="193"/>
+      <c r="K152" s="258"/>
+      <c r="L152" s="256"/>
+      <c r="M152" s="256"/>
+      <c r="N152" s="259">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="248"/>
+      <c r="P152" s="249"/>
+      <c r="Q152" s="243"/>
+      <c r="R152" s="244"/>
+      <c r="S152" s="192"/>
       <c r="T152" s="54"/>
       <c r="U152" s="55"/>
       <c r="V152" s="56"/>
     </row>
     <row r="153" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="233"/>
+      <c r="A153" s="225"/>
       <c r="B153" s="137"/>
-      <c r="C153" s="229"/>
-      <c r="D153" s="229"/>
+      <c r="C153" s="221"/>
+      <c r="D153" s="221"/>
       <c r="E153" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153" s="66"/>
-      <c r="G153" s="257"/>
-      <c r="H153" s="234"/>
+      <c r="G153" s="249"/>
+      <c r="H153" s="226"/>
       <c r="I153" s="66"/>
       <c r="J153" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K153" s="268"/>
-      <c r="L153" s="269"/>
-      <c r="M153" s="269"/>
-      <c r="N153" s="267">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O153" s="249"/>
-      <c r="P153" s="250"/>
-      <c r="Q153" s="251"/>
-      <c r="R153" s="252"/>
-      <c r="S153" s="193"/>
+      <c r="K153" s="260"/>
+      <c r="L153" s="261"/>
+      <c r="M153" s="261"/>
+      <c r="N153" s="259">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="241"/>
+      <c r="P153" s="242"/>
+      <c r="Q153" s="243"/>
+      <c r="R153" s="244"/>
+      <c r="S153" s="192"/>
       <c r="T153" s="54"/>
       <c r="U153" s="55"/>
       <c r="V153" s="56"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="270"/>
+      <c r="A154" s="262"/>
       <c r="B154" s="137"/>
-      <c r="C154" s="229"/>
-      <c r="D154" s="229"/>
+      <c r="C154" s="221"/>
+      <c r="D154" s="221"/>
       <c r="E154" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F154" s="271"/>
-      <c r="G154" s="257"/>
-      <c r="H154" s="246"/>
+      <c r="F154" s="263"/>
+      <c r="G154" s="249"/>
+      <c r="H154" s="238"/>
       <c r="I154" s="66"/>
       <c r="J154" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K154" s="268"/>
-      <c r="L154" s="272"/>
-      <c r="M154" s="272"/>
-      <c r="N154" s="267">
+      <c r="K154" s="260"/>
+      <c r="L154" s="264"/>
+      <c r="M154" s="264"/>
+      <c r="N154" s="259">
         <f>K154*I154</f>
         <v>0</v>
       </c>
-      <c r="O154" s="256"/>
-      <c r="P154" s="257"/>
-      <c r="Q154" s="251"/>
-      <c r="R154" s="252"/>
-      <c r="S154" s="193"/>
+      <c r="O154" s="248"/>
+      <c r="P154" s="249"/>
+      <c r="Q154" s="243"/>
+      <c r="R154" s="244"/>
+      <c r="S154" s="192"/>
       <c r="T154" s="54"/>
       <c r="U154" s="55"/>
       <c r="V154" s="56"/>
     </row>
     <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="247"/>
+      <c r="A155" s="239"/>
       <c r="B155" s="137"/>
-      <c r="C155" s="229"/>
-      <c r="D155" s="229"/>
+      <c r="C155" s="221"/>
+      <c r="D155" s="221"/>
       <c r="E155" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F155" s="66"/>
-      <c r="G155" s="257"/>
-      <c r="H155" s="234"/>
+      <c r="G155" s="249"/>
+      <c r="H155" s="226"/>
       <c r="I155" s="66"/>
       <c r="J155" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K155" s="268"/>
-      <c r="L155" s="264"/>
-      <c r="M155" s="264"/>
-      <c r="N155" s="267">
+      <c r="K155" s="260"/>
+      <c r="L155" s="256"/>
+      <c r="M155" s="256"/>
+      <c r="N155" s="259">
         <f t="shared" ref="N155:N239" si="6">K155*I155</f>
         <v>0</v>
       </c>
-      <c r="O155" s="249"/>
-      <c r="P155" s="250"/>
-      <c r="Q155" s="251"/>
-      <c r="R155" s="252"/>
-      <c r="S155" s="193"/>
+      <c r="O155" s="241"/>
+      <c r="P155" s="242"/>
+      <c r="Q155" s="243"/>
+      <c r="R155" s="244"/>
+      <c r="S155" s="192"/>
       <c r="T155" s="54"/>
       <c r="U155" s="55"/>
       <c r="V155" s="56"/>
     </row>
     <row r="156" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="233"/>
+      <c r="A156" s="225"/>
       <c r="B156" s="137"/>
-      <c r="C156" s="229"/>
-      <c r="D156" s="229"/>
+      <c r="C156" s="221"/>
+      <c r="D156" s="221"/>
       <c r="E156" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F156" s="66"/>
-      <c r="G156" s="257"/>
-      <c r="H156" s="273"/>
+      <c r="G156" s="249"/>
+      <c r="H156" s="265"/>
       <c r="I156" s="66"/>
       <c r="J156" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K156" s="110"/>
-      <c r="L156" s="264"/>
-      <c r="M156" s="264"/>
+      <c r="L156" s="256"/>
+      <c r="M156" s="256"/>
       <c r="N156" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O156" s="249"/>
-      <c r="P156" s="250"/>
-      <c r="Q156" s="251"/>
-      <c r="R156" s="252"/>
-      <c r="S156" s="193"/>
+      <c r="O156" s="241"/>
+      <c r="P156" s="242"/>
+      <c r="Q156" s="243"/>
+      <c r="R156" s="244"/>
+      <c r="S156" s="192"/>
       <c r="T156" s="54"/>
       <c r="U156" s="55"/>
       <c r="V156" s="56"/>
     </row>
     <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="233"/>
+      <c r="A157" s="225"/>
       <c r="B157" s="137"/>
-      <c r="C157" s="229"/>
-      <c r="D157" s="229"/>
+      <c r="C157" s="221"/>
+      <c r="D157" s="221"/>
       <c r="E157" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F157" s="66"/>
-      <c r="G157" s="257"/>
-      <c r="H157" s="248"/>
+      <c r="G157" s="249"/>
+      <c r="H157" s="240"/>
       <c r="I157" s="66"/>
       <c r="J157" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K157" s="268"/>
-      <c r="L157" s="264"/>
-      <c r="M157" s="264"/>
-      <c r="N157" s="267">
+      <c r="K157" s="260"/>
+      <c r="L157" s="256"/>
+      <c r="M157" s="256"/>
+      <c r="N157" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O157" s="249"/>
-      <c r="P157" s="250"/>
-      <c r="Q157" s="251"/>
-      <c r="R157" s="252"/>
-      <c r="S157" s="193"/>
+      <c r="O157" s="241"/>
+      <c r="P157" s="242"/>
+      <c r="Q157" s="243"/>
+      <c r="R157" s="244"/>
+      <c r="S157" s="192"/>
       <c r="T157" s="54"/>
       <c r="U157" s="55"/>
       <c r="V157" s="56"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="233"/>
+      <c r="A158" s="225"/>
       <c r="B158" s="137"/>
-      <c r="C158" s="229"/>
-      <c r="D158" s="229"/>
+      <c r="C158" s="221"/>
+      <c r="D158" s="221"/>
       <c r="E158" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F158" s="66"/>
-      <c r="G158" s="257"/>
-      <c r="H158" s="274"/>
+      <c r="G158" s="249"/>
+      <c r="H158" s="266"/>
       <c r="I158" s="66"/>
       <c r="J158" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K158" s="268"/>
-      <c r="L158" s="264"/>
-      <c r="M158" s="264"/>
-      <c r="N158" s="267">
+      <c r="K158" s="260"/>
+      <c r="L158" s="256"/>
+      <c r="M158" s="256"/>
+      <c r="N158" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O158" s="249"/>
-      <c r="P158" s="250"/>
-      <c r="Q158" s="251"/>
-      <c r="R158" s="252"/>
-      <c r="S158" s="193"/>
+      <c r="O158" s="241"/>
+      <c r="P158" s="242"/>
+      <c r="Q158" s="243"/>
+      <c r="R158" s="244"/>
+      <c r="S158" s="192"/>
       <c r="T158" s="54"/>
       <c r="U158" s="55"/>
       <c r="V158" s="56"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="233"/>
+      <c r="A159" s="225"/>
       <c r="B159" s="137"/>
-      <c r="C159" s="229"/>
-      <c r="D159" s="229"/>
+      <c r="C159" s="221"/>
+      <c r="D159" s="221"/>
       <c r="E159" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159" s="66"/>
-      <c r="G159" s="257"/>
-      <c r="H159" s="275"/>
+      <c r="G159" s="249"/>
+      <c r="H159" s="267"/>
       <c r="I159" s="66"/>
       <c r="J159" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K159" s="268"/>
-      <c r="L159" s="276"/>
-      <c r="M159" s="276"/>
-      <c r="N159" s="267">
+      <c r="K159" s="260"/>
+      <c r="L159" s="268"/>
+      <c r="M159" s="268"/>
+      <c r="N159" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O159" s="249"/>
-      <c r="P159" s="250"/>
-      <c r="Q159" s="251"/>
-      <c r="R159" s="252"/>
-      <c r="S159" s="193"/>
+      <c r="O159" s="241"/>
+      <c r="P159" s="242"/>
+      <c r="Q159" s="243"/>
+      <c r="R159" s="244"/>
+      <c r="S159" s="192"/>
       <c r="T159" s="54"/>
       <c r="U159" s="55"/>
       <c r="V159" s="56"/>
     </row>
     <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="233"/>
+      <c r="A160" s="225"/>
       <c r="B160" s="137"/>
-      <c r="C160" s="229"/>
-      <c r="D160" s="229"/>
+      <c r="C160" s="221"/>
+      <c r="D160" s="221"/>
       <c r="E160" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F160" s="66"/>
-      <c r="G160" s="257"/>
-      <c r="H160" s="274"/>
+      <c r="G160" s="249"/>
+      <c r="H160" s="266"/>
       <c r="I160" s="66"/>
       <c r="J160" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K160" s="268"/>
-      <c r="L160" s="276"/>
-      <c r="M160" s="276"/>
-      <c r="N160" s="267">
+      <c r="K160" s="260"/>
+      <c r="L160" s="268"/>
+      <c r="M160" s="268"/>
+      <c r="N160" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O160" s="249"/>
-      <c r="P160" s="250"/>
-      <c r="Q160" s="251"/>
-      <c r="R160" s="252"/>
-      <c r="S160" s="193"/>
+      <c r="O160" s="241"/>
+      <c r="P160" s="242"/>
+      <c r="Q160" s="243"/>
+      <c r="R160" s="244"/>
+      <c r="S160" s="192"/>
       <c r="T160" s="54"/>
       <c r="U160" s="55"/>
       <c r="V160" s="56"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="233"/>
+      <c r="A161" s="225"/>
       <c r="B161" s="137"/>
-      <c r="C161" s="229"/>
-      <c r="D161" s="229"/>
+      <c r="C161" s="221"/>
+      <c r="D161" s="221"/>
       <c r="E161" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161" s="66"/>
-      <c r="G161" s="257"/>
-      <c r="H161" s="274"/>
+      <c r="G161" s="249"/>
+      <c r="H161" s="266"/>
       <c r="I161" s="66"/>
       <c r="J161" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K161" s="268"/>
-      <c r="L161" s="276"/>
-      <c r="M161" s="276"/>
-      <c r="N161" s="267">
+      <c r="K161" s="260"/>
+      <c r="L161" s="268"/>
+      <c r="M161" s="268"/>
+      <c r="N161" s="259">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O161" s="249"/>
-      <c r="P161" s="250"/>
-      <c r="Q161" s="251"/>
-      <c r="R161" s="252"/>
-      <c r="S161" s="193"/>
+      <c r="O161" s="241"/>
+      <c r="P161" s="242"/>
+      <c r="Q161" s="243"/>
+      <c r="R161" s="244"/>
+      <c r="S161" s="192"/>
       <c r="T161" s="54"/>
       <c r="U161" s="55"/>
       <c r="V161" s="56"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="233"/>
+      <c r="A162" s="225"/>
       <c r="B162" s="137"/>
-      <c r="C162" s="229"/>
-      <c r="D162" s="229"/>
+      <c r="C162" s="221"/>
+      <c r="D162" s="221"/>
       <c r="E162" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F162" s="66"/>
-      <c r="G162" s="257"/>
-      <c r="H162" s="274"/>
+      <c r="G162" s="249"/>
+      <c r="H162" s="266"/>
       <c r="I162" s="66"/>
       <c r="J162" s="45">
         <f t="shared" si="5"/>
@@ -8563,27 +8632,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O162" s="249"/>
-      <c r="P162" s="250"/>
-      <c r="Q162" s="251"/>
-      <c r="R162" s="252"/>
-      <c r="S162" s="193"/>
+      <c r="O162" s="241"/>
+      <c r="P162" s="242"/>
+      <c r="Q162" s="243"/>
+      <c r="R162" s="244"/>
+      <c r="S162" s="192"/>
       <c r="T162" s="54"/>
       <c r="U162" s="55"/>
       <c r="V162" s="56"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="233"/>
+      <c r="A163" s="225"/>
       <c r="B163" s="137"/>
-      <c r="C163" s="277"/>
-      <c r="D163" s="277"/>
+      <c r="C163" s="269"/>
+      <c r="D163" s="269"/>
       <c r="E163" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F163" s="66"/>
-      <c r="G163" s="257"/>
-      <c r="H163" s="274"/>
+      <c r="G163" s="249"/>
+      <c r="H163" s="266"/>
       <c r="I163" s="66"/>
       <c r="J163" s="45">
         <f t="shared" si="5"/>
@@ -8596,27 +8665,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O163" s="256"/>
-      <c r="P163" s="278"/>
+      <c r="O163" s="248"/>
+      <c r="P163" s="270"/>
       <c r="Q163" s="138"/>
       <c r="R163" s="139"/>
-      <c r="S163" s="193"/>
+      <c r="S163" s="192"/>
       <c r="T163" s="54"/>
       <c r="U163" s="55"/>
       <c r="V163" s="56"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="233"/>
+      <c r="A164" s="225"/>
       <c r="B164" s="137"/>
-      <c r="C164" s="277"/>
-      <c r="D164" s="277"/>
+      <c r="C164" s="269"/>
+      <c r="D164" s="269"/>
       <c r="E164" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F164" s="66"/>
-      <c r="G164" s="257"/>
-      <c r="H164" s="274"/>
+      <c r="G164" s="249"/>
+      <c r="H164" s="266"/>
       <c r="I164" s="66"/>
       <c r="J164" s="45">
         <f t="shared" si="5"/>
@@ -8629,11 +8698,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O164" s="256"/>
-      <c r="P164" s="278"/>
+      <c r="O164" s="248"/>
+      <c r="P164" s="270"/>
       <c r="Q164" s="138"/>
       <c r="R164" s="139"/>
-      <c r="S164" s="193"/>
+      <c r="S164" s="192"/>
       <c r="T164" s="54"/>
       <c r="U164" s="55"/>
       <c r="V164" s="56"/>
@@ -8641,15 +8710,15 @@
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="128"/>
       <c r="B165" s="137"/>
-      <c r="C165" s="259"/>
-      <c r="D165" s="259"/>
+      <c r="C165" s="251"/>
+      <c r="D165" s="251"/>
       <c r="E165" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F165" s="66"/>
-      <c r="G165" s="257"/>
-      <c r="H165" s="260"/>
+      <c r="G165" s="249"/>
+      <c r="H165" s="252"/>
       <c r="I165" s="66"/>
       <c r="J165" s="45">
         <f t="shared" si="5"/>
@@ -8663,25 +8732,25 @@
         <v>0</v>
       </c>
       <c r="O165" s="108"/>
-      <c r="P165" s="239"/>
+      <c r="P165" s="231"/>
       <c r="Q165" s="138"/>
       <c r="R165" s="139"/>
-      <c r="S165" s="193"/>
+      <c r="S165" s="192"/>
       <c r="T165" s="54"/>
       <c r="U165" s="55"/>
       <c r="V165" s="56"/>
     </row>
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="233"/>
+      <c r="A166" s="225"/>
       <c r="B166" s="137"/>
-      <c r="C166" s="279"/>
-      <c r="D166" s="279"/>
+      <c r="C166" s="271"/>
+      <c r="D166" s="271"/>
       <c r="E166" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166" s="66"/>
-      <c r="G166" s="257"/>
+      <c r="G166" s="249"/>
       <c r="H166" s="65"/>
       <c r="I166" s="66"/>
       <c r="J166" s="45">
@@ -8696,26 +8765,26 @@
         <v>0</v>
       </c>
       <c r="O166" s="108"/>
-      <c r="P166" s="239"/>
+      <c r="P166" s="231"/>
       <c r="Q166" s="138"/>
       <c r="R166" s="139"/>
-      <c r="S166" s="193"/>
+      <c r="S166" s="192"/>
       <c r="T166" s="54"/>
       <c r="U166" s="55"/>
       <c r="V166" s="56"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="242"/>
+      <c r="A167" s="234"/>
       <c r="B167" s="137"/>
-      <c r="C167" s="259"/>
-      <c r="D167" s="259"/>
+      <c r="C167" s="251"/>
+      <c r="D167" s="251"/>
       <c r="E167" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F167" s="66"/>
-      <c r="G167" s="257"/>
-      <c r="H167" s="260"/>
+      <c r="G167" s="249"/>
+      <c r="H167" s="252"/>
       <c r="I167" s="66"/>
       <c r="J167" s="45">
         <f t="shared" si="5"/>
@@ -8729,26 +8798,26 @@
         <v>0</v>
       </c>
       <c r="O167" s="108"/>
-      <c r="P167" s="239"/>
+      <c r="P167" s="231"/>
       <c r="Q167" s="138"/>
       <c r="R167" s="139"/>
-      <c r="S167" s="193"/>
+      <c r="S167" s="192"/>
       <c r="T167" s="54"/>
       <c r="U167" s="55"/>
       <c r="V167" s="56"/>
     </row>
     <row r="168" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="280"/>
-      <c r="B168" s="281"/>
-      <c r="C168" s="241"/>
-      <c r="D168" s="241"/>
+      <c r="A168" s="272"/>
+      <c r="B168" s="273"/>
+      <c r="C168" s="233"/>
+      <c r="D168" s="233"/>
       <c r="E168" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F168" s="66"/>
-      <c r="G168" s="257"/>
-      <c r="H168" s="260"/>
+      <c r="G168" s="249"/>
+      <c r="H168" s="252"/>
       <c r="I168" s="66"/>
       <c r="J168" s="45">
         <f t="shared" si="5"/>
@@ -8761,27 +8830,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O168" s="261"/>
-      <c r="P168" s="262"/>
+      <c r="O168" s="253"/>
+      <c r="P168" s="254"/>
       <c r="Q168" s="138"/>
       <c r="R168" s="139"/>
-      <c r="S168" s="193"/>
+      <c r="S168" s="192"/>
       <c r="T168" s="54"/>
       <c r="U168" s="55"/>
       <c r="V168" s="56"/>
     </row>
     <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="242"/>
+      <c r="A169" s="234"/>
       <c r="B169" s="137"/>
-      <c r="C169" s="282"/>
-      <c r="D169" s="282"/>
+      <c r="C169" s="274"/>
+      <c r="D169" s="274"/>
       <c r="E169" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F169" s="66"/>
-      <c r="G169" s="257"/>
-      <c r="H169" s="260"/>
+      <c r="G169" s="249"/>
+      <c r="H169" s="252"/>
       <c r="I169" s="66"/>
       <c r="J169" s="45">
         <f t="shared" si="5"/>
@@ -8795,26 +8864,26 @@
         <v>0</v>
       </c>
       <c r="O169" s="108"/>
-      <c r="P169" s="239"/>
+      <c r="P169" s="231"/>
       <c r="Q169" s="138"/>
       <c r="R169" s="139"/>
-      <c r="S169" s="193"/>
+      <c r="S169" s="192"/>
       <c r="T169" s="54"/>
       <c r="U169" s="55"/>
       <c r="V169" s="56"/>
     </row>
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="242"/>
+      <c r="A170" s="234"/>
       <c r="B170" s="137"/>
-      <c r="C170" s="282"/>
-      <c r="D170" s="282"/>
+      <c r="C170" s="274"/>
+      <c r="D170" s="274"/>
       <c r="E170" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170" s="66"/>
-      <c r="G170" s="257"/>
-      <c r="H170" s="260"/>
+      <c r="G170" s="249"/>
+      <c r="H170" s="252"/>
       <c r="I170" s="66"/>
       <c r="J170" s="45">
         <f t="shared" si="5"/>
@@ -8828,26 +8897,26 @@
         <v>0</v>
       </c>
       <c r="O170" s="108"/>
-      <c r="P170" s="239"/>
+      <c r="P170" s="231"/>
       <c r="Q170" s="138"/>
       <c r="R170" s="139"/>
-      <c r="S170" s="193"/>
+      <c r="S170" s="192"/>
       <c r="T170" s="54"/>
       <c r="U170" s="55"/>
       <c r="V170" s="56"/>
     </row>
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="283"/>
+      <c r="A171" s="275"/>
       <c r="B171" s="137"/>
-      <c r="C171" s="284"/>
-      <c r="D171" s="284"/>
+      <c r="C171" s="276"/>
+      <c r="D171" s="276"/>
       <c r="E171" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F171" s="66"/>
-      <c r="G171" s="257"/>
-      <c r="H171" s="260"/>
+      <c r="G171" s="249"/>
+      <c r="H171" s="252"/>
       <c r="I171" s="66"/>
       <c r="J171" s="45">
         <f t="shared" si="5"/>
@@ -8861,26 +8930,26 @@
         <v>0</v>
       </c>
       <c r="O171" s="108"/>
-      <c r="P171" s="239"/>
+      <c r="P171" s="231"/>
       <c r="Q171" s="138"/>
       <c r="R171" s="139"/>
-      <c r="S171" s="193"/>
+      <c r="S171" s="192"/>
       <c r="T171" s="54"/>
       <c r="U171" s="55"/>
       <c r="V171" s="56"/>
     </row>
     <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="242"/>
+      <c r="A172" s="234"/>
       <c r="B172" s="137"/>
-      <c r="C172" s="285"/>
-      <c r="D172" s="285"/>
+      <c r="C172" s="277"/>
+      <c r="D172" s="277"/>
       <c r="E172" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F172" s="66"/>
-      <c r="G172" s="286"/>
-      <c r="H172" s="260"/>
+      <c r="G172" s="278"/>
+      <c r="H172" s="252"/>
       <c r="I172" s="66"/>
       <c r="J172" s="45">
         <f t="shared" si="5"/>
@@ -8893,27 +8962,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O172" s="287"/>
-      <c r="P172" s="288"/>
+      <c r="O172" s="279"/>
+      <c r="P172" s="280"/>
       <c r="Q172" s="138"/>
       <c r="R172" s="139"/>
-      <c r="S172" s="193"/>
+      <c r="S172" s="192"/>
       <c r="T172" s="54"/>
       <c r="U172" s="55"/>
       <c r="V172" s="56"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="242"/>
+      <c r="A173" s="234"/>
       <c r="B173" s="137"/>
-      <c r="C173" s="285"/>
-      <c r="D173" s="285"/>
+      <c r="C173" s="277"/>
+      <c r="D173" s="277"/>
       <c r="E173" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F173" s="66"/>
       <c r="G173" s="127"/>
-      <c r="H173" s="260"/>
+      <c r="H173" s="252"/>
       <c r="I173" s="66"/>
       <c r="J173" s="45">
         <f t="shared" si="5"/>
@@ -8926,28 +8995,28 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O173" s="287"/>
-      <c r="P173" s="288"/>
+      <c r="O173" s="279"/>
+      <c r="P173" s="280"/>
       <c r="Q173" s="138"/>
       <c r="R173" s="139"/>
-      <c r="S173" s="193"/>
+      <c r="S173" s="192"/>
       <c r="T173" s="54"/>
       <c r="U173" s="55"/>
       <c r="V173" s="56"/>
     </row>
     <row r="174" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="242"/>
-      <c r="B174" s="232"/>
-      <c r="C174" s="289"/>
-      <c r="D174" s="289"/>
+      <c r="A174" s="234"/>
+      <c r="B174" s="224"/>
+      <c r="C174" s="281"/>
+      <c r="D174" s="281"/>
       <c r="E174" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F174" s="290"/>
-      <c r="G174" s="257"/>
-      <c r="H174" s="291"/>
-      <c r="I174" s="290"/>
+      <c r="F174" s="282"/>
+      <c r="G174" s="249"/>
+      <c r="H174" s="283"/>
+      <c r="I174" s="282"/>
       <c r="J174" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8956,28 +9025,28 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O174" s="292"/>
-      <c r="P174" s="278"/>
-      <c r="Q174" s="293"/>
-      <c r="R174" s="294"/>
-      <c r="S174" s="295"/>
-      <c r="T174" s="296"/>
-      <c r="U174" s="297"/>
-      <c r="V174" s="298"/>
+      <c r="O174" s="284"/>
+      <c r="P174" s="270"/>
+      <c r="Q174" s="285"/>
+      <c r="R174" s="286"/>
+      <c r="S174" s="287"/>
+      <c r="T174" s="288"/>
+      <c r="U174" s="289"/>
+      <c r="V174" s="290"/>
     </row>
     <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="242"/>
+      <c r="A175" s="234"/>
       <c r="B175" s="137"/>
-      <c r="C175" s="284"/>
-      <c r="D175" s="284"/>
+      <c r="C175" s="276"/>
+      <c r="D175" s="276"/>
       <c r="E175" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F175" s="290"/>
-      <c r="G175" s="257"/>
-      <c r="H175" s="291"/>
-      <c r="I175" s="290"/>
+      <c r="F175" s="282"/>
+      <c r="G175" s="249"/>
+      <c r="H175" s="283"/>
+      <c r="I175" s="282"/>
       <c r="J175" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8986,27 +9055,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O175" s="292"/>
-      <c r="P175" s="278"/>
-      <c r="Q175" s="293"/>
-      <c r="R175" s="294"/>
-      <c r="S175" s="295"/>
-      <c r="T175" s="296"/>
-      <c r="U175" s="297"/>
-      <c r="V175" s="298"/>
+      <c r="O175" s="284"/>
+      <c r="P175" s="270"/>
+      <c r="Q175" s="285"/>
+      <c r="R175" s="286"/>
+      <c r="S175" s="287"/>
+      <c r="T175" s="288"/>
+      <c r="U175" s="289"/>
+      <c r="V175" s="290"/>
     </row>
     <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="242"/>
+      <c r="A176" s="234"/>
       <c r="B176" s="137"/>
-      <c r="C176" s="284"/>
-      <c r="D176" s="284"/>
+      <c r="C176" s="276"/>
+      <c r="D176" s="276"/>
       <c r="E176" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F176" s="66"/>
-      <c r="G176" s="257"/>
-      <c r="H176" s="260"/>
+      <c r="G176" s="249"/>
+      <c r="H176" s="252"/>
       <c r="I176" s="66"/>
       <c r="J176" s="45">
         <f t="shared" si="5"/>
@@ -9020,26 +9089,26 @@
         <v>0</v>
       </c>
       <c r="O176" s="108"/>
-      <c r="P176" s="239"/>
+      <c r="P176" s="231"/>
       <c r="Q176" s="138"/>
       <c r="R176" s="139"/>
-      <c r="S176" s="193"/>
+      <c r="S176" s="192"/>
       <c r="T176" s="54"/>
       <c r="U176" s="55"/>
       <c r="V176" s="56"/>
     </row>
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="242"/>
+      <c r="A177" s="234"/>
       <c r="B177" s="137"/>
-      <c r="C177" s="284"/>
-      <c r="D177" s="284"/>
+      <c r="C177" s="276"/>
+      <c r="D177" s="276"/>
       <c r="E177" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F177" s="66"/>
-      <c r="G177" s="257"/>
-      <c r="H177" s="260"/>
+      <c r="G177" s="249"/>
+      <c r="H177" s="252"/>
       <c r="I177" s="66"/>
       <c r="J177" s="45">
         <f t="shared" si="5"/>
@@ -9053,26 +9122,26 @@
         <v>0</v>
       </c>
       <c r="O177" s="108"/>
-      <c r="P177" s="239"/>
+      <c r="P177" s="231"/>
       <c r="Q177" s="138"/>
       <c r="R177" s="139"/>
-      <c r="S177" s="193"/>
+      <c r="S177" s="192"/>
       <c r="T177" s="54"/>
       <c r="U177" s="55"/>
       <c r="V177" s="56"/>
     </row>
     <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="242"/>
+      <c r="A178" s="234"/>
       <c r="B178" s="137"/>
-      <c r="C178" s="299"/>
-      <c r="D178" s="299"/>
+      <c r="C178" s="291"/>
+      <c r="D178" s="291"/>
       <c r="E178" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F178" s="66"/>
-      <c r="G178" s="286"/>
-      <c r="H178" s="260"/>
+      <c r="G178" s="278"/>
+      <c r="H178" s="252"/>
       <c r="I178" s="66"/>
       <c r="J178" s="45">
         <f t="shared" si="5"/>
@@ -9086,26 +9155,26 @@
         <v>0</v>
       </c>
       <c r="O178" s="108"/>
-      <c r="P178" s="239"/>
+      <c r="P178" s="231"/>
       <c r="Q178" s="138"/>
       <c r="R178" s="139"/>
-      <c r="S178" s="193"/>
+      <c r="S178" s="192"/>
       <c r="T178" s="54"/>
       <c r="U178" s="55"/>
       <c r="V178" s="56"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="242"/>
+      <c r="A179" s="234"/>
       <c r="B179" s="137"/>
-      <c r="C179" s="299"/>
-      <c r="D179" s="299"/>
+      <c r="C179" s="291"/>
+      <c r="D179" s="291"/>
       <c r="E179" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F179" s="66"/>
-      <c r="G179" s="286"/>
-      <c r="H179" s="260"/>
+      <c r="G179" s="278"/>
+      <c r="H179" s="252"/>
       <c r="I179" s="66"/>
       <c r="J179" s="45">
         <f t="shared" si="5"/>
@@ -9119,26 +9188,26 @@
         <v>0</v>
       </c>
       <c r="O179" s="108"/>
-      <c r="P179" s="239"/>
+      <c r="P179" s="231"/>
       <c r="Q179" s="138"/>
       <c r="R179" s="139"/>
-      <c r="S179" s="193"/>
+      <c r="S179" s="192"/>
       <c r="T179" s="54"/>
       <c r="U179" s="55"/>
       <c r="V179" s="56"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="242"/>
+      <c r="A180" s="234"/>
       <c r="B180" s="137"/>
-      <c r="C180" s="299"/>
-      <c r="D180" s="299"/>
+      <c r="C180" s="291"/>
+      <c r="D180" s="291"/>
       <c r="E180" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F180" s="66"/>
-      <c r="G180" s="286"/>
-      <c r="H180" s="260"/>
+      <c r="G180" s="278"/>
+      <c r="H180" s="252"/>
       <c r="I180" s="66"/>
       <c r="J180" s="45">
         <f t="shared" si="5"/>
@@ -9152,26 +9221,26 @@
         <v>0</v>
       </c>
       <c r="O180" s="108"/>
-      <c r="P180" s="239"/>
+      <c r="P180" s="231"/>
       <c r="Q180" s="138"/>
       <c r="R180" s="139"/>
-      <c r="S180" s="193"/>
+      <c r="S180" s="192"/>
       <c r="T180" s="54"/>
       <c r="U180" s="55"/>
       <c r="V180" s="56"/>
     </row>
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="242"/>
-      <c r="B181" s="232"/>
-      <c r="C181" s="300"/>
-      <c r="D181" s="300"/>
+      <c r="A181" s="234"/>
+      <c r="B181" s="224"/>
+      <c r="C181" s="292"/>
+      <c r="D181" s="292"/>
       <c r="E181" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F181" s="66"/>
-      <c r="G181" s="286"/>
-      <c r="H181" s="260"/>
+      <c r="G181" s="278"/>
+      <c r="H181" s="252"/>
       <c r="I181" s="66"/>
       <c r="J181" s="45">
         <f t="shared" si="5"/>
@@ -9185,26 +9254,26 @@
         <v>0</v>
       </c>
       <c r="O181" s="108"/>
-      <c r="P181" s="239"/>
+      <c r="P181" s="231"/>
       <c r="Q181" s="138"/>
       <c r="R181" s="139"/>
-      <c r="S181" s="193"/>
+      <c r="S181" s="192"/>
       <c r="T181" s="54"/>
       <c r="U181" s="55"/>
       <c r="V181" s="56"/>
     </row>
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="242"/>
+      <c r="A182" s="234"/>
       <c r="B182" s="137"/>
-      <c r="C182" s="299"/>
-      <c r="D182" s="299"/>
+      <c r="C182" s="291"/>
+      <c r="D182" s="291"/>
       <c r="E182" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F182" s="66"/>
-      <c r="G182" s="286"/>
-      <c r="H182" s="260"/>
+      <c r="G182" s="278"/>
+      <c r="H182" s="252"/>
       <c r="I182" s="66"/>
       <c r="J182" s="45">
         <f t="shared" si="5"/>
@@ -9218,26 +9287,26 @@
         <v>0</v>
       </c>
       <c r="O182" s="108"/>
-      <c r="P182" s="239"/>
+      <c r="P182" s="231"/>
       <c r="Q182" s="138"/>
       <c r="R182" s="139"/>
-      <c r="S182" s="193"/>
+      <c r="S182" s="192"/>
       <c r="T182" s="54"/>
       <c r="U182" s="55"/>
       <c r="V182" s="56"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="242"/>
+      <c r="A183" s="234"/>
       <c r="B183" s="137"/>
-      <c r="C183" s="279"/>
-      <c r="D183" s="279"/>
+      <c r="C183" s="271"/>
+      <c r="D183" s="271"/>
       <c r="E183" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F183" s="66"/>
-      <c r="G183" s="257"/>
-      <c r="H183" s="260"/>
+      <c r="G183" s="249"/>
+      <c r="H183" s="252"/>
       <c r="I183" s="66"/>
       <c r="J183" s="45">
         <f t="shared" si="5"/>
@@ -9251,26 +9320,26 @@
         <v>0</v>
       </c>
       <c r="O183" s="108"/>
-      <c r="P183" s="239"/>
+      <c r="P183" s="231"/>
       <c r="Q183" s="138"/>
       <c r="R183" s="139"/>
-      <c r="S183" s="193"/>
+      <c r="S183" s="192"/>
       <c r="T183" s="54"/>
       <c r="U183" s="55"/>
       <c r="V183" s="56"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="242"/>
+      <c r="A184" s="234"/>
       <c r="B184" s="137"/>
-      <c r="C184" s="279"/>
-      <c r="D184" s="279"/>
+      <c r="C184" s="271"/>
+      <c r="D184" s="271"/>
       <c r="E184" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F184" s="66"/>
-      <c r="G184" s="257"/>
-      <c r="H184" s="260"/>
+      <c r="G184" s="249"/>
+      <c r="H184" s="252"/>
       <c r="I184" s="66"/>
       <c r="J184" s="45">
         <f t="shared" si="5"/>
@@ -9284,26 +9353,26 @@
         <v>0</v>
       </c>
       <c r="O184" s="108"/>
-      <c r="P184" s="239"/>
+      <c r="P184" s="231"/>
       <c r="Q184" s="138"/>
       <c r="R184" s="139"/>
-      <c r="S184" s="193"/>
+      <c r="S184" s="192"/>
       <c r="T184" s="54"/>
       <c r="U184" s="55"/>
       <c r="V184" s="56"/>
     </row>
     <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="242"/>
+      <c r="A185" s="234"/>
       <c r="B185" s="137"/>
-      <c r="C185" s="279"/>
-      <c r="D185" s="279"/>
+      <c r="C185" s="271"/>
+      <c r="D185" s="271"/>
       <c r="E185" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F185" s="66"/>
-      <c r="G185" s="257"/>
-      <c r="H185" s="260"/>
+      <c r="G185" s="249"/>
+      <c r="H185" s="252"/>
       <c r="I185" s="66"/>
       <c r="J185" s="45">
         <f t="shared" si="5"/>
@@ -9317,26 +9386,26 @@
         <v>0</v>
       </c>
       <c r="O185" s="108"/>
-      <c r="P185" s="239"/>
+      <c r="P185" s="231"/>
       <c r="Q185" s="138"/>
       <c r="R185" s="139"/>
-      <c r="S185" s="193"/>
+      <c r="S185" s="192"/>
       <c r="T185" s="54"/>
       <c r="U185" s="55"/>
       <c r="V185" s="56"/>
     </row>
     <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="242"/>
+      <c r="A186" s="234"/>
       <c r="B186" s="137"/>
-      <c r="C186" s="279"/>
-      <c r="D186" s="279"/>
+      <c r="C186" s="271"/>
+      <c r="D186" s="271"/>
       <c r="E186" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F186" s="66"/>
-      <c r="G186" s="257"/>
-      <c r="H186" s="260"/>
+      <c r="G186" s="249"/>
+      <c r="H186" s="252"/>
       <c r="I186" s="66"/>
       <c r="J186" s="45">
         <f t="shared" si="5"/>
@@ -9350,26 +9419,26 @@
         <v>0</v>
       </c>
       <c r="O186" s="108"/>
-      <c r="P186" s="239"/>
+      <c r="P186" s="231"/>
       <c r="Q186" s="138"/>
       <c r="R186" s="139"/>
-      <c r="S186" s="193"/>
+      <c r="S186" s="192"/>
       <c r="T186" s="54"/>
       <c r="U186" s="55"/>
       <c r="V186" s="56"/>
     </row>
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="283"/>
-      <c r="B187" s="232"/>
-      <c r="C187" s="284"/>
-      <c r="D187" s="284"/>
+      <c r="A187" s="275"/>
+      <c r="B187" s="224"/>
+      <c r="C187" s="276"/>
+      <c r="D187" s="276"/>
       <c r="E187" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F187" s="66"/>
-      <c r="G187" s="257"/>
-      <c r="H187" s="260"/>
+      <c r="G187" s="249"/>
+      <c r="H187" s="252"/>
       <c r="I187" s="66"/>
       <c r="J187" s="45">
         <f t="shared" si="5"/>
@@ -9383,26 +9452,26 @@
         <v>0</v>
       </c>
       <c r="O187" s="108"/>
-      <c r="P187" s="239"/>
+      <c r="P187" s="231"/>
       <c r="Q187" s="138"/>
       <c r="R187" s="139"/>
-      <c r="S187" s="193"/>
+      <c r="S187" s="192"/>
       <c r="T187" s="54"/>
       <c r="U187" s="55"/>
       <c r="V187" s="56"/>
     </row>
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="301"/>
+      <c r="A188" s="293"/>
       <c r="B188" s="137"/>
-      <c r="C188" s="285"/>
-      <c r="D188" s="285"/>
+      <c r="C188" s="277"/>
+      <c r="D188" s="277"/>
       <c r="E188" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F188" s="66"/>
       <c r="G188" s="127"/>
-      <c r="H188" s="260"/>
+      <c r="H188" s="252"/>
       <c r="I188" s="66"/>
       <c r="J188" s="45">
         <f t="shared" si="5"/>
@@ -9415,27 +9484,27 @@
         <f>K188*I188</f>
         <v>0</v>
       </c>
-      <c r="O188" s="287"/>
-      <c r="P188" s="288"/>
+      <c r="O188" s="279"/>
+      <c r="P188" s="280"/>
       <c r="Q188" s="138"/>
       <c r="R188" s="139"/>
-      <c r="S188" s="193"/>
+      <c r="S188" s="192"/>
       <c r="T188" s="54"/>
       <c r="U188" s="55"/>
       <c r="V188" s="56"/>
     </row>
     <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="242"/>
-      <c r="B189" s="232"/>
-      <c r="C189" s="302"/>
-      <c r="D189" s="302"/>
+      <c r="A189" s="234"/>
+      <c r="B189" s="224"/>
+      <c r="C189" s="294"/>
+      <c r="D189" s="294"/>
       <c r="E189" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F189" s="66"/>
-      <c r="G189" s="257"/>
-      <c r="H189" s="260"/>
+      <c r="G189" s="249"/>
+      <c r="H189" s="252"/>
       <c r="I189" s="66"/>
       <c r="J189" s="45">
         <f t="shared" si="5"/>
@@ -9449,26 +9518,26 @@
         <v>0</v>
       </c>
       <c r="O189" s="108"/>
-      <c r="P189" s="239"/>
+      <c r="P189" s="231"/>
       <c r="Q189" s="138"/>
       <c r="R189" s="139"/>
-      <c r="S189" s="193"/>
+      <c r="S189" s="192"/>
       <c r="T189" s="54"/>
       <c r="U189" s="55"/>
       <c r="V189" s="56"/>
     </row>
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="242"/>
-      <c r="B190" s="232"/>
-      <c r="C190" s="302"/>
-      <c r="D190" s="302"/>
+      <c r="A190" s="234"/>
+      <c r="B190" s="224"/>
+      <c r="C190" s="294"/>
+      <c r="D190" s="294"/>
       <c r="E190" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F190" s="66"/>
-      <c r="G190" s="257"/>
-      <c r="H190" s="260"/>
+      <c r="G190" s="249"/>
+      <c r="H190" s="252"/>
       <c r="I190" s="66"/>
       <c r="J190" s="45">
         <f t="shared" si="5"/>
@@ -9482,26 +9551,26 @@
         <v>0</v>
       </c>
       <c r="O190" s="108"/>
-      <c r="P190" s="239"/>
+      <c r="P190" s="231"/>
       <c r="Q190" s="138"/>
       <c r="R190" s="139"/>
-      <c r="S190" s="193"/>
+      <c r="S190" s="192"/>
       <c r="T190" s="54"/>
       <c r="U190" s="55"/>
       <c r="V190" s="56"/>
     </row>
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="242"/>
-      <c r="B191" s="232"/>
-      <c r="C191" s="302"/>
-      <c r="D191" s="302"/>
+      <c r="A191" s="234"/>
+      <c r="B191" s="224"/>
+      <c r="C191" s="294"/>
+      <c r="D191" s="294"/>
       <c r="E191" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F191" s="66"/>
-      <c r="G191" s="257"/>
-      <c r="H191" s="260"/>
+      <c r="G191" s="249"/>
+      <c r="H191" s="252"/>
       <c r="I191" s="66"/>
       <c r="J191" s="45">
         <f t="shared" si="5"/>
@@ -9515,26 +9584,26 @@
         <v>0</v>
       </c>
       <c r="O191" s="108"/>
-      <c r="P191" s="239"/>
+      <c r="P191" s="231"/>
       <c r="Q191" s="138"/>
       <c r="R191" s="139"/>
-      <c r="S191" s="193"/>
+      <c r="S191" s="192"/>
       <c r="T191" s="54"/>
       <c r="U191" s="55"/>
       <c r="V191" s="56"/>
     </row>
     <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="242"/>
-      <c r="B192" s="232"/>
-      <c r="C192" s="302"/>
-      <c r="D192" s="302"/>
+      <c r="A192" s="234"/>
+      <c r="B192" s="224"/>
+      <c r="C192" s="294"/>
+      <c r="D192" s="294"/>
       <c r="E192" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F192" s="303"/>
-      <c r="G192" s="286"/>
-      <c r="H192" s="260"/>
+      <c r="F192" s="295"/>
+      <c r="G192" s="278"/>
+      <c r="H192" s="252"/>
       <c r="I192" s="66"/>
       <c r="J192" s="45">
         <f t="shared" si="5"/>
@@ -9548,26 +9617,26 @@
         <v>0</v>
       </c>
       <c r="O192" s="108"/>
-      <c r="P192" s="239"/>
+      <c r="P192" s="231"/>
       <c r="Q192" s="138"/>
       <c r="R192" s="139"/>
-      <c r="S192" s="193"/>
+      <c r="S192" s="192"/>
       <c r="T192" s="54"/>
       <c r="U192" s="55"/>
       <c r="V192" s="56"/>
     </row>
     <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="242"/>
-      <c r="B193" s="232"/>
-      <c r="C193" s="302"/>
-      <c r="D193" s="302"/>
+      <c r="A193" s="234"/>
+      <c r="B193" s="224"/>
+      <c r="C193" s="294"/>
+      <c r="D193" s="294"/>
       <c r="E193" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F193" s="303"/>
-      <c r="G193" s="286"/>
-      <c r="H193" s="260"/>
+      <c r="F193" s="295"/>
+      <c r="G193" s="278"/>
+      <c r="H193" s="252"/>
       <c r="I193" s="66"/>
       <c r="J193" s="45">
         <f t="shared" si="5"/>
@@ -9581,26 +9650,26 @@
         <v>0</v>
       </c>
       <c r="O193" s="108"/>
-      <c r="P193" s="239"/>
+      <c r="P193" s="231"/>
       <c r="Q193" s="138"/>
       <c r="R193" s="139"/>
-      <c r="S193" s="193"/>
+      <c r="S193" s="192"/>
       <c r="T193" s="54"/>
       <c r="U193" s="55"/>
       <c r="V193" s="56"/>
     </row>
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="242"/>
-      <c r="B194" s="232"/>
-      <c r="C194" s="302"/>
-      <c r="D194" s="302"/>
+      <c r="A194" s="234"/>
+      <c r="B194" s="224"/>
+      <c r="C194" s="294"/>
+      <c r="D194" s="294"/>
       <c r="E194" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F194" s="303"/>
-      <c r="G194" s="286"/>
-      <c r="H194" s="260"/>
+      <c r="F194" s="295"/>
+      <c r="G194" s="278"/>
+      <c r="H194" s="252"/>
       <c r="I194" s="66"/>
       <c r="J194" s="45">
         <f t="shared" si="5"/>
@@ -9614,26 +9683,26 @@
         <v>0</v>
       </c>
       <c r="O194" s="108"/>
-      <c r="P194" s="239"/>
+      <c r="P194" s="231"/>
       <c r="Q194" s="138"/>
       <c r="R194" s="139"/>
-      <c r="S194" s="193"/>
+      <c r="S194" s="192"/>
       <c r="T194" s="54"/>
       <c r="U194" s="55"/>
       <c r="V194" s="56"/>
     </row>
     <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="242"/>
-      <c r="B195" s="232"/>
-      <c r="C195" s="302"/>
-      <c r="D195" s="302"/>
+      <c r="A195" s="234"/>
+      <c r="B195" s="224"/>
+      <c r="C195" s="294"/>
+      <c r="D195" s="294"/>
       <c r="E195" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F195" s="303"/>
-      <c r="G195" s="286"/>
-      <c r="H195" s="260"/>
+      <c r="F195" s="295"/>
+      <c r="G195" s="278"/>
+      <c r="H195" s="252"/>
       <c r="I195" s="66"/>
       <c r="J195" s="45">
         <f t="shared" si="5"/>
@@ -9647,26 +9716,26 @@
         <v>0</v>
       </c>
       <c r="O195" s="108"/>
-      <c r="P195" s="239"/>
+      <c r="P195" s="231"/>
       <c r="Q195" s="138"/>
       <c r="R195" s="139"/>
-      <c r="S195" s="193"/>
+      <c r="S195" s="192"/>
       <c r="T195" s="54"/>
       <c r="U195" s="55"/>
       <c r="V195" s="56"/>
     </row>
     <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="242"/>
-      <c r="B196" s="232"/>
-      <c r="C196" s="302"/>
-      <c r="D196" s="302"/>
+      <c r="A196" s="234"/>
+      <c r="B196" s="224"/>
+      <c r="C196" s="294"/>
+      <c r="D196" s="294"/>
       <c r="E196" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F196" s="303"/>
-      <c r="G196" s="286"/>
-      <c r="H196" s="260"/>
+      <c r="F196" s="295"/>
+      <c r="G196" s="278"/>
+      <c r="H196" s="252"/>
       <c r="I196" s="66"/>
       <c r="J196" s="45">
         <f t="shared" si="5"/>
@@ -9680,26 +9749,26 @@
         <v>0</v>
       </c>
       <c r="O196" s="108"/>
-      <c r="P196" s="239"/>
+      <c r="P196" s="231"/>
       <c r="Q196" s="138"/>
       <c r="R196" s="139"/>
-      <c r="S196" s="193"/>
+      <c r="S196" s="192"/>
       <c r="T196" s="54"/>
       <c r="U196" s="55"/>
       <c r="V196" s="56"/>
     </row>
     <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="242"/>
-      <c r="B197" s="232"/>
-      <c r="C197" s="302"/>
-      <c r="D197" s="302"/>
+      <c r="A197" s="234"/>
+      <c r="B197" s="224"/>
+      <c r="C197" s="294"/>
+      <c r="D197" s="294"/>
       <c r="E197" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F197" s="303"/>
-      <c r="G197" s="286"/>
-      <c r="H197" s="260"/>
+      <c r="F197" s="295"/>
+      <c r="G197" s="278"/>
+      <c r="H197" s="252"/>
       <c r="I197" s="66"/>
       <c r="J197" s="45">
         <f t="shared" si="5"/>
@@ -9713,26 +9782,26 @@
         <v>0</v>
       </c>
       <c r="O197" s="108"/>
-      <c r="P197" s="239"/>
+      <c r="P197" s="231"/>
       <c r="Q197" s="138"/>
       <c r="R197" s="139"/>
-      <c r="S197" s="193"/>
+      <c r="S197" s="192"/>
       <c r="T197" s="54"/>
       <c r="U197" s="55"/>
       <c r="V197" s="56"/>
     </row>
     <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="242"/>
-      <c r="B198" s="232"/>
-      <c r="C198" s="302"/>
-      <c r="D198" s="302"/>
+      <c r="A198" s="234"/>
+      <c r="B198" s="224"/>
+      <c r="C198" s="294"/>
+      <c r="D198" s="294"/>
       <c r="E198" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F198" s="303"/>
-      <c r="G198" s="286"/>
-      <c r="H198" s="260"/>
+      <c r="F198" s="295"/>
+      <c r="G198" s="278"/>
+      <c r="H198" s="252"/>
       <c r="I198" s="66"/>
       <c r="J198" s="45">
         <f t="shared" si="5"/>
@@ -9746,26 +9815,26 @@
         <v>0</v>
       </c>
       <c r="O198" s="108"/>
-      <c r="P198" s="239"/>
+      <c r="P198" s="231"/>
       <c r="Q198" s="138"/>
       <c r="R198" s="139"/>
-      <c r="S198" s="193"/>
+      <c r="S198" s="192"/>
       <c r="T198" s="54"/>
       <c r="U198" s="55"/>
       <c r="V198" s="56"/>
     </row>
     <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="242"/>
-      <c r="B199" s="232"/>
-      <c r="C199" s="302"/>
-      <c r="D199" s="302"/>
+      <c r="A199" s="234"/>
+      <c r="B199" s="224"/>
+      <c r="C199" s="294"/>
+      <c r="D199" s="294"/>
       <c r="E199" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F199" s="66"/>
-      <c r="G199" s="286"/>
-      <c r="H199" s="260"/>
+      <c r="G199" s="278"/>
+      <c r="H199" s="252"/>
       <c r="I199" s="66"/>
       <c r="J199" s="45">
         <f t="shared" si="5"/>
@@ -9779,26 +9848,26 @@
         <v>0</v>
       </c>
       <c r="O199" s="108"/>
-      <c r="P199" s="239"/>
+      <c r="P199" s="231"/>
       <c r="Q199" s="138"/>
       <c r="R199" s="139"/>
-      <c r="S199" s="193"/>
+      <c r="S199" s="192"/>
       <c r="T199" s="54"/>
       <c r="U199" s="55"/>
       <c r="V199" s="56"/>
     </row>
     <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="242"/>
-      <c r="B200" s="232"/>
-      <c r="C200" s="279"/>
-      <c r="D200" s="279"/>
+      <c r="A200" s="234"/>
+      <c r="B200" s="224"/>
+      <c r="C200" s="271"/>
+      <c r="D200" s="271"/>
       <c r="E200" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F200" s="66"/>
-      <c r="G200" s="257"/>
-      <c r="H200" s="260"/>
+      <c r="G200" s="249"/>
+      <c r="H200" s="252"/>
       <c r="I200" s="66"/>
       <c r="J200" s="45">
         <f t="shared" si="5"/>
@@ -9812,26 +9881,26 @@
         <v>0</v>
       </c>
       <c r="O200" s="108"/>
-      <c r="P200" s="239"/>
+      <c r="P200" s="231"/>
       <c r="Q200" s="138"/>
       <c r="R200" s="139"/>
-      <c r="S200" s="193"/>
+      <c r="S200" s="192"/>
       <c r="T200" s="54"/>
       <c r="U200" s="55"/>
       <c r="V200" s="56"/>
     </row>
     <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="242"/>
-      <c r="B201" s="232"/>
-      <c r="C201" s="279"/>
-      <c r="D201" s="279"/>
+      <c r="A201" s="234"/>
+      <c r="B201" s="224"/>
+      <c r="C201" s="271"/>
+      <c r="D201" s="271"/>
       <c r="E201" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F201" s="66"/>
-      <c r="G201" s="257"/>
-      <c r="H201" s="260"/>
+      <c r="G201" s="249"/>
+      <c r="H201" s="252"/>
       <c r="I201" s="66"/>
       <c r="J201" s="45">
         <f t="shared" si="5"/>
@@ -9845,26 +9914,26 @@
         <v>0</v>
       </c>
       <c r="O201" s="108"/>
-      <c r="P201" s="239"/>
+      <c r="P201" s="231"/>
       <c r="Q201" s="138"/>
       <c r="R201" s="139"/>
-      <c r="S201" s="193"/>
+      <c r="S201" s="192"/>
       <c r="T201" s="54"/>
       <c r="U201" s="55"/>
       <c r="V201" s="56"/>
     </row>
     <row r="202" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="242"/>
-      <c r="B202" s="232"/>
-      <c r="C202" s="279"/>
-      <c r="D202" s="279"/>
+      <c r="A202" s="234"/>
+      <c r="B202" s="224"/>
+      <c r="C202" s="271"/>
+      <c r="D202" s="271"/>
       <c r="E202" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F202" s="66"/>
-      <c r="G202" s="257"/>
-      <c r="H202" s="260"/>
+      <c r="G202" s="249"/>
+      <c r="H202" s="252"/>
       <c r="I202" s="66"/>
       <c r="J202" s="45">
         <f t="shared" si="5"/>
@@ -9878,26 +9947,26 @@
         <v>0</v>
       </c>
       <c r="O202" s="108"/>
-      <c r="P202" s="239"/>
+      <c r="P202" s="231"/>
       <c r="Q202" s="138"/>
       <c r="R202" s="139"/>
-      <c r="S202" s="193"/>
+      <c r="S202" s="192"/>
       <c r="T202" s="54"/>
       <c r="U202" s="55"/>
       <c r="V202" s="56"/>
     </row>
     <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="242"/>
-      <c r="B203" s="232"/>
-      <c r="C203" s="279"/>
-      <c r="D203" s="279"/>
+      <c r="A203" s="234"/>
+      <c r="B203" s="224"/>
+      <c r="C203" s="271"/>
+      <c r="D203" s="271"/>
       <c r="E203" s="40">
         <f t="shared" ref="E203:E261" si="7">D203*F203</f>
         <v>0</v>
       </c>
       <c r="F203" s="66"/>
-      <c r="G203" s="257"/>
-      <c r="H203" s="260"/>
+      <c r="G203" s="249"/>
+      <c r="H203" s="252"/>
       <c r="I203" s="66"/>
       <c r="J203" s="45">
         <f t="shared" si="5"/>
@@ -9911,26 +9980,26 @@
         <v>0</v>
       </c>
       <c r="O203" s="108"/>
-      <c r="P203" s="239"/>
+      <c r="P203" s="231"/>
       <c r="Q203" s="138"/>
       <c r="R203" s="139"/>
-      <c r="S203" s="193"/>
+      <c r="S203" s="192"/>
       <c r="T203" s="54"/>
       <c r="U203" s="55"/>
       <c r="V203" s="56"/>
     </row>
     <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="242"/>
-      <c r="B204" s="232"/>
-      <c r="C204" s="279"/>
-      <c r="D204" s="279"/>
+      <c r="A204" s="234"/>
+      <c r="B204" s="224"/>
+      <c r="C204" s="271"/>
+      <c r="D204" s="271"/>
       <c r="E204" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F204" s="66"/>
-      <c r="G204" s="257"/>
-      <c r="H204" s="260"/>
+      <c r="G204" s="249"/>
+      <c r="H204" s="252"/>
       <c r="I204" s="66"/>
       <c r="J204" s="45">
         <f t="shared" si="5"/>
@@ -9944,26 +10013,26 @@
         <v>0</v>
       </c>
       <c r="O204" s="108"/>
-      <c r="P204" s="239"/>
+      <c r="P204" s="231"/>
       <c r="Q204" s="138"/>
       <c r="R204" s="139"/>
-      <c r="S204" s="193"/>
+      <c r="S204" s="192"/>
       <c r="T204" s="54"/>
       <c r="U204" s="55"/>
       <c r="V204" s="56"/>
     </row>
     <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="242"/>
-      <c r="B205" s="232"/>
-      <c r="C205" s="279"/>
-      <c r="D205" s="279"/>
+      <c r="A205" s="234"/>
+      <c r="B205" s="224"/>
+      <c r="C205" s="271"/>
+      <c r="D205" s="271"/>
       <c r="E205" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F205" s="66"/>
-      <c r="G205" s="257"/>
-      <c r="H205" s="260"/>
+      <c r="G205" s="249"/>
+      <c r="H205" s="252"/>
       <c r="I205" s="66"/>
       <c r="J205" s="45">
         <f t="shared" si="5"/>
@@ -9977,26 +10046,26 @@
         <v>0</v>
       </c>
       <c r="O205" s="108"/>
-      <c r="P205" s="239"/>
+      <c r="P205" s="231"/>
       <c r="Q205" s="138"/>
       <c r="R205" s="139"/>
-      <c r="S205" s="193"/>
+      <c r="S205" s="192"/>
       <c r="T205" s="54"/>
       <c r="U205" s="55"/>
       <c r="V205" s="56"/>
     </row>
     <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="242"/>
-      <c r="B206" s="232"/>
-      <c r="C206" s="279"/>
-      <c r="D206" s="279"/>
+      <c r="A206" s="234"/>
+      <c r="B206" s="224"/>
+      <c r="C206" s="271"/>
+      <c r="D206" s="271"/>
       <c r="E206" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F206" s="66"/>
-      <c r="G206" s="257"/>
-      <c r="H206" s="260"/>
+      <c r="G206" s="249"/>
+      <c r="H206" s="252"/>
       <c r="I206" s="66"/>
       <c r="J206" s="45">
         <f t="shared" si="5"/>
@@ -10010,26 +10079,26 @@
         <v>0</v>
       </c>
       <c r="O206" s="108"/>
-      <c r="P206" s="239"/>
+      <c r="P206" s="231"/>
       <c r="Q206" s="138"/>
       <c r="R206" s="139"/>
-      <c r="S206" s="193"/>
+      <c r="S206" s="192"/>
       <c r="T206" s="54"/>
       <c r="U206" s="55"/>
       <c r="V206" s="56"/>
     </row>
     <row r="207" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="242"/>
-      <c r="B207" s="232"/>
-      <c r="C207" s="279"/>
-      <c r="D207" s="279"/>
+      <c r="A207" s="234"/>
+      <c r="B207" s="224"/>
+      <c r="C207" s="271"/>
+      <c r="D207" s="271"/>
       <c r="E207" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F207" s="66"/>
-      <c r="G207" s="257"/>
-      <c r="H207" s="260"/>
+      <c r="G207" s="249"/>
+      <c r="H207" s="252"/>
       <c r="I207" s="66"/>
       <c r="J207" s="45">
         <f t="shared" si="5"/>
@@ -10043,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="O207" s="108"/>
-      <c r="P207" s="239"/>
+      <c r="P207" s="231"/>
       <c r="Q207" s="138"/>
       <c r="R207" s="139"/>
-      <c r="S207" s="193"/>
+      <c r="S207" s="192"/>
       <c r="T207" s="54"/>
       <c r="U207" s="55"/>
       <c r="V207" s="56"/>
     </row>
     <row r="208" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="232"/>
-      <c r="B208" s="289"/>
-      <c r="C208" s="279"/>
-      <c r="D208" s="279"/>
+      <c r="A208" s="224"/>
+      <c r="B208" s="281"/>
+      <c r="C208" s="271"/>
+      <c r="D208" s="271"/>
       <c r="E208" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -10076,26 +10145,26 @@
         <v>0</v>
       </c>
       <c r="O208" s="108"/>
-      <c r="P208" s="239"/>
+      <c r="P208" s="231"/>
       <c r="Q208" s="138"/>
       <c r="R208" s="139"/>
-      <c r="S208" s="193"/>
+      <c r="S208" s="192"/>
       <c r="T208" s="54"/>
       <c r="U208" s="55"/>
       <c r="V208" s="56"/>
     </row>
     <row r="209" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="301"/>
-      <c r="B209" s="232"/>
-      <c r="C209" s="279"/>
-      <c r="D209" s="279"/>
+      <c r="A209" s="293"/>
+      <c r="B209" s="224"/>
+      <c r="C209" s="271"/>
+      <c r="D209" s="271"/>
       <c r="E209" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F209" s="66"/>
-      <c r="G209" s="257"/>
-      <c r="H209" s="260"/>
+      <c r="G209" s="249"/>
+      <c r="H209" s="252"/>
       <c r="I209" s="66"/>
       <c r="J209" s="45">
         <f t="shared" si="5"/>
@@ -10109,26 +10178,26 @@
         <v>0</v>
       </c>
       <c r="O209" s="108"/>
-      <c r="P209" s="239"/>
+      <c r="P209" s="231"/>
       <c r="Q209" s="138"/>
       <c r="R209" s="139"/>
-      <c r="S209" s="193"/>
+      <c r="S209" s="192"/>
       <c r="T209" s="54"/>
       <c r="U209" s="55"/>
       <c r="V209" s="56"/>
     </row>
     <row r="210" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="301"/>
-      <c r="B210" s="232"/>
-      <c r="C210" s="279"/>
-      <c r="D210" s="279"/>
+      <c r="A210" s="293"/>
+      <c r="B210" s="224"/>
+      <c r="C210" s="271"/>
+      <c r="D210" s="271"/>
       <c r="E210" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F210" s="66"/>
-      <c r="G210" s="257"/>
-      <c r="H210" s="260"/>
+      <c r="G210" s="249"/>
+      <c r="H210" s="252"/>
       <c r="I210" s="66"/>
       <c r="J210" s="45">
         <f t="shared" si="5"/>
@@ -10142,26 +10211,26 @@
         <v>0</v>
       </c>
       <c r="O210" s="108"/>
-      <c r="P210" s="239"/>
+      <c r="P210" s="231"/>
       <c r="Q210" s="138"/>
       <c r="R210" s="139"/>
-      <c r="S210" s="193"/>
+      <c r="S210" s="192"/>
       <c r="T210" s="54"/>
       <c r="U210" s="55"/>
       <c r="V210" s="56"/>
     </row>
     <row r="211" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="301"/>
-      <c r="B211" s="232"/>
-      <c r="C211" s="279"/>
-      <c r="D211" s="279"/>
+      <c r="A211" s="293"/>
+      <c r="B211" s="224"/>
+      <c r="C211" s="271"/>
+      <c r="D211" s="271"/>
       <c r="E211" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F211" s="66"/>
-      <c r="G211" s="257"/>
-      <c r="H211" s="260"/>
+      <c r="G211" s="249"/>
+      <c r="H211" s="252"/>
       <c r="I211" s="66"/>
       <c r="J211" s="45">
         <f t="shared" si="5"/>
@@ -10175,26 +10244,26 @@
         <v>0</v>
       </c>
       <c r="O211" s="108"/>
-      <c r="P211" s="239"/>
+      <c r="P211" s="231"/>
       <c r="Q211" s="138"/>
       <c r="R211" s="139"/>
-      <c r="S211" s="193"/>
+      <c r="S211" s="192"/>
       <c r="T211" s="54"/>
       <c r="U211" s="55"/>
       <c r="V211" s="56"/>
     </row>
     <row r="212" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="301"/>
-      <c r="B212" s="232"/>
-      <c r="C212" s="279"/>
-      <c r="D212" s="279"/>
+      <c r="A212" s="293"/>
+      <c r="B212" s="224"/>
+      <c r="C212" s="271"/>
+      <c r="D212" s="271"/>
       <c r="E212" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F212" s="66"/>
-      <c r="G212" s="257"/>
-      <c r="H212" s="260"/>
+      <c r="G212" s="249"/>
+      <c r="H212" s="252"/>
       <c r="I212" s="66"/>
       <c r="J212" s="45">
         <f t="shared" si="5"/>
@@ -10208,26 +10277,26 @@
         <v>0</v>
       </c>
       <c r="O212" s="108"/>
-      <c r="P212" s="239"/>
+      <c r="P212" s="231"/>
       <c r="Q212" s="138"/>
       <c r="R212" s="139"/>
-      <c r="S212" s="193"/>
+      <c r="S212" s="192"/>
       <c r="T212" s="54"/>
       <c r="U212" s="55"/>
       <c r="V212" s="56"/>
     </row>
     <row r="213" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="304"/>
-      <c r="B213" s="232"/>
-      <c r="C213" s="279"/>
-      <c r="D213" s="279"/>
+      <c r="A213" s="296"/>
+      <c r="B213" s="224"/>
+      <c r="C213" s="271"/>
+      <c r="D213" s="271"/>
       <c r="E213" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F213" s="66"/>
-      <c r="G213" s="257"/>
-      <c r="H213" s="260"/>
+      <c r="G213" s="249"/>
+      <c r="H213" s="252"/>
       <c r="I213" s="66"/>
       <c r="J213" s="45">
         <f t="shared" si="5"/>
@@ -10241,26 +10310,26 @@
         <v>0</v>
       </c>
       <c r="O213" s="108"/>
-      <c r="P213" s="239"/>
+      <c r="P213" s="231"/>
       <c r="Q213" s="138"/>
       <c r="R213" s="139"/>
-      <c r="S213" s="193"/>
+      <c r="S213" s="192"/>
       <c r="T213" s="54"/>
       <c r="U213" s="55"/>
       <c r="V213" s="56"/>
     </row>
     <row r="214" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="242"/>
-      <c r="B214" s="232"/>
-      <c r="C214" s="279"/>
-      <c r="D214" s="279"/>
+      <c r="A214" s="234"/>
+      <c r="B214" s="224"/>
+      <c r="C214" s="271"/>
+      <c r="D214" s="271"/>
       <c r="E214" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F214" s="66"/>
-      <c r="G214" s="257"/>
-      <c r="H214" s="260"/>
+      <c r="G214" s="249"/>
+      <c r="H214" s="252"/>
       <c r="I214" s="66"/>
       <c r="J214" s="45">
         <f t="shared" ref="J214:J257" si="8">I214-F214</f>
@@ -10274,26 +10343,26 @@
         <v>0</v>
       </c>
       <c r="O214" s="108"/>
-      <c r="P214" s="239"/>
+      <c r="P214" s="231"/>
       <c r="Q214" s="138"/>
       <c r="R214" s="139"/>
-      <c r="S214" s="193"/>
+      <c r="S214" s="192"/>
       <c r="T214" s="54"/>
       <c r="U214" s="55"/>
       <c r="V214" s="56"/>
     </row>
     <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="242"/>
-      <c r="B215" s="232"/>
-      <c r="C215" s="279"/>
-      <c r="D215" s="279"/>
+      <c r="A215" s="234"/>
+      <c r="B215" s="224"/>
+      <c r="C215" s="271"/>
+      <c r="D215" s="271"/>
       <c r="E215" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F215" s="66"/>
-      <c r="G215" s="257"/>
-      <c r="H215" s="260"/>
+      <c r="G215" s="249"/>
+      <c r="H215" s="252"/>
       <c r="I215" s="66"/>
       <c r="J215" s="45">
         <f t="shared" si="8"/>
@@ -10307,26 +10376,26 @@
         <v>0</v>
       </c>
       <c r="O215" s="108"/>
-      <c r="P215" s="239"/>
+      <c r="P215" s="231"/>
       <c r="Q215" s="138"/>
       <c r="R215" s="139"/>
-      <c r="S215" s="193"/>
+      <c r="S215" s="192"/>
       <c r="T215" s="54"/>
       <c r="U215" s="55"/>
       <c r="V215" s="56"/>
     </row>
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="242"/>
-      <c r="B216" s="232"/>
-      <c r="C216" s="279"/>
-      <c r="D216" s="279"/>
+      <c r="A216" s="234"/>
+      <c r="B216" s="224"/>
+      <c r="C216" s="271"/>
+      <c r="D216" s="271"/>
       <c r="E216" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F216" s="66"/>
-      <c r="G216" s="257"/>
-      <c r="H216" s="260"/>
+      <c r="G216" s="249"/>
+      <c r="H216" s="252"/>
       <c r="I216" s="66"/>
       <c r="J216" s="45">
         <f t="shared" si="8"/>
@@ -10340,26 +10409,26 @@
         <v>0</v>
       </c>
       <c r="O216" s="108"/>
-      <c r="P216" s="239"/>
+      <c r="P216" s="231"/>
       <c r="Q216" s="138"/>
       <c r="R216" s="139"/>
-      <c r="S216" s="193"/>
+      <c r="S216" s="192"/>
       <c r="T216" s="54"/>
       <c r="U216" s="55"/>
       <c r="V216" s="56"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="242"/>
-      <c r="B217" s="232"/>
-      <c r="C217" s="279"/>
-      <c r="D217" s="279"/>
+      <c r="A217" s="234"/>
+      <c r="B217" s="224"/>
+      <c r="C217" s="271"/>
+      <c r="D217" s="271"/>
       <c r="E217" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F217" s="66"/>
-      <c r="G217" s="257"/>
-      <c r="H217" s="260"/>
+      <c r="G217" s="249"/>
+      <c r="H217" s="252"/>
       <c r="I217" s="66"/>
       <c r="J217" s="45">
         <f t="shared" si="8"/>
@@ -10373,26 +10442,26 @@
         <v>0</v>
       </c>
       <c r="O217" s="108"/>
-      <c r="P217" s="239"/>
+      <c r="P217" s="231"/>
       <c r="Q217" s="138"/>
       <c r="R217" s="139"/>
-      <c r="S217" s="193"/>
+      <c r="S217" s="192"/>
       <c r="T217" s="54"/>
       <c r="U217" s="55"/>
       <c r="V217" s="56"/>
     </row>
     <row r="218" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="242"/>
-      <c r="B218" s="232"/>
-      <c r="C218" s="279"/>
-      <c r="D218" s="279"/>
+      <c r="A218" s="234"/>
+      <c r="B218" s="224"/>
+      <c r="C218" s="271"/>
+      <c r="D218" s="271"/>
       <c r="E218" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F218" s="66"/>
-      <c r="G218" s="257"/>
-      <c r="H218" s="260"/>
+      <c r="G218" s="249"/>
+      <c r="H218" s="252"/>
       <c r="I218" s="66"/>
       <c r="J218" s="45">
         <f t="shared" si="8"/>
@@ -10406,26 +10475,26 @@
         <v>0</v>
       </c>
       <c r="O218" s="108"/>
-      <c r="P218" s="239"/>
+      <c r="P218" s="231"/>
       <c r="Q218" s="138"/>
       <c r="R218" s="139"/>
-      <c r="S218" s="193"/>
+      <c r="S218" s="192"/>
       <c r="T218" s="54"/>
       <c r="U218" s="55"/>
       <c r="V218" s="56"/>
     </row>
     <row r="219" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="242"/>
-      <c r="B219" s="232"/>
-      <c r="C219" s="279"/>
-      <c r="D219" s="279"/>
+      <c r="A219" s="234"/>
+      <c r="B219" s="224"/>
+      <c r="C219" s="271"/>
+      <c r="D219" s="271"/>
       <c r="E219" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F219" s="66"/>
-      <c r="G219" s="257"/>
-      <c r="H219" s="260"/>
+      <c r="G219" s="249"/>
+      <c r="H219" s="252"/>
       <c r="I219" s="66"/>
       <c r="J219" s="45">
         <f t="shared" si="8"/>
@@ -10439,26 +10508,26 @@
         <v>0</v>
       </c>
       <c r="O219" s="108"/>
-      <c r="P219" s="239"/>
+      <c r="P219" s="231"/>
       <c r="Q219" s="138"/>
       <c r="R219" s="139"/>
-      <c r="S219" s="193"/>
+      <c r="S219" s="192"/>
       <c r="T219" s="54"/>
       <c r="U219" s="55"/>
       <c r="V219" s="56"/>
     </row>
     <row r="220" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="242"/>
-      <c r="B220" s="232"/>
-      <c r="C220" s="279"/>
-      <c r="D220" s="279"/>
+      <c r="A220" s="234"/>
+      <c r="B220" s="224"/>
+      <c r="C220" s="271"/>
+      <c r="D220" s="271"/>
       <c r="E220" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F220" s="66"/>
-      <c r="G220" s="257"/>
-      <c r="H220" s="260"/>
+      <c r="G220" s="249"/>
+      <c r="H220" s="252"/>
       <c r="I220" s="66"/>
       <c r="J220" s="45">
         <f t="shared" si="8"/>
@@ -10472,26 +10541,26 @@
         <v>0</v>
       </c>
       <c r="O220" s="108"/>
-      <c r="P220" s="239"/>
+      <c r="P220" s="231"/>
       <c r="Q220" s="138"/>
       <c r="R220" s="139"/>
-      <c r="S220" s="193"/>
+      <c r="S220" s="192"/>
       <c r="T220" s="54"/>
       <c r="U220" s="55"/>
       <c r="V220" s="56"/>
     </row>
     <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="242"/>
-      <c r="B221" s="232"/>
-      <c r="C221" s="279"/>
-      <c r="D221" s="279"/>
+      <c r="A221" s="234"/>
+      <c r="B221" s="224"/>
+      <c r="C221" s="271"/>
+      <c r="D221" s="271"/>
       <c r="E221" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F221" s="66"/>
-      <c r="G221" s="257"/>
-      <c r="H221" s="260"/>
+      <c r="G221" s="249"/>
+      <c r="H221" s="252"/>
       <c r="I221" s="66"/>
       <c r="J221" s="45">
         <f t="shared" si="8"/>
@@ -10505,26 +10574,26 @@
         <v>0</v>
       </c>
       <c r="O221" s="108"/>
-      <c r="P221" s="239"/>
+      <c r="P221" s="231"/>
       <c r="Q221" s="138"/>
       <c r="R221" s="139"/>
-      <c r="S221" s="193"/>
+      <c r="S221" s="192"/>
       <c r="T221" s="54"/>
       <c r="U221" s="55"/>
       <c r="V221" s="56"/>
     </row>
     <row r="222" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="242"/>
-      <c r="B222" s="232"/>
-      <c r="C222" s="279"/>
-      <c r="D222" s="279"/>
+      <c r="A222" s="234"/>
+      <c r="B222" s="224"/>
+      <c r="C222" s="271"/>
+      <c r="D222" s="271"/>
       <c r="E222" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F222" s="66"/>
-      <c r="G222" s="257"/>
-      <c r="H222" s="260"/>
+      <c r="G222" s="249"/>
+      <c r="H222" s="252"/>
       <c r="I222" s="66"/>
       <c r="J222" s="45">
         <f t="shared" si="8"/>
@@ -10538,26 +10607,26 @@
         <v>0</v>
       </c>
       <c r="O222" s="108"/>
-      <c r="P222" s="239"/>
+      <c r="P222" s="231"/>
       <c r="Q222" s="138"/>
       <c r="R222" s="139"/>
-      <c r="S222" s="193"/>
+      <c r="S222" s="192"/>
       <c r="T222" s="54"/>
       <c r="U222" s="55"/>
       <c r="V222" s="56"/>
     </row>
     <row r="223" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="242"/>
-      <c r="B223" s="232"/>
-      <c r="C223" s="305"/>
-      <c r="D223" s="305"/>
+      <c r="A223" s="234"/>
+      <c r="B223" s="224"/>
+      <c r="C223" s="297"/>
+      <c r="D223" s="297"/>
       <c r="E223" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F223" s="66"/>
-      <c r="G223" s="257"/>
-      <c r="H223" s="260"/>
+      <c r="G223" s="249"/>
+      <c r="H223" s="252"/>
       <c r="I223" s="66"/>
       <c r="J223" s="45">
         <f t="shared" si="8"/>
@@ -10571,26 +10640,26 @@
         <v>0</v>
       </c>
       <c r="O223" s="108"/>
-      <c r="P223" s="239"/>
+      <c r="P223" s="231"/>
       <c r="Q223" s="138"/>
       <c r="R223" s="139"/>
-      <c r="S223" s="193"/>
+      <c r="S223" s="192"/>
       <c r="T223" s="54"/>
       <c r="U223" s="55"/>
       <c r="V223" s="56"/>
     </row>
     <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="242"/>
-      <c r="B224" s="232"/>
-      <c r="C224" s="279"/>
-      <c r="D224" s="279"/>
+      <c r="A224" s="234"/>
+      <c r="B224" s="224"/>
+      <c r="C224" s="271"/>
+      <c r="D224" s="271"/>
       <c r="E224" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F224" s="66"/>
-      <c r="G224" s="257"/>
-      <c r="H224" s="260"/>
+      <c r="G224" s="249"/>
+      <c r="H224" s="252"/>
       <c r="I224" s="66"/>
       <c r="J224" s="45">
         <f t="shared" si="8"/>
@@ -10604,26 +10673,26 @@
         <v>0</v>
       </c>
       <c r="O224" s="108"/>
-      <c r="P224" s="239"/>
+      <c r="P224" s="231"/>
       <c r="Q224" s="138"/>
       <c r="R224" s="139"/>
-      <c r="S224" s="193"/>
+      <c r="S224" s="192"/>
       <c r="T224" s="54"/>
       <c r="U224" s="55"/>
       <c r="V224" s="56"/>
     </row>
     <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="242"/>
-      <c r="B225" s="232"/>
-      <c r="C225" s="299"/>
-      <c r="D225" s="299"/>
+      <c r="A225" s="234"/>
+      <c r="B225" s="224"/>
+      <c r="C225" s="291"/>
+      <c r="D225" s="291"/>
       <c r="E225" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F225" s="66"/>
-      <c r="G225" s="257"/>
-      <c r="H225" s="260"/>
+      <c r="G225" s="249"/>
+      <c r="H225" s="252"/>
       <c r="I225" s="66"/>
       <c r="J225" s="45">
         <f t="shared" si="8"/>
@@ -10637,26 +10706,26 @@
         <v>0</v>
       </c>
       <c r="O225" s="108"/>
-      <c r="P225" s="239"/>
+      <c r="P225" s="231"/>
       <c r="Q225" s="138"/>
       <c r="R225" s="139"/>
-      <c r="S225" s="193"/>
+      <c r="S225" s="192"/>
       <c r="T225" s="54"/>
       <c r="U225" s="55"/>
       <c r="V225" s="56"/>
     </row>
     <row r="226" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="242"/>
-      <c r="B226" s="232"/>
-      <c r="C226" s="300"/>
-      <c r="D226" s="300"/>
+      <c r="A226" s="234"/>
+      <c r="B226" s="224"/>
+      <c r="C226" s="292"/>
+      <c r="D226" s="292"/>
       <c r="E226" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F226" s="66"/>
-      <c r="G226" s="257"/>
-      <c r="H226" s="260"/>
+      <c r="G226" s="249"/>
+      <c r="H226" s="252"/>
       <c r="I226" s="66"/>
       <c r="J226" s="45">
         <f t="shared" si="8"/>
@@ -10670,26 +10739,26 @@
         <v>0</v>
       </c>
       <c r="O226" s="108"/>
-      <c r="P226" s="239"/>
+      <c r="P226" s="231"/>
       <c r="Q226" s="138"/>
       <c r="R226" s="139"/>
-      <c r="S226" s="193"/>
+      <c r="S226" s="192"/>
       <c r="T226" s="54"/>
       <c r="U226" s="55"/>
       <c r="V226" s="56"/>
     </row>
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="242"/>
-      <c r="B227" s="232"/>
-      <c r="C227" s="300"/>
-      <c r="D227" s="300"/>
+      <c r="A227" s="234"/>
+      <c r="B227" s="224"/>
+      <c r="C227" s="292"/>
+      <c r="D227" s="292"/>
       <c r="E227" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F227" s="66"/>
-      <c r="G227" s="257"/>
-      <c r="H227" s="260"/>
+      <c r="G227" s="249"/>
+      <c r="H227" s="252"/>
       <c r="I227" s="66"/>
       <c r="J227" s="45">
         <f t="shared" si="8"/>
@@ -10703,26 +10772,26 @@
         <v>0</v>
       </c>
       <c r="O227" s="108"/>
-      <c r="P227" s="239"/>
+      <c r="P227" s="231"/>
       <c r="Q227" s="138"/>
       <c r="R227" s="139"/>
-      <c r="S227" s="193"/>
+      <c r="S227" s="192"/>
       <c r="T227" s="54"/>
       <c r="U227" s="55"/>
       <c r="V227" s="56"/>
     </row>
     <row r="228" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="242"/>
-      <c r="B228" s="232"/>
-      <c r="C228" s="299"/>
-      <c r="D228" s="299"/>
+      <c r="A228" s="234"/>
+      <c r="B228" s="224"/>
+      <c r="C228" s="291"/>
+      <c r="D228" s="291"/>
       <c r="E228" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F228" s="66"/>
-      <c r="G228" s="257"/>
-      <c r="H228" s="260"/>
+      <c r="G228" s="249"/>
+      <c r="H228" s="252"/>
       <c r="I228" s="66"/>
       <c r="J228" s="45">
         <f t="shared" si="8"/>
@@ -10736,26 +10805,26 @@
         <v>0</v>
       </c>
       <c r="O228" s="108"/>
-      <c r="P228" s="239"/>
+      <c r="P228" s="231"/>
       <c r="Q228" s="138"/>
       <c r="R228" s="139"/>
-      <c r="S228" s="193"/>
+      <c r="S228" s="192"/>
       <c r="T228" s="54"/>
       <c r="U228" s="55"/>
       <c r="V228" s="56"/>
     </row>
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="242"/>
-      <c r="B229" s="232"/>
-      <c r="C229" s="284"/>
-      <c r="D229" s="284"/>
+      <c r="A229" s="234"/>
+      <c r="B229" s="224"/>
+      <c r="C229" s="276"/>
+      <c r="D229" s="276"/>
       <c r="E229" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F229" s="66"/>
-      <c r="G229" s="257"/>
-      <c r="H229" s="260"/>
+      <c r="G229" s="249"/>
+      <c r="H229" s="252"/>
       <c r="I229" s="66"/>
       <c r="J229" s="45">
         <f t="shared" si="8"/>
@@ -10769,26 +10838,26 @@
         <v>0</v>
       </c>
       <c r="O229" s="108"/>
-      <c r="P229" s="239"/>
+      <c r="P229" s="231"/>
       <c r="Q229" s="138"/>
       <c r="R229" s="139"/>
-      <c r="S229" s="193"/>
+      <c r="S229" s="192"/>
       <c r="T229" s="54"/>
       <c r="U229" s="55"/>
       <c r="V229" s="56"/>
     </row>
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="242"/>
-      <c r="B230" s="232"/>
-      <c r="C230" s="229"/>
-      <c r="D230" s="229"/>
+      <c r="A230" s="234"/>
+      <c r="B230" s="224"/>
+      <c r="C230" s="221"/>
+      <c r="D230" s="221"/>
       <c r="E230" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F230" s="66"/>
-      <c r="G230" s="257"/>
-      <c r="H230" s="260"/>
+      <c r="G230" s="249"/>
+      <c r="H230" s="252"/>
       <c r="I230" s="66"/>
       <c r="J230" s="45">
         <f t="shared" si="8"/>
@@ -10802,26 +10871,26 @@
         <v>0</v>
       </c>
       <c r="O230" s="108"/>
-      <c r="P230" s="239"/>
+      <c r="P230" s="231"/>
       <c r="Q230" s="138"/>
       <c r="R230" s="139"/>
-      <c r="S230" s="193"/>
+      <c r="S230" s="192"/>
       <c r="T230" s="54"/>
       <c r="U230" s="55"/>
       <c r="V230" s="56"/>
     </row>
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="233"/>
-      <c r="B231" s="232"/>
-      <c r="C231" s="259"/>
-      <c r="D231" s="259"/>
+      <c r="A231" s="225"/>
+      <c r="B231" s="224"/>
+      <c r="C231" s="251"/>
+      <c r="D231" s="251"/>
       <c r="E231" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F231" s="66"/>
-      <c r="G231" s="257"/>
-      <c r="H231" s="260"/>
+      <c r="G231" s="249"/>
+      <c r="H231" s="252"/>
       <c r="I231" s="66"/>
       <c r="J231" s="45">
         <f t="shared" si="8"/>
@@ -10835,26 +10904,26 @@
         <v>0</v>
       </c>
       <c r="O231" s="108"/>
-      <c r="P231" s="239"/>
+      <c r="P231" s="231"/>
       <c r="Q231" s="138"/>
       <c r="R231" s="139"/>
-      <c r="S231" s="193"/>
+      <c r="S231" s="192"/>
       <c r="T231" s="54"/>
       <c r="U231" s="55"/>
       <c r="V231" s="56"/>
     </row>
     <row r="232" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="242"/>
-      <c r="B232" s="232"/>
-      <c r="C232" s="259"/>
-      <c r="D232" s="259"/>
+      <c r="A232" s="234"/>
+      <c r="B232" s="224"/>
+      <c r="C232" s="251"/>
+      <c r="D232" s="251"/>
       <c r="E232" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F232" s="66"/>
-      <c r="G232" s="257"/>
-      <c r="H232" s="260"/>
+      <c r="G232" s="249"/>
+      <c r="H232" s="252"/>
       <c r="I232" s="66"/>
       <c r="J232" s="45">
         <f t="shared" si="8"/>
@@ -10868,26 +10937,26 @@
         <v>0</v>
       </c>
       <c r="O232" s="108"/>
-      <c r="P232" s="239"/>
+      <c r="P232" s="231"/>
       <c r="Q232" s="138"/>
       <c r="R232" s="139"/>
-      <c r="S232" s="193"/>
+      <c r="S232" s="192"/>
       <c r="T232" s="54"/>
       <c r="U232" s="55"/>
       <c r="V232" s="56"/>
     </row>
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="242"/>
-      <c r="B233" s="232"/>
-      <c r="C233" s="259"/>
-      <c r="D233" s="259"/>
+      <c r="A233" s="234"/>
+      <c r="B233" s="224"/>
+      <c r="C233" s="251"/>
+      <c r="D233" s="251"/>
       <c r="E233" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F233" s="66"/>
-      <c r="G233" s="257"/>
-      <c r="H233" s="260"/>
+      <c r="G233" s="249"/>
+      <c r="H233" s="252"/>
       <c r="I233" s="66"/>
       <c r="J233" s="45">
         <f t="shared" si="8"/>
@@ -10901,26 +10970,26 @@
         <v>0</v>
       </c>
       <c r="O233" s="108"/>
-      <c r="P233" s="239"/>
+      <c r="P233" s="231"/>
       <c r="Q233" s="138"/>
       <c r="R233" s="139"/>
-      <c r="S233" s="193"/>
+      <c r="S233" s="192"/>
       <c r="T233" s="54"/>
       <c r="U233" s="55"/>
       <c r="V233" s="56"/>
     </row>
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="306"/>
-      <c r="B234" s="307"/>
-      <c r="C234" s="259"/>
-      <c r="D234" s="259"/>
+      <c r="A234" s="298"/>
+      <c r="B234" s="299"/>
+      <c r="C234" s="251"/>
+      <c r="D234" s="251"/>
       <c r="E234" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F234" s="66"/>
-      <c r="G234" s="257"/>
-      <c r="H234" s="260"/>
+      <c r="G234" s="249"/>
+      <c r="H234" s="252"/>
       <c r="I234" s="66"/>
       <c r="J234" s="45">
         <f t="shared" si="8"/>
@@ -10934,25 +11003,25 @@
         <v>0</v>
       </c>
       <c r="O234" s="108"/>
-      <c r="P234" s="239"/>
+      <c r="P234" s="231"/>
       <c r="Q234" s="138"/>
       <c r="R234" s="139"/>
-      <c r="S234" s="193"/>
+      <c r="S234" s="192"/>
       <c r="T234" s="54"/>
       <c r="U234" s="55"/>
       <c r="V234" s="56"/>
     </row>
     <row r="235" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="233"/>
-      <c r="B235" s="307"/>
-      <c r="C235" s="259"/>
-      <c r="D235" s="259"/>
+      <c r="A235" s="225"/>
+      <c r="B235" s="299"/>
+      <c r="C235" s="251"/>
+      <c r="D235" s="251"/>
       <c r="E235" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F235" s="66"/>
-      <c r="G235" s="257"/>
+      <c r="G235" s="249"/>
       <c r="H235" s="65"/>
       <c r="I235" s="66"/>
       <c r="J235" s="45">
@@ -10967,26 +11036,26 @@
         <v>0</v>
       </c>
       <c r="O235" s="108"/>
-      <c r="P235" s="239"/>
+      <c r="P235" s="231"/>
       <c r="Q235" s="138"/>
       <c r="R235" s="139"/>
-      <c r="S235" s="193"/>
+      <c r="S235" s="192"/>
       <c r="T235" s="54"/>
       <c r="U235" s="55"/>
       <c r="V235" s="56"/>
     </row>
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="233"/>
-      <c r="B236" s="307"/>
-      <c r="C236" s="259"/>
-      <c r="D236" s="259"/>
+      <c r="A236" s="225"/>
+      <c r="B236" s="299"/>
+      <c r="C236" s="251"/>
+      <c r="D236" s="251"/>
       <c r="E236" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F236" s="66"/>
-      <c r="G236" s="257"/>
-      <c r="H236" s="260"/>
+      <c r="G236" s="249"/>
+      <c r="H236" s="252"/>
       <c r="I236" s="66"/>
       <c r="J236" s="45">
         <f t="shared" si="8"/>
@@ -11000,26 +11069,26 @@
         <v>0</v>
       </c>
       <c r="O236" s="108"/>
-      <c r="P236" s="239"/>
+      <c r="P236" s="231"/>
       <c r="Q236" s="138"/>
       <c r="R236" s="139"/>
-      <c r="S236" s="193"/>
+      <c r="S236" s="192"/>
       <c r="T236" s="54"/>
       <c r="U236" s="55"/>
       <c r="V236" s="56"/>
     </row>
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="242"/>
-      <c r="B237" s="307"/>
-      <c r="C237" s="241"/>
-      <c r="D237" s="241"/>
+      <c r="A237" s="234"/>
+      <c r="B237" s="299"/>
+      <c r="C237" s="233"/>
+      <c r="D237" s="233"/>
       <c r="E237" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F237" s="66"/>
-      <c r="G237" s="257"/>
-      <c r="H237" s="260"/>
+      <c r="G237" s="249"/>
+      <c r="H237" s="252"/>
       <c r="I237" s="66"/>
       <c r="J237" s="45">
         <f t="shared" si="8"/>
@@ -11033,26 +11102,26 @@
         <v>0</v>
       </c>
       <c r="O237" s="108"/>
-      <c r="P237" s="239"/>
+      <c r="P237" s="231"/>
       <c r="Q237" s="138"/>
       <c r="R237" s="139"/>
-      <c r="S237" s="193"/>
+      <c r="S237" s="192"/>
       <c r="T237" s="54"/>
       <c r="U237" s="55"/>
       <c r="V237" s="56"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="242"/>
-      <c r="B238" s="307"/>
-      <c r="C238" s="241"/>
-      <c r="D238" s="241"/>
+      <c r="A238" s="234"/>
+      <c r="B238" s="299"/>
+      <c r="C238" s="233"/>
+      <c r="D238" s="233"/>
       <c r="E238" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F238" s="66"/>
-      <c r="G238" s="257"/>
-      <c r="H238" s="260"/>
+      <c r="G238" s="249"/>
+      <c r="H238" s="252"/>
       <c r="I238" s="66"/>
       <c r="J238" s="45">
         <f t="shared" si="8"/>
@@ -11066,26 +11135,26 @@
         <v>0</v>
       </c>
       <c r="O238" s="108"/>
-      <c r="P238" s="239"/>
+      <c r="P238" s="231"/>
       <c r="Q238" s="138"/>
       <c r="R238" s="139"/>
-      <c r="S238" s="193"/>
+      <c r="S238" s="192"/>
       <c r="T238" s="54"/>
       <c r="U238" s="55"/>
       <c r="V238" s="56"/>
     </row>
     <row r="239" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="233"/>
-      <c r="B239" s="307"/>
-      <c r="C239" s="277"/>
-      <c r="D239" s="277"/>
+      <c r="A239" s="225"/>
+      <c r="B239" s="299"/>
+      <c r="C239" s="269"/>
+      <c r="D239" s="269"/>
       <c r="E239" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239" s="66"/>
-      <c r="G239" s="257"/>
-      <c r="H239" s="274"/>
+      <c r="G239" s="249"/>
+      <c r="H239" s="266"/>
       <c r="I239" s="66"/>
       <c r="J239" s="45">
         <f t="shared" si="8"/>
@@ -11098,1196 +11167,1211 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O239" s="256"/>
-      <c r="P239" s="278"/>
+      <c r="O239" s="248"/>
+      <c r="P239" s="270"/>
       <c r="Q239" s="138"/>
       <c r="R239" s="139"/>
-      <c r="S239" s="193"/>
+      <c r="S239" s="192"/>
       <c r="T239" s="54"/>
       <c r="U239" s="55"/>
       <c r="V239" s="56"/>
     </row>
     <row r="240" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="233"/>
-      <c r="B240" s="307"/>
-      <c r="C240" s="211"/>
-      <c r="D240" s="211"/>
+      <c r="A240" s="225"/>
+      <c r="B240" s="299"/>
+      <c r="C240" s="203"/>
+      <c r="D240" s="203"/>
       <c r="E240" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F240" s="66"/>
-      <c r="G240" s="257"/>
-      <c r="H240" s="274"/>
+      <c r="G240" s="249"/>
+      <c r="H240" s="266"/>
       <c r="I240" s="66"/>
       <c r="J240" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K240" s="110"/>
-      <c r="L240" s="308"/>
-      <c r="M240" s="309"/>
+      <c r="L240" s="300"/>
+      <c r="M240" s="301"/>
       <c r="N240" s="85">
         <f t="shared" ref="N240:N249" si="9">K240*I240-M240</f>
         <v>0</v>
       </c>
-      <c r="O240" s="256"/>
-      <c r="P240" s="278"/>
+      <c r="O240" s="248"/>
+      <c r="P240" s="270"/>
       <c r="Q240" s="138"/>
       <c r="R240" s="139"/>
-      <c r="S240" s="193"/>
+      <c r="S240" s="192"/>
       <c r="T240" s="54"/>
       <c r="U240" s="55"/>
       <c r="V240" s="56"/>
     </row>
     <row r="241" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="233"/>
-      <c r="B241" s="310"/>
-      <c r="C241" s="222"/>
-      <c r="D241" s="222"/>
+      <c r="A241" s="225"/>
+      <c r="B241" s="302"/>
+      <c r="C241" s="214"/>
+      <c r="D241" s="214"/>
       <c r="E241" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F241" s="222"/>
-      <c r="G241" s="311"/>
-      <c r="H241" s="312"/>
+      <c r="F241" s="214"/>
+      <c r="G241" s="303"/>
+      <c r="H241" s="304"/>
       <c r="I241" s="126"/>
       <c r="J241" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K241" s="110"/>
-      <c r="L241" s="308"/>
-      <c r="M241" s="309"/>
+      <c r="L241" s="300"/>
+      <c r="M241" s="301"/>
       <c r="N241" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O241" s="256"/>
-      <c r="P241" s="278"/>
+      <c r="O241" s="248"/>
+      <c r="P241" s="270"/>
       <c r="Q241" s="138"/>
       <c r="R241" s="139"/>
-      <c r="S241" s="193"/>
+      <c r="S241" s="192"/>
       <c r="T241" s="54"/>
       <c r="U241" s="55"/>
       <c r="V241" s="56"/>
     </row>
     <row r="242" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="233"/>
-      <c r="B242" s="310"/>
-      <c r="C242" s="222"/>
-      <c r="D242" s="222"/>
+      <c r="A242" s="225"/>
+      <c r="B242" s="302"/>
+      <c r="C242" s="214"/>
+      <c r="D242" s="214"/>
       <c r="E242" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F242" s="222"/>
-      <c r="G242" s="311"/>
-      <c r="H242" s="312"/>
+      <c r="F242" s="214"/>
+      <c r="G242" s="303"/>
+      <c r="H242" s="304"/>
       <c r="I242" s="126"/>
       <c r="J242" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K242" s="110"/>
-      <c r="L242" s="308"/>
-      <c r="M242" s="309"/>
+      <c r="L242" s="300"/>
+      <c r="M242" s="301"/>
       <c r="N242" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O242" s="256"/>
-      <c r="P242" s="278"/>
+      <c r="O242" s="248"/>
+      <c r="P242" s="270"/>
       <c r="Q242" s="138"/>
       <c r="R242" s="139"/>
-      <c r="S242" s="193"/>
+      <c r="S242" s="192"/>
       <c r="T242" s="54"/>
       <c r="U242" s="55"/>
       <c r="V242" s="56"/>
     </row>
     <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="233"/>
-      <c r="B243" s="313"/>
-      <c r="C243" s="222"/>
-      <c r="D243" s="222"/>
+      <c r="A243" s="225"/>
+      <c r="B243" s="305"/>
+      <c r="C243" s="214"/>
+      <c r="D243" s="214"/>
       <c r="E243" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F243" s="222"/>
-      <c r="G243" s="311"/>
-      <c r="H243" s="312"/>
+      <c r="F243" s="214"/>
+      <c r="G243" s="303"/>
+      <c r="H243" s="304"/>
       <c r="I243" s="126"/>
       <c r="J243" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K243" s="110"/>
-      <c r="L243" s="308"/>
-      <c r="M243" s="309"/>
+      <c r="L243" s="300"/>
+      <c r="M243" s="301"/>
       <c r="N243" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O243" s="108"/>
-      <c r="P243" s="244"/>
+      <c r="P243" s="236"/>
       <c r="Q243" s="138"/>
       <c r="R243" s="139"/>
-      <c r="S243" s="193"/>
+      <c r="S243" s="192"/>
       <c r="T243" s="54"/>
       <c r="U243" s="55"/>
       <c r="V243" s="56"/>
     </row>
     <row r="244" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="233"/>
-      <c r="B244" s="313"/>
-      <c r="C244" s="222"/>
-      <c r="D244" s="222"/>
+      <c r="A244" s="225"/>
+      <c r="B244" s="305"/>
+      <c r="C244" s="214"/>
+      <c r="D244" s="214"/>
       <c r="E244" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F244" s="222"/>
-      <c r="G244" s="311"/>
-      <c r="H244" s="312"/>
+      <c r="F244" s="214"/>
+      <c r="G244" s="303"/>
+      <c r="H244" s="304"/>
       <c r="I244" s="126"/>
       <c r="J244" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K244" s="110"/>
-      <c r="L244" s="308"/>
-      <c r="M244" s="309"/>
+      <c r="L244" s="300"/>
+      <c r="M244" s="301"/>
       <c r="N244" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O244" s="108"/>
-      <c r="P244" s="244"/>
+      <c r="P244" s="236"/>
       <c r="Q244" s="138"/>
       <c r="R244" s="139"/>
-      <c r="S244" s="193"/>
+      <c r="S244" s="192"/>
       <c r="T244" s="54"/>
       <c r="U244" s="55"/>
       <c r="V244" s="56"/>
     </row>
     <row r="245" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="233"/>
-      <c r="B245" s="313"/>
-      <c r="C245" s="222"/>
-      <c r="D245" s="222"/>
+      <c r="A245" s="225"/>
+      <c r="B245" s="305"/>
+      <c r="C245" s="214"/>
+      <c r="D245" s="214"/>
       <c r="E245" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F245" s="222"/>
-      <c r="G245" s="311"/>
-      <c r="H245" s="312"/>
+      <c r="F245" s="214"/>
+      <c r="G245" s="303"/>
+      <c r="H245" s="304"/>
       <c r="I245" s="126"/>
       <c r="J245" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K245" s="110"/>
-      <c r="L245" s="308"/>
-      <c r="M245" s="309"/>
+      <c r="L245" s="300"/>
+      <c r="M245" s="301"/>
       <c r="N245" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O245" s="108"/>
-      <c r="P245" s="244"/>
+      <c r="P245" s="236"/>
       <c r="Q245" s="138"/>
       <c r="R245" s="139"/>
-      <c r="S245" s="193"/>
+      <c r="S245" s="192"/>
       <c r="T245" s="54"/>
       <c r="U245" s="55"/>
       <c r="V245" s="56"/>
     </row>
     <row r="246" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="233"/>
-      <c r="B246" s="232"/>
-      <c r="C246" s="314"/>
-      <c r="D246" s="315"/>
+      <c r="A246" s="225"/>
+      <c r="B246" s="224"/>
+      <c r="C246" s="306"/>
+      <c r="D246" s="307"/>
       <c r="E246" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F246" s="44"/>
-      <c r="G246" s="316"/>
-      <c r="H246" s="317"/>
+      <c r="G246" s="308"/>
+      <c r="H246" s="309"/>
       <c r="I246" s="66"/>
       <c r="J246" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K246" s="110"/>
-      <c r="L246" s="308"/>
-      <c r="M246" s="318"/>
+      <c r="L246" s="300"/>
+      <c r="M246" s="310"/>
       <c r="N246" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O246" s="256"/>
-      <c r="P246" s="278"/>
+      <c r="O246" s="248"/>
+      <c r="P246" s="270"/>
       <c r="Q246" s="138"/>
       <c r="R246" s="139"/>
-      <c r="S246" s="193"/>
+      <c r="S246" s="192"/>
       <c r="T246" s="54"/>
       <c r="U246" s="55"/>
       <c r="V246" s="56"/>
     </row>
     <row r="247" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="233"/>
-      <c r="B247" s="232"/>
-      <c r="C247" s="314"/>
-      <c r="D247" s="314"/>
+      <c r="A247" s="225"/>
+      <c r="B247" s="224"/>
+      <c r="C247" s="306"/>
+      <c r="D247" s="306"/>
       <c r="E247" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F247" s="66"/>
-      <c r="G247" s="257"/>
-      <c r="H247" s="274"/>
+      <c r="G247" s="249"/>
+      <c r="H247" s="266"/>
       <c r="I247" s="66"/>
       <c r="J247" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K247" s="110"/>
-      <c r="L247" s="308"/>
-      <c r="M247" s="318"/>
+      <c r="L247" s="300"/>
+      <c r="M247" s="310"/>
       <c r="N247" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O247" s="256"/>
-      <c r="P247" s="278"/>
+      <c r="O247" s="248"/>
+      <c r="P247" s="270"/>
       <c r="Q247" s="138"/>
       <c r="R247" s="139"/>
-      <c r="S247" s="193"/>
+      <c r="S247" s="192"/>
       <c r="T247" s="54"/>
       <c r="U247" s="55"/>
       <c r="V247" s="56"/>
     </row>
     <row r="248" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="233"/>
-      <c r="B248" s="232"/>
-      <c r="C248" s="314"/>
-      <c r="D248" s="314"/>
+      <c r="A248" s="225"/>
+      <c r="B248" s="224"/>
+      <c r="C248" s="306"/>
+      <c r="D248" s="306"/>
       <c r="E248" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F248" s="66"/>
-      <c r="G248" s="257"/>
-      <c r="H248" s="274"/>
+      <c r="G248" s="249"/>
+      <c r="H248" s="266"/>
       <c r="I248" s="66"/>
       <c r="J248" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K248" s="110"/>
-      <c r="L248" s="308"/>
-      <c r="M248" s="318"/>
+      <c r="L248" s="300"/>
+      <c r="M248" s="310"/>
       <c r="N248" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O248" s="256"/>
-      <c r="P248" s="278"/>
+      <c r="O248" s="248"/>
+      <c r="P248" s="270"/>
       <c r="Q248" s="138"/>
       <c r="R248" s="139"/>
-      <c r="S248" s="193"/>
+      <c r="S248" s="192"/>
       <c r="T248" s="54"/>
       <c r="U248" s="55"/>
       <c r="V248" s="56"/>
     </row>
     <row r="249" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="233"/>
-      <c r="B249" s="232"/>
-      <c r="C249" s="319"/>
-      <c r="D249" s="319"/>
+      <c r="A249" s="225"/>
+      <c r="B249" s="224"/>
+      <c r="C249" s="311"/>
+      <c r="D249" s="311"/>
       <c r="E249" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F249" s="66"/>
-      <c r="G249" s="257"/>
-      <c r="H249" s="274"/>
+      <c r="G249" s="249"/>
+      <c r="H249" s="266"/>
       <c r="I249" s="66"/>
       <c r="J249" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K249" s="110"/>
-      <c r="L249" s="308"/>
-      <c r="M249" s="318"/>
+      <c r="L249" s="300"/>
+      <c r="M249" s="310"/>
       <c r="N249" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O249" s="256"/>
-      <c r="P249" s="278"/>
+      <c r="O249" s="248"/>
+      <c r="P249" s="270"/>
       <c r="Q249" s="138"/>
       <c r="R249" s="139"/>
-      <c r="S249" s="193"/>
+      <c r="S249" s="192"/>
       <c r="T249" s="54"/>
       <c r="U249" s="55"/>
       <c r="V249" s="56"/>
     </row>
     <row r="250" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="320"/>
-      <c r="B250" s="232"/>
-      <c r="C250" s="232"/>
-      <c r="D250" s="232"/>
+      <c r="A250" s="312"/>
+      <c r="B250" s="224"/>
+      <c r="C250" s="224"/>
+      <c r="D250" s="224"/>
       <c r="E250" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F250" s="290"/>
-      <c r="G250" s="257"/>
-      <c r="H250" s="291"/>
-      <c r="I250" s="290">
+      <c r="F250" s="282"/>
+      <c r="G250" s="249"/>
+      <c r="H250" s="283"/>
+      <c r="I250" s="282">
         <v>0</v>
       </c>
       <c r="J250" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K250" s="321"/>
-      <c r="L250" s="321"/>
-      <c r="M250" s="321"/>
-      <c r="N250" s="322">
+      <c r="K250" s="313"/>
+      <c r="L250" s="313"/>
+      <c r="M250" s="313"/>
+      <c r="N250" s="314">
         <f t="shared" ref="N250:N261" si="10">K250*I250</f>
         <v>0</v>
       </c>
-      <c r="O250" s="323"/>
-      <c r="P250" s="278"/>
+      <c r="O250" s="315"/>
+      <c r="P250" s="270"/>
       <c r="Q250" s="138"/>
-      <c r="R250" s="324"/>
-      <c r="S250" s="325"/>
-      <c r="T250" s="326"/>
-      <c r="U250" s="294"/>
-      <c r="V250" s="298"/>
+      <c r="R250" s="316"/>
+      <c r="S250" s="317"/>
+      <c r="T250" s="318"/>
+      <c r="U250" s="286"/>
+      <c r="V250" s="290"/>
     </row>
     <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="320"/>
-      <c r="B251" s="232"/>
-      <c r="C251" s="232"/>
-      <c r="D251" s="232"/>
+      <c r="A251" s="312"/>
+      <c r="B251" s="224"/>
+      <c r="C251" s="224"/>
+      <c r="D251" s="224"/>
       <c r="E251" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F251" s="290"/>
-      <c r="G251" s="257"/>
-      <c r="H251" s="291"/>
-      <c r="I251" s="290">
+      <c r="F251" s="282"/>
+      <c r="G251" s="249"/>
+      <c r="H251" s="283"/>
+      <c r="I251" s="282">
         <v>0</v>
       </c>
       <c r="J251" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K251" s="321"/>
-      <c r="L251" s="321"/>
-      <c r="M251" s="321"/>
-      <c r="N251" s="322">
+      <c r="K251" s="313"/>
+      <c r="L251" s="313"/>
+      <c r="M251" s="313"/>
+      <c r="N251" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O251" s="323"/>
-      <c r="P251" s="278"/>
+      <c r="O251" s="315"/>
+      <c r="P251" s="270"/>
       <c r="Q251" s="138"/>
-      <c r="R251" s="324"/>
-      <c r="S251" s="325"/>
-      <c r="T251" s="326"/>
-      <c r="U251" s="294"/>
-      <c r="V251" s="298"/>
+      <c r="R251" s="316"/>
+      <c r="S251" s="317"/>
+      <c r="T251" s="318"/>
+      <c r="U251" s="286"/>
+      <c r="V251" s="290"/>
     </row>
     <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="320"/>
-      <c r="B252" s="232"/>
-      <c r="C252" s="232"/>
-      <c r="D252" s="232"/>
+      <c r="A252" s="312"/>
+      <c r="B252" s="224"/>
+      <c r="C252" s="224"/>
+      <c r="D252" s="224"/>
       <c r="E252" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F252" s="290"/>
-      <c r="G252" s="257"/>
-      <c r="H252" s="291"/>
-      <c r="I252" s="290">
+      <c r="F252" s="282"/>
+      <c r="G252" s="249"/>
+      <c r="H252" s="283"/>
+      <c r="I252" s="282">
         <v>0</v>
       </c>
       <c r="J252" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K252" s="321"/>
-      <c r="L252" s="321"/>
-      <c r="M252" s="321"/>
-      <c r="N252" s="322">
+      <c r="K252" s="313"/>
+      <c r="L252" s="313"/>
+      <c r="M252" s="313"/>
+      <c r="N252" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O252" s="323"/>
-      <c r="P252" s="278"/>
+      <c r="O252" s="315"/>
+      <c r="P252" s="270"/>
       <c r="Q252" s="138"/>
-      <c r="R252" s="324"/>
-      <c r="S252" s="325"/>
-      <c r="T252" s="326"/>
-      <c r="U252" s="294"/>
-      <c r="V252" s="298"/>
+      <c r="R252" s="316"/>
+      <c r="S252" s="317"/>
+      <c r="T252" s="318"/>
+      <c r="U252" s="286"/>
+      <c r="V252" s="290"/>
     </row>
     <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="320"/>
-      <c r="B253" s="232"/>
-      <c r="C253" s="232"/>
-      <c r="D253" s="232"/>
+      <c r="A253" s="312"/>
+      <c r="B253" s="224"/>
+      <c r="C253" s="224"/>
+      <c r="D253" s="224"/>
       <c r="E253" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F253" s="290"/>
-      <c r="G253" s="257"/>
-      <c r="H253" s="327"/>
-      <c r="I253" s="290">
+      <c r="F253" s="282"/>
+      <c r="G253" s="249"/>
+      <c r="H253" s="319"/>
+      <c r="I253" s="282">
         <v>0</v>
       </c>
       <c r="J253" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K253" s="321"/>
-      <c r="L253" s="321"/>
-      <c r="M253" s="321"/>
-      <c r="N253" s="322">
+      <c r="K253" s="313"/>
+      <c r="L253" s="313"/>
+      <c r="M253" s="313"/>
+      <c r="N253" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O253" s="323"/>
-      <c r="P253" s="278"/>
+      <c r="O253" s="315"/>
+      <c r="P253" s="270"/>
       <c r="Q253" s="138"/>
-      <c r="R253" s="324"/>
-      <c r="S253" s="325"/>
-      <c r="T253" s="326"/>
-      <c r="U253" s="294"/>
-      <c r="V253" s="298"/>
+      <c r="R253" s="316"/>
+      <c r="S253" s="317"/>
+      <c r="T253" s="318"/>
+      <c r="U253" s="286"/>
+      <c r="V253" s="290"/>
     </row>
     <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="328"/>
-      <c r="B254" s="232"/>
-      <c r="C254" s="232"/>
-      <c r="D254" s="232"/>
+      <c r="A254" s="320"/>
+      <c r="B254" s="224"/>
+      <c r="C254" s="224"/>
+      <c r="D254" s="224"/>
       <c r="E254" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F254" s="290"/>
-      <c r="G254" s="257"/>
-      <c r="H254" s="329"/>
-      <c r="I254" s="290">
+      <c r="F254" s="282"/>
+      <c r="G254" s="249"/>
+      <c r="H254" s="321"/>
+      <c r="I254" s="282">
         <v>0</v>
       </c>
       <c r="J254" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K254" s="321"/>
-      <c r="L254" s="321"/>
-      <c r="M254" s="321"/>
-      <c r="N254" s="322">
+      <c r="K254" s="313"/>
+      <c r="L254" s="313"/>
+      <c r="M254" s="313"/>
+      <c r="N254" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O254" s="323"/>
-      <c r="P254" s="278"/>
+      <c r="O254" s="315"/>
+      <c r="P254" s="270"/>
       <c r="Q254" s="138"/>
-      <c r="R254" s="324"/>
-      <c r="S254" s="325"/>
-      <c r="T254" s="326"/>
+      <c r="R254" s="316"/>
+      <c r="S254" s="317"/>
+      <c r="T254" s="318"/>
       <c r="U254" s="55"/>
       <c r="V254" s="56"/>
     </row>
     <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="330"/>
-      <c r="B255" s="331"/>
+      <c r="A255" s="322"/>
+      <c r="B255" s="323"/>
       <c r="E255" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H255" s="335"/>
-      <c r="I255" s="333">
+      <c r="H255" s="327"/>
+      <c r="I255" s="325">
         <v>0</v>
       </c>
       <c r="J255" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K255" s="336"/>
-      <c r="L255" s="336"/>
-      <c r="M255" s="336"/>
-      <c r="N255" s="322">
+      <c r="K255" s="328"/>
+      <c r="L255" s="328"/>
+      <c r="M255" s="328"/>
+      <c r="N255" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O255" s="323"/>
-      <c r="P255" s="278"/>
-      <c r="Q255" s="293"/>
-      <c r="R255" s="324"/>
-      <c r="S255" s="325"/>
-      <c r="T255" s="326"/>
+      <c r="O255" s="315"/>
+      <c r="P255" s="270"/>
+      <c r="Q255" s="285"/>
+      <c r="R255" s="316"/>
+      <c r="S255" s="317"/>
+      <c r="T255" s="318"/>
       <c r="U255" s="55"/>
       <c r="V255" s="56"/>
     </row>
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="330"/>
-      <c r="B256" s="331"/>
+      <c r="A256" s="322"/>
+      <c r="B256" s="323"/>
       <c r="E256" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I256" s="333">
+      <c r="I256" s="325">
         <v>0</v>
       </c>
       <c r="J256" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K256" s="336"/>
-      <c r="L256" s="336"/>
-      <c r="M256" s="336"/>
-      <c r="N256" s="322">
+      <c r="K256" s="328"/>
+      <c r="L256" s="328"/>
+      <c r="M256" s="328"/>
+      <c r="N256" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O256" s="323"/>
-      <c r="P256" s="278"/>
-      <c r="Q256" s="293"/>
-      <c r="R256" s="324"/>
-      <c r="S256" s="325"/>
-      <c r="T256" s="326"/>
+      <c r="O256" s="315"/>
+      <c r="P256" s="270"/>
+      <c r="Q256" s="285"/>
+      <c r="R256" s="316"/>
+      <c r="S256" s="317"/>
+      <c r="T256" s="318"/>
       <c r="U256" s="55"/>
       <c r="V256" s="56"/>
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="330"/>
-      <c r="B257" s="331"/>
+      <c r="A257" s="322"/>
+      <c r="B257" s="323"/>
       <c r="E257" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I257" s="338">
+      <c r="I257" s="330">
         <v>0</v>
       </c>
       <c r="J257" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K257" s="336"/>
-      <c r="L257" s="336"/>
-      <c r="M257" s="336"/>
-      <c r="N257" s="322">
+      <c r="K257" s="328"/>
+      <c r="L257" s="328"/>
+      <c r="M257" s="328"/>
+      <c r="N257" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O257" s="323"/>
-      <c r="P257" s="278"/>
-      <c r="Q257" s="293"/>
-      <c r="R257" s="324"/>
-      <c r="S257" s="325"/>
-      <c r="T257" s="326"/>
+      <c r="O257" s="315"/>
+      <c r="P257" s="270"/>
+      <c r="Q257" s="285"/>
+      <c r="R257" s="316"/>
+      <c r="S257" s="317"/>
+      <c r="T257" s="318"/>
       <c r="U257" s="55"/>
       <c r="V257" s="56"/>
     </row>
     <row r="258" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="330"/>
-      <c r="B258" s="331"/>
+      <c r="A258" s="322"/>
+      <c r="B258" s="323"/>
       <c r="E258" s="40" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="408" t="s">
+      <c r="F258" s="427" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="408"/>
-      <c r="H258" s="409"/>
-      <c r="I258" s="339">
+      <c r="G258" s="427"/>
+      <c r="H258" s="428"/>
+      <c r="I258" s="331">
         <f>SUM(I4:I257)</f>
-        <v>138690</v>
-      </c>
-      <c r="J258" s="340"/>
-      <c r="K258" s="336"/>
-      <c r="L258" s="341"/>
-      <c r="M258" s="336"/>
-      <c r="N258" s="322">
+        <v>140944</v>
+      </c>
+      <c r="J258" s="332"/>
+      <c r="K258" s="328"/>
+      <c r="L258" s="333"/>
+      <c r="M258" s="328"/>
+      <c r="N258" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O258" s="323"/>
-      <c r="P258" s="278"/>
-      <c r="Q258" s="293"/>
-      <c r="R258" s="324"/>
-      <c r="S258" s="342"/>
-      <c r="T258" s="296"/>
-      <c r="U258" s="297"/>
+      <c r="O258" s="315"/>
+      <c r="P258" s="270"/>
+      <c r="Q258" s="285"/>
+      <c r="R258" s="316"/>
+      <c r="S258" s="334"/>
+      <c r="T258" s="288"/>
+      <c r="U258" s="289"/>
       <c r="V258" s="56"/>
     </row>
     <row r="259" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="343"/>
-      <c r="B259" s="331"/>
+      <c r="A259" s="335"/>
+      <c r="B259" s="323"/>
       <c r="E259" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I259" s="344"/>
-      <c r="J259" s="340"/>
-      <c r="K259" s="336"/>
-      <c r="L259" s="341"/>
-      <c r="M259" s="336"/>
-      <c r="N259" s="322">
+      <c r="I259" s="336"/>
+      <c r="J259" s="332"/>
+      <c r="K259" s="328"/>
+      <c r="L259" s="333"/>
+      <c r="M259" s="328"/>
+      <c r="N259" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O259" s="345"/>
+      <c r="O259" s="337"/>
       <c r="Q259" s="10"/>
-      <c r="R259" s="346"/>
-      <c r="S259" s="347"/>
-      <c r="T259" s="348"/>
+      <c r="R259" s="338"/>
+      <c r="S259" s="339"/>
+      <c r="T259" s="340"/>
       <c r="V259" s="15"/>
     </row>
     <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="330"/>
-      <c r="B260" s="331"/>
+      <c r="A260" s="322"/>
+      <c r="B260" s="323"/>
       <c r="E260" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J260" s="333"/>
-      <c r="K260" s="336"/>
-      <c r="L260" s="336"/>
-      <c r="M260" s="336"/>
-      <c r="N260" s="322">
+      <c r="J260" s="325"/>
+      <c r="K260" s="328"/>
+      <c r="L260" s="328"/>
+      <c r="M260" s="328"/>
+      <c r="N260" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O260" s="345"/>
+      <c r="O260" s="337"/>
       <c r="Q260" s="10"/>
-      <c r="R260" s="346"/>
-      <c r="S260" s="347"/>
-      <c r="T260" s="348"/>
+      <c r="R260" s="338"/>
+      <c r="S260" s="339"/>
+      <c r="T260" s="340"/>
       <c r="V260" s="15"/>
     </row>
     <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="330"/>
-      <c r="B261" s="331"/>
+      <c r="A261" s="322"/>
+      <c r="B261" s="323"/>
       <c r="E261" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J261" s="333"/>
-      <c r="K261" s="350"/>
-      <c r="N261" s="322">
+      <c r="J261" s="325"/>
+      <c r="K261" s="342"/>
+      <c r="N261" s="314">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O261" s="351"/>
+      <c r="O261" s="343"/>
       <c r="Q261" s="10"/>
-      <c r="R261" s="346"/>
-      <c r="S261" s="347"/>
-      <c r="T261" s="352"/>
+      <c r="R261" s="338"/>
+      <c r="S261" s="339"/>
+      <c r="T261" s="344"/>
       <c r="V261" s="15"/>
     </row>
     <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="330"/>
-      <c r="H262" s="354"/>
-      <c r="I262" s="355" t="s">
+      <c r="A262" s="322"/>
+      <c r="H262" s="346"/>
+      <c r="I262" s="347" t="s">
         <v>28</v>
       </c>
-      <c r="J262" s="356"/>
-      <c r="K262" s="356"/>
-      <c r="L262" s="357">
+      <c r="J262" s="348"/>
+      <c r="K262" s="348"/>
+      <c r="L262" s="349">
         <f>SUM(L250:L261)</f>
         <v>0</v>
       </c>
-      <c r="M262" s="358"/>
-      <c r="N262" s="359">
+      <c r="M262" s="350"/>
+      <c r="N262" s="351">
         <f>SUM(N4:N261)</f>
-        <v>5185792.5</v>
-      </c>
-      <c r="O262" s="360"/>
-      <c r="Q262" s="361">
+        <v>5380246.5</v>
+      </c>
+      <c r="O262" s="352"/>
+      <c r="Q262" s="353">
         <f>SUM(Q4:Q261)</f>
-        <v>0</v>
+        <v>75220</v>
       </c>
       <c r="R262" s="8"/>
-      <c r="S262" s="362">
+      <c r="S262" s="354">
         <f>SUM(S17:S261)</f>
         <v>0</v>
       </c>
-      <c r="T262" s="363"/>
-      <c r="U262" s="364"/>
-      <c r="V262" s="365">
+      <c r="T262" s="355"/>
+      <c r="U262" s="356"/>
+      <c r="V262" s="357">
         <f>SUM(V250:V261)</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A263" s="330"/>
-      <c r="H263" s="354"/>
-      <c r="I263" s="366"/>
-      <c r="J263" s="367"/>
-      <c r="K263" s="368"/>
-      <c r="L263" s="368"/>
-      <c r="M263" s="368"/>
-      <c r="N263" s="322"/>
-      <c r="O263" s="360"/>
-      <c r="R263" s="346"/>
-      <c r="S263" s="369"/>
-      <c r="U263" s="371"/>
+      <c r="A263" s="322"/>
+      <c r="H263" s="346"/>
+      <c r="I263" s="358"/>
+      <c r="J263" s="359"/>
+      <c r="K263" s="360"/>
+      <c r="L263" s="360"/>
+      <c r="M263" s="360"/>
+      <c r="N263" s="314"/>
+      <c r="O263" s="352"/>
+      <c r="R263" s="338"/>
+      <c r="S263" s="361"/>
+      <c r="U263" s="363"/>
       <c r="V263"/>
     </row>
     <row r="264" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="330"/>
-      <c r="H264" s="354"/>
-      <c r="I264" s="366"/>
-      <c r="J264" s="367"/>
-      <c r="K264" s="368"/>
-      <c r="L264" s="368"/>
-      <c r="M264" s="368"/>
-      <c r="N264" s="322"/>
-      <c r="O264" s="360"/>
-      <c r="R264" s="346"/>
-      <c r="S264" s="369"/>
-      <c r="U264" s="371"/>
+      <c r="A264" s="322"/>
+      <c r="H264" s="346"/>
+      <c r="I264" s="358"/>
+      <c r="J264" s="359"/>
+      <c r="K264" s="360"/>
+      <c r="L264" s="360"/>
+      <c r="M264" s="360"/>
+      <c r="N264" s="314"/>
+      <c r="O264" s="352"/>
+      <c r="R264" s="338"/>
+      <c r="S264" s="361"/>
+      <c r="U264" s="363"/>
       <c r="V264"/>
     </row>
     <row r="265" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="330"/>
-      <c r="I265" s="372" t="s">
+      <c r="A265" s="322"/>
+      <c r="I265" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="J265" s="373"/>
-      <c r="K265" s="373"/>
-      <c r="L265" s="374"/>
-      <c r="M265" s="374"/>
-      <c r="N265" s="375">
+      <c r="J265" s="365"/>
+      <c r="K265" s="365"/>
+      <c r="L265" s="366"/>
+      <c r="M265" s="366"/>
+      <c r="N265" s="367">
         <f>V262+S262+Q262+N262+L262</f>
-        <v>5185792.5</v>
-      </c>
-      <c r="O265" s="376"/>
-      <c r="R265" s="346"/>
-      <c r="S265" s="369"/>
-      <c r="U265" s="371"/>
+        <v>5455466.5</v>
+      </c>
+      <c r="O265" s="368"/>
+      <c r="R265" s="338"/>
+      <c r="S265" s="361"/>
+      <c r="U265" s="363"/>
       <c r="V265"/>
     </row>
     <row r="266" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="377"/>
-      <c r="I266" s="378"/>
-      <c r="J266" s="379"/>
-      <c r="K266" s="379"/>
-      <c r="L266" s="380"/>
-      <c r="M266" s="380"/>
-      <c r="N266" s="381"/>
-      <c r="O266" s="382"/>
-      <c r="R266" s="346"/>
-      <c r="S266" s="369"/>
-      <c r="U266" s="371"/>
+      <c r="A266" s="369"/>
+      <c r="I266" s="370"/>
+      <c r="J266" s="371"/>
+      <c r="K266" s="371"/>
+      <c r="L266" s="372"/>
+      <c r="M266" s="372"/>
+      <c r="N266" s="373"/>
+      <c r="O266" s="374"/>
+      <c r="R266" s="338"/>
+      <c r="S266" s="361"/>
+      <c r="U266" s="363"/>
       <c r="V266"/>
     </row>
     <row r="267" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="377"/>
-      <c r="I267" s="366"/>
-      <c r="J267" s="367"/>
-      <c r="K267" s="368"/>
-      <c r="L267" s="368"/>
-      <c r="M267" s="368"/>
-      <c r="N267" s="322"/>
-      <c r="O267" s="360"/>
-      <c r="R267" s="346"/>
-      <c r="S267" s="369"/>
-      <c r="U267" s="371"/>
+      <c r="A267" s="369"/>
+      <c r="I267" s="358"/>
+      <c r="J267" s="359"/>
+      <c r="K267" s="360"/>
+      <c r="L267" s="360"/>
+      <c r="M267" s="360"/>
+      <c r="N267" s="314"/>
+      <c r="O267" s="352"/>
+      <c r="R267" s="338"/>
+      <c r="S267" s="361"/>
+      <c r="U267" s="363"/>
       <c r="V267"/>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A268" s="330"/>
-      <c r="I268" s="366"/>
-      <c r="J268" s="367"/>
-      <c r="K268" s="368"/>
-      <c r="L268" s="368"/>
-      <c r="M268" s="368"/>
-      <c r="N268" s="322"/>
-      <c r="O268" s="360"/>
-      <c r="R268" s="346"/>
-      <c r="S268" s="369"/>
-      <c r="U268" s="371"/>
+      <c r="A268" s="322"/>
+      <c r="I268" s="358"/>
+      <c r="J268" s="359"/>
+      <c r="K268" s="360"/>
+      <c r="L268" s="360"/>
+      <c r="M268" s="360"/>
+      <c r="N268" s="314"/>
+      <c r="O268" s="352"/>
+      <c r="R268" s="338"/>
+      <c r="S268" s="361"/>
+      <c r="U268" s="363"/>
       <c r="V268"/>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A269" s="330"/>
-      <c r="I269" s="366"/>
-      <c r="J269" s="383"/>
-      <c r="K269" s="368"/>
-      <c r="L269" s="368"/>
-      <c r="M269" s="368"/>
-      <c r="N269" s="322"/>
-      <c r="O269" s="384"/>
-      <c r="R269" s="346"/>
-      <c r="S269" s="369"/>
-      <c r="U269" s="371"/>
+      <c r="A269" s="322"/>
+      <c r="I269" s="358"/>
+      <c r="J269" s="375"/>
+      <c r="K269" s="360"/>
+      <c r="L269" s="360"/>
+      <c r="M269" s="360"/>
+      <c r="N269" s="314"/>
+      <c r="O269" s="376"/>
+      <c r="R269" s="338"/>
+      <c r="S269" s="361"/>
+      <c r="U269" s="363"/>
       <c r="V269"/>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A270" s="377"/>
-      <c r="N270" s="322"/>
-      <c r="O270" s="386"/>
-      <c r="R270" s="346"/>
-      <c r="S270" s="369"/>
-      <c r="U270" s="371"/>
+      <c r="A270" s="369"/>
+      <c r="N270" s="314"/>
+      <c r="O270" s="378"/>
+      <c r="R270" s="338"/>
+      <c r="S270" s="361"/>
+      <c r="U270" s="363"/>
       <c r="V270"/>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="377"/>
-      <c r="O271" s="386"/>
-      <c r="S271" s="369"/>
-      <c r="U271" s="371"/>
+      <c r="A271" s="369"/>
+      <c r="O271" s="378"/>
+      <c r="S271" s="361"/>
+      <c r="U271" s="363"/>
       <c r="V271"/>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="330"/>
-      <c r="B272" s="331"/>
-      <c r="N272" s="322"/>
-      <c r="O272" s="360"/>
-      <c r="S272" s="369"/>
-      <c r="U272" s="371"/>
+      <c r="A272" s="322"/>
+      <c r="B272" s="323"/>
+      <c r="N272" s="314"/>
+      <c r="O272" s="352"/>
+      <c r="S272" s="361"/>
+      <c r="U272" s="363"/>
       <c r="V272"/>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="377"/>
-      <c r="B273" s="331"/>
-      <c r="N273" s="322"/>
-      <c r="O273" s="360"/>
-      <c r="S273" s="369"/>
-      <c r="U273" s="371"/>
+      <c r="A273" s="369"/>
+      <c r="B273" s="323"/>
+      <c r="N273" s="314"/>
+      <c r="O273" s="352"/>
+      <c r="S273" s="361"/>
+      <c r="U273" s="363"/>
       <c r="V273"/>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="330"/>
-      <c r="B274" s="331"/>
-      <c r="I274" s="366"/>
-      <c r="J274" s="367"/>
-      <c r="K274" s="368"/>
-      <c r="L274" s="368"/>
-      <c r="M274" s="368"/>
-      <c r="N274" s="322"/>
-      <c r="O274" s="360"/>
-      <c r="S274" s="369"/>
-      <c r="U274" s="371"/>
+      <c r="A274" s="322"/>
+      <c r="B274" s="323"/>
+      <c r="I274" s="358"/>
+      <c r="J274" s="359"/>
+      <c r="K274" s="360"/>
+      <c r="L274" s="360"/>
+      <c r="M274" s="360"/>
+      <c r="N274" s="314"/>
+      <c r="O274" s="352"/>
+      <c r="S274" s="361"/>
+      <c r="U274" s="363"/>
       <c r="V274"/>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="377"/>
-      <c r="B275" s="331"/>
-      <c r="I275" s="366"/>
-      <c r="J275" s="367"/>
-      <c r="K275" s="368"/>
-      <c r="L275" s="368"/>
-      <c r="M275" s="368"/>
-      <c r="N275" s="322"/>
-      <c r="O275" s="360"/>
-      <c r="S275" s="369"/>
-      <c r="U275" s="371"/>
+      <c r="A275" s="369"/>
+      <c r="B275" s="323"/>
+      <c r="I275" s="358"/>
+      <c r="J275" s="359"/>
+      <c r="K275" s="360"/>
+      <c r="L275" s="360"/>
+      <c r="M275" s="360"/>
+      <c r="N275" s="314"/>
+      <c r="O275" s="352"/>
+      <c r="S275" s="361"/>
+      <c r="U275" s="363"/>
       <c r="V275"/>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A276" s="330"/>
-      <c r="B276" s="331"/>
-      <c r="I276" s="387"/>
-      <c r="J276" s="364"/>
-      <c r="K276" s="364"/>
-      <c r="N276" s="322"/>
-      <c r="O276" s="360"/>
-      <c r="S276" s="369"/>
-      <c r="U276" s="371"/>
+      <c r="A276" s="322"/>
+      <c r="B276" s="323"/>
+      <c r="I276" s="379"/>
+      <c r="J276" s="356"/>
+      <c r="K276" s="356"/>
+      <c r="N276" s="314"/>
+      <c r="O276" s="352"/>
+      <c r="S276" s="361"/>
+      <c r="U276" s="363"/>
       <c r="V276"/>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="377"/>
-      <c r="S277" s="369"/>
-      <c r="U277" s="371"/>
+      <c r="A277" s="369"/>
+      <c r="S277" s="361"/>
+      <c r="U277" s="363"/>
       <c r="V277"/>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="330"/>
-      <c r="S278" s="369"/>
-      <c r="U278" s="371"/>
+      <c r="A278" s="322"/>
+      <c r="S278" s="361"/>
+      <c r="U278" s="363"/>
       <c r="V278"/>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="330"/>
-      <c r="B279" s="388"/>
-      <c r="C279" s="388"/>
-      <c r="D279" s="388"/>
-      <c r="E279" s="389"/>
-      <c r="F279" s="390"/>
-      <c r="G279" s="391"/>
-      <c r="H279" s="392"/>
-      <c r="I279" s="393"/>
+      <c r="A279" s="322"/>
+      <c r="B279" s="380"/>
+      <c r="C279" s="380"/>
+      <c r="D279" s="380"/>
+      <c r="E279" s="381"/>
+      <c r="F279" s="382"/>
+      <c r="G279" s="383"/>
+      <c r="H279" s="384"/>
+      <c r="I279" s="385"/>
       <c r="J279"/>
       <c r="K279"/>
       <c r="L279"/>
       <c r="M279"/>
-      <c r="P279" s="394"/>
-      <c r="Q279" s="369"/>
-      <c r="S279" s="369"/>
-      <c r="U279" s="371"/>
+      <c r="P279" s="386"/>
+      <c r="Q279" s="361"/>
+      <c r="S279" s="361"/>
+      <c r="U279" s="363"/>
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="377"/>
-      <c r="B280" s="388"/>
-      <c r="C280" s="388"/>
-      <c r="D280" s="388"/>
-      <c r="E280" s="389"/>
-      <c r="F280" s="390"/>
-      <c r="G280" s="391"/>
-      <c r="H280" s="392"/>
-      <c r="I280" s="393"/>
+      <c r="A280" s="369"/>
+      <c r="B280" s="380"/>
+      <c r="C280" s="380"/>
+      <c r="D280" s="380"/>
+      <c r="E280" s="381"/>
+      <c r="F280" s="382"/>
+      <c r="G280" s="383"/>
+      <c r="H280" s="384"/>
+      <c r="I280" s="385"/>
       <c r="J280"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
-      <c r="P280" s="394"/>
-      <c r="Q280" s="369"/>
-      <c r="S280" s="369"/>
-      <c r="U280" s="371"/>
+      <c r="P280" s="386"/>
+      <c r="Q280" s="361"/>
+      <c r="S280" s="361"/>
+      <c r="U280" s="363"/>
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="377"/>
-      <c r="B281" s="388"/>
-      <c r="C281" s="388"/>
-      <c r="D281" s="388"/>
-      <c r="E281" s="389"/>
-      <c r="F281" s="390"/>
-      <c r="G281" s="391"/>
-      <c r="H281" s="392"/>
-      <c r="I281" s="393"/>
+      <c r="A281" s="369"/>
+      <c r="B281" s="380"/>
+      <c r="C281" s="380"/>
+      <c r="D281" s="380"/>
+      <c r="E281" s="381"/>
+      <c r="F281" s="382"/>
+      <c r="G281" s="383"/>
+      <c r="H281" s="384"/>
+      <c r="I281" s="385"/>
       <c r="J281"/>
       <c r="K281"/>
       <c r="L281"/>
       <c r="M281"/>
-      <c r="P281" s="394"/>
-      <c r="Q281" s="369"/>
-      <c r="S281" s="369"/>
-      <c r="U281" s="371"/>
+      <c r="P281" s="386"/>
+      <c r="Q281" s="361"/>
+      <c r="S281" s="361"/>
+      <c r="U281" s="363"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="377"/>
-      <c r="B282" s="388"/>
-      <c r="C282" s="388"/>
-      <c r="D282" s="388"/>
-      <c r="E282" s="389"/>
-      <c r="F282" s="390"/>
-      <c r="G282" s="391"/>
-      <c r="H282" s="392"/>
-      <c r="I282" s="393"/>
+      <c r="A282" s="369"/>
+      <c r="B282" s="380"/>
+      <c r="C282" s="380"/>
+      <c r="D282" s="380"/>
+      <c r="E282" s="381"/>
+      <c r="F282" s="382"/>
+      <c r="G282" s="383"/>
+      <c r="H282" s="384"/>
+      <c r="I282" s="385"/>
       <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
-      <c r="P282" s="394"/>
-      <c r="Q282" s="369"/>
-      <c r="S282" s="369"/>
-      <c r="U282" s="371"/>
+      <c r="P282" s="386"/>
+      <c r="Q282" s="361"/>
+      <c r="S282" s="361"/>
+      <c r="U282" s="363"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="395"/>
-      <c r="B283" s="388"/>
-      <c r="C283" s="388"/>
-      <c r="D283" s="388"/>
-      <c r="E283" s="389"/>
-      <c r="F283" s="390"/>
-      <c r="G283" s="391"/>
-      <c r="H283" s="392"/>
-      <c r="I283" s="393"/>
+      <c r="A283" s="387"/>
+      <c r="B283" s="380"/>
+      <c r="C283" s="380"/>
+      <c r="D283" s="380"/>
+      <c r="E283" s="381"/>
+      <c r="F283" s="382"/>
+      <c r="G283" s="383"/>
+      <c r="H283" s="384"/>
+      <c r="I283" s="385"/>
       <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
-      <c r="P283" s="394"/>
-      <c r="Q283" s="369"/>
-      <c r="S283" s="369"/>
-      <c r="U283" s="371"/>
+      <c r="P283" s="386"/>
+      <c r="Q283" s="361"/>
+      <c r="S283" s="361"/>
+      <c r="U283" s="363"/>
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="343"/>
-      <c r="B284" s="388"/>
-      <c r="C284" s="388"/>
-      <c r="D284" s="388"/>
-      <c r="E284" s="389"/>
-      <c r="F284" s="390"/>
-      <c r="G284" s="391"/>
-      <c r="H284" s="392"/>
-      <c r="I284" s="393"/>
+      <c r="A284" s="335"/>
+      <c r="B284" s="380"/>
+      <c r="C284" s="380"/>
+      <c r="D284" s="380"/>
+      <c r="E284" s="381"/>
+      <c r="F284" s="382"/>
+      <c r="G284" s="383"/>
+      <c r="H284" s="384"/>
+      <c r="I284" s="385"/>
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
       <c r="M284"/>
-      <c r="P284" s="394"/>
-      <c r="Q284" s="369"/>
-      <c r="S284" s="369"/>
-      <c r="U284" s="371"/>
+      <c r="P284" s="386"/>
+      <c r="Q284" s="361"/>
+      <c r="S284" s="361"/>
+      <c r="U284" s="363"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="330"/>
-      <c r="B285" s="388"/>
-      <c r="C285" s="388"/>
-      <c r="D285" s="388"/>
-      <c r="E285" s="389"/>
-      <c r="F285" s="390"/>
-      <c r="G285" s="391"/>
-      <c r="H285" s="392"/>
-      <c r="I285" s="393"/>
+      <c r="A285" s="322"/>
+      <c r="B285" s="380"/>
+      <c r="C285" s="380"/>
+      <c r="D285" s="380"/>
+      <c r="E285" s="381"/>
+      <c r="F285" s="382"/>
+      <c r="G285" s="383"/>
+      <c r="H285" s="384"/>
+      <c r="I285" s="385"/>
       <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
-      <c r="P285" s="394"/>
-      <c r="Q285" s="369"/>
-      <c r="S285" s="369"/>
-      <c r="U285" s="371"/>
+      <c r="P285" s="386"/>
+      <c r="Q285" s="361"/>
+      <c r="S285" s="361"/>
+      <c r="U285" s="363"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="330"/>
-      <c r="B286" s="388"/>
-      <c r="C286" s="388"/>
-      <c r="D286" s="388"/>
-      <c r="E286" s="389"/>
-      <c r="F286" s="390"/>
-      <c r="G286" s="391"/>
-      <c r="H286" s="392"/>
-      <c r="I286" s="393"/>
+      <c r="A286" s="322"/>
+      <c r="B286" s="380"/>
+      <c r="C286" s="380"/>
+      <c r="D286" s="380"/>
+      <c r="E286" s="381"/>
+      <c r="F286" s="382"/>
+      <c r="G286" s="383"/>
+      <c r="H286" s="384"/>
+      <c r="I286" s="385"/>
       <c r="J286"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
-      <c r="P286" s="394"/>
-      <c r="Q286" s="369"/>
-      <c r="S286" s="369"/>
-      <c r="U286" s="371"/>
+      <c r="P286" s="386"/>
+      <c r="Q286" s="361"/>
+      <c r="S286" s="361"/>
+      <c r="U286" s="363"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="330"/>
-      <c r="B287" s="388"/>
-      <c r="C287" s="388"/>
-      <c r="D287" s="388"/>
-      <c r="E287" s="389"/>
-      <c r="F287" s="390"/>
-      <c r="G287" s="391"/>
-      <c r="H287" s="392"/>
-      <c r="I287" s="393"/>
+      <c r="A287" s="322"/>
+      <c r="B287" s="380"/>
+      <c r="C287" s="380"/>
+      <c r="D287" s="380"/>
+      <c r="E287" s="381"/>
+      <c r="F287" s="382"/>
+      <c r="G287" s="383"/>
+      <c r="H287" s="384"/>
+      <c r="I287" s="385"/>
       <c r="J287"/>
       <c r="K287"/>
       <c r="L287"/>
       <c r="M287"/>
-      <c r="P287" s="394"/>
-      <c r="Q287" s="369"/>
-      <c r="S287" s="369"/>
-      <c r="U287" s="371"/>
+      <c r="P287" s="386"/>
+      <c r="Q287" s="361"/>
+      <c r="S287" s="361"/>
+      <c r="U287" s="363"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="330"/>
-      <c r="B288" s="388"/>
-      <c r="C288" s="388"/>
-      <c r="D288" s="388"/>
-      <c r="E288" s="389"/>
-      <c r="F288" s="390"/>
-      <c r="G288" s="391"/>
-      <c r="H288" s="392"/>
-      <c r="I288" s="393"/>
+      <c r="A288" s="322"/>
+      <c r="B288" s="380"/>
+      <c r="C288" s="380"/>
+      <c r="D288" s="380"/>
+      <c r="E288" s="381"/>
+      <c r="F288" s="382"/>
+      <c r="G288" s="383"/>
+      <c r="H288" s="384"/>
+      <c r="I288" s="385"/>
       <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
-      <c r="P288" s="394"/>
-      <c r="Q288" s="369"/>
-      <c r="S288" s="369"/>
-      <c r="U288" s="371"/>
+      <c r="P288" s="386"/>
+      <c r="Q288" s="361"/>
+      <c r="S288" s="361"/>
+      <c r="U288" s="363"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="330"/>
-      <c r="B289" s="388"/>
-      <c r="C289" s="388"/>
-      <c r="D289" s="388"/>
-      <c r="E289" s="389"/>
-      <c r="F289" s="390"/>
-      <c r="G289" s="391"/>
-      <c r="H289" s="392"/>
-      <c r="I289" s="393"/>
+      <c r="A289" s="322"/>
+      <c r="B289" s="380"/>
+      <c r="C289" s="380"/>
+      <c r="D289" s="380"/>
+      <c r="E289" s="381"/>
+      <c r="F289" s="382"/>
+      <c r="G289" s="383"/>
+      <c r="H289" s="384"/>
+      <c r="I289" s="385"/>
       <c r="J289"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
-      <c r="P289" s="394"/>
-      <c r="Q289" s="369"/>
-      <c r="S289" s="369"/>
-      <c r="U289" s="371"/>
+      <c r="P289" s="386"/>
+      <c r="Q289" s="361"/>
+      <c r="S289" s="361"/>
+      <c r="U289" s="363"/>
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="330"/>
-      <c r="B290" s="388"/>
-      <c r="C290" s="388"/>
-      <c r="D290" s="388"/>
-      <c r="E290" s="389"/>
-      <c r="F290" s="390"/>
-      <c r="G290" s="391"/>
-      <c r="H290" s="392"/>
-      <c r="I290" s="393"/>
+      <c r="A290" s="322"/>
+      <c r="B290" s="380"/>
+      <c r="C290" s="380"/>
+      <c r="D290" s="380"/>
+      <c r="E290" s="381"/>
+      <c r="F290" s="382"/>
+      <c r="G290" s="383"/>
+      <c r="H290" s="384"/>
+      <c r="I290" s="385"/>
       <c r="J290"/>
       <c r="K290"/>
       <c r="L290"/>
       <c r="M290"/>
-      <c r="P290" s="394"/>
-      <c r="Q290" s="369"/>
-      <c r="S290" s="369"/>
-      <c r="U290" s="371"/>
+      <c r="P290" s="386"/>
+      <c r="Q290" s="361"/>
+      <c r="S290" s="361"/>
+      <c r="U290" s="363"/>
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="330"/>
-      <c r="B291" s="388"/>
-      <c r="C291" s="388"/>
-      <c r="D291" s="388"/>
-      <c r="E291" s="389"/>
-      <c r="F291" s="390"/>
-      <c r="G291" s="391"/>
-      <c r="H291" s="392"/>
-      <c r="I291" s="393"/>
+      <c r="A291" s="322"/>
+      <c r="B291" s="380"/>
+      <c r="C291" s="380"/>
+      <c r="D291" s="380"/>
+      <c r="E291" s="381"/>
+      <c r="F291" s="382"/>
+      <c r="G291" s="383"/>
+      <c r="H291" s="384"/>
+      <c r="I291" s="385"/>
       <c r="J291"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
-      <c r="P291" s="394"/>
-      <c r="Q291" s="369"/>
-      <c r="S291" s="369"/>
-      <c r="U291" s="371"/>
+      <c r="P291" s="386"/>
+      <c r="Q291" s="361"/>
+      <c r="S291" s="361"/>
+      <c r="U291" s="363"/>
       <c r="V291"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="23">
+    <mergeCell ref="L86:M87"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="O72:O75"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -12296,36 +12380,6 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="L86:M87"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -183,6 +183,33 @@
   </si>
   <si>
     <t>A1019</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE   249</t>
+  </si>
+  <si>
+    <t>CANALES 199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROPECUARIA EL TOPETE   250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROPECUARIA EL TOPETE </t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE  248</t>
+  </si>
+  <si>
+    <t>CANALES  198</t>
+  </si>
+  <si>
+    <t>ABASTECEDORA ROEL  (  A L B I C I A )</t>
+  </si>
+  <si>
+    <t>Combos pernil</t>
+  </si>
+  <si>
+    <t>FOLIO 10616</t>
   </si>
 </sst>
 </file>
@@ -1950,9 +1977,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2484,6 +2508,36 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2550,21 +2604,21 @@
     <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2589,35 +2643,8 @@
     <xf numFmtId="166" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2910,24 +2937,24 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="324" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="324" customWidth="1"/>
-    <col min="4" max="4" width="11" style="324" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="345" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="325" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="326" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="329" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="325" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="377"/>
+    <col min="2" max="2" width="28.5703125" style="323" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="323" customWidth="1"/>
+    <col min="4" max="4" width="11" style="323" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="344" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="324" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="325" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="328" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="324" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="376"/>
     <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.42578125" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2935,30 +2962,30 @@
     <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="388" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="362" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="341"/>
-    <col min="22" max="22" width="11.42578125" style="356"/>
+    <col min="19" max="19" width="12.42578125" style="387" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="361" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="340"/>
+    <col min="22" max="22" width="11.42578125" style="355"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="405" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
-      <c r="G1" s="396"/>
-      <c r="H1" s="396"/>
-      <c r="I1" s="396"/>
-      <c r="J1" s="396"/>
-      <c r="K1" s="389"/>
-      <c r="L1" s="389"/>
-      <c r="M1" s="389"/>
-      <c r="N1" s="389"/>
-      <c r="O1" s="390"/>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="389"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
       <c r="U1" s="6" t="s">
@@ -2967,27 +2994,27 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="397" t="s">
+      <c r="W1" s="406" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="398"/>
+      <c r="X1" s="407"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="396"/>
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="396"/>
-      <c r="E2" s="396"/>
-      <c r="F2" s="396"/>
-      <c r="G2" s="396"/>
-      <c r="H2" s="396"/>
-      <c r="I2" s="396"/>
-      <c r="J2" s="396"/>
-      <c r="K2" s="391"/>
-      <c r="L2" s="391"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
+      <c r="A2" s="405"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="390"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="392"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -3036,10 +3063,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="399" t="s">
+      <c r="O3" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="400"/>
+      <c r="P3" s="409"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3580,25 +3607,37 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="61"/>
       <c r="D14" s="62"/>
       <c r="E14" s="40"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="F14" s="63">
+        <v>21030</v>
+      </c>
+      <c r="G14" s="64">
+        <v>44575</v>
+      </c>
       <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="66">
+        <v>20605</v>
+      </c>
       <c r="J14" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="46"/>
+        <v>-425</v>
+      </c>
+      <c r="K14" s="46">
+        <v>37</v>
+      </c>
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
       <c r="N14" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>762385</v>
       </c>
       <c r="O14" s="79"/>
       <c r="P14" s="80"/>
@@ -3616,25 +3655,37 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="81"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" s="61"/>
       <c r="D15" s="62"/>
       <c r="E15" s="40"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="F15" s="63">
+        <v>0</v>
+      </c>
+      <c r="G15" s="64">
+        <v>44575</v>
+      </c>
       <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="I15" s="66">
+        <v>5595</v>
+      </c>
       <c r="J15" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="46"/>
+        <v>5595</v>
+      </c>
+      <c r="K15" s="46">
+        <v>37</v>
+      </c>
       <c r="L15" s="67"/>
       <c r="M15" s="67"/>
       <c r="N15" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>207015</v>
       </c>
       <c r="O15" s="79"/>
       <c r="P15" s="80"/>
@@ -3652,25 +3703,37 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="82"/>
       <c r="D16" s="62"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="63">
+        <v>22380</v>
+      </c>
+      <c r="G16" s="64">
+        <v>44577</v>
+      </c>
       <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
+      <c r="I16" s="66">
+        <v>22370</v>
+      </c>
       <c r="J16" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="46"/>
+        <v>-10</v>
+      </c>
+      <c r="K16" s="46">
+        <v>36.5</v>
+      </c>
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
       <c r="N16" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>816505</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="80"/>
@@ -3688,25 +3751,37 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="61"/>
       <c r="D17" s="62"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="F17" s="63">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64">
+        <v>44577</v>
+      </c>
       <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
+      <c r="I17" s="66">
+        <v>5755</v>
+      </c>
       <c r="J17" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="84"/>
+        <v>5755</v>
+      </c>
+      <c r="K17" s="84">
+        <v>36.5</v>
+      </c>
       <c r="L17" s="67"/>
       <c r="M17" s="67"/>
       <c r="N17" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210057.5</v>
       </c>
       <c r="O17" s="79"/>
       <c r="P17" s="80"/>
@@ -3724,25 +3799,37 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="61"/>
       <c r="D18" s="62"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="F18" s="63">
+        <v>17170</v>
+      </c>
+      <c r="G18" s="64">
+        <v>44578</v>
+      </c>
       <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="I18" s="66">
+        <v>21630</v>
+      </c>
       <c r="J18" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="84"/>
+        <v>4460</v>
+      </c>
+      <c r="K18" s="84">
+        <v>36.5</v>
+      </c>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
       <c r="N18" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>789495</v>
       </c>
       <c r="O18" s="79"/>
       <c r="P18" s="80"/>
@@ -3760,25 +3847,37 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="61"/>
       <c r="D19" s="62"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
+      <c r="F19" s="63">
+        <v>22160</v>
+      </c>
+      <c r="G19" s="64">
+        <v>44581</v>
+      </c>
       <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
+      <c r="I19" s="66">
+        <v>21970</v>
+      </c>
       <c r="J19" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="84"/>
+        <v>-190</v>
+      </c>
+      <c r="K19" s="84">
+        <v>36</v>
+      </c>
       <c r="L19" s="67"/>
       <c r="M19" s="67"/>
       <c r="N19" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>790920</v>
       </c>
       <c r="O19" s="79"/>
       <c r="P19" s="80"/>
@@ -3796,25 +3895,37 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="61"/>
       <c r="D20" s="62"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
+      <c r="F20" s="63">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64">
+        <v>44581</v>
+      </c>
       <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
+      <c r="I20" s="66">
+        <v>5745</v>
+      </c>
       <c r="J20" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="84"/>
+        <v>5745</v>
+      </c>
+      <c r="K20" s="84">
+        <v>36</v>
+      </c>
       <c r="L20" s="67"/>
       <c r="M20" s="67"/>
       <c r="N20" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>206820</v>
       </c>
       <c r="O20" s="75"/>
       <c r="P20" s="76"/>
@@ -3837,7 +3948,9 @@
       <c r="C21" s="61"/>
       <c r="D21" s="62"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="63"/>
+      <c r="F21" s="63">
+        <v>0</v>
+      </c>
       <c r="G21" s="64"/>
       <c r="H21" s="65"/>
       <c r="I21" s="66"/>
@@ -5115,11 +5228,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="401"/>
+      <c r="A57" s="410"/>
       <c r="B57" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="403"/>
+      <c r="C57" s="412"/>
       <c r="D57" s="177"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5127,7 +5240,7 @@
       </c>
       <c r="F57" s="161"/>
       <c r="G57" s="162"/>
-      <c r="H57" s="405"/>
+      <c r="H57" s="414"/>
       <c r="I57" s="161"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5140,8 +5253,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="407"/>
-      <c r="P57" s="409"/>
+      <c r="O57" s="416"/>
+      <c r="P57" s="418"/>
       <c r="Q57" s="176"/>
       <c r="R57" s="139"/>
       <c r="S57" s="102"/>
@@ -5150,11 +5263,11 @@
       <c r="V57" s="56"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="402"/>
+      <c r="A58" s="411"/>
       <c r="B58" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="404"/>
+      <c r="C58" s="413"/>
       <c r="D58" s="177"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5162,7 +5275,7 @@
       </c>
       <c r="F58" s="161"/>
       <c r="G58" s="162"/>
-      <c r="H58" s="406"/>
+      <c r="H58" s="415"/>
       <c r="I58" s="161"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5175,8 +5288,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="408"/>
-      <c r="P58" s="410"/>
+      <c r="O58" s="417"/>
+      <c r="P58" s="419"/>
       <c r="Q58" s="176"/>
       <c r="R58" s="139"/>
       <c r="S58" s="102"/>
@@ -5185,11 +5298,11 @@
       <c r="V58" s="56"/>
     </row>
     <row r="59" spans="1:24" s="171" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="414"/>
+      <c r="A59" s="423"/>
       <c r="B59" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="416"/>
+      <c r="C59" s="425"/>
       <c r="D59" s="175"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5197,7 +5310,7 @@
       </c>
       <c r="F59" s="161"/>
       <c r="G59" s="162"/>
-      <c r="H59" s="405"/>
+      <c r="H59" s="414"/>
       <c r="I59" s="161"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5222,11 +5335,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="415"/>
+      <c r="A60" s="424"/>
       <c r="B60" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="417"/>
+      <c r="C60" s="426"/>
       <c r="D60" s="180"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5234,7 +5347,7 @@
       </c>
       <c r="F60" s="161"/>
       <c r="G60" s="162"/>
-      <c r="H60" s="406"/>
+      <c r="H60" s="415"/>
       <c r="I60" s="161"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5293,7 +5406,7 @@
       <c r="A62" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="440" t="s">
+      <c r="B62" s="404" t="s">
         <v>50</v>
       </c>
       <c r="C62" s="187" t="s">
@@ -5343,25 +5456,39 @@
       <c r="V62" s="56"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="198"/>
-      <c r="B63" s="431"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="394"/>
+      <c r="A63" s="440" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="395" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="393"/>
       <c r="E63" s="40"/>
-      <c r="F63" s="432"/>
-      <c r="G63" s="199"/>
-      <c r="H63" s="395"/>
-      <c r="I63" s="161"/>
+      <c r="F63" s="396">
+        <v>18647.810000000001</v>
+      </c>
+      <c r="G63" s="198">
+        <v>44567</v>
+      </c>
+      <c r="H63" s="394"/>
+      <c r="I63" s="161">
+        <v>18647.810000000001</v>
+      </c>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="178"/>
+      <c r="K63" s="178">
+        <v>32.799999999999997</v>
+      </c>
       <c r="L63" s="109"/>
       <c r="M63" s="109"/>
       <c r="N63" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>611648.16799999995</v>
       </c>
       <c r="O63" s="176"/>
       <c r="P63" s="172"/>
@@ -5383,7 +5510,7 @@
       </c>
       <c r="F64" s="161"/>
       <c r="G64" s="162"/>
-      <c r="H64" s="437"/>
+      <c r="H64" s="401"/>
       <c r="I64" s="161"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -5396,8 +5523,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="407"/>
-      <c r="P64" s="409"/>
+      <c r="O64" s="416"/>
+      <c r="P64" s="418"/>
       <c r="Q64" s="176"/>
       <c r="R64" s="139"/>
       <c r="S64" s="192"/>
@@ -5416,7 +5543,7 @@
       </c>
       <c r="F65" s="161"/>
       <c r="G65" s="162"/>
-      <c r="H65" s="437"/>
+      <c r="H65" s="401"/>
       <c r="I65" s="161"/>
       <c r="J65" s="45">
         <f t="shared" si="0"/>
@@ -5429,8 +5556,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="420"/>
-      <c r="P65" s="421"/>
+      <c r="O65" s="427"/>
+      <c r="P65" s="428"/>
       <c r="Q65" s="176"/>
       <c r="R65" s="139"/>
       <c r="S65" s="192"/>
@@ -5627,8 +5754,8 @@
         <f>K71*I71</f>
         <v>0</v>
       </c>
-      <c r="O71" s="200"/>
-      <c r="P71" s="201"/>
+      <c r="O71" s="199"/>
+      <c r="P71" s="200"/>
       <c r="Q71" s="176"/>
       <c r="R71" s="139"/>
       <c r="S71" s="192"/>
@@ -5646,8 +5773,8 @@
         <v>0</v>
       </c>
       <c r="F72" s="161"/>
-      <c r="G72" s="438"/>
-      <c r="H72" s="439"/>
+      <c r="G72" s="402"/>
+      <c r="H72" s="403"/>
       <c r="I72" s="161"/>
       <c r="J72" s="45">
         <f>I72-F72</f>
@@ -5660,8 +5787,8 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="418"/>
-      <c r="P72" s="411"/>
+      <c r="O72" s="429"/>
+      <c r="P72" s="420"/>
       <c r="Q72" s="179"/>
       <c r="R72" s="139"/>
       <c r="S72" s="192"/>
@@ -5679,8 +5806,8 @@
         <v>0</v>
       </c>
       <c r="F73" s="161"/>
-      <c r="G73" s="438"/>
-      <c r="H73" s="439"/>
+      <c r="G73" s="402"/>
+      <c r="H73" s="403"/>
       <c r="I73" s="161"/>
       <c r="J73" s="45">
         <f>I73-F73</f>
@@ -5693,8 +5820,8 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="422"/>
-      <c r="P73" s="412"/>
+      <c r="O73" s="430"/>
+      <c r="P73" s="421"/>
       <c r="Q73" s="179"/>
       <c r="R73" s="139"/>
       <c r="S73" s="192"/>
@@ -5712,8 +5839,8 @@
         <v>0</v>
       </c>
       <c r="F74" s="161"/>
-      <c r="G74" s="438"/>
-      <c r="H74" s="439"/>
+      <c r="G74" s="402"/>
+      <c r="H74" s="403"/>
       <c r="I74" s="161"/>
       <c r="J74" s="45">
         <f>I74-F74</f>
@@ -5726,8 +5853,8 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="422"/>
-      <c r="P74" s="412"/>
+      <c r="O74" s="430"/>
+      <c r="P74" s="421"/>
       <c r="Q74" s="179"/>
       <c r="R74" s="139"/>
       <c r="S74" s="192"/>
@@ -5745,8 +5872,8 @@
         <v>0</v>
       </c>
       <c r="F75" s="161"/>
-      <c r="G75" s="438"/>
-      <c r="H75" s="439"/>
+      <c r="G75" s="402"/>
+      <c r="H75" s="403"/>
       <c r="I75" s="161"/>
       <c r="J75" s="45">
         <f>I75-F75</f>
@@ -5759,8 +5886,8 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="419"/>
-      <c r="P75" s="413"/>
+      <c r="O75" s="431"/>
+      <c r="P75" s="422"/>
       <c r="Q75" s="179"/>
       <c r="R75" s="139"/>
       <c r="S75" s="192"/>
@@ -5793,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="184"/>
-      <c r="P76" s="202"/>
+      <c r="P76" s="201"/>
       <c r="Q76" s="176"/>
       <c r="R76" s="139"/>
       <c r="S76" s="192"/>
@@ -5805,7 +5932,7 @@
       <c r="A77" s="189"/>
       <c r="B77" s="190"/>
       <c r="C77" s="195"/>
-      <c r="D77" s="203"/>
+      <c r="D77" s="202"/>
       <c r="E77" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5838,14 +5965,14 @@
       <c r="A78" s="189"/>
       <c r="B78" s="190"/>
       <c r="C78" s="195"/>
-      <c r="D78" s="203"/>
+      <c r="D78" s="202"/>
       <c r="E78" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="161"/>
       <c r="G78" s="162"/>
-      <c r="H78" s="439"/>
+      <c r="H78" s="403"/>
       <c r="I78" s="161"/>
       <c r="J78" s="45">
         <f t="shared" si="0"/>
@@ -5858,8 +5985,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="407"/>
-      <c r="P78" s="429"/>
+      <c r="O78" s="416"/>
+      <c r="P78" s="438"/>
       <c r="Q78" s="176"/>
       <c r="R78" s="139"/>
       <c r="S78" s="192"/>
@@ -5871,14 +5998,14 @@
       <c r="A79" s="189"/>
       <c r="B79" s="190"/>
       <c r="C79" s="195"/>
-      <c r="D79" s="203"/>
+      <c r="D79" s="202"/>
       <c r="E79" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="161"/>
       <c r="G79" s="162"/>
-      <c r="H79" s="439"/>
+      <c r="H79" s="403"/>
       <c r="I79" s="161"/>
       <c r="J79" s="45">
         <f t="shared" si="0"/>
@@ -5891,8 +6018,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="420"/>
-      <c r="P79" s="430"/>
+      <c r="O79" s="427"/>
+      <c r="P79" s="439"/>
       <c r="Q79" s="176"/>
       <c r="R79" s="139"/>
       <c r="S79" s="192"/>
@@ -5904,14 +6031,14 @@
       <c r="A80" s="189"/>
       <c r="B80" s="190"/>
       <c r="C80" s="195"/>
-      <c r="D80" s="204"/>
+      <c r="D80" s="203"/>
       <c r="E80" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="161"/>
       <c r="G80" s="162"/>
-      <c r="H80" s="439"/>
+      <c r="H80" s="403"/>
       <c r="I80" s="161"/>
       <c r="J80" s="45">
         <f t="shared" si="0"/>
@@ -5924,8 +6051,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="407"/>
-      <c r="P80" s="429"/>
+      <c r="O80" s="416"/>
+      <c r="P80" s="438"/>
       <c r="Q80" s="176"/>
       <c r="R80" s="168"/>
       <c r="S80" s="192"/>
@@ -5937,14 +6064,14 @@
       <c r="A81" s="189"/>
       <c r="B81" s="190"/>
       <c r="C81" s="195"/>
-      <c r="D81" s="204"/>
+      <c r="D81" s="203"/>
       <c r="E81" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F81" s="161"/>
       <c r="G81" s="162"/>
-      <c r="H81" s="439"/>
+      <c r="H81" s="403"/>
       <c r="I81" s="161"/>
       <c r="J81" s="45">
         <f t="shared" si="0"/>
@@ -5957,8 +6084,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="420"/>
-      <c r="P81" s="430"/>
+      <c r="O81" s="427"/>
+      <c r="P81" s="439"/>
       <c r="Q81" s="176"/>
       <c r="R81" s="168"/>
       <c r="S81" s="192"/>
@@ -5969,8 +6096,8 @@
     <row r="82" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="77"/>
       <c r="B82" s="190"/>
-      <c r="C82" s="205"/>
-      <c r="D82" s="206"/>
+      <c r="C82" s="204"/>
+      <c r="D82" s="205"/>
       <c r="E82" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6002,8 +6129,8 @@
     <row r="83" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="77"/>
       <c r="B83" s="190"/>
-      <c r="C83" s="207"/>
-      <c r="D83" s="206"/>
+      <c r="C83" s="206"/>
+      <c r="D83" s="205"/>
       <c r="E83" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6024,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="176"/>
-      <c r="P83" s="208"/>
+      <c r="P83" s="207"/>
       <c r="Q83" s="176"/>
       <c r="R83" s="168"/>
       <c r="S83" s="192"/>
@@ -6035,8 +6162,8 @@
     <row r="84" spans="1:22" s="171" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="77"/>
       <c r="B84" s="190"/>
-      <c r="C84" s="206"/>
-      <c r="D84" s="209"/>
+      <c r="C84" s="205"/>
+      <c r="D84" s="208"/>
       <c r="E84" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6057,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="176"/>
-      <c r="P84" s="208"/>
+      <c r="P84" s="207"/>
       <c r="Q84" s="176"/>
       <c r="R84" s="168"/>
       <c r="S84" s="192"/>
@@ -6066,17 +6193,17 @@
       <c r="V84" s="170"/>
     </row>
     <row r="85" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="210"/>
+      <c r="A85" s="209"/>
       <c r="B85" s="137"/>
-      <c r="C85" s="203"/>
-      <c r="D85" s="211"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="210"/>
       <c r="E85" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F85" s="66"/>
       <c r="G85" s="127"/>
-      <c r="H85" s="212"/>
+      <c r="H85" s="211"/>
       <c r="I85" s="66"/>
       <c r="J85" s="45">
         <f t="shared" si="0"/>
@@ -6090,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="176"/>
-      <c r="P85" s="208"/>
+      <c r="P85" s="207"/>
       <c r="Q85" s="176"/>
       <c r="R85" s="139"/>
       <c r="S85" s="192"/>
@@ -6099,31 +6226,31 @@
       <c r="V85" s="56"/>
     </row>
     <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="210"/>
+      <c r="A86" s="209"/>
       <c r="B86" s="137"/>
-      <c r="C86" s="213"/>
-      <c r="D86" s="211"/>
+      <c r="C86" s="212"/>
+      <c r="D86" s="210"/>
       <c r="E86" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86" s="66"/>
       <c r="G86" s="127"/>
-      <c r="H86" s="212"/>
+      <c r="H86" s="211"/>
       <c r="I86" s="66"/>
       <c r="J86" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K86" s="110"/>
-      <c r="L86" s="423"/>
-      <c r="M86" s="424"/>
+      <c r="L86" s="432"/>
+      <c r="M86" s="433"/>
       <c r="N86" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O86" s="176"/>
-      <c r="P86" s="208"/>
+      <c r="P86" s="207"/>
       <c r="Q86" s="176"/>
       <c r="R86" s="139"/>
       <c r="S86" s="192"/>
@@ -6132,31 +6259,31 @@
       <c r="V86" s="56"/>
     </row>
     <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="210"/>
+      <c r="A87" s="209"/>
       <c r="B87" s="137"/>
-      <c r="C87" s="214"/>
-      <c r="D87" s="211"/>
+      <c r="C87" s="213"/>
+      <c r="D87" s="210"/>
       <c r="E87" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="127"/>
-      <c r="H87" s="212"/>
+      <c r="H87" s="211"/>
       <c r="I87" s="66"/>
       <c r="J87" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K87" s="110"/>
-      <c r="L87" s="423"/>
-      <c r="M87" s="424"/>
+      <c r="L87" s="432"/>
+      <c r="M87" s="433"/>
       <c r="N87" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O87" s="176"/>
-      <c r="P87" s="208"/>
+      <c r="P87" s="207"/>
       <c r="Q87" s="176"/>
       <c r="R87" s="139"/>
       <c r="S87" s="192"/>
@@ -6165,31 +6292,31 @@
       <c r="V87" s="56"/>
     </row>
     <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="215"/>
+      <c r="A88" s="214"/>
       <c r="B88" s="137"/>
-      <c r="C88" s="216"/>
-      <c r="D88" s="211"/>
+      <c r="C88" s="215"/>
+      <c r="D88" s="210"/>
       <c r="E88" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="66"/>
       <c r="G88" s="127"/>
-      <c r="H88" s="212"/>
+      <c r="H88" s="211"/>
       <c r="I88" s="66"/>
       <c r="J88" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K88" s="110"/>
-      <c r="L88" s="217"/>
-      <c r="M88" s="217"/>
+      <c r="L88" s="216"/>
+      <c r="M88" s="216"/>
       <c r="N88" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O88" s="176"/>
-      <c r="P88" s="208"/>
+      <c r="P88" s="207"/>
       <c r="Q88" s="176"/>
       <c r="R88" s="139"/>
       <c r="S88" s="192"/>
@@ -6198,31 +6325,31 @@
       <c r="V88" s="56"/>
     </row>
     <row r="89" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="218"/>
+      <c r="A89" s="217"/>
       <c r="B89" s="137"/>
-      <c r="C89" s="219"/>
-      <c r="D89" s="211"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="210"/>
       <c r="E89" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F89" s="66"/>
       <c r="G89" s="127"/>
-      <c r="H89" s="212"/>
+      <c r="H89" s="211"/>
       <c r="I89" s="66"/>
       <c r="J89" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K89" s="110"/>
-      <c r="L89" s="217"/>
-      <c r="M89" s="217"/>
+      <c r="L89" s="216"/>
+      <c r="M89" s="216"/>
       <c r="N89" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O89" s="176"/>
-      <c r="P89" s="208"/>
+      <c r="P89" s="207"/>
       <c r="Q89" s="176"/>
       <c r="R89" s="139"/>
       <c r="S89" s="192"/>
@@ -6231,17 +6358,17 @@
       <c r="V89" s="56"/>
     </row>
     <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="220"/>
+      <c r="A90" s="219"/>
       <c r="B90" s="137"/>
-      <c r="C90" s="211"/>
-      <c r="D90" s="211"/>
+      <c r="C90" s="210"/>
+      <c r="D90" s="210"/>
       <c r="E90" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="66"/>
       <c r="G90" s="127"/>
-      <c r="H90" s="212"/>
+      <c r="H90" s="211"/>
       <c r="I90" s="66"/>
       <c r="J90" s="45">
         <f t="shared" si="0"/>
@@ -6255,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="176"/>
-      <c r="P90" s="208"/>
+      <c r="P90" s="207"/>
       <c r="Q90" s="176"/>
       <c r="R90" s="139"/>
       <c r="S90" s="192"/>
@@ -6264,17 +6391,17 @@
       <c r="V90" s="56"/>
     </row>
     <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="220"/>
+      <c r="A91" s="219"/>
       <c r="B91" s="137"/>
-      <c r="C91" s="211"/>
-      <c r="D91" s="211"/>
+      <c r="C91" s="210"/>
+      <c r="D91" s="210"/>
       <c r="E91" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F91" s="66"/>
       <c r="G91" s="127"/>
-      <c r="H91" s="212"/>
+      <c r="H91" s="211"/>
       <c r="I91" s="66"/>
       <c r="J91" s="45">
         <f t="shared" si="0"/>
@@ -6288,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="176"/>
-      <c r="P91" s="208"/>
+      <c r="P91" s="207"/>
       <c r="Q91" s="176"/>
       <c r="R91" s="139"/>
       <c r="S91" s="192"/>
@@ -6297,17 +6424,17 @@
       <c r="V91" s="56"/>
     </row>
     <row r="92" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="220"/>
+      <c r="A92" s="219"/>
       <c r="B92" s="137"/>
-      <c r="C92" s="211"/>
-      <c r="D92" s="211"/>
+      <c r="C92" s="210"/>
+      <c r="D92" s="210"/>
       <c r="E92" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="66"/>
       <c r="G92" s="127"/>
-      <c r="H92" s="212"/>
+      <c r="H92" s="211"/>
       <c r="I92" s="66"/>
       <c r="J92" s="45">
         <f t="shared" si="0"/>
@@ -6321,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="176"/>
-      <c r="P92" s="208"/>
+      <c r="P92" s="207"/>
       <c r="Q92" s="176"/>
       <c r="R92" s="139"/>
       <c r="S92" s="192"/>
@@ -6330,17 +6457,17 @@
       <c r="V92" s="56"/>
     </row>
     <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="210"/>
+      <c r="A93" s="209"/>
       <c r="B93" s="137"/>
-      <c r="C93" s="203"/>
-      <c r="D93" s="211"/>
+      <c r="C93" s="202"/>
+      <c r="D93" s="210"/>
       <c r="E93" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="66"/>
       <c r="G93" s="127"/>
-      <c r="H93" s="212"/>
+      <c r="H93" s="211"/>
       <c r="I93" s="66"/>
       <c r="J93" s="45">
         <f t="shared" si="0"/>
@@ -6353,8 +6480,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="407"/>
-      <c r="P93" s="425"/>
+      <c r="O93" s="416"/>
+      <c r="P93" s="434"/>
       <c r="Q93" s="176"/>
       <c r="R93" s="139"/>
       <c r="S93" s="192"/>
@@ -6363,17 +6490,17 @@
       <c r="V93" s="56"/>
     </row>
     <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="210"/>
+      <c r="A94" s="209"/>
       <c r="B94" s="137"/>
-      <c r="C94" s="203"/>
-      <c r="D94" s="211"/>
+      <c r="C94" s="202"/>
+      <c r="D94" s="210"/>
       <c r="E94" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F94" s="66"/>
       <c r="G94" s="127"/>
-      <c r="H94" s="212"/>
+      <c r="H94" s="211"/>
       <c r="I94" s="66"/>
       <c r="J94" s="45">
         <f t="shared" si="0"/>
@@ -6386,8 +6513,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="420"/>
-      <c r="P94" s="426"/>
+      <c r="O94" s="427"/>
+      <c r="P94" s="435"/>
       <c r="Q94" s="176"/>
       <c r="R94" s="139"/>
       <c r="S94" s="192"/>
@@ -6398,15 +6525,15 @@
     <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="137"/>
       <c r="B95" s="137"/>
-      <c r="C95" s="211"/>
-      <c r="D95" s="211"/>
+      <c r="C95" s="210"/>
+      <c r="D95" s="210"/>
       <c r="E95" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="66"/>
       <c r="G95" s="127"/>
-      <c r="H95" s="212"/>
+      <c r="H95" s="211"/>
       <c r="I95" s="66"/>
       <c r="J95" s="45">
         <f t="shared" si="0"/>
@@ -6420,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="176"/>
-      <c r="P95" s="208"/>
+      <c r="P95" s="207"/>
       <c r="Q95" s="176"/>
       <c r="R95" s="139"/>
       <c r="S95" s="192"/>
@@ -6431,15 +6558,15 @@
     <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="137"/>
       <c r="B96" s="137"/>
-      <c r="C96" s="211"/>
-      <c r="D96" s="211"/>
+      <c r="C96" s="210"/>
+      <c r="D96" s="210"/>
       <c r="E96" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="127"/>
-      <c r="H96" s="212"/>
+      <c r="H96" s="211"/>
       <c r="I96" s="66"/>
       <c r="J96" s="45">
         <f t="shared" si="0"/>
@@ -6453,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="176"/>
-      <c r="P96" s="208"/>
+      <c r="P96" s="207"/>
       <c r="Q96" s="176"/>
       <c r="R96" s="139"/>
       <c r="S96" s="192"/>
@@ -6464,8 +6591,8 @@
     <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="123"/>
       <c r="B97" s="137"/>
-      <c r="C97" s="221"/>
-      <c r="D97" s="221"/>
+      <c r="C97" s="220"/>
+      <c r="D97" s="220"/>
       <c r="E97" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6486,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="176"/>
-      <c r="P97" s="208"/>
+      <c r="P97" s="207"/>
       <c r="Q97" s="176"/>
       <c r="R97" s="139"/>
       <c r="S97" s="192"/>
@@ -6496,9 +6623,9 @@
     </row>
     <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A98" s="189"/>
-      <c r="B98" s="210"/>
-      <c r="C98" s="216"/>
-      <c r="D98" s="216"/>
+      <c r="B98" s="209"/>
+      <c r="C98" s="215"/>
+      <c r="D98" s="215"/>
       <c r="E98" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6519,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="176"/>
-      <c r="P98" s="208"/>
+      <c r="P98" s="207"/>
       <c r="Q98" s="176"/>
       <c r="R98" s="139"/>
       <c r="S98" s="192"/>
@@ -6529,9 +6656,9 @@
     </row>
     <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A99" s="189"/>
-      <c r="B99" s="210"/>
-      <c r="C99" s="221"/>
-      <c r="D99" s="221"/>
+      <c r="B99" s="209"/>
+      <c r="C99" s="220"/>
+      <c r="D99" s="220"/>
       <c r="E99" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6552,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="176"/>
-      <c r="P99" s="208"/>
+      <c r="P99" s="207"/>
       <c r="Q99" s="176"/>
       <c r="R99" s="139"/>
       <c r="S99" s="192"/>
@@ -6562,9 +6689,9 @@
     </row>
     <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A100" s="189"/>
-      <c r="B100" s="210"/>
-      <c r="C100" s="221"/>
-      <c r="D100" s="221"/>
+      <c r="B100" s="209"/>
+      <c r="C100" s="220"/>
+      <c r="D100" s="220"/>
       <c r="E100" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6585,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="176"/>
-      <c r="P100" s="208"/>
+      <c r="P100" s="207"/>
       <c r="Q100" s="176"/>
       <c r="R100" s="139"/>
       <c r="S100" s="192"/>
@@ -6596,8 +6723,8 @@
     <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="128"/>
       <c r="B101" s="137"/>
-      <c r="C101" s="221"/>
-      <c r="D101" s="221"/>
+      <c r="C101" s="220"/>
+      <c r="D101" s="220"/>
       <c r="E101" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6618,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="176"/>
-      <c r="P101" s="208"/>
+      <c r="P101" s="207"/>
       <c r="Q101" s="176"/>
       <c r="R101" s="139"/>
       <c r="S101" s="192"/>
@@ -6629,8 +6756,8 @@
     <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="128"/>
       <c r="B102" s="137"/>
-      <c r="C102" s="221"/>
-      <c r="D102" s="221"/>
+      <c r="C102" s="220"/>
+      <c r="D102" s="220"/>
       <c r="E102" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6651,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="176"/>
-      <c r="P102" s="208"/>
+      <c r="P102" s="207"/>
       <c r="Q102" s="176"/>
       <c r="R102" s="139"/>
       <c r="S102" s="192"/>
@@ -6662,8 +6789,8 @@
     <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="128"/>
       <c r="B103" s="137"/>
-      <c r="C103" s="221"/>
-      <c r="D103" s="221"/>
+      <c r="C103" s="220"/>
+      <c r="D103" s="220"/>
       <c r="E103" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6684,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="176"/>
-      <c r="P103" s="208"/>
+      <c r="P103" s="207"/>
       <c r="Q103" s="176"/>
       <c r="R103" s="139"/>
       <c r="S103" s="192"/>
@@ -6694,9 +6821,9 @@
     </row>
     <row r="104" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="137"/>
-      <c r="B104" s="222"/>
-      <c r="C104" s="221"/>
-      <c r="D104" s="221"/>
+      <c r="B104" s="221"/>
+      <c r="C104" s="220"/>
+      <c r="D104" s="220"/>
       <c r="E104" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6717,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="176"/>
-      <c r="P104" s="208"/>
+      <c r="P104" s="207"/>
       <c r="Q104" s="176"/>
       <c r="R104" s="139"/>
       <c r="S104" s="192"/>
@@ -6728,8 +6855,8 @@
     <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="137"/>
       <c r="B105" s="137"/>
-      <c r="C105" s="221"/>
-      <c r="D105" s="221"/>
+      <c r="C105" s="220"/>
+      <c r="D105" s="220"/>
       <c r="E105" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6750,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="176"/>
-      <c r="P105" s="208"/>
+      <c r="P105" s="207"/>
       <c r="Q105" s="176"/>
       <c r="R105" s="139"/>
       <c r="S105" s="192"/>
@@ -6761,8 +6888,8 @@
     <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="137"/>
       <c r="B106" s="137"/>
-      <c r="C106" s="221"/>
-      <c r="D106" s="221"/>
+      <c r="C106" s="220"/>
+      <c r="D106" s="220"/>
       <c r="E106" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6783,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="176"/>
-      <c r="P106" s="208"/>
+      <c r="P106" s="207"/>
       <c r="Q106" s="176"/>
       <c r="R106" s="139"/>
       <c r="S106" s="192"/>
@@ -6794,8 +6921,8 @@
     <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="189"/>
       <c r="B107" s="137"/>
-      <c r="C107" s="221"/>
-      <c r="D107" s="221"/>
+      <c r="C107" s="220"/>
+      <c r="D107" s="220"/>
       <c r="E107" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6816,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="176"/>
-      <c r="P107" s="208"/>
+      <c r="P107" s="207"/>
       <c r="Q107" s="176"/>
       <c r="R107" s="139"/>
       <c r="S107" s="192"/>
@@ -6827,15 +6954,15 @@
     <row r="108" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="181"/>
       <c r="B108" s="181"/>
-      <c r="C108" s="433"/>
-      <c r="D108" s="433"/>
-      <c r="E108" s="434">
+      <c r="C108" s="397"/>
+      <c r="D108" s="397"/>
+      <c r="E108" s="398">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F108" s="44"/>
-      <c r="G108" s="435"/>
-      <c r="H108" s="436"/>
+      <c r="G108" s="399"/>
+      <c r="H108" s="400"/>
       <c r="I108" s="66"/>
       <c r="J108" s="45">
         <f t="shared" si="0"/>
@@ -6849,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="176"/>
-      <c r="P108" s="208"/>
+      <c r="P108" s="207"/>
       <c r="Q108" s="176"/>
       <c r="R108" s="139"/>
       <c r="S108" s="192"/>
@@ -6860,8 +6987,8 @@
     <row r="109" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="137"/>
       <c r="B109" s="137"/>
-      <c r="C109" s="221"/>
-      <c r="D109" s="221"/>
+      <c r="C109" s="220"/>
+      <c r="D109" s="220"/>
       <c r="E109" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6882,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="176"/>
-      <c r="P109" s="208"/>
+      <c r="P109" s="207"/>
       <c r="Q109" s="176"/>
       <c r="R109" s="139"/>
       <c r="S109" s="192"/>
@@ -6891,10 +7018,10 @@
       <c r="V109" s="56"/>
     </row>
     <row r="110" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="210"/>
+      <c r="A110" s="209"/>
       <c r="B110" s="137"/>
-      <c r="C110" s="221"/>
-      <c r="D110" s="221"/>
+      <c r="C110" s="220"/>
+      <c r="D110" s="220"/>
       <c r="E110" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6915,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="176"/>
-      <c r="P110" s="208"/>
+      <c r="P110" s="207"/>
       <c r="Q110" s="176"/>
       <c r="R110" s="139"/>
       <c r="S110" s="192"/>
@@ -6924,10 +7051,10 @@
       <c r="V110" s="56"/>
     </row>
     <row r="111" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="210"/>
+      <c r="A111" s="209"/>
       <c r="B111" s="137"/>
-      <c r="C111" s="221"/>
-      <c r="D111" s="221"/>
+      <c r="C111" s="220"/>
+      <c r="D111" s="220"/>
       <c r="E111" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6948,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="176"/>
-      <c r="P111" s="208"/>
+      <c r="P111" s="207"/>
       <c r="Q111" s="176"/>
       <c r="R111" s="139"/>
       <c r="S111" s="192"/>
@@ -6957,10 +7084,10 @@
       <c r="V111" s="56"/>
     </row>
     <row r="112" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="210"/>
+      <c r="A112" s="209"/>
       <c r="B112" s="137"/>
-      <c r="C112" s="221"/>
-      <c r="D112" s="221"/>
+      <c r="C112" s="220"/>
+      <c r="D112" s="220"/>
       <c r="E112" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6981,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="176"/>
-      <c r="P112" s="208"/>
+      <c r="P112" s="207"/>
       <c r="Q112" s="176"/>
       <c r="R112" s="139"/>
       <c r="S112" s="192"/>
@@ -6992,8 +7119,8 @@
     <row r="113" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="137"/>
       <c r="B113" s="137"/>
-      <c r="C113" s="221"/>
-      <c r="D113" s="221"/>
+      <c r="C113" s="220"/>
+      <c r="D113" s="220"/>
       <c r="E113" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7014,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="176"/>
-      <c r="P113" s="208"/>
+      <c r="P113" s="207"/>
       <c r="Q113" s="176"/>
       <c r="R113" s="139"/>
       <c r="S113" s="192"/>
@@ -7025,8 +7152,8 @@
     <row r="114" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="194"/>
       <c r="B114" s="137"/>
-      <c r="C114" s="221"/>
-      <c r="D114" s="221"/>
+      <c r="C114" s="220"/>
+      <c r="D114" s="220"/>
       <c r="E114" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7047,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="176"/>
-      <c r="P114" s="208"/>
+      <c r="P114" s="207"/>
       <c r="Q114" s="176"/>
       <c r="R114" s="139"/>
       <c r="S114" s="192"/>
@@ -7058,8 +7185,8 @@
     <row r="115" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="128"/>
       <c r="B115" s="137"/>
-      <c r="C115" s="221"/>
-      <c r="D115" s="221"/>
+      <c r="C115" s="220"/>
+      <c r="D115" s="220"/>
       <c r="E115" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7080,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="176"/>
-      <c r="P115" s="208"/>
+      <c r="P115" s="207"/>
       <c r="Q115" s="176"/>
       <c r="R115" s="139"/>
       <c r="S115" s="192"/>
@@ -7091,8 +7218,8 @@
     <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="128"/>
       <c r="B116" s="137"/>
-      <c r="C116" s="221"/>
-      <c r="D116" s="221"/>
+      <c r="C116" s="220"/>
+      <c r="D116" s="220"/>
       <c r="E116" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7113,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="176"/>
-      <c r="P116" s="208"/>
+      <c r="P116" s="207"/>
       <c r="Q116" s="176"/>
       <c r="R116" s="139"/>
       <c r="S116" s="192"/>
@@ -7122,10 +7249,10 @@
       <c r="V116" s="56"/>
     </row>
     <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="223"/>
+      <c r="A117" s="222"/>
       <c r="B117" s="137"/>
-      <c r="C117" s="221"/>
-      <c r="D117" s="221"/>
+      <c r="C117" s="220"/>
+      <c r="D117" s="220"/>
       <c r="E117" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7146,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="176"/>
-      <c r="P117" s="208"/>
+      <c r="P117" s="207"/>
       <c r="Q117" s="176"/>
       <c r="R117" s="139"/>
       <c r="S117" s="192"/>
@@ -7155,10 +7282,10 @@
       <c r="V117" s="56"/>
     </row>
     <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="224"/>
+      <c r="A118" s="223"/>
       <c r="B118" s="137"/>
-      <c r="C118" s="221"/>
-      <c r="D118" s="221"/>
+      <c r="C118" s="220"/>
+      <c r="D118" s="220"/>
       <c r="E118" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7179,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="176"/>
-      <c r="P118" s="208"/>
+      <c r="P118" s="207"/>
       <c r="Q118" s="176"/>
       <c r="R118" s="139"/>
       <c r="S118" s="192"/>
@@ -7188,10 +7315,10 @@
       <c r="V118" s="56"/>
     </row>
     <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="225"/>
+      <c r="A119" s="224"/>
       <c r="B119" s="137"/>
-      <c r="C119" s="221"/>
-      <c r="D119" s="221"/>
+      <c r="C119" s="220"/>
+      <c r="D119" s="220"/>
       <c r="E119" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7212,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="176"/>
-      <c r="P119" s="208"/>
+      <c r="P119" s="207"/>
       <c r="Q119" s="176"/>
       <c r="R119" s="139"/>
       <c r="S119" s="192"/>
@@ -7221,10 +7348,10 @@
       <c r="V119" s="56"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="225"/>
+      <c r="A120" s="224"/>
       <c r="B120" s="137"/>
-      <c r="C120" s="219"/>
-      <c r="D120" s="219"/>
+      <c r="C120" s="218"/>
+      <c r="D120" s="218"/>
       <c r="E120" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7245,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="176"/>
-      <c r="P120" s="208"/>
+      <c r="P120" s="207"/>
       <c r="Q120" s="176"/>
       <c r="R120" s="139"/>
       <c r="S120" s="192"/>
@@ -7254,17 +7381,17 @@
       <c r="V120" s="56"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="224"/>
+      <c r="A121" s="223"/>
       <c r="B121" s="137"/>
-      <c r="C121" s="221"/>
-      <c r="D121" s="221"/>
+      <c r="C121" s="220"/>
+      <c r="D121" s="220"/>
       <c r="E121" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F121" s="66"/>
       <c r="G121" s="127"/>
-      <c r="H121" s="226"/>
+      <c r="H121" s="225"/>
       <c r="I121" s="66"/>
       <c r="J121" s="45">
         <f t="shared" si="0"/>
@@ -7278,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="176"/>
-      <c r="P121" s="208"/>
+      <c r="P121" s="207"/>
       <c r="Q121" s="176"/>
       <c r="R121" s="139"/>
       <c r="S121" s="192"/>
@@ -7287,17 +7414,17 @@
       <c r="V121" s="56"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="224"/>
+      <c r="A122" s="223"/>
       <c r="B122" s="137"/>
-      <c r="C122" s="219"/>
-      <c r="D122" s="219"/>
+      <c r="C122" s="218"/>
+      <c r="D122" s="218"/>
       <c r="E122" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F122" s="66"/>
       <c r="G122" s="127"/>
-      <c r="H122" s="226"/>
+      <c r="H122" s="225"/>
       <c r="I122" s="66"/>
       <c r="J122" s="45">
         <f t="shared" si="0"/>
@@ -7311,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="176"/>
-      <c r="P122" s="208"/>
+      <c r="P122" s="207"/>
       <c r="Q122" s="176"/>
       <c r="R122" s="139"/>
       <c r="S122" s="192"/>
@@ -7320,17 +7447,17 @@
       <c r="V122" s="56"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="224"/>
+      <c r="A123" s="223"/>
       <c r="B123" s="137"/>
-      <c r="C123" s="221"/>
-      <c r="D123" s="221"/>
+      <c r="C123" s="220"/>
+      <c r="D123" s="220"/>
       <c r="E123" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F123" s="66"/>
       <c r="G123" s="127"/>
-      <c r="H123" s="226"/>
+      <c r="H123" s="225"/>
       <c r="I123" s="66"/>
       <c r="J123" s="45">
         <f t="shared" si="0"/>
@@ -7344,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="176"/>
-      <c r="P123" s="208"/>
+      <c r="P123" s="207"/>
       <c r="Q123" s="176"/>
       <c r="R123" s="139"/>
       <c r="S123" s="192"/>
@@ -7353,17 +7480,17 @@
       <c r="V123" s="56"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="224"/>
+      <c r="A124" s="223"/>
       <c r="B124" s="137"/>
-      <c r="C124" s="216"/>
-      <c r="D124" s="216"/>
+      <c r="C124" s="215"/>
+      <c r="D124" s="215"/>
       <c r="E124" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F124" s="66"/>
       <c r="G124" s="127"/>
-      <c r="H124" s="226"/>
+      <c r="H124" s="225"/>
       <c r="I124" s="66"/>
       <c r="J124" s="45">
         <f t="shared" si="0"/>
@@ -7388,15 +7515,15 @@
     <row r="125" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="137"/>
       <c r="B125" s="137"/>
-      <c r="C125" s="221"/>
-      <c r="D125" s="221"/>
+      <c r="C125" s="220"/>
+      <c r="D125" s="220"/>
       <c r="E125" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F125" s="66"/>
       <c r="G125" s="127"/>
-      <c r="H125" s="227"/>
+      <c r="H125" s="226"/>
       <c r="I125" s="66"/>
       <c r="J125" s="45">
         <f t="shared" si="0"/>
@@ -7410,9 +7537,9 @@
         <v>0</v>
       </c>
       <c r="O125" s="176"/>
-      <c r="P125" s="228"/>
+      <c r="P125" s="227"/>
       <c r="Q125" s="176"/>
-      <c r="R125" s="229"/>
+      <c r="R125" s="228"/>
       <c r="S125" s="192"/>
       <c r="T125" s="54"/>
       <c r="U125" s="55"/>
@@ -7421,15 +7548,15 @@
     <row r="126" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="137"/>
       <c r="B126" s="137"/>
-      <c r="C126" s="221"/>
-      <c r="D126" s="221"/>
+      <c r="C126" s="220"/>
+      <c r="D126" s="220"/>
       <c r="E126" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F126" s="66"/>
       <c r="G126" s="127"/>
-      <c r="H126" s="227"/>
+      <c r="H126" s="226"/>
       <c r="I126" s="66"/>
       <c r="J126" s="45">
         <f t="shared" si="0"/>
@@ -7443,9 +7570,9 @@
         <v>0</v>
       </c>
       <c r="O126" s="176"/>
-      <c r="P126" s="228"/>
+      <c r="P126" s="227"/>
       <c r="Q126" s="176"/>
-      <c r="R126" s="229"/>
+      <c r="R126" s="228"/>
       <c r="S126" s="192"/>
       <c r="T126" s="54"/>
       <c r="U126" s="55"/>
@@ -7454,15 +7581,15 @@
     <row r="127" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="137"/>
       <c r="B127" s="137"/>
-      <c r="C127" s="221"/>
-      <c r="D127" s="221"/>
+      <c r="C127" s="220"/>
+      <c r="D127" s="220"/>
       <c r="E127" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F127" s="66"/>
       <c r="G127" s="127"/>
-      <c r="H127" s="227"/>
+      <c r="H127" s="226"/>
       <c r="I127" s="66"/>
       <c r="J127" s="45">
         <f t="shared" si="0"/>
@@ -7476,9 +7603,9 @@
         <v>0</v>
       </c>
       <c r="O127" s="176"/>
-      <c r="P127" s="228"/>
+      <c r="P127" s="227"/>
       <c r="Q127" s="176"/>
-      <c r="R127" s="229"/>
+      <c r="R127" s="228"/>
       <c r="S127" s="192"/>
       <c r="T127" s="54"/>
       <c r="U127" s="55"/>
@@ -7487,15 +7614,15 @@
     <row r="128" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="137"/>
       <c r="B128" s="137"/>
-      <c r="C128" s="221"/>
-      <c r="D128" s="221"/>
+      <c r="C128" s="220"/>
+      <c r="D128" s="220"/>
       <c r="E128" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="127"/>
-      <c r="H128" s="227"/>
+      <c r="H128" s="226"/>
       <c r="I128" s="66"/>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -7509,9 +7636,9 @@
         <v>0</v>
       </c>
       <c r="O128" s="176"/>
-      <c r="P128" s="228"/>
+      <c r="P128" s="227"/>
       <c r="Q128" s="176"/>
-      <c r="R128" s="229"/>
+      <c r="R128" s="228"/>
       <c r="S128" s="192"/>
       <c r="T128" s="54"/>
       <c r="U128" s="55"/>
@@ -7520,15 +7647,15 @@
     <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="123"/>
       <c r="B129" s="137"/>
-      <c r="C129" s="221"/>
-      <c r="D129" s="221"/>
+      <c r="C129" s="220"/>
+      <c r="D129" s="220"/>
       <c r="E129" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="127"/>
-      <c r="H129" s="230"/>
+      <c r="H129" s="229"/>
       <c r="I129" s="66"/>
       <c r="J129" s="45">
         <f t="shared" si="0"/>
@@ -7542,9 +7669,9 @@
         <v>0</v>
       </c>
       <c r="O129" s="108"/>
-      <c r="P129" s="231"/>
-      <c r="Q129" s="232"/>
-      <c r="R129" s="229"/>
+      <c r="P129" s="230"/>
+      <c r="Q129" s="231"/>
+      <c r="R129" s="228"/>
       <c r="S129" s="192"/>
       <c r="T129" s="54"/>
       <c r="U129" s="55"/>
@@ -7553,15 +7680,15 @@
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="137"/>
       <c r="B130" s="137"/>
-      <c r="C130" s="221"/>
-      <c r="D130" s="221"/>
+      <c r="C130" s="220"/>
+      <c r="D130" s="220"/>
       <c r="E130" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F130" s="66"/>
       <c r="G130" s="127"/>
-      <c r="H130" s="230"/>
+      <c r="H130" s="229"/>
       <c r="I130" s="66"/>
       <c r="J130" s="45">
         <f t="shared" si="0"/>
@@ -7575,9 +7702,9 @@
         <v>0</v>
       </c>
       <c r="O130" s="108"/>
-      <c r="P130" s="231"/>
-      <c r="Q130" s="232"/>
-      <c r="R130" s="229"/>
+      <c r="P130" s="230"/>
+      <c r="Q130" s="231"/>
+      <c r="R130" s="228"/>
       <c r="S130" s="192"/>
       <c r="T130" s="54"/>
       <c r="U130" s="55"/>
@@ -7586,15 +7713,15 @@
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="128"/>
       <c r="B131" s="137"/>
-      <c r="C131" s="233"/>
-      <c r="D131" s="233"/>
+      <c r="C131" s="232"/>
+      <c r="D131" s="232"/>
       <c r="E131" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F131" s="66"/>
       <c r="G131" s="127"/>
-      <c r="H131" s="230"/>
+      <c r="H131" s="229"/>
       <c r="I131" s="66"/>
       <c r="J131" s="45">
         <f t="shared" si="0"/>
@@ -7608,9 +7735,9 @@
         <v>0</v>
       </c>
       <c r="O131" s="108"/>
-      <c r="P131" s="231"/>
-      <c r="Q131" s="232"/>
-      <c r="R131" s="229"/>
+      <c r="P131" s="230"/>
+      <c r="Q131" s="231"/>
+      <c r="R131" s="228"/>
       <c r="S131" s="192"/>
       <c r="T131" s="54"/>
       <c r="U131" s="55"/>
@@ -7619,15 +7746,15 @@
     <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="128"/>
       <c r="B132" s="137"/>
-      <c r="C132" s="233"/>
-      <c r="D132" s="233"/>
+      <c r="C132" s="232"/>
+      <c r="D132" s="232"/>
       <c r="E132" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F132" s="66"/>
       <c r="G132" s="127"/>
-      <c r="H132" s="230"/>
+      <c r="H132" s="229"/>
       <c r="I132" s="66"/>
       <c r="J132" s="45">
         <f t="shared" si="0"/>
@@ -7641,9 +7768,9 @@
         <v>0</v>
       </c>
       <c r="O132" s="108"/>
-      <c r="P132" s="231"/>
-      <c r="Q132" s="232"/>
-      <c r="R132" s="229"/>
+      <c r="P132" s="230"/>
+      <c r="Q132" s="231"/>
+      <c r="R132" s="228"/>
       <c r="S132" s="192"/>
       <c r="T132" s="54"/>
       <c r="U132" s="55"/>
@@ -7652,15 +7779,15 @@
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="128"/>
       <c r="B133" s="137"/>
-      <c r="C133" s="233"/>
-      <c r="D133" s="233"/>
+      <c r="C133" s="232"/>
+      <c r="D133" s="232"/>
       <c r="E133" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F133" s="66"/>
       <c r="G133" s="127"/>
-      <c r="H133" s="230"/>
+      <c r="H133" s="229"/>
       <c r="I133" s="66"/>
       <c r="J133" s="45">
         <f t="shared" si="0"/>
@@ -7674,9 +7801,9 @@
         <v>0</v>
       </c>
       <c r="O133" s="108"/>
-      <c r="P133" s="231"/>
-      <c r="Q133" s="232"/>
-      <c r="R133" s="229"/>
+      <c r="P133" s="230"/>
+      <c r="Q133" s="231"/>
+      <c r="R133" s="228"/>
       <c r="S133" s="192"/>
       <c r="T133" s="54"/>
       <c r="U133" s="55"/>
@@ -7685,15 +7812,15 @@
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="128"/>
       <c r="B134" s="137"/>
-      <c r="C134" s="233"/>
-      <c r="D134" s="233"/>
+      <c r="C134" s="232"/>
+      <c r="D134" s="232"/>
       <c r="E134" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F134" s="66"/>
       <c r="G134" s="127"/>
-      <c r="H134" s="230"/>
+      <c r="H134" s="229"/>
       <c r="I134" s="66"/>
       <c r="J134" s="45">
         <f t="shared" si="0"/>
@@ -7707,9 +7834,9 @@
         <v>0</v>
       </c>
       <c r="O134" s="108"/>
-      <c r="P134" s="231"/>
-      <c r="Q134" s="232"/>
-      <c r="R134" s="229"/>
+      <c r="P134" s="230"/>
+      <c r="Q134" s="231"/>
+      <c r="R134" s="228"/>
       <c r="S134" s="192"/>
       <c r="T134" s="54"/>
       <c r="U134" s="55"/>
@@ -7718,15 +7845,15 @@
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="128"/>
       <c r="B135" s="137"/>
-      <c r="C135" s="233"/>
-      <c r="D135" s="233"/>
+      <c r="C135" s="232"/>
+      <c r="D135" s="232"/>
       <c r="E135" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F135" s="66"/>
       <c r="G135" s="127"/>
-      <c r="H135" s="230"/>
+      <c r="H135" s="229"/>
       <c r="I135" s="66"/>
       <c r="J135" s="45">
         <f t="shared" si="0"/>
@@ -7740,26 +7867,26 @@
         <v>0</v>
       </c>
       <c r="O135" s="108"/>
-      <c r="P135" s="231"/>
-      <c r="Q135" s="232"/>
-      <c r="R135" s="229"/>
+      <c r="P135" s="230"/>
+      <c r="Q135" s="231"/>
+      <c r="R135" s="228"/>
       <c r="S135" s="192"/>
       <c r="T135" s="54"/>
       <c r="U135" s="55"/>
       <c r="V135" s="56"/>
     </row>
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="224"/>
+      <c r="A136" s="223"/>
       <c r="B136" s="137"/>
-      <c r="C136" s="221"/>
-      <c r="D136" s="221"/>
+      <c r="C136" s="220"/>
+      <c r="D136" s="220"/>
       <c r="E136" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F136" s="66"/>
       <c r="G136" s="127"/>
-      <c r="H136" s="230"/>
+      <c r="H136" s="229"/>
       <c r="I136" s="66"/>
       <c r="J136" s="45">
         <f t="shared" si="0"/>
@@ -7773,26 +7900,26 @@
         <v>0</v>
       </c>
       <c r="O136" s="108"/>
-      <c r="P136" s="231"/>
-      <c r="Q136" s="232"/>
-      <c r="R136" s="229"/>
+      <c r="P136" s="230"/>
+      <c r="Q136" s="231"/>
+      <c r="R136" s="228"/>
       <c r="S136" s="192"/>
       <c r="T136" s="54"/>
       <c r="U136" s="55"/>
       <c r="V136" s="56"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="234"/>
+      <c r="A137" s="233"/>
       <c r="B137" s="137"/>
-      <c r="C137" s="214"/>
-      <c r="D137" s="214"/>
+      <c r="C137" s="213"/>
+      <c r="D137" s="213"/>
       <c r="E137" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F137" s="66"/>
       <c r="G137" s="127"/>
-      <c r="H137" s="226"/>
+      <c r="H137" s="225"/>
       <c r="I137" s="66"/>
       <c r="J137" s="45">
         <f t="shared" si="0"/>
@@ -7806,26 +7933,26 @@
         <v>0</v>
       </c>
       <c r="O137" s="108"/>
-      <c r="P137" s="231"/>
-      <c r="Q137" s="232"/>
-      <c r="R137" s="229"/>
+      <c r="P137" s="230"/>
+      <c r="Q137" s="231"/>
+      <c r="R137" s="228"/>
       <c r="S137" s="192"/>
       <c r="T137" s="54"/>
       <c r="U137" s="55"/>
       <c r="V137" s="56"/>
     </row>
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="234"/>
+      <c r="A138" s="233"/>
       <c r="B138" s="137"/>
-      <c r="C138" s="214"/>
-      <c r="D138" s="214"/>
+      <c r="C138" s="213"/>
+      <c r="D138" s="213"/>
       <c r="E138" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F138" s="66"/>
       <c r="G138" s="127"/>
-      <c r="H138" s="226"/>
+      <c r="H138" s="225"/>
       <c r="I138" s="66"/>
       <c r="J138" s="45">
         <f t="shared" si="0"/>
@@ -7839,26 +7966,26 @@
         <v>0</v>
       </c>
       <c r="O138" s="108"/>
-      <c r="P138" s="231"/>
-      <c r="Q138" s="235"/>
-      <c r="R138" s="229"/>
+      <c r="P138" s="230"/>
+      <c r="Q138" s="234"/>
+      <c r="R138" s="228"/>
       <c r="S138" s="192"/>
       <c r="T138" s="54"/>
       <c r="U138" s="55"/>
       <c r="V138" s="56"/>
     </row>
     <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="234"/>
+      <c r="A139" s="233"/>
       <c r="B139" s="137"/>
-      <c r="C139" s="214"/>
-      <c r="D139" s="214"/>
+      <c r="C139" s="213"/>
+      <c r="D139" s="213"/>
       <c r="E139" s="40">
         <f t="shared" ref="E139:E202" si="4">D139*F139</f>
         <v>0</v>
       </c>
       <c r="F139" s="66"/>
       <c r="G139" s="127"/>
-      <c r="H139" s="226"/>
+      <c r="H139" s="225"/>
       <c r="I139" s="66"/>
       <c r="J139" s="45">
         <f t="shared" si="0"/>
@@ -7872,26 +7999,26 @@
         <v>0</v>
       </c>
       <c r="O139" s="108"/>
-      <c r="P139" s="231"/>
-      <c r="Q139" s="232"/>
-      <c r="R139" s="229"/>
+      <c r="P139" s="230"/>
+      <c r="Q139" s="231"/>
+      <c r="R139" s="228"/>
       <c r="S139" s="192"/>
       <c r="T139" s="54"/>
       <c r="U139" s="55"/>
       <c r="V139" s="56"/>
     </row>
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="224"/>
+      <c r="A140" s="223"/>
       <c r="B140" s="137"/>
-      <c r="C140" s="221"/>
-      <c r="D140" s="221"/>
+      <c r="C140" s="220"/>
+      <c r="D140" s="220"/>
       <c r="E140" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F140" s="66"/>
       <c r="G140" s="127"/>
-      <c r="H140" s="226"/>
+      <c r="H140" s="225"/>
       <c r="I140" s="66"/>
       <c r="J140" s="45">
         <f t="shared" si="0"/>
@@ -7905,26 +8032,26 @@
         <v>0</v>
       </c>
       <c r="O140" s="108"/>
-      <c r="P140" s="236"/>
-      <c r="Q140" s="232"/>
-      <c r="R140" s="229"/>
+      <c r="P140" s="235"/>
+      <c r="Q140" s="231"/>
+      <c r="R140" s="228"/>
       <c r="S140" s="192"/>
       <c r="T140" s="54"/>
       <c r="U140" s="55"/>
       <c r="V140" s="56"/>
     </row>
     <row r="141" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="224"/>
+      <c r="A141" s="223"/>
       <c r="B141" s="137"/>
-      <c r="C141" s="221"/>
-      <c r="D141" s="221"/>
+      <c r="C141" s="220"/>
+      <c r="D141" s="220"/>
       <c r="E141" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F141" s="66"/>
       <c r="G141" s="127"/>
-      <c r="H141" s="237"/>
+      <c r="H141" s="236"/>
       <c r="I141" s="66"/>
       <c r="J141" s="45">
         <f t="shared" si="0"/>
@@ -7938,26 +8065,26 @@
         <v>0</v>
       </c>
       <c r="O141" s="108"/>
-      <c r="P141" s="236"/>
-      <c r="Q141" s="232"/>
-      <c r="R141" s="229"/>
+      <c r="P141" s="235"/>
+      <c r="Q141" s="231"/>
+      <c r="R141" s="228"/>
       <c r="S141" s="192"/>
       <c r="T141" s="54"/>
       <c r="U141" s="55"/>
       <c r="V141" s="56"/>
     </row>
     <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="224"/>
+      <c r="A142" s="223"/>
       <c r="B142" s="137"/>
-      <c r="C142" s="221"/>
-      <c r="D142" s="221"/>
+      <c r="C142" s="220"/>
+      <c r="D142" s="220"/>
       <c r="E142" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F142" s="66"/>
       <c r="G142" s="127"/>
-      <c r="H142" s="238"/>
+      <c r="H142" s="237"/>
       <c r="I142" s="66"/>
       <c r="J142" s="45">
         <f t="shared" si="0"/>
@@ -7971,26 +8098,26 @@
         <v>0</v>
       </c>
       <c r="O142" s="108"/>
-      <c r="P142" s="236"/>
-      <c r="Q142" s="232"/>
-      <c r="R142" s="229"/>
+      <c r="P142" s="235"/>
+      <c r="Q142" s="231"/>
+      <c r="R142" s="228"/>
       <c r="S142" s="192"/>
       <c r="T142" s="54"/>
       <c r="U142" s="55"/>
       <c r="V142" s="56"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="224"/>
+      <c r="A143" s="223"/>
       <c r="B143" s="137"/>
-      <c r="C143" s="221"/>
-      <c r="D143" s="221"/>
+      <c r="C143" s="220"/>
+      <c r="D143" s="220"/>
       <c r="E143" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F143" s="66"/>
       <c r="G143" s="127"/>
-      <c r="H143" s="226"/>
+      <c r="H143" s="225"/>
       <c r="I143" s="66"/>
       <c r="J143" s="45">
         <f t="shared" si="0"/>
@@ -8004,26 +8131,26 @@
         <v>0</v>
       </c>
       <c r="O143" s="108"/>
-      <c r="P143" s="236"/>
-      <c r="Q143" s="232"/>
-      <c r="R143" s="229"/>
+      <c r="P143" s="235"/>
+      <c r="Q143" s="231"/>
+      <c r="R143" s="228"/>
       <c r="S143" s="192"/>
       <c r="T143" s="54"/>
       <c r="U143" s="55"/>
       <c r="V143" s="56"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="239"/>
+      <c r="A144" s="238"/>
       <c r="B144" s="137"/>
-      <c r="C144" s="221"/>
-      <c r="D144" s="221"/>
+      <c r="C144" s="220"/>
+      <c r="D144" s="220"/>
       <c r="E144" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F144" s="66"/>
       <c r="G144" s="127"/>
-      <c r="H144" s="240"/>
+      <c r="H144" s="239"/>
       <c r="I144" s="66"/>
       <c r="J144" s="45">
         <f t="shared" si="0"/>
@@ -8036,27 +8163,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O144" s="241"/>
-      <c r="P144" s="242"/>
-      <c r="Q144" s="243"/>
-      <c r="R144" s="244"/>
+      <c r="O144" s="240"/>
+      <c r="P144" s="241"/>
+      <c r="Q144" s="242"/>
+      <c r="R144" s="243"/>
       <c r="S144" s="192"/>
       <c r="T144" s="54"/>
       <c r="U144" s="55"/>
       <c r="V144" s="56"/>
     </row>
     <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="245"/>
+      <c r="A145" s="244"/>
       <c r="B145" s="137"/>
-      <c r="C145" s="221"/>
-      <c r="D145" s="221"/>
+      <c r="C145" s="220"/>
+      <c r="D145" s="220"/>
       <c r="E145" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F145" s="66"/>
-      <c r="G145" s="246"/>
-      <c r="H145" s="247"/>
+      <c r="G145" s="245"/>
+      <c r="H145" s="246"/>
       <c r="I145" s="66"/>
       <c r="J145" s="45">
         <f t="shared" si="0"/>
@@ -8069,27 +8196,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O145" s="248"/>
-      <c r="P145" s="249"/>
-      <c r="Q145" s="232"/>
-      <c r="R145" s="229"/>
+      <c r="O145" s="247"/>
+      <c r="P145" s="248"/>
+      <c r="Q145" s="231"/>
+      <c r="R145" s="228"/>
       <c r="S145" s="192"/>
       <c r="T145" s="54"/>
       <c r="U145" s="55"/>
       <c r="V145" s="56"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="225"/>
+      <c r="A146" s="224"/>
       <c r="B146" s="137"/>
-      <c r="C146" s="221"/>
-      <c r="D146" s="221"/>
+      <c r="C146" s="220"/>
+      <c r="D146" s="220"/>
       <c r="E146" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F146" s="66"/>
-      <c r="G146" s="249"/>
-      <c r="H146" s="240"/>
+      <c r="G146" s="248"/>
+      <c r="H146" s="239"/>
       <c r="I146" s="66"/>
       <c r="J146" s="45">
         <f t="shared" si="0"/>
@@ -8102,33 +8229,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O146" s="248"/>
-      <c r="P146" s="249"/>
-      <c r="Q146" s="232"/>
-      <c r="R146" s="229"/>
+      <c r="O146" s="247"/>
+      <c r="P146" s="248"/>
+      <c r="Q146" s="231"/>
+      <c r="R146" s="228"/>
       <c r="S146" s="192"/>
       <c r="T146" s="54"/>
       <c r="U146" s="55"/>
       <c r="V146" s="56"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="225"/>
+      <c r="A147" s="224"/>
       <c r="B147" s="137"/>
-      <c r="C147" s="221"/>
-      <c r="D147" s="221"/>
+      <c r="C147" s="220"/>
+      <c r="D147" s="220"/>
       <c r="E147" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F147" s="66"/>
-      <c r="G147" s="249"/>
-      <c r="H147" s="247"/>
+      <c r="G147" s="248"/>
+      <c r="H147" s="246"/>
       <c r="I147" s="66"/>
       <c r="J147" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K147" s="250"/>
+      <c r="K147" s="249"/>
       <c r="L147" s="109"/>
       <c r="M147" s="109" t="s">
         <v>26</v>
@@ -8137,60 +8264,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O147" s="241"/>
-      <c r="P147" s="242"/>
-      <c r="Q147" s="243"/>
-      <c r="R147" s="244"/>
+      <c r="O147" s="240"/>
+      <c r="P147" s="241"/>
+      <c r="Q147" s="242"/>
+      <c r="R147" s="243"/>
       <c r="S147" s="192"/>
       <c r="T147" s="54"/>
       <c r="U147" s="55"/>
       <c r="V147" s="56"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="224"/>
+      <c r="A148" s="223"/>
       <c r="B148" s="137"/>
-      <c r="C148" s="221"/>
-      <c r="D148" s="221"/>
+      <c r="C148" s="220"/>
+      <c r="D148" s="220"/>
       <c r="E148" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F148" s="66"/>
-      <c r="G148" s="249"/>
-      <c r="H148" s="247"/>
+      <c r="G148" s="248"/>
+      <c r="H148" s="246"/>
       <c r="I148" s="66"/>
       <c r="J148" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K148" s="250"/>
+      <c r="K148" s="249"/>
       <c r="L148" s="109"/>
       <c r="M148" s="109"/>
       <c r="N148" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O148" s="248"/>
-      <c r="P148" s="249"/>
-      <c r="Q148" s="232"/>
-      <c r="R148" s="229"/>
+      <c r="O148" s="247"/>
+      <c r="P148" s="248"/>
+      <c r="Q148" s="231"/>
+      <c r="R148" s="228"/>
       <c r="S148" s="192"/>
       <c r="T148" s="54"/>
       <c r="U148" s="55"/>
       <c r="V148" s="56"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="234"/>
+      <c r="A149" s="233"/>
       <c r="B149" s="137"/>
-      <c r="C149" s="251"/>
-      <c r="D149" s="251"/>
+      <c r="C149" s="250"/>
+      <c r="D149" s="250"/>
       <c r="E149" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F149" s="66"/>
-      <c r="G149" s="249"/>
-      <c r="H149" s="252"/>
+      <c r="G149" s="248"/>
+      <c r="H149" s="251"/>
       <c r="I149" s="66"/>
       <c r="J149" s="45">
         <f t="shared" si="0"/>
@@ -8203,8 +8330,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O149" s="253"/>
-      <c r="P149" s="254"/>
+      <c r="O149" s="252"/>
+      <c r="P149" s="253"/>
       <c r="Q149" s="138"/>
       <c r="R149" s="139"/>
       <c r="S149" s="192"/>
@@ -8213,413 +8340,413 @@
       <c r="V149" s="56"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="255"/>
+      <c r="A150" s="254"/>
       <c r="B150" s="137"/>
-      <c r="C150" s="221"/>
-      <c r="D150" s="221"/>
+      <c r="C150" s="220"/>
+      <c r="D150" s="220"/>
       <c r="E150" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F150" s="66"/>
-      <c r="G150" s="249"/>
-      <c r="H150" s="226"/>
+      <c r="G150" s="248"/>
+      <c r="H150" s="225"/>
       <c r="I150" s="66"/>
       <c r="J150" s="45">
         <f t="shared" ref="J150:J213" si="5">I150-F150</f>
         <v>0</v>
       </c>
-      <c r="K150" s="250"/>
-      <c r="L150" s="256"/>
-      <c r="M150" s="256"/>
+      <c r="K150" s="249"/>
+      <c r="L150" s="255"/>
+      <c r="M150" s="255"/>
       <c r="N150" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O150" s="253"/>
-      <c r="P150" s="254"/>
-      <c r="Q150" s="243"/>
-      <c r="R150" s="244"/>
+      <c r="O150" s="252"/>
+      <c r="P150" s="253"/>
+      <c r="Q150" s="242"/>
+      <c r="R150" s="243"/>
       <c r="S150" s="192"/>
       <c r="T150" s="54"/>
       <c r="U150" s="55"/>
       <c r="V150" s="56"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="224"/>
+      <c r="A151" s="223"/>
       <c r="B151" s="137"/>
-      <c r="C151" s="221"/>
-      <c r="D151" s="221"/>
+      <c r="C151" s="220"/>
+      <c r="D151" s="220"/>
       <c r="E151" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F151" s="66"/>
-      <c r="G151" s="249"/>
-      <c r="H151" s="226"/>
+      <c r="G151" s="248"/>
+      <c r="H151" s="225"/>
       <c r="I151" s="66"/>
       <c r="J151" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K151" s="250"/>
-      <c r="L151" s="256"/>
-      <c r="M151" s="256"/>
+      <c r="K151" s="249"/>
+      <c r="L151" s="255"/>
+      <c r="M151" s="255"/>
       <c r="N151" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O151" s="108"/>
-      <c r="P151" s="231"/>
-      <c r="Q151" s="243"/>
-      <c r="R151" s="244"/>
+      <c r="P151" s="230"/>
+      <c r="Q151" s="242"/>
+      <c r="R151" s="243"/>
       <c r="S151" s="192"/>
       <c r="T151" s="54"/>
       <c r="U151" s="55"/>
       <c r="V151" s="56"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="225"/>
+      <c r="A152" s="224"/>
       <c r="B152" s="137"/>
-      <c r="C152" s="221"/>
-      <c r="D152" s="221"/>
+      <c r="C152" s="220"/>
+      <c r="D152" s="220"/>
       <c r="E152" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F152" s="66"/>
-      <c r="G152" s="249"/>
-      <c r="H152" s="257"/>
+      <c r="G152" s="248"/>
+      <c r="H152" s="256"/>
       <c r="I152" s="66"/>
       <c r="J152" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K152" s="258"/>
-      <c r="L152" s="256"/>
-      <c r="M152" s="256"/>
-      <c r="N152" s="259">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O152" s="248"/>
-      <c r="P152" s="249"/>
-      <c r="Q152" s="243"/>
-      <c r="R152" s="244"/>
+      <c r="K152" s="257"/>
+      <c r="L152" s="255"/>
+      <c r="M152" s="255"/>
+      <c r="N152" s="258">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="247"/>
+      <c r="P152" s="248"/>
+      <c r="Q152" s="242"/>
+      <c r="R152" s="243"/>
       <c r="S152" s="192"/>
       <c r="T152" s="54"/>
       <c r="U152" s="55"/>
       <c r="V152" s="56"/>
     </row>
     <row r="153" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="225"/>
+      <c r="A153" s="224"/>
       <c r="B153" s="137"/>
-      <c r="C153" s="221"/>
-      <c r="D153" s="221"/>
+      <c r="C153" s="220"/>
+      <c r="D153" s="220"/>
       <c r="E153" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153" s="66"/>
-      <c r="G153" s="249"/>
-      <c r="H153" s="226"/>
+      <c r="G153" s="248"/>
+      <c r="H153" s="225"/>
       <c r="I153" s="66"/>
       <c r="J153" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K153" s="260"/>
-      <c r="L153" s="261"/>
-      <c r="M153" s="261"/>
-      <c r="N153" s="259">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O153" s="241"/>
-      <c r="P153" s="242"/>
-      <c r="Q153" s="243"/>
-      <c r="R153" s="244"/>
+      <c r="K153" s="259"/>
+      <c r="L153" s="260"/>
+      <c r="M153" s="260"/>
+      <c r="N153" s="258">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="240"/>
+      <c r="P153" s="241"/>
+      <c r="Q153" s="242"/>
+      <c r="R153" s="243"/>
       <c r="S153" s="192"/>
       <c r="T153" s="54"/>
       <c r="U153" s="55"/>
       <c r="V153" s="56"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="262"/>
+      <c r="A154" s="261"/>
       <c r="B154" s="137"/>
-      <c r="C154" s="221"/>
-      <c r="D154" s="221"/>
+      <c r="C154" s="220"/>
+      <c r="D154" s="220"/>
       <c r="E154" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F154" s="263"/>
-      <c r="G154" s="249"/>
-      <c r="H154" s="238"/>
+      <c r="F154" s="262"/>
+      <c r="G154" s="248"/>
+      <c r="H154" s="237"/>
       <c r="I154" s="66"/>
       <c r="J154" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K154" s="260"/>
-      <c r="L154" s="264"/>
-      <c r="M154" s="264"/>
-      <c r="N154" s="259">
+      <c r="K154" s="259"/>
+      <c r="L154" s="263"/>
+      <c r="M154" s="263"/>
+      <c r="N154" s="258">
         <f>K154*I154</f>
         <v>0</v>
       </c>
-      <c r="O154" s="248"/>
-      <c r="P154" s="249"/>
-      <c r="Q154" s="243"/>
-      <c r="R154" s="244"/>
+      <c r="O154" s="247"/>
+      <c r="P154" s="248"/>
+      <c r="Q154" s="242"/>
+      <c r="R154" s="243"/>
       <c r="S154" s="192"/>
       <c r="T154" s="54"/>
       <c r="U154" s="55"/>
       <c r="V154" s="56"/>
     </row>
     <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="239"/>
+      <c r="A155" s="238"/>
       <c r="B155" s="137"/>
-      <c r="C155" s="221"/>
-      <c r="D155" s="221"/>
+      <c r="C155" s="220"/>
+      <c r="D155" s="220"/>
       <c r="E155" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F155" s="66"/>
-      <c r="G155" s="249"/>
-      <c r="H155" s="226"/>
+      <c r="G155" s="248"/>
+      <c r="H155" s="225"/>
       <c r="I155" s="66"/>
       <c r="J155" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K155" s="260"/>
-      <c r="L155" s="256"/>
-      <c r="M155" s="256"/>
-      <c r="N155" s="259">
+      <c r="K155" s="259"/>
+      <c r="L155" s="255"/>
+      <c r="M155" s="255"/>
+      <c r="N155" s="258">
         <f t="shared" ref="N155:N239" si="6">K155*I155</f>
         <v>0</v>
       </c>
-      <c r="O155" s="241"/>
-      <c r="P155" s="242"/>
-      <c r="Q155" s="243"/>
-      <c r="R155" s="244"/>
+      <c r="O155" s="240"/>
+      <c r="P155" s="241"/>
+      <c r="Q155" s="242"/>
+      <c r="R155" s="243"/>
       <c r="S155" s="192"/>
       <c r="T155" s="54"/>
       <c r="U155" s="55"/>
       <c r="V155" s="56"/>
     </row>
     <row r="156" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="225"/>
+      <c r="A156" s="224"/>
       <c r="B156" s="137"/>
-      <c r="C156" s="221"/>
-      <c r="D156" s="221"/>
+      <c r="C156" s="220"/>
+      <c r="D156" s="220"/>
       <c r="E156" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F156" s="66"/>
-      <c r="G156" s="249"/>
-      <c r="H156" s="265"/>
+      <c r="G156" s="248"/>
+      <c r="H156" s="264"/>
       <c r="I156" s="66"/>
       <c r="J156" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K156" s="110"/>
-      <c r="L156" s="256"/>
-      <c r="M156" s="256"/>
+      <c r="L156" s="255"/>
+      <c r="M156" s="255"/>
       <c r="N156" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O156" s="241"/>
-      <c r="P156" s="242"/>
-      <c r="Q156" s="243"/>
-      <c r="R156" s="244"/>
+      <c r="O156" s="240"/>
+      <c r="P156" s="241"/>
+      <c r="Q156" s="242"/>
+      <c r="R156" s="243"/>
       <c r="S156" s="192"/>
       <c r="T156" s="54"/>
       <c r="U156" s="55"/>
       <c r="V156" s="56"/>
     </row>
     <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="225"/>
+      <c r="A157" s="224"/>
       <c r="B157" s="137"/>
-      <c r="C157" s="221"/>
-      <c r="D157" s="221"/>
+      <c r="C157" s="220"/>
+      <c r="D157" s="220"/>
       <c r="E157" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F157" s="66"/>
-      <c r="G157" s="249"/>
-      <c r="H157" s="240"/>
+      <c r="G157" s="248"/>
+      <c r="H157" s="239"/>
       <c r="I157" s="66"/>
       <c r="J157" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K157" s="260"/>
-      <c r="L157" s="256"/>
-      <c r="M157" s="256"/>
-      <c r="N157" s="259">
+      <c r="K157" s="259"/>
+      <c r="L157" s="255"/>
+      <c r="M157" s="255"/>
+      <c r="N157" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O157" s="241"/>
-      <c r="P157" s="242"/>
-      <c r="Q157" s="243"/>
-      <c r="R157" s="244"/>
+      <c r="O157" s="240"/>
+      <c r="P157" s="241"/>
+      <c r="Q157" s="242"/>
+      <c r="R157" s="243"/>
       <c r="S157" s="192"/>
       <c r="T157" s="54"/>
       <c r="U157" s="55"/>
       <c r="V157" s="56"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="225"/>
+      <c r="A158" s="224"/>
       <c r="B158" s="137"/>
-      <c r="C158" s="221"/>
-      <c r="D158" s="221"/>
+      <c r="C158" s="220"/>
+      <c r="D158" s="220"/>
       <c r="E158" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F158" s="66"/>
-      <c r="G158" s="249"/>
-      <c r="H158" s="266"/>
+      <c r="G158" s="248"/>
+      <c r="H158" s="265"/>
       <c r="I158" s="66"/>
       <c r="J158" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K158" s="260"/>
-      <c r="L158" s="256"/>
-      <c r="M158" s="256"/>
-      <c r="N158" s="259">
+      <c r="K158" s="259"/>
+      <c r="L158" s="255"/>
+      <c r="M158" s="255"/>
+      <c r="N158" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O158" s="241"/>
-      <c r="P158" s="242"/>
-      <c r="Q158" s="243"/>
-      <c r="R158" s="244"/>
+      <c r="O158" s="240"/>
+      <c r="P158" s="241"/>
+      <c r="Q158" s="242"/>
+      <c r="R158" s="243"/>
       <c r="S158" s="192"/>
       <c r="T158" s="54"/>
       <c r="U158" s="55"/>
       <c r="V158" s="56"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="225"/>
+      <c r="A159" s="224"/>
       <c r="B159" s="137"/>
-      <c r="C159" s="221"/>
-      <c r="D159" s="221"/>
+      <c r="C159" s="220"/>
+      <c r="D159" s="220"/>
       <c r="E159" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159" s="66"/>
-      <c r="G159" s="249"/>
-      <c r="H159" s="267"/>
+      <c r="G159" s="248"/>
+      <c r="H159" s="266"/>
       <c r="I159" s="66"/>
       <c r="J159" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K159" s="260"/>
-      <c r="L159" s="268"/>
-      <c r="M159" s="268"/>
-      <c r="N159" s="259">
+      <c r="K159" s="259"/>
+      <c r="L159" s="267"/>
+      <c r="M159" s="267"/>
+      <c r="N159" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O159" s="241"/>
-      <c r="P159" s="242"/>
-      <c r="Q159" s="243"/>
-      <c r="R159" s="244"/>
+      <c r="O159" s="240"/>
+      <c r="P159" s="241"/>
+      <c r="Q159" s="242"/>
+      <c r="R159" s="243"/>
       <c r="S159" s="192"/>
       <c r="T159" s="54"/>
       <c r="U159" s="55"/>
       <c r="V159" s="56"/>
     </row>
     <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="225"/>
+      <c r="A160" s="224"/>
       <c r="B160" s="137"/>
-      <c r="C160" s="221"/>
-      <c r="D160" s="221"/>
+      <c r="C160" s="220"/>
+      <c r="D160" s="220"/>
       <c r="E160" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F160" s="66"/>
-      <c r="G160" s="249"/>
-      <c r="H160" s="266"/>
+      <c r="G160" s="248"/>
+      <c r="H160" s="265"/>
       <c r="I160" s="66"/>
       <c r="J160" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K160" s="260"/>
-      <c r="L160" s="268"/>
-      <c r="M160" s="268"/>
-      <c r="N160" s="259">
+      <c r="K160" s="259"/>
+      <c r="L160" s="267"/>
+      <c r="M160" s="267"/>
+      <c r="N160" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O160" s="241"/>
-      <c r="P160" s="242"/>
-      <c r="Q160" s="243"/>
-      <c r="R160" s="244"/>
+      <c r="O160" s="240"/>
+      <c r="P160" s="241"/>
+      <c r="Q160" s="242"/>
+      <c r="R160" s="243"/>
       <c r="S160" s="192"/>
       <c r="T160" s="54"/>
       <c r="U160" s="55"/>
       <c r="V160" s="56"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="225"/>
+      <c r="A161" s="224"/>
       <c r="B161" s="137"/>
-      <c r="C161" s="221"/>
-      <c r="D161" s="221"/>
+      <c r="C161" s="220"/>
+      <c r="D161" s="220"/>
       <c r="E161" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161" s="66"/>
-      <c r="G161" s="249"/>
-      <c r="H161" s="266"/>
+      <c r="G161" s="248"/>
+      <c r="H161" s="265"/>
       <c r="I161" s="66"/>
       <c r="J161" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K161" s="260"/>
-      <c r="L161" s="268"/>
-      <c r="M161" s="268"/>
-      <c r="N161" s="259">
+      <c r="K161" s="259"/>
+      <c r="L161" s="267"/>
+      <c r="M161" s="267"/>
+      <c r="N161" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O161" s="241"/>
-      <c r="P161" s="242"/>
-      <c r="Q161" s="243"/>
-      <c r="R161" s="244"/>
+      <c r="O161" s="240"/>
+      <c r="P161" s="241"/>
+      <c r="Q161" s="242"/>
+      <c r="R161" s="243"/>
       <c r="S161" s="192"/>
       <c r="T161" s="54"/>
       <c r="U161" s="55"/>
       <c r="V161" s="56"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="225"/>
+      <c r="A162" s="224"/>
       <c r="B162" s="137"/>
-      <c r="C162" s="221"/>
-      <c r="D162" s="221"/>
+      <c r="C162" s="220"/>
+      <c r="D162" s="220"/>
       <c r="E162" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F162" s="66"/>
-      <c r="G162" s="249"/>
-      <c r="H162" s="266"/>
+      <c r="G162" s="248"/>
+      <c r="H162" s="265"/>
       <c r="I162" s="66"/>
       <c r="J162" s="45">
         <f t="shared" si="5"/>
@@ -8632,27 +8759,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O162" s="241"/>
-      <c r="P162" s="242"/>
-      <c r="Q162" s="243"/>
-      <c r="R162" s="244"/>
+      <c r="O162" s="240"/>
+      <c r="P162" s="241"/>
+      <c r="Q162" s="242"/>
+      <c r="R162" s="243"/>
       <c r="S162" s="192"/>
       <c r="T162" s="54"/>
       <c r="U162" s="55"/>
       <c r="V162" s="56"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="225"/>
+      <c r="A163" s="224"/>
       <c r="B163" s="137"/>
-      <c r="C163" s="269"/>
-      <c r="D163" s="269"/>
+      <c r="C163" s="268"/>
+      <c r="D163" s="268"/>
       <c r="E163" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F163" s="66"/>
-      <c r="G163" s="249"/>
-      <c r="H163" s="266"/>
+      <c r="G163" s="248"/>
+      <c r="H163" s="265"/>
       <c r="I163" s="66"/>
       <c r="J163" s="45">
         <f t="shared" si="5"/>
@@ -8665,8 +8792,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O163" s="248"/>
-      <c r="P163" s="270"/>
+      <c r="O163" s="247"/>
+      <c r="P163" s="269"/>
       <c r="Q163" s="138"/>
       <c r="R163" s="139"/>
       <c r="S163" s="192"/>
@@ -8675,17 +8802,17 @@
       <c r="V163" s="56"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="225"/>
+      <c r="A164" s="224"/>
       <c r="B164" s="137"/>
-      <c r="C164" s="269"/>
-      <c r="D164" s="269"/>
+      <c r="C164" s="268"/>
+      <c r="D164" s="268"/>
       <c r="E164" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F164" s="66"/>
-      <c r="G164" s="249"/>
-      <c r="H164" s="266"/>
+      <c r="G164" s="248"/>
+      <c r="H164" s="265"/>
       <c r="I164" s="66"/>
       <c r="J164" s="45">
         <f t="shared" si="5"/>
@@ -8698,8 +8825,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O164" s="248"/>
-      <c r="P164" s="270"/>
+      <c r="O164" s="247"/>
+      <c r="P164" s="269"/>
       <c r="Q164" s="138"/>
       <c r="R164" s="139"/>
       <c r="S164" s="192"/>
@@ -8710,15 +8837,15 @@
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="128"/>
       <c r="B165" s="137"/>
-      <c r="C165" s="251"/>
-      <c r="D165" s="251"/>
+      <c r="C165" s="250"/>
+      <c r="D165" s="250"/>
       <c r="E165" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F165" s="66"/>
-      <c r="G165" s="249"/>
-      <c r="H165" s="252"/>
+      <c r="G165" s="248"/>
+      <c r="H165" s="251"/>
       <c r="I165" s="66"/>
       <c r="J165" s="45">
         <f t="shared" si="5"/>
@@ -8732,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="108"/>
-      <c r="P165" s="231"/>
+      <c r="P165" s="230"/>
       <c r="Q165" s="138"/>
       <c r="R165" s="139"/>
       <c r="S165" s="192"/>
@@ -8741,16 +8868,16 @@
       <c r="V165" s="56"/>
     </row>
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="225"/>
+      <c r="A166" s="224"/>
       <c r="B166" s="137"/>
-      <c r="C166" s="271"/>
-      <c r="D166" s="271"/>
+      <c r="C166" s="270"/>
+      <c r="D166" s="270"/>
       <c r="E166" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166" s="66"/>
-      <c r="G166" s="249"/>
+      <c r="G166" s="248"/>
       <c r="H166" s="65"/>
       <c r="I166" s="66"/>
       <c r="J166" s="45">
@@ -8765,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="108"/>
-      <c r="P166" s="231"/>
+      <c r="P166" s="230"/>
       <c r="Q166" s="138"/>
       <c r="R166" s="139"/>
       <c r="S166" s="192"/>
@@ -8774,17 +8901,17 @@
       <c r="V166" s="56"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="234"/>
+      <c r="A167" s="233"/>
       <c r="B167" s="137"/>
-      <c r="C167" s="251"/>
-      <c r="D167" s="251"/>
+      <c r="C167" s="250"/>
+      <c r="D167" s="250"/>
       <c r="E167" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F167" s="66"/>
-      <c r="G167" s="249"/>
-      <c r="H167" s="252"/>
+      <c r="G167" s="248"/>
+      <c r="H167" s="251"/>
       <c r="I167" s="66"/>
       <c r="J167" s="45">
         <f t="shared" si="5"/>
@@ -8798,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="108"/>
-      <c r="P167" s="231"/>
+      <c r="P167" s="230"/>
       <c r="Q167" s="138"/>
       <c r="R167" s="139"/>
       <c r="S167" s="192"/>
@@ -8807,17 +8934,17 @@
       <c r="V167" s="56"/>
     </row>
     <row r="168" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="272"/>
-      <c r="B168" s="273"/>
-      <c r="C168" s="233"/>
-      <c r="D168" s="233"/>
+      <c r="A168" s="271"/>
+      <c r="B168" s="272"/>
+      <c r="C168" s="232"/>
+      <c r="D168" s="232"/>
       <c r="E168" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F168" s="66"/>
-      <c r="G168" s="249"/>
-      <c r="H168" s="252"/>
+      <c r="G168" s="248"/>
+      <c r="H168" s="251"/>
       <c r="I168" s="66"/>
       <c r="J168" s="45">
         <f t="shared" si="5"/>
@@ -8830,8 +8957,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O168" s="253"/>
-      <c r="P168" s="254"/>
+      <c r="O168" s="252"/>
+      <c r="P168" s="253"/>
       <c r="Q168" s="138"/>
       <c r="R168" s="139"/>
       <c r="S168" s="192"/>
@@ -8840,17 +8967,17 @@
       <c r="V168" s="56"/>
     </row>
     <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="234"/>
+      <c r="A169" s="233"/>
       <c r="B169" s="137"/>
-      <c r="C169" s="274"/>
-      <c r="D169" s="274"/>
+      <c r="C169" s="273"/>
+      <c r="D169" s="273"/>
       <c r="E169" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F169" s="66"/>
-      <c r="G169" s="249"/>
-      <c r="H169" s="252"/>
+      <c r="G169" s="248"/>
+      <c r="H169" s="251"/>
       <c r="I169" s="66"/>
       <c r="J169" s="45">
         <f t="shared" si="5"/>
@@ -8864,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="108"/>
-      <c r="P169" s="231"/>
+      <c r="P169" s="230"/>
       <c r="Q169" s="138"/>
       <c r="R169" s="139"/>
       <c r="S169" s="192"/>
@@ -8873,17 +9000,17 @@
       <c r="V169" s="56"/>
     </row>
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="234"/>
+      <c r="A170" s="233"/>
       <c r="B170" s="137"/>
-      <c r="C170" s="274"/>
-      <c r="D170" s="274"/>
+      <c r="C170" s="273"/>
+      <c r="D170" s="273"/>
       <c r="E170" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170" s="66"/>
-      <c r="G170" s="249"/>
-      <c r="H170" s="252"/>
+      <c r="G170" s="248"/>
+      <c r="H170" s="251"/>
       <c r="I170" s="66"/>
       <c r="J170" s="45">
         <f t="shared" si="5"/>
@@ -8897,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="108"/>
-      <c r="P170" s="231"/>
+      <c r="P170" s="230"/>
       <c r="Q170" s="138"/>
       <c r="R170" s="139"/>
       <c r="S170" s="192"/>
@@ -8906,17 +9033,17 @@
       <c r="V170" s="56"/>
     </row>
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="275"/>
+      <c r="A171" s="274"/>
       <c r="B171" s="137"/>
-      <c r="C171" s="276"/>
-      <c r="D171" s="276"/>
+      <c r="C171" s="275"/>
+      <c r="D171" s="275"/>
       <c r="E171" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F171" s="66"/>
-      <c r="G171" s="249"/>
-      <c r="H171" s="252"/>
+      <c r="G171" s="248"/>
+      <c r="H171" s="251"/>
       <c r="I171" s="66"/>
       <c r="J171" s="45">
         <f t="shared" si="5"/>
@@ -8930,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="O171" s="108"/>
-      <c r="P171" s="231"/>
+      <c r="P171" s="230"/>
       <c r="Q171" s="138"/>
       <c r="R171" s="139"/>
       <c r="S171" s="192"/>
@@ -8939,17 +9066,17 @@
       <c r="V171" s="56"/>
     </row>
     <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="234"/>
+      <c r="A172" s="233"/>
       <c r="B172" s="137"/>
-      <c r="C172" s="277"/>
-      <c r="D172" s="277"/>
+      <c r="C172" s="276"/>
+      <c r="D172" s="276"/>
       <c r="E172" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F172" s="66"/>
-      <c r="G172" s="278"/>
-      <c r="H172" s="252"/>
+      <c r="G172" s="277"/>
+      <c r="H172" s="251"/>
       <c r="I172" s="66"/>
       <c r="J172" s="45">
         <f t="shared" si="5"/>
@@ -8962,8 +9089,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O172" s="279"/>
-      <c r="P172" s="280"/>
+      <c r="O172" s="278"/>
+      <c r="P172" s="279"/>
       <c r="Q172" s="138"/>
       <c r="R172" s="139"/>
       <c r="S172" s="192"/>
@@ -8972,17 +9099,17 @@
       <c r="V172" s="56"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="234"/>
+      <c r="A173" s="233"/>
       <c r="B173" s="137"/>
-      <c r="C173" s="277"/>
-      <c r="D173" s="277"/>
+      <c r="C173" s="276"/>
+      <c r="D173" s="276"/>
       <c r="E173" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F173" s="66"/>
       <c r="G173" s="127"/>
-      <c r="H173" s="252"/>
+      <c r="H173" s="251"/>
       <c r="I173" s="66"/>
       <c r="J173" s="45">
         <f t="shared" si="5"/>
@@ -8995,8 +9122,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O173" s="279"/>
-      <c r="P173" s="280"/>
+      <c r="O173" s="278"/>
+      <c r="P173" s="279"/>
       <c r="Q173" s="138"/>
       <c r="R173" s="139"/>
       <c r="S173" s="192"/>
@@ -9005,18 +9132,18 @@
       <c r="V173" s="56"/>
     </row>
     <row r="174" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="234"/>
-      <c r="B174" s="224"/>
-      <c r="C174" s="281"/>
-      <c r="D174" s="281"/>
+      <c r="A174" s="233"/>
+      <c r="B174" s="223"/>
+      <c r="C174" s="280"/>
+      <c r="D174" s="280"/>
       <c r="E174" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F174" s="282"/>
-      <c r="G174" s="249"/>
-      <c r="H174" s="283"/>
-      <c r="I174" s="282"/>
+      <c r="F174" s="281"/>
+      <c r="G174" s="248"/>
+      <c r="H174" s="282"/>
+      <c r="I174" s="281"/>
       <c r="J174" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9025,28 +9152,28 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O174" s="284"/>
-      <c r="P174" s="270"/>
-      <c r="Q174" s="285"/>
-      <c r="R174" s="286"/>
-      <c r="S174" s="287"/>
-      <c r="T174" s="288"/>
-      <c r="U174" s="289"/>
-      <c r="V174" s="290"/>
+      <c r="O174" s="283"/>
+      <c r="P174" s="269"/>
+      <c r="Q174" s="284"/>
+      <c r="R174" s="285"/>
+      <c r="S174" s="286"/>
+      <c r="T174" s="287"/>
+      <c r="U174" s="288"/>
+      <c r="V174" s="289"/>
     </row>
     <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="234"/>
+      <c r="A175" s="233"/>
       <c r="B175" s="137"/>
-      <c r="C175" s="276"/>
-      <c r="D175" s="276"/>
+      <c r="C175" s="275"/>
+      <c r="D175" s="275"/>
       <c r="E175" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F175" s="282"/>
-      <c r="G175" s="249"/>
-      <c r="H175" s="283"/>
-      <c r="I175" s="282"/>
+      <c r="F175" s="281"/>
+      <c r="G175" s="248"/>
+      <c r="H175" s="282"/>
+      <c r="I175" s="281"/>
       <c r="J175" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9055,27 +9182,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O175" s="284"/>
-      <c r="P175" s="270"/>
-      <c r="Q175" s="285"/>
-      <c r="R175" s="286"/>
-      <c r="S175" s="287"/>
-      <c r="T175" s="288"/>
-      <c r="U175" s="289"/>
-      <c r="V175" s="290"/>
+      <c r="O175" s="283"/>
+      <c r="P175" s="269"/>
+      <c r="Q175" s="284"/>
+      <c r="R175" s="285"/>
+      <c r="S175" s="286"/>
+      <c r="T175" s="287"/>
+      <c r="U175" s="288"/>
+      <c r="V175" s="289"/>
     </row>
     <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="234"/>
+      <c r="A176" s="233"/>
       <c r="B176" s="137"/>
-      <c r="C176" s="276"/>
-      <c r="D176" s="276"/>
+      <c r="C176" s="275"/>
+      <c r="D176" s="275"/>
       <c r="E176" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F176" s="66"/>
-      <c r="G176" s="249"/>
-      <c r="H176" s="252"/>
+      <c r="G176" s="248"/>
+      <c r="H176" s="251"/>
       <c r="I176" s="66"/>
       <c r="J176" s="45">
         <f t="shared" si="5"/>
@@ -9089,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="108"/>
-      <c r="P176" s="231"/>
+      <c r="P176" s="230"/>
       <c r="Q176" s="138"/>
       <c r="R176" s="139"/>
       <c r="S176" s="192"/>
@@ -9098,17 +9225,17 @@
       <c r="V176" s="56"/>
     </row>
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="234"/>
+      <c r="A177" s="233"/>
       <c r="B177" s="137"/>
-      <c r="C177" s="276"/>
-      <c r="D177" s="276"/>
+      <c r="C177" s="275"/>
+      <c r="D177" s="275"/>
       <c r="E177" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F177" s="66"/>
-      <c r="G177" s="249"/>
-      <c r="H177" s="252"/>
+      <c r="G177" s="248"/>
+      <c r="H177" s="251"/>
       <c r="I177" s="66"/>
       <c r="J177" s="45">
         <f t="shared" si="5"/>
@@ -9122,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="O177" s="108"/>
-      <c r="P177" s="231"/>
+      <c r="P177" s="230"/>
       <c r="Q177" s="138"/>
       <c r="R177" s="139"/>
       <c r="S177" s="192"/>
@@ -9131,17 +9258,17 @@
       <c r="V177" s="56"/>
     </row>
     <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="234"/>
+      <c r="A178" s="233"/>
       <c r="B178" s="137"/>
-      <c r="C178" s="291"/>
-      <c r="D178" s="291"/>
+      <c r="C178" s="290"/>
+      <c r="D178" s="290"/>
       <c r="E178" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F178" s="66"/>
-      <c r="G178" s="278"/>
-      <c r="H178" s="252"/>
+      <c r="G178" s="277"/>
+      <c r="H178" s="251"/>
       <c r="I178" s="66"/>
       <c r="J178" s="45">
         <f t="shared" si="5"/>
@@ -9155,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="108"/>
-      <c r="P178" s="231"/>
+      <c r="P178" s="230"/>
       <c r="Q178" s="138"/>
       <c r="R178" s="139"/>
       <c r="S178" s="192"/>
@@ -9164,17 +9291,17 @@
       <c r="V178" s="56"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="234"/>
+      <c r="A179" s="233"/>
       <c r="B179" s="137"/>
-      <c r="C179" s="291"/>
-      <c r="D179" s="291"/>
+      <c r="C179" s="290"/>
+      <c r="D179" s="290"/>
       <c r="E179" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F179" s="66"/>
-      <c r="G179" s="278"/>
-      <c r="H179" s="252"/>
+      <c r="G179" s="277"/>
+      <c r="H179" s="251"/>
       <c r="I179" s="66"/>
       <c r="J179" s="45">
         <f t="shared" si="5"/>
@@ -9188,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="O179" s="108"/>
-      <c r="P179" s="231"/>
+      <c r="P179" s="230"/>
       <c r="Q179" s="138"/>
       <c r="R179" s="139"/>
       <c r="S179" s="192"/>
@@ -9197,17 +9324,17 @@
       <c r="V179" s="56"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="234"/>
+      <c r="A180" s="233"/>
       <c r="B180" s="137"/>
-      <c r="C180" s="291"/>
-      <c r="D180" s="291"/>
+      <c r="C180" s="290"/>
+      <c r="D180" s="290"/>
       <c r="E180" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F180" s="66"/>
-      <c r="G180" s="278"/>
-      <c r="H180" s="252"/>
+      <c r="G180" s="277"/>
+      <c r="H180" s="251"/>
       <c r="I180" s="66"/>
       <c r="J180" s="45">
         <f t="shared" si="5"/>
@@ -9221,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="108"/>
-      <c r="P180" s="231"/>
+      <c r="P180" s="230"/>
       <c r="Q180" s="138"/>
       <c r="R180" s="139"/>
       <c r="S180" s="192"/>
@@ -9230,17 +9357,17 @@
       <c r="V180" s="56"/>
     </row>
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="234"/>
-      <c r="B181" s="224"/>
-      <c r="C181" s="292"/>
-      <c r="D181" s="292"/>
+      <c r="A181" s="233"/>
+      <c r="B181" s="223"/>
+      <c r="C181" s="291"/>
+      <c r="D181" s="291"/>
       <c r="E181" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F181" s="66"/>
-      <c r="G181" s="278"/>
-      <c r="H181" s="252"/>
+      <c r="G181" s="277"/>
+      <c r="H181" s="251"/>
       <c r="I181" s="66"/>
       <c r="J181" s="45">
         <f t="shared" si="5"/>
@@ -9254,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="108"/>
-      <c r="P181" s="231"/>
+      <c r="P181" s="230"/>
       <c r="Q181" s="138"/>
       <c r="R181" s="139"/>
       <c r="S181" s="192"/>
@@ -9263,17 +9390,17 @@
       <c r="V181" s="56"/>
     </row>
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="234"/>
+      <c r="A182" s="233"/>
       <c r="B182" s="137"/>
-      <c r="C182" s="291"/>
-      <c r="D182" s="291"/>
+      <c r="C182" s="290"/>
+      <c r="D182" s="290"/>
       <c r="E182" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F182" s="66"/>
-      <c r="G182" s="278"/>
-      <c r="H182" s="252"/>
+      <c r="G182" s="277"/>
+      <c r="H182" s="251"/>
       <c r="I182" s="66"/>
       <c r="J182" s="45">
         <f t="shared" si="5"/>
@@ -9287,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="108"/>
-      <c r="P182" s="231"/>
+      <c r="P182" s="230"/>
       <c r="Q182" s="138"/>
       <c r="R182" s="139"/>
       <c r="S182" s="192"/>
@@ -9296,17 +9423,17 @@
       <c r="V182" s="56"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="234"/>
+      <c r="A183" s="233"/>
       <c r="B183" s="137"/>
-      <c r="C183" s="271"/>
-      <c r="D183" s="271"/>
+      <c r="C183" s="270"/>
+      <c r="D183" s="270"/>
       <c r="E183" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F183" s="66"/>
-      <c r="G183" s="249"/>
-      <c r="H183" s="252"/>
+      <c r="G183" s="248"/>
+      <c r="H183" s="251"/>
       <c r="I183" s="66"/>
       <c r="J183" s="45">
         <f t="shared" si="5"/>
@@ -9320,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="108"/>
-      <c r="P183" s="231"/>
+      <c r="P183" s="230"/>
       <c r="Q183" s="138"/>
       <c r="R183" s="139"/>
       <c r="S183" s="192"/>
@@ -9329,17 +9456,17 @@
       <c r="V183" s="56"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="234"/>
+      <c r="A184" s="233"/>
       <c r="B184" s="137"/>
-      <c r="C184" s="271"/>
-      <c r="D184" s="271"/>
+      <c r="C184" s="270"/>
+      <c r="D184" s="270"/>
       <c r="E184" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F184" s="66"/>
-      <c r="G184" s="249"/>
-      <c r="H184" s="252"/>
+      <c r="G184" s="248"/>
+      <c r="H184" s="251"/>
       <c r="I184" s="66"/>
       <c r="J184" s="45">
         <f t="shared" si="5"/>
@@ -9353,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="108"/>
-      <c r="P184" s="231"/>
+      <c r="P184" s="230"/>
       <c r="Q184" s="138"/>
       <c r="R184" s="139"/>
       <c r="S184" s="192"/>
@@ -9362,17 +9489,17 @@
       <c r="V184" s="56"/>
     </row>
     <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="234"/>
+      <c r="A185" s="233"/>
       <c r="B185" s="137"/>
-      <c r="C185" s="271"/>
-      <c r="D185" s="271"/>
+      <c r="C185" s="270"/>
+      <c r="D185" s="270"/>
       <c r="E185" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F185" s="66"/>
-      <c r="G185" s="249"/>
-      <c r="H185" s="252"/>
+      <c r="G185" s="248"/>
+      <c r="H185" s="251"/>
       <c r="I185" s="66"/>
       <c r="J185" s="45">
         <f t="shared" si="5"/>
@@ -9386,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="O185" s="108"/>
-      <c r="P185" s="231"/>
+      <c r="P185" s="230"/>
       <c r="Q185" s="138"/>
       <c r="R185" s="139"/>
       <c r="S185" s="192"/>
@@ -9395,17 +9522,17 @@
       <c r="V185" s="56"/>
     </row>
     <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="234"/>
+      <c r="A186" s="233"/>
       <c r="B186" s="137"/>
-      <c r="C186" s="271"/>
-      <c r="D186" s="271"/>
+      <c r="C186" s="270"/>
+      <c r="D186" s="270"/>
       <c r="E186" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F186" s="66"/>
-      <c r="G186" s="249"/>
-      <c r="H186" s="252"/>
+      <c r="G186" s="248"/>
+      <c r="H186" s="251"/>
       <c r="I186" s="66"/>
       <c r="J186" s="45">
         <f t="shared" si="5"/>
@@ -9419,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="108"/>
-      <c r="P186" s="231"/>
+      <c r="P186" s="230"/>
       <c r="Q186" s="138"/>
       <c r="R186" s="139"/>
       <c r="S186" s="192"/>
@@ -9428,17 +9555,17 @@
       <c r="V186" s="56"/>
     </row>
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="275"/>
-      <c r="B187" s="224"/>
-      <c r="C187" s="276"/>
-      <c r="D187" s="276"/>
+      <c r="A187" s="274"/>
+      <c r="B187" s="223"/>
+      <c r="C187" s="275"/>
+      <c r="D187" s="275"/>
       <c r="E187" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F187" s="66"/>
-      <c r="G187" s="249"/>
-      <c r="H187" s="252"/>
+      <c r="G187" s="248"/>
+      <c r="H187" s="251"/>
       <c r="I187" s="66"/>
       <c r="J187" s="45">
         <f t="shared" si="5"/>
@@ -9452,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="108"/>
-      <c r="P187" s="231"/>
+      <c r="P187" s="230"/>
       <c r="Q187" s="138"/>
       <c r="R187" s="139"/>
       <c r="S187" s="192"/>
@@ -9461,17 +9588,17 @@
       <c r="V187" s="56"/>
     </row>
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="293"/>
+      <c r="A188" s="292"/>
       <c r="B188" s="137"/>
-      <c r="C188" s="277"/>
-      <c r="D188" s="277"/>
+      <c r="C188" s="276"/>
+      <c r="D188" s="276"/>
       <c r="E188" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F188" s="66"/>
       <c r="G188" s="127"/>
-      <c r="H188" s="252"/>
+      <c r="H188" s="251"/>
       <c r="I188" s="66"/>
       <c r="J188" s="45">
         <f t="shared" si="5"/>
@@ -9484,8 +9611,8 @@
         <f>K188*I188</f>
         <v>0</v>
       </c>
-      <c r="O188" s="279"/>
-      <c r="P188" s="280"/>
+      <c r="O188" s="278"/>
+      <c r="P188" s="279"/>
       <c r="Q188" s="138"/>
       <c r="R188" s="139"/>
       <c r="S188" s="192"/>
@@ -9494,17 +9621,17 @@
       <c r="V188" s="56"/>
     </row>
     <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="234"/>
-      <c r="B189" s="224"/>
-      <c r="C189" s="294"/>
-      <c r="D189" s="294"/>
+      <c r="A189" s="233"/>
+      <c r="B189" s="223"/>
+      <c r="C189" s="293"/>
+      <c r="D189" s="293"/>
       <c r="E189" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F189" s="66"/>
-      <c r="G189" s="249"/>
-      <c r="H189" s="252"/>
+      <c r="G189" s="248"/>
+      <c r="H189" s="251"/>
       <c r="I189" s="66"/>
       <c r="J189" s="45">
         <f t="shared" si="5"/>
@@ -9518,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="O189" s="108"/>
-      <c r="P189" s="231"/>
+      <c r="P189" s="230"/>
       <c r="Q189" s="138"/>
       <c r="R189" s="139"/>
       <c r="S189" s="192"/>
@@ -9527,17 +9654,17 @@
       <c r="V189" s="56"/>
     </row>
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="234"/>
-      <c r="B190" s="224"/>
-      <c r="C190" s="294"/>
-      <c r="D190" s="294"/>
+      <c r="A190" s="233"/>
+      <c r="B190" s="223"/>
+      <c r="C190" s="293"/>
+      <c r="D190" s="293"/>
       <c r="E190" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F190" s="66"/>
-      <c r="G190" s="249"/>
-      <c r="H190" s="252"/>
+      <c r="G190" s="248"/>
+      <c r="H190" s="251"/>
       <c r="I190" s="66"/>
       <c r="J190" s="45">
         <f t="shared" si="5"/>
@@ -9551,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="108"/>
-      <c r="P190" s="231"/>
+      <c r="P190" s="230"/>
       <c r="Q190" s="138"/>
       <c r="R190" s="139"/>
       <c r="S190" s="192"/>
@@ -9560,17 +9687,17 @@
       <c r="V190" s="56"/>
     </row>
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="234"/>
-      <c r="B191" s="224"/>
-      <c r="C191" s="294"/>
-      <c r="D191" s="294"/>
+      <c r="A191" s="233"/>
+      <c r="B191" s="223"/>
+      <c r="C191" s="293"/>
+      <c r="D191" s="293"/>
       <c r="E191" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F191" s="66"/>
-      <c r="G191" s="249"/>
-      <c r="H191" s="252"/>
+      <c r="G191" s="248"/>
+      <c r="H191" s="251"/>
       <c r="I191" s="66"/>
       <c r="J191" s="45">
         <f t="shared" si="5"/>
@@ -9584,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="O191" s="108"/>
-      <c r="P191" s="231"/>
+      <c r="P191" s="230"/>
       <c r="Q191" s="138"/>
       <c r="R191" s="139"/>
       <c r="S191" s="192"/>
@@ -9593,17 +9720,17 @@
       <c r="V191" s="56"/>
     </row>
     <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="234"/>
-      <c r="B192" s="224"/>
-      <c r="C192" s="294"/>
-      <c r="D192" s="294"/>
+      <c r="A192" s="233"/>
+      <c r="B192" s="223"/>
+      <c r="C192" s="293"/>
+      <c r="D192" s="293"/>
       <c r="E192" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F192" s="295"/>
-      <c r="G192" s="278"/>
-      <c r="H192" s="252"/>
+      <c r="F192" s="294"/>
+      <c r="G192" s="277"/>
+      <c r="H192" s="251"/>
       <c r="I192" s="66"/>
       <c r="J192" s="45">
         <f t="shared" si="5"/>
@@ -9617,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="108"/>
-      <c r="P192" s="231"/>
+      <c r="P192" s="230"/>
       <c r="Q192" s="138"/>
       <c r="R192" s="139"/>
       <c r="S192" s="192"/>
@@ -9626,17 +9753,17 @@
       <c r="V192" s="56"/>
     </row>
     <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="234"/>
-      <c r="B193" s="224"/>
-      <c r="C193" s="294"/>
-      <c r="D193" s="294"/>
+      <c r="A193" s="233"/>
+      <c r="B193" s="223"/>
+      <c r="C193" s="293"/>
+      <c r="D193" s="293"/>
       <c r="E193" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F193" s="295"/>
-      <c r="G193" s="278"/>
-      <c r="H193" s="252"/>
+      <c r="F193" s="294"/>
+      <c r="G193" s="277"/>
+      <c r="H193" s="251"/>
       <c r="I193" s="66"/>
       <c r="J193" s="45">
         <f t="shared" si="5"/>
@@ -9650,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="O193" s="108"/>
-      <c r="P193" s="231"/>
+      <c r="P193" s="230"/>
       <c r="Q193" s="138"/>
       <c r="R193" s="139"/>
       <c r="S193" s="192"/>
@@ -9659,17 +9786,17 @@
       <c r="V193" s="56"/>
     </row>
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="234"/>
-      <c r="B194" s="224"/>
-      <c r="C194" s="294"/>
-      <c r="D194" s="294"/>
+      <c r="A194" s="233"/>
+      <c r="B194" s="223"/>
+      <c r="C194" s="293"/>
+      <c r="D194" s="293"/>
       <c r="E194" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F194" s="295"/>
-      <c r="G194" s="278"/>
-      <c r="H194" s="252"/>
+      <c r="F194" s="294"/>
+      <c r="G194" s="277"/>
+      <c r="H194" s="251"/>
       <c r="I194" s="66"/>
       <c r="J194" s="45">
         <f t="shared" si="5"/>
@@ -9683,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O194" s="108"/>
-      <c r="P194" s="231"/>
+      <c r="P194" s="230"/>
       <c r="Q194" s="138"/>
       <c r="R194" s="139"/>
       <c r="S194" s="192"/>
@@ -9692,17 +9819,17 @@
       <c r="V194" s="56"/>
     </row>
     <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="234"/>
-      <c r="B195" s="224"/>
-      <c r="C195" s="294"/>
-      <c r="D195" s="294"/>
+      <c r="A195" s="233"/>
+      <c r="B195" s="223"/>
+      <c r="C195" s="293"/>
+      <c r="D195" s="293"/>
       <c r="E195" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F195" s="295"/>
-      <c r="G195" s="278"/>
-      <c r="H195" s="252"/>
+      <c r="F195" s="294"/>
+      <c r="G195" s="277"/>
+      <c r="H195" s="251"/>
       <c r="I195" s="66"/>
       <c r="J195" s="45">
         <f t="shared" si="5"/>
@@ -9716,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="108"/>
-      <c r="P195" s="231"/>
+      <c r="P195" s="230"/>
       <c r="Q195" s="138"/>
       <c r="R195" s="139"/>
       <c r="S195" s="192"/>
@@ -9725,17 +9852,17 @@
       <c r="V195" s="56"/>
     </row>
     <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="234"/>
-      <c r="B196" s="224"/>
-      <c r="C196" s="294"/>
-      <c r="D196" s="294"/>
+      <c r="A196" s="233"/>
+      <c r="B196" s="223"/>
+      <c r="C196" s="293"/>
+      <c r="D196" s="293"/>
       <c r="E196" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F196" s="295"/>
-      <c r="G196" s="278"/>
-      <c r="H196" s="252"/>
+      <c r="F196" s="294"/>
+      <c r="G196" s="277"/>
+      <c r="H196" s="251"/>
       <c r="I196" s="66"/>
       <c r="J196" s="45">
         <f t="shared" si="5"/>
@@ -9749,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="O196" s="108"/>
-      <c r="P196" s="231"/>
+      <c r="P196" s="230"/>
       <c r="Q196" s="138"/>
       <c r="R196" s="139"/>
       <c r="S196" s="192"/>
@@ -9758,17 +9885,17 @@
       <c r="V196" s="56"/>
     </row>
     <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="234"/>
-      <c r="B197" s="224"/>
-      <c r="C197" s="294"/>
-      <c r="D197" s="294"/>
+      <c r="A197" s="233"/>
+      <c r="B197" s="223"/>
+      <c r="C197" s="293"/>
+      <c r="D197" s="293"/>
       <c r="E197" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F197" s="295"/>
-      <c r="G197" s="278"/>
-      <c r="H197" s="252"/>
+      <c r="F197" s="294"/>
+      <c r="G197" s="277"/>
+      <c r="H197" s="251"/>
       <c r="I197" s="66"/>
       <c r="J197" s="45">
         <f t="shared" si="5"/>
@@ -9782,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="O197" s="108"/>
-      <c r="P197" s="231"/>
+      <c r="P197" s="230"/>
       <c r="Q197" s="138"/>
       <c r="R197" s="139"/>
       <c r="S197" s="192"/>
@@ -9791,17 +9918,17 @@
       <c r="V197" s="56"/>
     </row>
     <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="234"/>
-      <c r="B198" s="224"/>
-      <c r="C198" s="294"/>
-      <c r="D198" s="294"/>
+      <c r="A198" s="233"/>
+      <c r="B198" s="223"/>
+      <c r="C198" s="293"/>
+      <c r="D198" s="293"/>
       <c r="E198" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F198" s="295"/>
-      <c r="G198" s="278"/>
-      <c r="H198" s="252"/>
+      <c r="F198" s="294"/>
+      <c r="G198" s="277"/>
+      <c r="H198" s="251"/>
       <c r="I198" s="66"/>
       <c r="J198" s="45">
         <f t="shared" si="5"/>
@@ -9815,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="O198" s="108"/>
-      <c r="P198" s="231"/>
+      <c r="P198" s="230"/>
       <c r="Q198" s="138"/>
       <c r="R198" s="139"/>
       <c r="S198" s="192"/>
@@ -9824,17 +9951,17 @@
       <c r="V198" s="56"/>
     </row>
     <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="234"/>
-      <c r="B199" s="224"/>
-      <c r="C199" s="294"/>
-      <c r="D199" s="294"/>
+      <c r="A199" s="233"/>
+      <c r="B199" s="223"/>
+      <c r="C199" s="293"/>
+      <c r="D199" s="293"/>
       <c r="E199" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F199" s="66"/>
-      <c r="G199" s="278"/>
-      <c r="H199" s="252"/>
+      <c r="G199" s="277"/>
+      <c r="H199" s="251"/>
       <c r="I199" s="66"/>
       <c r="J199" s="45">
         <f t="shared" si="5"/>
@@ -9848,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="O199" s="108"/>
-      <c r="P199" s="231"/>
+      <c r="P199" s="230"/>
       <c r="Q199" s="138"/>
       <c r="R199" s="139"/>
       <c r="S199" s="192"/>
@@ -9857,17 +9984,17 @@
       <c r="V199" s="56"/>
     </row>
     <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="234"/>
-      <c r="B200" s="224"/>
-      <c r="C200" s="271"/>
-      <c r="D200" s="271"/>
+      <c r="A200" s="233"/>
+      <c r="B200" s="223"/>
+      <c r="C200" s="270"/>
+      <c r="D200" s="270"/>
       <c r="E200" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F200" s="66"/>
-      <c r="G200" s="249"/>
-      <c r="H200" s="252"/>
+      <c r="G200" s="248"/>
+      <c r="H200" s="251"/>
       <c r="I200" s="66"/>
       <c r="J200" s="45">
         <f t="shared" si="5"/>
@@ -9881,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="O200" s="108"/>
-      <c r="P200" s="231"/>
+      <c r="P200" s="230"/>
       <c r="Q200" s="138"/>
       <c r="R200" s="139"/>
       <c r="S200" s="192"/>
@@ -9890,17 +10017,17 @@
       <c r="V200" s="56"/>
     </row>
     <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="234"/>
-      <c r="B201" s="224"/>
-      <c r="C201" s="271"/>
-      <c r="D201" s="271"/>
+      <c r="A201" s="233"/>
+      <c r="B201" s="223"/>
+      <c r="C201" s="270"/>
+      <c r="D201" s="270"/>
       <c r="E201" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F201" s="66"/>
-      <c r="G201" s="249"/>
-      <c r="H201" s="252"/>
+      <c r="G201" s="248"/>
+      <c r="H201" s="251"/>
       <c r="I201" s="66"/>
       <c r="J201" s="45">
         <f t="shared" si="5"/>
@@ -9914,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="108"/>
-      <c r="P201" s="231"/>
+      <c r="P201" s="230"/>
       <c r="Q201" s="138"/>
       <c r="R201" s="139"/>
       <c r="S201" s="192"/>
@@ -9923,17 +10050,17 @@
       <c r="V201" s="56"/>
     </row>
     <row r="202" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="234"/>
-      <c r="B202" s="224"/>
-      <c r="C202" s="271"/>
-      <c r="D202" s="271"/>
+      <c r="A202" s="233"/>
+      <c r="B202" s="223"/>
+      <c r="C202" s="270"/>
+      <c r="D202" s="270"/>
       <c r="E202" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F202" s="66"/>
-      <c r="G202" s="249"/>
-      <c r="H202" s="252"/>
+      <c r="G202" s="248"/>
+      <c r="H202" s="251"/>
       <c r="I202" s="66"/>
       <c r="J202" s="45">
         <f t="shared" si="5"/>
@@ -9947,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="108"/>
-      <c r="P202" s="231"/>
+      <c r="P202" s="230"/>
       <c r="Q202" s="138"/>
       <c r="R202" s="139"/>
       <c r="S202" s="192"/>
@@ -9956,17 +10083,17 @@
       <c r="V202" s="56"/>
     </row>
     <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="234"/>
-      <c r="B203" s="224"/>
-      <c r="C203" s="271"/>
-      <c r="D203" s="271"/>
+      <c r="A203" s="233"/>
+      <c r="B203" s="223"/>
+      <c r="C203" s="270"/>
+      <c r="D203" s="270"/>
       <c r="E203" s="40">
         <f t="shared" ref="E203:E261" si="7">D203*F203</f>
         <v>0</v>
       </c>
       <c r="F203" s="66"/>
-      <c r="G203" s="249"/>
-      <c r="H203" s="252"/>
+      <c r="G203" s="248"/>
+      <c r="H203" s="251"/>
       <c r="I203" s="66"/>
       <c r="J203" s="45">
         <f t="shared" si="5"/>
@@ -9980,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="108"/>
-      <c r="P203" s="231"/>
+      <c r="P203" s="230"/>
       <c r="Q203" s="138"/>
       <c r="R203" s="139"/>
       <c r="S203" s="192"/>
@@ -9989,17 +10116,17 @@
       <c r="V203" s="56"/>
     </row>
     <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="234"/>
-      <c r="B204" s="224"/>
-      <c r="C204" s="271"/>
-      <c r="D204" s="271"/>
+      <c r="A204" s="233"/>
+      <c r="B204" s="223"/>
+      <c r="C204" s="270"/>
+      <c r="D204" s="270"/>
       <c r="E204" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F204" s="66"/>
-      <c r="G204" s="249"/>
-      <c r="H204" s="252"/>
+      <c r="G204" s="248"/>
+      <c r="H204" s="251"/>
       <c r="I204" s="66"/>
       <c r="J204" s="45">
         <f t="shared" si="5"/>
@@ -10013,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="O204" s="108"/>
-      <c r="P204" s="231"/>
+      <c r="P204" s="230"/>
       <c r="Q204" s="138"/>
       <c r="R204" s="139"/>
       <c r="S204" s="192"/>
@@ -10022,17 +10149,17 @@
       <c r="V204" s="56"/>
     </row>
     <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="234"/>
-      <c r="B205" s="224"/>
-      <c r="C205" s="271"/>
-      <c r="D205" s="271"/>
+      <c r="A205" s="233"/>
+      <c r="B205" s="223"/>
+      <c r="C205" s="270"/>
+      <c r="D205" s="270"/>
       <c r="E205" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F205" s="66"/>
-      <c r="G205" s="249"/>
-      <c r="H205" s="252"/>
+      <c r="G205" s="248"/>
+      <c r="H205" s="251"/>
       <c r="I205" s="66"/>
       <c r="J205" s="45">
         <f t="shared" si="5"/>
@@ -10046,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="108"/>
-      <c r="P205" s="231"/>
+      <c r="P205" s="230"/>
       <c r="Q205" s="138"/>
       <c r="R205" s="139"/>
       <c r="S205" s="192"/>
@@ -10055,17 +10182,17 @@
       <c r="V205" s="56"/>
     </row>
     <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="234"/>
-      <c r="B206" s="224"/>
-      <c r="C206" s="271"/>
-      <c r="D206" s="271"/>
+      <c r="A206" s="233"/>
+      <c r="B206" s="223"/>
+      <c r="C206" s="270"/>
+      <c r="D206" s="270"/>
       <c r="E206" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F206" s="66"/>
-      <c r="G206" s="249"/>
-      <c r="H206" s="252"/>
+      <c r="G206" s="248"/>
+      <c r="H206" s="251"/>
       <c r="I206" s="66"/>
       <c r="J206" s="45">
         <f t="shared" si="5"/>
@@ -10079,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="108"/>
-      <c r="P206" s="231"/>
+      <c r="P206" s="230"/>
       <c r="Q206" s="138"/>
       <c r="R206" s="139"/>
       <c r="S206" s="192"/>
@@ -10088,17 +10215,17 @@
       <c r="V206" s="56"/>
     </row>
     <row r="207" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="234"/>
-      <c r="B207" s="224"/>
-      <c r="C207" s="271"/>
-      <c r="D207" s="271"/>
+      <c r="A207" s="233"/>
+      <c r="B207" s="223"/>
+      <c r="C207" s="270"/>
+      <c r="D207" s="270"/>
       <c r="E207" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F207" s="66"/>
-      <c r="G207" s="249"/>
-      <c r="H207" s="252"/>
+      <c r="G207" s="248"/>
+      <c r="H207" s="251"/>
       <c r="I207" s="66"/>
       <c r="J207" s="45">
         <f t="shared" si="5"/>
@@ -10112,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="O207" s="108"/>
-      <c r="P207" s="231"/>
+      <c r="P207" s="230"/>
       <c r="Q207" s="138"/>
       <c r="R207" s="139"/>
       <c r="S207" s="192"/>
@@ -10121,10 +10248,10 @@
       <c r="V207" s="56"/>
     </row>
     <row r="208" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="224"/>
-      <c r="B208" s="281"/>
-      <c r="C208" s="271"/>
-      <c r="D208" s="271"/>
+      <c r="A208" s="223"/>
+      <c r="B208" s="280"/>
+      <c r="C208" s="270"/>
+      <c r="D208" s="270"/>
       <c r="E208" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -10145,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="108"/>
-      <c r="P208" s="231"/>
+      <c r="P208" s="230"/>
       <c r="Q208" s="138"/>
       <c r="R208" s="139"/>
       <c r="S208" s="192"/>
@@ -10154,17 +10281,17 @@
       <c r="V208" s="56"/>
     </row>
     <row r="209" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="293"/>
-      <c r="B209" s="224"/>
-      <c r="C209" s="271"/>
-      <c r="D209" s="271"/>
+      <c r="A209" s="292"/>
+      <c r="B209" s="223"/>
+      <c r="C209" s="270"/>
+      <c r="D209" s="270"/>
       <c r="E209" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F209" s="66"/>
-      <c r="G209" s="249"/>
-      <c r="H209" s="252"/>
+      <c r="G209" s="248"/>
+      <c r="H209" s="251"/>
       <c r="I209" s="66"/>
       <c r="J209" s="45">
         <f t="shared" si="5"/>
@@ -10178,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="108"/>
-      <c r="P209" s="231"/>
+      <c r="P209" s="230"/>
       <c r="Q209" s="138"/>
       <c r="R209" s="139"/>
       <c r="S209" s="192"/>
@@ -10187,17 +10314,17 @@
       <c r="V209" s="56"/>
     </row>
     <row r="210" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="293"/>
-      <c r="B210" s="224"/>
-      <c r="C210" s="271"/>
-      <c r="D210" s="271"/>
+      <c r="A210" s="292"/>
+      <c r="B210" s="223"/>
+      <c r="C210" s="270"/>
+      <c r="D210" s="270"/>
       <c r="E210" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F210" s="66"/>
-      <c r="G210" s="249"/>
-      <c r="H210" s="252"/>
+      <c r="G210" s="248"/>
+      <c r="H210" s="251"/>
       <c r="I210" s="66"/>
       <c r="J210" s="45">
         <f t="shared" si="5"/>
@@ -10211,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="108"/>
-      <c r="P210" s="231"/>
+      <c r="P210" s="230"/>
       <c r="Q210" s="138"/>
       <c r="R210" s="139"/>
       <c r="S210" s="192"/>
@@ -10220,17 +10347,17 @@
       <c r="V210" s="56"/>
     </row>
     <row r="211" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="293"/>
-      <c r="B211" s="224"/>
-      <c r="C211" s="271"/>
-      <c r="D211" s="271"/>
+      <c r="A211" s="292"/>
+      <c r="B211" s="223"/>
+      <c r="C211" s="270"/>
+      <c r="D211" s="270"/>
       <c r="E211" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F211" s="66"/>
-      <c r="G211" s="249"/>
-      <c r="H211" s="252"/>
+      <c r="G211" s="248"/>
+      <c r="H211" s="251"/>
       <c r="I211" s="66"/>
       <c r="J211" s="45">
         <f t="shared" si="5"/>
@@ -10244,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="108"/>
-      <c r="P211" s="231"/>
+      <c r="P211" s="230"/>
       <c r="Q211" s="138"/>
       <c r="R211" s="139"/>
       <c r="S211" s="192"/>
@@ -10253,17 +10380,17 @@
       <c r="V211" s="56"/>
     </row>
     <row r="212" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="293"/>
-      <c r="B212" s="224"/>
-      <c r="C212" s="271"/>
-      <c r="D212" s="271"/>
+      <c r="A212" s="292"/>
+      <c r="B212" s="223"/>
+      <c r="C212" s="270"/>
+      <c r="D212" s="270"/>
       <c r="E212" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F212" s="66"/>
-      <c r="G212" s="249"/>
-      <c r="H212" s="252"/>
+      <c r="G212" s="248"/>
+      <c r="H212" s="251"/>
       <c r="I212" s="66"/>
       <c r="J212" s="45">
         <f t="shared" si="5"/>
@@ -10277,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="O212" s="108"/>
-      <c r="P212" s="231"/>
+      <c r="P212" s="230"/>
       <c r="Q212" s="138"/>
       <c r="R212" s="139"/>
       <c r="S212" s="192"/>
@@ -10286,17 +10413,17 @@
       <c r="V212" s="56"/>
     </row>
     <row r="213" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="296"/>
-      <c r="B213" s="224"/>
-      <c r="C213" s="271"/>
-      <c r="D213" s="271"/>
+      <c r="A213" s="295"/>
+      <c r="B213" s="223"/>
+      <c r="C213" s="270"/>
+      <c r="D213" s="270"/>
       <c r="E213" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F213" s="66"/>
-      <c r="G213" s="249"/>
-      <c r="H213" s="252"/>
+      <c r="G213" s="248"/>
+      <c r="H213" s="251"/>
       <c r="I213" s="66"/>
       <c r="J213" s="45">
         <f t="shared" si="5"/>
@@ -10310,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="108"/>
-      <c r="P213" s="231"/>
+      <c r="P213" s="230"/>
       <c r="Q213" s="138"/>
       <c r="R213" s="139"/>
       <c r="S213" s="192"/>
@@ -10319,17 +10446,17 @@
       <c r="V213" s="56"/>
     </row>
     <row r="214" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="234"/>
-      <c r="B214" s="224"/>
-      <c r="C214" s="271"/>
-      <c r="D214" s="271"/>
+      <c r="A214" s="233"/>
+      <c r="B214" s="223"/>
+      <c r="C214" s="270"/>
+      <c r="D214" s="270"/>
       <c r="E214" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F214" s="66"/>
-      <c r="G214" s="249"/>
-      <c r="H214" s="252"/>
+      <c r="G214" s="248"/>
+      <c r="H214" s="251"/>
       <c r="I214" s="66"/>
       <c r="J214" s="45">
         <f t="shared" ref="J214:J257" si="8">I214-F214</f>
@@ -10343,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="108"/>
-      <c r="P214" s="231"/>
+      <c r="P214" s="230"/>
       <c r="Q214" s="138"/>
       <c r="R214" s="139"/>
       <c r="S214" s="192"/>
@@ -10352,17 +10479,17 @@
       <c r="V214" s="56"/>
     </row>
     <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="234"/>
-      <c r="B215" s="224"/>
-      <c r="C215" s="271"/>
-      <c r="D215" s="271"/>
+      <c r="A215" s="233"/>
+      <c r="B215" s="223"/>
+      <c r="C215" s="270"/>
+      <c r="D215" s="270"/>
       <c r="E215" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F215" s="66"/>
-      <c r="G215" s="249"/>
-      <c r="H215" s="252"/>
+      <c r="G215" s="248"/>
+      <c r="H215" s="251"/>
       <c r="I215" s="66"/>
       <c r="J215" s="45">
         <f t="shared" si="8"/>
@@ -10376,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="O215" s="108"/>
-      <c r="P215" s="231"/>
+      <c r="P215" s="230"/>
       <c r="Q215" s="138"/>
       <c r="R215" s="139"/>
       <c r="S215" s="192"/>
@@ -10385,17 +10512,17 @@
       <c r="V215" s="56"/>
     </row>
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="234"/>
-      <c r="B216" s="224"/>
-      <c r="C216" s="271"/>
-      <c r="D216" s="271"/>
+      <c r="A216" s="233"/>
+      <c r="B216" s="223"/>
+      <c r="C216" s="270"/>
+      <c r="D216" s="270"/>
       <c r="E216" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F216" s="66"/>
-      <c r="G216" s="249"/>
-      <c r="H216" s="252"/>
+      <c r="G216" s="248"/>
+      <c r="H216" s="251"/>
       <c r="I216" s="66"/>
       <c r="J216" s="45">
         <f t="shared" si="8"/>
@@ -10409,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="O216" s="108"/>
-      <c r="P216" s="231"/>
+      <c r="P216" s="230"/>
       <c r="Q216" s="138"/>
       <c r="R216" s="139"/>
       <c r="S216" s="192"/>
@@ -10418,17 +10545,17 @@
       <c r="V216" s="56"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="234"/>
-      <c r="B217" s="224"/>
-      <c r="C217" s="271"/>
-      <c r="D217" s="271"/>
+      <c r="A217" s="233"/>
+      <c r="B217" s="223"/>
+      <c r="C217" s="270"/>
+      <c r="D217" s="270"/>
       <c r="E217" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F217" s="66"/>
-      <c r="G217" s="249"/>
-      <c r="H217" s="252"/>
+      <c r="G217" s="248"/>
+      <c r="H217" s="251"/>
       <c r="I217" s="66"/>
       <c r="J217" s="45">
         <f t="shared" si="8"/>
@@ -10442,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="O217" s="108"/>
-      <c r="P217" s="231"/>
+      <c r="P217" s="230"/>
       <c r="Q217" s="138"/>
       <c r="R217" s="139"/>
       <c r="S217" s="192"/>
@@ -10451,17 +10578,17 @@
       <c r="V217" s="56"/>
     </row>
     <row r="218" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="234"/>
-      <c r="B218" s="224"/>
-      <c r="C218" s="271"/>
-      <c r="D218" s="271"/>
+      <c r="A218" s="233"/>
+      <c r="B218" s="223"/>
+      <c r="C218" s="270"/>
+      <c r="D218" s="270"/>
       <c r="E218" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F218" s="66"/>
-      <c r="G218" s="249"/>
-      <c r="H218" s="252"/>
+      <c r="G218" s="248"/>
+      <c r="H218" s="251"/>
       <c r="I218" s="66"/>
       <c r="J218" s="45">
         <f t="shared" si="8"/>
@@ -10475,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="O218" s="108"/>
-      <c r="P218" s="231"/>
+      <c r="P218" s="230"/>
       <c r="Q218" s="138"/>
       <c r="R218" s="139"/>
       <c r="S218" s="192"/>
@@ -10484,17 +10611,17 @@
       <c r="V218" s="56"/>
     </row>
     <row r="219" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="234"/>
-      <c r="B219" s="224"/>
-      <c r="C219" s="271"/>
-      <c r="D219" s="271"/>
+      <c r="A219" s="233"/>
+      <c r="B219" s="223"/>
+      <c r="C219" s="270"/>
+      <c r="D219" s="270"/>
       <c r="E219" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F219" s="66"/>
-      <c r="G219" s="249"/>
-      <c r="H219" s="252"/>
+      <c r="G219" s="248"/>
+      <c r="H219" s="251"/>
       <c r="I219" s="66"/>
       <c r="J219" s="45">
         <f t="shared" si="8"/>
@@ -10508,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="O219" s="108"/>
-      <c r="P219" s="231"/>
+      <c r="P219" s="230"/>
       <c r="Q219" s="138"/>
       <c r="R219" s="139"/>
       <c r="S219" s="192"/>
@@ -10517,17 +10644,17 @@
       <c r="V219" s="56"/>
     </row>
     <row r="220" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="234"/>
-      <c r="B220" s="224"/>
-      <c r="C220" s="271"/>
-      <c r="D220" s="271"/>
+      <c r="A220" s="233"/>
+      <c r="B220" s="223"/>
+      <c r="C220" s="270"/>
+      <c r="D220" s="270"/>
       <c r="E220" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F220" s="66"/>
-      <c r="G220" s="249"/>
-      <c r="H220" s="252"/>
+      <c r="G220" s="248"/>
+      <c r="H220" s="251"/>
       <c r="I220" s="66"/>
       <c r="J220" s="45">
         <f t="shared" si="8"/>
@@ -10541,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="108"/>
-      <c r="P220" s="231"/>
+      <c r="P220" s="230"/>
       <c r="Q220" s="138"/>
       <c r="R220" s="139"/>
       <c r="S220" s="192"/>
@@ -10550,17 +10677,17 @@
       <c r="V220" s="56"/>
     </row>
     <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="234"/>
-      <c r="B221" s="224"/>
-      <c r="C221" s="271"/>
-      <c r="D221" s="271"/>
+      <c r="A221" s="233"/>
+      <c r="B221" s="223"/>
+      <c r="C221" s="270"/>
+      <c r="D221" s="270"/>
       <c r="E221" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F221" s="66"/>
-      <c r="G221" s="249"/>
-      <c r="H221" s="252"/>
+      <c r="G221" s="248"/>
+      <c r="H221" s="251"/>
       <c r="I221" s="66"/>
       <c r="J221" s="45">
         <f t="shared" si="8"/>
@@ -10574,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="O221" s="108"/>
-      <c r="P221" s="231"/>
+      <c r="P221" s="230"/>
       <c r="Q221" s="138"/>
       <c r="R221" s="139"/>
       <c r="S221" s="192"/>
@@ -10583,17 +10710,17 @@
       <c r="V221" s="56"/>
     </row>
     <row r="222" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="234"/>
-      <c r="B222" s="224"/>
-      <c r="C222" s="271"/>
-      <c r="D222" s="271"/>
+      <c r="A222" s="233"/>
+      <c r="B222" s="223"/>
+      <c r="C222" s="270"/>
+      <c r="D222" s="270"/>
       <c r="E222" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F222" s="66"/>
-      <c r="G222" s="249"/>
-      <c r="H222" s="252"/>
+      <c r="G222" s="248"/>
+      <c r="H222" s="251"/>
       <c r="I222" s="66"/>
       <c r="J222" s="45">
         <f t="shared" si="8"/>
@@ -10607,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="O222" s="108"/>
-      <c r="P222" s="231"/>
+      <c r="P222" s="230"/>
       <c r="Q222" s="138"/>
       <c r="R222" s="139"/>
       <c r="S222" s="192"/>
@@ -10616,17 +10743,17 @@
       <c r="V222" s="56"/>
     </row>
     <row r="223" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="234"/>
-      <c r="B223" s="224"/>
-      <c r="C223" s="297"/>
-      <c r="D223" s="297"/>
+      <c r="A223" s="233"/>
+      <c r="B223" s="223"/>
+      <c r="C223" s="296"/>
+      <c r="D223" s="296"/>
       <c r="E223" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F223" s="66"/>
-      <c r="G223" s="249"/>
-      <c r="H223" s="252"/>
+      <c r="G223" s="248"/>
+      <c r="H223" s="251"/>
       <c r="I223" s="66"/>
       <c r="J223" s="45">
         <f t="shared" si="8"/>
@@ -10640,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="108"/>
-      <c r="P223" s="231"/>
+      <c r="P223" s="230"/>
       <c r="Q223" s="138"/>
       <c r="R223" s="139"/>
       <c r="S223" s="192"/>
@@ -10649,17 +10776,17 @@
       <c r="V223" s="56"/>
     </row>
     <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="234"/>
-      <c r="B224" s="224"/>
-      <c r="C224" s="271"/>
-      <c r="D224" s="271"/>
+      <c r="A224" s="233"/>
+      <c r="B224" s="223"/>
+      <c r="C224" s="270"/>
+      <c r="D224" s="270"/>
       <c r="E224" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F224" s="66"/>
-      <c r="G224" s="249"/>
-      <c r="H224" s="252"/>
+      <c r="G224" s="248"/>
+      <c r="H224" s="251"/>
       <c r="I224" s="66"/>
       <c r="J224" s="45">
         <f t="shared" si="8"/>
@@ -10673,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="O224" s="108"/>
-      <c r="P224" s="231"/>
+      <c r="P224" s="230"/>
       <c r="Q224" s="138"/>
       <c r="R224" s="139"/>
       <c r="S224" s="192"/>
@@ -10682,17 +10809,17 @@
       <c r="V224" s="56"/>
     </row>
     <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="234"/>
-      <c r="B225" s="224"/>
-      <c r="C225" s="291"/>
-      <c r="D225" s="291"/>
+      <c r="A225" s="233"/>
+      <c r="B225" s="223"/>
+      <c r="C225" s="290"/>
+      <c r="D225" s="290"/>
       <c r="E225" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F225" s="66"/>
-      <c r="G225" s="249"/>
-      <c r="H225" s="252"/>
+      <c r="G225" s="248"/>
+      <c r="H225" s="251"/>
       <c r="I225" s="66"/>
       <c r="J225" s="45">
         <f t="shared" si="8"/>
@@ -10706,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="O225" s="108"/>
-      <c r="P225" s="231"/>
+      <c r="P225" s="230"/>
       <c r="Q225" s="138"/>
       <c r="R225" s="139"/>
       <c r="S225" s="192"/>
@@ -10715,17 +10842,17 @@
       <c r="V225" s="56"/>
     </row>
     <row r="226" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="234"/>
-      <c r="B226" s="224"/>
-      <c r="C226" s="292"/>
-      <c r="D226" s="292"/>
+      <c r="A226" s="233"/>
+      <c r="B226" s="223"/>
+      <c r="C226" s="291"/>
+      <c r="D226" s="291"/>
       <c r="E226" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F226" s="66"/>
-      <c r="G226" s="249"/>
-      <c r="H226" s="252"/>
+      <c r="G226" s="248"/>
+      <c r="H226" s="251"/>
       <c r="I226" s="66"/>
       <c r="J226" s="45">
         <f t="shared" si="8"/>
@@ -10739,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="O226" s="108"/>
-      <c r="P226" s="231"/>
+      <c r="P226" s="230"/>
       <c r="Q226" s="138"/>
       <c r="R226" s="139"/>
       <c r="S226" s="192"/>
@@ -10748,17 +10875,17 @@
       <c r="V226" s="56"/>
     </row>
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="234"/>
-      <c r="B227" s="224"/>
-      <c r="C227" s="292"/>
-      <c r="D227" s="292"/>
+      <c r="A227" s="233"/>
+      <c r="B227" s="223"/>
+      <c r="C227" s="291"/>
+      <c r="D227" s="291"/>
       <c r="E227" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F227" s="66"/>
-      <c r="G227" s="249"/>
-      <c r="H227" s="252"/>
+      <c r="G227" s="248"/>
+      <c r="H227" s="251"/>
       <c r="I227" s="66"/>
       <c r="J227" s="45">
         <f t="shared" si="8"/>
@@ -10772,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="O227" s="108"/>
-      <c r="P227" s="231"/>
+      <c r="P227" s="230"/>
       <c r="Q227" s="138"/>
       <c r="R227" s="139"/>
       <c r="S227" s="192"/>
@@ -10781,17 +10908,17 @@
       <c r="V227" s="56"/>
     </row>
     <row r="228" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="234"/>
-      <c r="B228" s="224"/>
-      <c r="C228" s="291"/>
-      <c r="D228" s="291"/>
+      <c r="A228" s="233"/>
+      <c r="B228" s="223"/>
+      <c r="C228" s="290"/>
+      <c r="D228" s="290"/>
       <c r="E228" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F228" s="66"/>
-      <c r="G228" s="249"/>
-      <c r="H228" s="252"/>
+      <c r="G228" s="248"/>
+      <c r="H228" s="251"/>
       <c r="I228" s="66"/>
       <c r="J228" s="45">
         <f t="shared" si="8"/>
@@ -10805,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="O228" s="108"/>
-      <c r="P228" s="231"/>
+      <c r="P228" s="230"/>
       <c r="Q228" s="138"/>
       <c r="R228" s="139"/>
       <c r="S228" s="192"/>
@@ -10814,17 +10941,17 @@
       <c r="V228" s="56"/>
     </row>
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="234"/>
-      <c r="B229" s="224"/>
-      <c r="C229" s="276"/>
-      <c r="D229" s="276"/>
+      <c r="A229" s="233"/>
+      <c r="B229" s="223"/>
+      <c r="C229" s="275"/>
+      <c r="D229" s="275"/>
       <c r="E229" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F229" s="66"/>
-      <c r="G229" s="249"/>
-      <c r="H229" s="252"/>
+      <c r="G229" s="248"/>
+      <c r="H229" s="251"/>
       <c r="I229" s="66"/>
       <c r="J229" s="45">
         <f t="shared" si="8"/>
@@ -10838,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="O229" s="108"/>
-      <c r="P229" s="231"/>
+      <c r="P229" s="230"/>
       <c r="Q229" s="138"/>
       <c r="R229" s="139"/>
       <c r="S229" s="192"/>
@@ -10847,17 +10974,17 @@
       <c r="V229" s="56"/>
     </row>
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="234"/>
-      <c r="B230" s="224"/>
-      <c r="C230" s="221"/>
-      <c r="D230" s="221"/>
+      <c r="A230" s="233"/>
+      <c r="B230" s="223"/>
+      <c r="C230" s="220"/>
+      <c r="D230" s="220"/>
       <c r="E230" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F230" s="66"/>
-      <c r="G230" s="249"/>
-      <c r="H230" s="252"/>
+      <c r="G230" s="248"/>
+      <c r="H230" s="251"/>
       <c r="I230" s="66"/>
       <c r="J230" s="45">
         <f t="shared" si="8"/>
@@ -10871,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="O230" s="108"/>
-      <c r="P230" s="231"/>
+      <c r="P230" s="230"/>
       <c r="Q230" s="138"/>
       <c r="R230" s="139"/>
       <c r="S230" s="192"/>
@@ -10880,17 +11007,17 @@
       <c r="V230" s="56"/>
     </row>
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="225"/>
-      <c r="B231" s="224"/>
-      <c r="C231" s="251"/>
-      <c r="D231" s="251"/>
+      <c r="A231" s="224"/>
+      <c r="B231" s="223"/>
+      <c r="C231" s="250"/>
+      <c r="D231" s="250"/>
       <c r="E231" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F231" s="66"/>
-      <c r="G231" s="249"/>
-      <c r="H231" s="252"/>
+      <c r="G231" s="248"/>
+      <c r="H231" s="251"/>
       <c r="I231" s="66"/>
       <c r="J231" s="45">
         <f t="shared" si="8"/>
@@ -10904,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="O231" s="108"/>
-      <c r="P231" s="231"/>
+      <c r="P231" s="230"/>
       <c r="Q231" s="138"/>
       <c r="R231" s="139"/>
       <c r="S231" s="192"/>
@@ -10913,17 +11040,17 @@
       <c r="V231" s="56"/>
     </row>
     <row r="232" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="234"/>
-      <c r="B232" s="224"/>
-      <c r="C232" s="251"/>
-      <c r="D232" s="251"/>
+      <c r="A232" s="233"/>
+      <c r="B232" s="223"/>
+      <c r="C232" s="250"/>
+      <c r="D232" s="250"/>
       <c r="E232" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F232" s="66"/>
-      <c r="G232" s="249"/>
-      <c r="H232" s="252"/>
+      <c r="G232" s="248"/>
+      <c r="H232" s="251"/>
       <c r="I232" s="66"/>
       <c r="J232" s="45">
         <f t="shared" si="8"/>
@@ -10937,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="O232" s="108"/>
-      <c r="P232" s="231"/>
+      <c r="P232" s="230"/>
       <c r="Q232" s="138"/>
       <c r="R232" s="139"/>
       <c r="S232" s="192"/>
@@ -10946,17 +11073,17 @@
       <c r="V232" s="56"/>
     </row>
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="234"/>
-      <c r="B233" s="224"/>
-      <c r="C233" s="251"/>
-      <c r="D233" s="251"/>
+      <c r="A233" s="233"/>
+      <c r="B233" s="223"/>
+      <c r="C233" s="250"/>
+      <c r="D233" s="250"/>
       <c r="E233" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F233" s="66"/>
-      <c r="G233" s="249"/>
-      <c r="H233" s="252"/>
+      <c r="G233" s="248"/>
+      <c r="H233" s="251"/>
       <c r="I233" s="66"/>
       <c r="J233" s="45">
         <f t="shared" si="8"/>
@@ -10970,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="O233" s="108"/>
-      <c r="P233" s="231"/>
+      <c r="P233" s="230"/>
       <c r="Q233" s="138"/>
       <c r="R233" s="139"/>
       <c r="S233" s="192"/>
@@ -10979,17 +11106,17 @@
       <c r="V233" s="56"/>
     </row>
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="298"/>
-      <c r="B234" s="299"/>
-      <c r="C234" s="251"/>
-      <c r="D234" s="251"/>
+      <c r="A234" s="297"/>
+      <c r="B234" s="298"/>
+      <c r="C234" s="250"/>
+      <c r="D234" s="250"/>
       <c r="E234" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F234" s="66"/>
-      <c r="G234" s="249"/>
-      <c r="H234" s="252"/>
+      <c r="G234" s="248"/>
+      <c r="H234" s="251"/>
       <c r="I234" s="66"/>
       <c r="J234" s="45">
         <f t="shared" si="8"/>
@@ -11003,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="108"/>
-      <c r="P234" s="231"/>
+      <c r="P234" s="230"/>
       <c r="Q234" s="138"/>
       <c r="R234" s="139"/>
       <c r="S234" s="192"/>
@@ -11012,16 +11139,16 @@
       <c r="V234" s="56"/>
     </row>
     <row r="235" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="225"/>
-      <c r="B235" s="299"/>
-      <c r="C235" s="251"/>
-      <c r="D235" s="251"/>
+      <c r="A235" s="224"/>
+      <c r="B235" s="298"/>
+      <c r="C235" s="250"/>
+      <c r="D235" s="250"/>
       <c r="E235" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F235" s="66"/>
-      <c r="G235" s="249"/>
+      <c r="G235" s="248"/>
       <c r="H235" s="65"/>
       <c r="I235" s="66"/>
       <c r="J235" s="45">
@@ -11036,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="O235" s="108"/>
-      <c r="P235" s="231"/>
+      <c r="P235" s="230"/>
       <c r="Q235" s="138"/>
       <c r="R235" s="139"/>
       <c r="S235" s="192"/>
@@ -11045,17 +11172,17 @@
       <c r="V235" s="56"/>
     </row>
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="225"/>
-      <c r="B236" s="299"/>
-      <c r="C236" s="251"/>
-      <c r="D236" s="251"/>
+      <c r="A236" s="224"/>
+      <c r="B236" s="298"/>
+      <c r="C236" s="250"/>
+      <c r="D236" s="250"/>
       <c r="E236" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F236" s="66"/>
-      <c r="G236" s="249"/>
-      <c r="H236" s="252"/>
+      <c r="G236" s="248"/>
+      <c r="H236" s="251"/>
       <c r="I236" s="66"/>
       <c r="J236" s="45">
         <f t="shared" si="8"/>
@@ -11069,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="O236" s="108"/>
-      <c r="P236" s="231"/>
+      <c r="P236" s="230"/>
       <c r="Q236" s="138"/>
       <c r="R236" s="139"/>
       <c r="S236" s="192"/>
@@ -11078,17 +11205,17 @@
       <c r="V236" s="56"/>
     </row>
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="234"/>
-      <c r="B237" s="299"/>
-      <c r="C237" s="233"/>
-      <c r="D237" s="233"/>
+      <c r="A237" s="233"/>
+      <c r="B237" s="298"/>
+      <c r="C237" s="232"/>
+      <c r="D237" s="232"/>
       <c r="E237" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F237" s="66"/>
-      <c r="G237" s="249"/>
-      <c r="H237" s="252"/>
+      <c r="G237" s="248"/>
+      <c r="H237" s="251"/>
       <c r="I237" s="66"/>
       <c r="J237" s="45">
         <f t="shared" si="8"/>
@@ -11102,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="O237" s="108"/>
-      <c r="P237" s="231"/>
+      <c r="P237" s="230"/>
       <c r="Q237" s="138"/>
       <c r="R237" s="139"/>
       <c r="S237" s="192"/>
@@ -11111,17 +11238,17 @@
       <c r="V237" s="56"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="234"/>
-      <c r="B238" s="299"/>
-      <c r="C238" s="233"/>
-      <c r="D238" s="233"/>
+      <c r="A238" s="233"/>
+      <c r="B238" s="298"/>
+      <c r="C238" s="232"/>
+      <c r="D238" s="232"/>
       <c r="E238" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F238" s="66"/>
-      <c r="G238" s="249"/>
-      <c r="H238" s="252"/>
+      <c r="G238" s="248"/>
+      <c r="H238" s="251"/>
       <c r="I238" s="66"/>
       <c r="J238" s="45">
         <f t="shared" si="8"/>
@@ -11135,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="O238" s="108"/>
-      <c r="P238" s="231"/>
+      <c r="P238" s="230"/>
       <c r="Q238" s="138"/>
       <c r="R238" s="139"/>
       <c r="S238" s="192"/>
@@ -11144,17 +11271,17 @@
       <c r="V238" s="56"/>
     </row>
     <row r="239" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="225"/>
-      <c r="B239" s="299"/>
-      <c r="C239" s="269"/>
-      <c r="D239" s="269"/>
+      <c r="A239" s="224"/>
+      <c r="B239" s="298"/>
+      <c r="C239" s="268"/>
+      <c r="D239" s="268"/>
       <c r="E239" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239" s="66"/>
-      <c r="G239" s="249"/>
-      <c r="H239" s="266"/>
+      <c r="G239" s="248"/>
+      <c r="H239" s="265"/>
       <c r="I239" s="66"/>
       <c r="J239" s="45">
         <f t="shared" si="8"/>
@@ -11167,8 +11294,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O239" s="248"/>
-      <c r="P239" s="270"/>
+      <c r="O239" s="247"/>
+      <c r="P239" s="269"/>
       <c r="Q239" s="138"/>
       <c r="R239" s="139"/>
       <c r="S239" s="192"/>
@@ -11177,31 +11304,31 @@
       <c r="V239" s="56"/>
     </row>
     <row r="240" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="225"/>
-      <c r="B240" s="299"/>
-      <c r="C240" s="203"/>
-      <c r="D240" s="203"/>
+      <c r="A240" s="224"/>
+      <c r="B240" s="298"/>
+      <c r="C240" s="202"/>
+      <c r="D240" s="202"/>
       <c r="E240" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F240" s="66"/>
-      <c r="G240" s="249"/>
-      <c r="H240" s="266"/>
+      <c r="G240" s="248"/>
+      <c r="H240" s="265"/>
       <c r="I240" s="66"/>
       <c r="J240" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K240" s="110"/>
-      <c r="L240" s="300"/>
-      <c r="M240" s="301"/>
+      <c r="L240" s="299"/>
+      <c r="M240" s="300"/>
       <c r="N240" s="85">
         <f t="shared" ref="N240:N249" si="9">K240*I240-M240</f>
         <v>0</v>
       </c>
-      <c r="O240" s="248"/>
-      <c r="P240" s="270"/>
+      <c r="O240" s="247"/>
+      <c r="P240" s="269"/>
       <c r="Q240" s="138"/>
       <c r="R240" s="139"/>
       <c r="S240" s="192"/>
@@ -11210,31 +11337,31 @@
       <c r="V240" s="56"/>
     </row>
     <row r="241" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="225"/>
-      <c r="B241" s="302"/>
-      <c r="C241" s="214"/>
-      <c r="D241" s="214"/>
+      <c r="A241" s="224"/>
+      <c r="B241" s="301"/>
+      <c r="C241" s="213"/>
+      <c r="D241" s="213"/>
       <c r="E241" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F241" s="214"/>
-      <c r="G241" s="303"/>
-      <c r="H241" s="304"/>
+      <c r="F241" s="213"/>
+      <c r="G241" s="302"/>
+      <c r="H241" s="303"/>
       <c r="I241" s="126"/>
       <c r="J241" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K241" s="110"/>
-      <c r="L241" s="300"/>
-      <c r="M241" s="301"/>
+      <c r="L241" s="299"/>
+      <c r="M241" s="300"/>
       <c r="N241" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O241" s="248"/>
-      <c r="P241" s="270"/>
+      <c r="O241" s="247"/>
+      <c r="P241" s="269"/>
       <c r="Q241" s="138"/>
       <c r="R241" s="139"/>
       <c r="S241" s="192"/>
@@ -11243,31 +11370,31 @@
       <c r="V241" s="56"/>
     </row>
     <row r="242" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="225"/>
-      <c r="B242" s="302"/>
-      <c r="C242" s="214"/>
-      <c r="D242" s="214"/>
+      <c r="A242" s="224"/>
+      <c r="B242" s="301"/>
+      <c r="C242" s="213"/>
+      <c r="D242" s="213"/>
       <c r="E242" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F242" s="214"/>
-      <c r="G242" s="303"/>
-      <c r="H242" s="304"/>
+      <c r="F242" s="213"/>
+      <c r="G242" s="302"/>
+      <c r="H242" s="303"/>
       <c r="I242" s="126"/>
       <c r="J242" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K242" s="110"/>
-      <c r="L242" s="300"/>
-      <c r="M242" s="301"/>
+      <c r="L242" s="299"/>
+      <c r="M242" s="300"/>
       <c r="N242" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O242" s="248"/>
-      <c r="P242" s="270"/>
+      <c r="O242" s="247"/>
+      <c r="P242" s="269"/>
       <c r="Q242" s="138"/>
       <c r="R242" s="139"/>
       <c r="S242" s="192"/>
@@ -11276,31 +11403,31 @@
       <c r="V242" s="56"/>
     </row>
     <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="225"/>
-      <c r="B243" s="305"/>
-      <c r="C243" s="214"/>
-      <c r="D243" s="214"/>
+      <c r="A243" s="224"/>
+      <c r="B243" s="304"/>
+      <c r="C243" s="213"/>
+      <c r="D243" s="213"/>
       <c r="E243" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F243" s="214"/>
-      <c r="G243" s="303"/>
-      <c r="H243" s="304"/>
+      <c r="F243" s="213"/>
+      <c r="G243" s="302"/>
+      <c r="H243" s="303"/>
       <c r="I243" s="126"/>
       <c r="J243" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K243" s="110"/>
-      <c r="L243" s="300"/>
-      <c r="M243" s="301"/>
+      <c r="L243" s="299"/>
+      <c r="M243" s="300"/>
       <c r="N243" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O243" s="108"/>
-      <c r="P243" s="236"/>
+      <c r="P243" s="235"/>
       <c r="Q243" s="138"/>
       <c r="R243" s="139"/>
       <c r="S243" s="192"/>
@@ -11309,31 +11436,31 @@
       <c r="V243" s="56"/>
     </row>
     <row r="244" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="225"/>
-      <c r="B244" s="305"/>
-      <c r="C244" s="214"/>
-      <c r="D244" s="214"/>
+      <c r="A244" s="224"/>
+      <c r="B244" s="304"/>
+      <c r="C244" s="213"/>
+      <c r="D244" s="213"/>
       <c r="E244" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F244" s="214"/>
-      <c r="G244" s="303"/>
-      <c r="H244" s="304"/>
+      <c r="F244" s="213"/>
+      <c r="G244" s="302"/>
+      <c r="H244" s="303"/>
       <c r="I244" s="126"/>
       <c r="J244" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K244" s="110"/>
-      <c r="L244" s="300"/>
-      <c r="M244" s="301"/>
+      <c r="L244" s="299"/>
+      <c r="M244" s="300"/>
       <c r="N244" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O244" s="108"/>
-      <c r="P244" s="236"/>
+      <c r="P244" s="235"/>
       <c r="Q244" s="138"/>
       <c r="R244" s="139"/>
       <c r="S244" s="192"/>
@@ -11342,31 +11469,31 @@
       <c r="V244" s="56"/>
     </row>
     <row r="245" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="225"/>
-      <c r="B245" s="305"/>
-      <c r="C245" s="214"/>
-      <c r="D245" s="214"/>
+      <c r="A245" s="224"/>
+      <c r="B245" s="304"/>
+      <c r="C245" s="213"/>
+      <c r="D245" s="213"/>
       <c r="E245" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F245" s="214"/>
-      <c r="G245" s="303"/>
-      <c r="H245" s="304"/>
+      <c r="F245" s="213"/>
+      <c r="G245" s="302"/>
+      <c r="H245" s="303"/>
       <c r="I245" s="126"/>
       <c r="J245" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K245" s="110"/>
-      <c r="L245" s="300"/>
-      <c r="M245" s="301"/>
+      <c r="L245" s="299"/>
+      <c r="M245" s="300"/>
       <c r="N245" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O245" s="108"/>
-      <c r="P245" s="236"/>
+      <c r="P245" s="235"/>
       <c r="Q245" s="138"/>
       <c r="R245" s="139"/>
       <c r="S245" s="192"/>
@@ -11375,31 +11502,31 @@
       <c r="V245" s="56"/>
     </row>
     <row r="246" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="225"/>
-      <c r="B246" s="224"/>
-      <c r="C246" s="306"/>
-      <c r="D246" s="307"/>
+      <c r="A246" s="224"/>
+      <c r="B246" s="223"/>
+      <c r="C246" s="305"/>
+      <c r="D246" s="306"/>
       <c r="E246" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F246" s="44"/>
-      <c r="G246" s="308"/>
-      <c r="H246" s="309"/>
+      <c r="G246" s="307"/>
+      <c r="H246" s="308"/>
       <c r="I246" s="66"/>
       <c r="J246" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K246" s="110"/>
-      <c r="L246" s="300"/>
-      <c r="M246" s="310"/>
+      <c r="L246" s="299"/>
+      <c r="M246" s="309"/>
       <c r="N246" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O246" s="248"/>
-      <c r="P246" s="270"/>
+      <c r="O246" s="247"/>
+      <c r="P246" s="269"/>
       <c r="Q246" s="138"/>
       <c r="R246" s="139"/>
       <c r="S246" s="192"/>
@@ -11408,31 +11535,31 @@
       <c r="V246" s="56"/>
     </row>
     <row r="247" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="225"/>
-      <c r="B247" s="224"/>
-      <c r="C247" s="306"/>
-      <c r="D247" s="306"/>
+      <c r="A247" s="224"/>
+      <c r="B247" s="223"/>
+      <c r="C247" s="305"/>
+      <c r="D247" s="305"/>
       <c r="E247" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F247" s="66"/>
-      <c r="G247" s="249"/>
-      <c r="H247" s="266"/>
+      <c r="G247" s="248"/>
+      <c r="H247" s="265"/>
       <c r="I247" s="66"/>
       <c r="J247" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K247" s="110"/>
-      <c r="L247" s="300"/>
-      <c r="M247" s="310"/>
+      <c r="L247" s="299"/>
+      <c r="M247" s="309"/>
       <c r="N247" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O247" s="248"/>
-      <c r="P247" s="270"/>
+      <c r="O247" s="247"/>
+      <c r="P247" s="269"/>
       <c r="Q247" s="138"/>
       <c r="R247" s="139"/>
       <c r="S247" s="192"/>
@@ -11441,31 +11568,31 @@
       <c r="V247" s="56"/>
     </row>
     <row r="248" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="225"/>
-      <c r="B248" s="224"/>
-      <c r="C248" s="306"/>
-      <c r="D248" s="306"/>
+      <c r="A248" s="224"/>
+      <c r="B248" s="223"/>
+      <c r="C248" s="305"/>
+      <c r="D248" s="305"/>
       <c r="E248" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F248" s="66"/>
-      <c r="G248" s="249"/>
-      <c r="H248" s="266"/>
+      <c r="G248" s="248"/>
+      <c r="H248" s="265"/>
       <c r="I248" s="66"/>
       <c r="J248" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K248" s="110"/>
-      <c r="L248" s="300"/>
-      <c r="M248" s="310"/>
+      <c r="L248" s="299"/>
+      <c r="M248" s="309"/>
       <c r="N248" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O248" s="248"/>
-      <c r="P248" s="270"/>
+      <c r="O248" s="247"/>
+      <c r="P248" s="269"/>
       <c r="Q248" s="138"/>
       <c r="R248" s="139"/>
       <c r="S248" s="192"/>
@@ -11474,31 +11601,31 @@
       <c r="V248" s="56"/>
     </row>
     <row r="249" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="225"/>
-      <c r="B249" s="224"/>
-      <c r="C249" s="311"/>
-      <c r="D249" s="311"/>
+      <c r="A249" s="224"/>
+      <c r="B249" s="223"/>
+      <c r="C249" s="310"/>
+      <c r="D249" s="310"/>
       <c r="E249" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F249" s="66"/>
-      <c r="G249" s="249"/>
-      <c r="H249" s="266"/>
+      <c r="G249" s="248"/>
+      <c r="H249" s="265"/>
       <c r="I249" s="66"/>
       <c r="J249" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K249" s="110"/>
-      <c r="L249" s="300"/>
-      <c r="M249" s="310"/>
+      <c r="L249" s="299"/>
+      <c r="M249" s="309"/>
       <c r="N249" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O249" s="248"/>
-      <c r="P249" s="270"/>
+      <c r="O249" s="247"/>
+      <c r="P249" s="269"/>
       <c r="Q249" s="138"/>
       <c r="R249" s="139"/>
       <c r="S249" s="192"/>
@@ -11507,852 +11634,852 @@
       <c r="V249" s="56"/>
     </row>
     <row r="250" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="312"/>
-      <c r="B250" s="224"/>
-      <c r="C250" s="224"/>
-      <c r="D250" s="224"/>
+      <c r="A250" s="311"/>
+      <c r="B250" s="223"/>
+      <c r="C250" s="223"/>
+      <c r="D250" s="223"/>
       <c r="E250" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F250" s="282"/>
-      <c r="G250" s="249"/>
-      <c r="H250" s="283"/>
-      <c r="I250" s="282">
+      <c r="F250" s="281"/>
+      <c r="G250" s="248"/>
+      <c r="H250" s="282"/>
+      <c r="I250" s="281">
         <v>0</v>
       </c>
       <c r="J250" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K250" s="313"/>
-      <c r="L250" s="313"/>
-      <c r="M250" s="313"/>
-      <c r="N250" s="314">
+      <c r="K250" s="312"/>
+      <c r="L250" s="312"/>
+      <c r="M250" s="312"/>
+      <c r="N250" s="313">
         <f t="shared" ref="N250:N261" si="10">K250*I250</f>
         <v>0</v>
       </c>
-      <c r="O250" s="315"/>
-      <c r="P250" s="270"/>
+      <c r="O250" s="314"/>
+      <c r="P250" s="269"/>
       <c r="Q250" s="138"/>
-      <c r="R250" s="316"/>
-      <c r="S250" s="317"/>
-      <c r="T250" s="318"/>
-      <c r="U250" s="286"/>
-      <c r="V250" s="290"/>
+      <c r="R250" s="315"/>
+      <c r="S250" s="316"/>
+      <c r="T250" s="317"/>
+      <c r="U250" s="285"/>
+      <c r="V250" s="289"/>
     </row>
     <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="312"/>
-      <c r="B251" s="224"/>
-      <c r="C251" s="224"/>
-      <c r="D251" s="224"/>
+      <c r="A251" s="311"/>
+      <c r="B251" s="223"/>
+      <c r="C251" s="223"/>
+      <c r="D251" s="223"/>
       <c r="E251" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F251" s="282"/>
-      <c r="G251" s="249"/>
-      <c r="H251" s="283"/>
-      <c r="I251" s="282">
+      <c r="F251" s="281"/>
+      <c r="G251" s="248"/>
+      <c r="H251" s="282"/>
+      <c r="I251" s="281">
         <v>0</v>
       </c>
       <c r="J251" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K251" s="313"/>
-      <c r="L251" s="313"/>
-      <c r="M251" s="313"/>
-      <c r="N251" s="314">
+      <c r="K251" s="312"/>
+      <c r="L251" s="312"/>
+      <c r="M251" s="312"/>
+      <c r="N251" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O251" s="315"/>
-      <c r="P251" s="270"/>
+      <c r="O251" s="314"/>
+      <c r="P251" s="269"/>
       <c r="Q251" s="138"/>
-      <c r="R251" s="316"/>
-      <c r="S251" s="317"/>
-      <c r="T251" s="318"/>
-      <c r="U251" s="286"/>
-      <c r="V251" s="290"/>
+      <c r="R251" s="315"/>
+      <c r="S251" s="316"/>
+      <c r="T251" s="317"/>
+      <c r="U251" s="285"/>
+      <c r="V251" s="289"/>
     </row>
     <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="312"/>
-      <c r="B252" s="224"/>
-      <c r="C252" s="224"/>
-      <c r="D252" s="224"/>
+      <c r="A252" s="311"/>
+      <c r="B252" s="223"/>
+      <c r="C252" s="223"/>
+      <c r="D252" s="223"/>
       <c r="E252" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F252" s="282"/>
-      <c r="G252" s="249"/>
-      <c r="H252" s="283"/>
-      <c r="I252" s="282">
+      <c r="F252" s="281"/>
+      <c r="G252" s="248"/>
+      <c r="H252" s="282"/>
+      <c r="I252" s="281">
         <v>0</v>
       </c>
       <c r="J252" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K252" s="313"/>
-      <c r="L252" s="313"/>
-      <c r="M252" s="313"/>
-      <c r="N252" s="314">
+      <c r="K252" s="312"/>
+      <c r="L252" s="312"/>
+      <c r="M252" s="312"/>
+      <c r="N252" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O252" s="315"/>
-      <c r="P252" s="270"/>
+      <c r="O252" s="314"/>
+      <c r="P252" s="269"/>
       <c r="Q252" s="138"/>
-      <c r="R252" s="316"/>
-      <c r="S252" s="317"/>
-      <c r="T252" s="318"/>
-      <c r="U252" s="286"/>
-      <c r="V252" s="290"/>
+      <c r="R252" s="315"/>
+      <c r="S252" s="316"/>
+      <c r="T252" s="317"/>
+      <c r="U252" s="285"/>
+      <c r="V252" s="289"/>
     </row>
     <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="312"/>
-      <c r="B253" s="224"/>
-      <c r="C253" s="224"/>
-      <c r="D253" s="224"/>
+      <c r="A253" s="311"/>
+      <c r="B253" s="223"/>
+      <c r="C253" s="223"/>
+      <c r="D253" s="223"/>
       <c r="E253" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F253" s="282"/>
-      <c r="G253" s="249"/>
-      <c r="H253" s="319"/>
-      <c r="I253" s="282">
+      <c r="F253" s="281"/>
+      <c r="G253" s="248"/>
+      <c r="H253" s="318"/>
+      <c r="I253" s="281">
         <v>0</v>
       </c>
       <c r="J253" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K253" s="313"/>
-      <c r="L253" s="313"/>
-      <c r="M253" s="313"/>
-      <c r="N253" s="314">
+      <c r="K253" s="312"/>
+      <c r="L253" s="312"/>
+      <c r="M253" s="312"/>
+      <c r="N253" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O253" s="315"/>
-      <c r="P253" s="270"/>
+      <c r="O253" s="314"/>
+      <c r="P253" s="269"/>
       <c r="Q253" s="138"/>
-      <c r="R253" s="316"/>
-      <c r="S253" s="317"/>
-      <c r="T253" s="318"/>
-      <c r="U253" s="286"/>
-      <c r="V253" s="290"/>
+      <c r="R253" s="315"/>
+      <c r="S253" s="316"/>
+      <c r="T253" s="317"/>
+      <c r="U253" s="285"/>
+      <c r="V253" s="289"/>
     </row>
     <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="320"/>
-      <c r="B254" s="224"/>
-      <c r="C254" s="224"/>
-      <c r="D254" s="224"/>
+      <c r="A254" s="319"/>
+      <c r="B254" s="223"/>
+      <c r="C254" s="223"/>
+      <c r="D254" s="223"/>
       <c r="E254" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F254" s="282"/>
-      <c r="G254" s="249"/>
-      <c r="H254" s="321"/>
-      <c r="I254" s="282">
+      <c r="F254" s="281"/>
+      <c r="G254" s="248"/>
+      <c r="H254" s="320"/>
+      <c r="I254" s="281">
         <v>0</v>
       </c>
       <c r="J254" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K254" s="313"/>
-      <c r="L254" s="313"/>
-      <c r="M254" s="313"/>
-      <c r="N254" s="314">
+      <c r="K254" s="312"/>
+      <c r="L254" s="312"/>
+      <c r="M254" s="312"/>
+      <c r="N254" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O254" s="315"/>
-      <c r="P254" s="270"/>
+      <c r="O254" s="314"/>
+      <c r="P254" s="269"/>
       <c r="Q254" s="138"/>
-      <c r="R254" s="316"/>
-      <c r="S254" s="317"/>
-      <c r="T254" s="318"/>
+      <c r="R254" s="315"/>
+      <c r="S254" s="316"/>
+      <c r="T254" s="317"/>
       <c r="U254" s="55"/>
       <c r="V254" s="56"/>
     </row>
     <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="322"/>
-      <c r="B255" s="323"/>
+      <c r="A255" s="321"/>
+      <c r="B255" s="322"/>
       <c r="E255" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H255" s="327"/>
-      <c r="I255" s="325">
+      <c r="H255" s="326"/>
+      <c r="I255" s="324">
         <v>0</v>
       </c>
       <c r="J255" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K255" s="328"/>
-      <c r="L255" s="328"/>
-      <c r="M255" s="328"/>
-      <c r="N255" s="314">
+      <c r="K255" s="327"/>
+      <c r="L255" s="327"/>
+      <c r="M255" s="327"/>
+      <c r="N255" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O255" s="315"/>
-      <c r="P255" s="270"/>
-      <c r="Q255" s="285"/>
-      <c r="R255" s="316"/>
-      <c r="S255" s="317"/>
-      <c r="T255" s="318"/>
+      <c r="O255" s="314"/>
+      <c r="P255" s="269"/>
+      <c r="Q255" s="284"/>
+      <c r="R255" s="315"/>
+      <c r="S255" s="316"/>
+      <c r="T255" s="317"/>
       <c r="U255" s="55"/>
       <c r="V255" s="56"/>
     </row>
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="322"/>
-      <c r="B256" s="323"/>
+      <c r="A256" s="321"/>
+      <c r="B256" s="322"/>
       <c r="E256" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I256" s="325">
+      <c r="I256" s="324">
         <v>0</v>
       </c>
       <c r="J256" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K256" s="328"/>
-      <c r="L256" s="328"/>
-      <c r="M256" s="328"/>
-      <c r="N256" s="314">
+      <c r="K256" s="327"/>
+      <c r="L256" s="327"/>
+      <c r="M256" s="327"/>
+      <c r="N256" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O256" s="315"/>
-      <c r="P256" s="270"/>
-      <c r="Q256" s="285"/>
-      <c r="R256" s="316"/>
-      <c r="S256" s="317"/>
-      <c r="T256" s="318"/>
+      <c r="O256" s="314"/>
+      <c r="P256" s="269"/>
+      <c r="Q256" s="284"/>
+      <c r="R256" s="315"/>
+      <c r="S256" s="316"/>
+      <c r="T256" s="317"/>
       <c r="U256" s="55"/>
       <c r="V256" s="56"/>
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="322"/>
-      <c r="B257" s="323"/>
+      <c r="A257" s="321"/>
+      <c r="B257" s="322"/>
       <c r="E257" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I257" s="330">
+      <c r="I257" s="329">
         <v>0</v>
       </c>
       <c r="J257" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K257" s="328"/>
-      <c r="L257" s="328"/>
-      <c r="M257" s="328"/>
-      <c r="N257" s="314">
+      <c r="K257" s="327"/>
+      <c r="L257" s="327"/>
+      <c r="M257" s="327"/>
+      <c r="N257" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O257" s="315"/>
-      <c r="P257" s="270"/>
-      <c r="Q257" s="285"/>
-      <c r="R257" s="316"/>
-      <c r="S257" s="317"/>
-      <c r="T257" s="318"/>
+      <c r="O257" s="314"/>
+      <c r="P257" s="269"/>
+      <c r="Q257" s="284"/>
+      <c r="R257" s="315"/>
+      <c r="S257" s="316"/>
+      <c r="T257" s="317"/>
       <c r="U257" s="55"/>
       <c r="V257" s="56"/>
     </row>
     <row r="258" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="322"/>
-      <c r="B258" s="323"/>
+      <c r="A258" s="321"/>
+      <c r="B258" s="322"/>
       <c r="E258" s="40" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="427" t="s">
+      <c r="F258" s="436" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="427"/>
-      <c r="H258" s="428"/>
-      <c r="I258" s="331">
+      <c r="G258" s="436"/>
+      <c r="H258" s="437"/>
+      <c r="I258" s="330">
         <f>SUM(I4:I257)</f>
-        <v>140944</v>
-      </c>
-      <c r="J258" s="332"/>
-      <c r="K258" s="328"/>
-      <c r="L258" s="333"/>
-      <c r="M258" s="328"/>
-      <c r="N258" s="314">
+        <v>263261.81</v>
+      </c>
+      <c r="J258" s="331"/>
+      <c r="K258" s="327"/>
+      <c r="L258" s="332"/>
+      <c r="M258" s="327"/>
+      <c r="N258" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O258" s="315"/>
-      <c r="P258" s="270"/>
-      <c r="Q258" s="285"/>
-      <c r="R258" s="316"/>
-      <c r="S258" s="334"/>
-      <c r="T258" s="288"/>
-      <c r="U258" s="289"/>
+      <c r="O258" s="314"/>
+      <c r="P258" s="269"/>
+      <c r="Q258" s="284"/>
+      <c r="R258" s="315"/>
+      <c r="S258" s="333"/>
+      <c r="T258" s="287"/>
+      <c r="U258" s="288"/>
       <c r="V258" s="56"/>
     </row>
     <row r="259" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="335"/>
-      <c r="B259" s="323"/>
+      <c r="A259" s="334"/>
+      <c r="B259" s="322"/>
       <c r="E259" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I259" s="336"/>
-      <c r="J259" s="332"/>
-      <c r="K259" s="328"/>
-      <c r="L259" s="333"/>
-      <c r="M259" s="328"/>
-      <c r="N259" s="314">
+      <c r="I259" s="335"/>
+      <c r="J259" s="331"/>
+      <c r="K259" s="327"/>
+      <c r="L259" s="332"/>
+      <c r="M259" s="327"/>
+      <c r="N259" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O259" s="337"/>
+      <c r="O259" s="336"/>
       <c r="Q259" s="10"/>
-      <c r="R259" s="338"/>
-      <c r="S259" s="339"/>
-      <c r="T259" s="340"/>
+      <c r="R259" s="337"/>
+      <c r="S259" s="338"/>
+      <c r="T259" s="339"/>
       <c r="V259" s="15"/>
     </row>
     <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="322"/>
-      <c r="B260" s="323"/>
+      <c r="A260" s="321"/>
+      <c r="B260" s="322"/>
       <c r="E260" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J260" s="325"/>
-      <c r="K260" s="328"/>
-      <c r="L260" s="328"/>
-      <c r="M260" s="328"/>
-      <c r="N260" s="314">
+      <c r="J260" s="324"/>
+      <c r="K260" s="327"/>
+      <c r="L260" s="327"/>
+      <c r="M260" s="327"/>
+      <c r="N260" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O260" s="337"/>
+      <c r="O260" s="336"/>
       <c r="Q260" s="10"/>
-      <c r="R260" s="338"/>
-      <c r="S260" s="339"/>
-      <c r="T260" s="340"/>
+      <c r="R260" s="337"/>
+      <c r="S260" s="338"/>
+      <c r="T260" s="339"/>
       <c r="V260" s="15"/>
     </row>
     <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="322"/>
-      <c r="B261" s="323"/>
+      <c r="A261" s="321"/>
+      <c r="B261" s="322"/>
       <c r="E261" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J261" s="325"/>
-      <c r="K261" s="342"/>
-      <c r="N261" s="314">
+      <c r="J261" s="324"/>
+      <c r="K261" s="341"/>
+      <c r="N261" s="313">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O261" s="343"/>
+      <c r="O261" s="342"/>
       <c r="Q261" s="10"/>
-      <c r="R261" s="338"/>
-      <c r="S261" s="339"/>
-      <c r="T261" s="344"/>
+      <c r="R261" s="337"/>
+      <c r="S261" s="338"/>
+      <c r="T261" s="343"/>
       <c r="V261" s="15"/>
     </row>
     <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="322"/>
-      <c r="H262" s="346"/>
-      <c r="I262" s="347" t="s">
+      <c r="A262" s="321"/>
+      <c r="H262" s="345"/>
+      <c r="I262" s="346" t="s">
         <v>28</v>
       </c>
-      <c r="J262" s="348"/>
-      <c r="K262" s="348"/>
-      <c r="L262" s="349">
+      <c r="J262" s="347"/>
+      <c r="K262" s="347"/>
+      <c r="L262" s="348">
         <f>SUM(L250:L261)</f>
         <v>0</v>
       </c>
-      <c r="M262" s="350"/>
-      <c r="N262" s="351">
+      <c r="M262" s="349"/>
+      <c r="N262" s="350">
         <f>SUM(N4:N261)</f>
-        <v>5380246.5</v>
-      </c>
-      <c r="O262" s="352"/>
-      <c r="Q262" s="353">
+        <v>9775092.1679999996</v>
+      </c>
+      <c r="O262" s="351"/>
+      <c r="Q262" s="352">
         <f>SUM(Q4:Q261)</f>
         <v>75220</v>
       </c>
       <c r="R262" s="8"/>
-      <c r="S262" s="354">
+      <c r="S262" s="353">
         <f>SUM(S17:S261)</f>
         <v>0</v>
       </c>
-      <c r="T262" s="355"/>
-      <c r="U262" s="356"/>
-      <c r="V262" s="357">
+      <c r="T262" s="354"/>
+      <c r="U262" s="355"/>
+      <c r="V262" s="356">
         <f>SUM(V250:V261)</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A263" s="322"/>
-      <c r="H263" s="346"/>
-      <c r="I263" s="358"/>
-      <c r="J263" s="359"/>
-      <c r="K263" s="360"/>
-      <c r="L263" s="360"/>
-      <c r="M263" s="360"/>
-      <c r="N263" s="314"/>
-      <c r="O263" s="352"/>
-      <c r="R263" s="338"/>
-      <c r="S263" s="361"/>
-      <c r="U263" s="363"/>
+      <c r="A263" s="321"/>
+      <c r="H263" s="345"/>
+      <c r="I263" s="357"/>
+      <c r="J263" s="358"/>
+      <c r="K263" s="359"/>
+      <c r="L263" s="359"/>
+      <c r="M263" s="359"/>
+      <c r="N263" s="313"/>
+      <c r="O263" s="351"/>
+      <c r="R263" s="337"/>
+      <c r="S263" s="360"/>
+      <c r="U263" s="362"/>
       <c r="V263"/>
     </row>
     <row r="264" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="322"/>
-      <c r="H264" s="346"/>
-      <c r="I264" s="358"/>
-      <c r="J264" s="359"/>
-      <c r="K264" s="360"/>
-      <c r="L264" s="360"/>
-      <c r="M264" s="360"/>
-      <c r="N264" s="314"/>
-      <c r="O264" s="352"/>
-      <c r="R264" s="338"/>
-      <c r="S264" s="361"/>
-      <c r="U264" s="363"/>
+      <c r="A264" s="321"/>
+      <c r="H264" s="345"/>
+      <c r="I264" s="357"/>
+      <c r="J264" s="358"/>
+      <c r="K264" s="359"/>
+      <c r="L264" s="359"/>
+      <c r="M264" s="359"/>
+      <c r="N264" s="313"/>
+      <c r="O264" s="351"/>
+      <c r="R264" s="337"/>
+      <c r="S264" s="360"/>
+      <c r="U264" s="362"/>
       <c r="V264"/>
     </row>
     <row r="265" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="322"/>
-      <c r="I265" s="364" t="s">
+      <c r="A265" s="321"/>
+      <c r="I265" s="363" t="s">
         <v>29</v>
       </c>
-      <c r="J265" s="365"/>
-      <c r="K265" s="365"/>
-      <c r="L265" s="366"/>
-      <c r="M265" s="366"/>
-      <c r="N265" s="367">
+      <c r="J265" s="364"/>
+      <c r="K265" s="364"/>
+      <c r="L265" s="365"/>
+      <c r="M265" s="365"/>
+      <c r="N265" s="366">
         <f>V262+S262+Q262+N262+L262</f>
-        <v>5455466.5</v>
-      </c>
-      <c r="O265" s="368"/>
-      <c r="R265" s="338"/>
-      <c r="S265" s="361"/>
-      <c r="U265" s="363"/>
+        <v>9850312.1679999996</v>
+      </c>
+      <c r="O265" s="367"/>
+      <c r="R265" s="337"/>
+      <c r="S265" s="360"/>
+      <c r="U265" s="362"/>
       <c r="V265"/>
     </row>
     <row r="266" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="369"/>
-      <c r="I266" s="370"/>
-      <c r="J266" s="371"/>
-      <c r="K266" s="371"/>
-      <c r="L266" s="372"/>
-      <c r="M266" s="372"/>
-      <c r="N266" s="373"/>
-      <c r="O266" s="374"/>
-      <c r="R266" s="338"/>
-      <c r="S266" s="361"/>
-      <c r="U266" s="363"/>
+      <c r="A266" s="368"/>
+      <c r="I266" s="369"/>
+      <c r="J266" s="370"/>
+      <c r="K266" s="370"/>
+      <c r="L266" s="371"/>
+      <c r="M266" s="371"/>
+      <c r="N266" s="372"/>
+      <c r="O266" s="373"/>
+      <c r="R266" s="337"/>
+      <c r="S266" s="360"/>
+      <c r="U266" s="362"/>
       <c r="V266"/>
     </row>
     <row r="267" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="369"/>
-      <c r="I267" s="358"/>
-      <c r="J267" s="359"/>
-      <c r="K267" s="360"/>
-      <c r="L267" s="360"/>
-      <c r="M267" s="360"/>
-      <c r="N267" s="314"/>
-      <c r="O267" s="352"/>
-      <c r="R267" s="338"/>
-      <c r="S267" s="361"/>
-      <c r="U267" s="363"/>
+      <c r="A267" s="368"/>
+      <c r="I267" s="357"/>
+      <c r="J267" s="358"/>
+      <c r="K267" s="359"/>
+      <c r="L267" s="359"/>
+      <c r="M267" s="359"/>
+      <c r="N267" s="313"/>
+      <c r="O267" s="351"/>
+      <c r="R267" s="337"/>
+      <c r="S267" s="360"/>
+      <c r="U267" s="362"/>
       <c r="V267"/>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A268" s="322"/>
-      <c r="I268" s="358"/>
-      <c r="J268" s="359"/>
-      <c r="K268" s="360"/>
-      <c r="L268" s="360"/>
-      <c r="M268" s="360"/>
-      <c r="N268" s="314"/>
-      <c r="O268" s="352"/>
-      <c r="R268" s="338"/>
-      <c r="S268" s="361"/>
-      <c r="U268" s="363"/>
+      <c r="A268" s="321"/>
+      <c r="I268" s="357"/>
+      <c r="J268" s="358"/>
+      <c r="K268" s="359"/>
+      <c r="L268" s="359"/>
+      <c r="M268" s="359"/>
+      <c r="N268" s="313"/>
+      <c r="O268" s="351"/>
+      <c r="R268" s="337"/>
+      <c r="S268" s="360"/>
+      <c r="U268" s="362"/>
       <c r="V268"/>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A269" s="322"/>
-      <c r="I269" s="358"/>
-      <c r="J269" s="375"/>
-      <c r="K269" s="360"/>
-      <c r="L269" s="360"/>
-      <c r="M269" s="360"/>
-      <c r="N269" s="314"/>
-      <c r="O269" s="376"/>
-      <c r="R269" s="338"/>
-      <c r="S269" s="361"/>
-      <c r="U269" s="363"/>
+      <c r="A269" s="321"/>
+      <c r="I269" s="357"/>
+      <c r="J269" s="374"/>
+      <c r="K269" s="359"/>
+      <c r="L269" s="359"/>
+      <c r="M269" s="359"/>
+      <c r="N269" s="313"/>
+      <c r="O269" s="375"/>
+      <c r="R269" s="337"/>
+      <c r="S269" s="360"/>
+      <c r="U269" s="362"/>
       <c r="V269"/>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A270" s="369"/>
-      <c r="N270" s="314"/>
-      <c r="O270" s="378"/>
-      <c r="R270" s="338"/>
-      <c r="S270" s="361"/>
-      <c r="U270" s="363"/>
+      <c r="A270" s="368"/>
+      <c r="N270" s="313"/>
+      <c r="O270" s="377"/>
+      <c r="R270" s="337"/>
+      <c r="S270" s="360"/>
+      <c r="U270" s="362"/>
       <c r="V270"/>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="369"/>
-      <c r="O271" s="378"/>
-      <c r="S271" s="361"/>
-      <c r="U271" s="363"/>
+      <c r="A271" s="368"/>
+      <c r="O271" s="377"/>
+      <c r="S271" s="360"/>
+      <c r="U271" s="362"/>
       <c r="V271"/>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="322"/>
-      <c r="B272" s="323"/>
-      <c r="N272" s="314"/>
-      <c r="O272" s="352"/>
-      <c r="S272" s="361"/>
-      <c r="U272" s="363"/>
+      <c r="A272" s="321"/>
+      <c r="B272" s="322"/>
+      <c r="N272" s="313"/>
+      <c r="O272" s="351"/>
+      <c r="S272" s="360"/>
+      <c r="U272" s="362"/>
       <c r="V272"/>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="369"/>
-      <c r="B273" s="323"/>
-      <c r="N273" s="314"/>
-      <c r="O273" s="352"/>
-      <c r="S273" s="361"/>
-      <c r="U273" s="363"/>
+      <c r="A273" s="368"/>
+      <c r="B273" s="322"/>
+      <c r="N273" s="313"/>
+      <c r="O273" s="351"/>
+      <c r="S273" s="360"/>
+      <c r="U273" s="362"/>
       <c r="V273"/>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="322"/>
-      <c r="B274" s="323"/>
-      <c r="I274" s="358"/>
-      <c r="J274" s="359"/>
-      <c r="K274" s="360"/>
-      <c r="L274" s="360"/>
-      <c r="M274" s="360"/>
-      <c r="N274" s="314"/>
-      <c r="O274" s="352"/>
-      <c r="S274" s="361"/>
-      <c r="U274" s="363"/>
+      <c r="A274" s="321"/>
+      <c r="B274" s="322"/>
+      <c r="I274" s="357"/>
+      <c r="J274" s="358"/>
+      <c r="K274" s="359"/>
+      <c r="L274" s="359"/>
+      <c r="M274" s="359"/>
+      <c r="N274" s="313"/>
+      <c r="O274" s="351"/>
+      <c r="S274" s="360"/>
+      <c r="U274" s="362"/>
       <c r="V274"/>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="369"/>
-      <c r="B275" s="323"/>
-      <c r="I275" s="358"/>
-      <c r="J275" s="359"/>
-      <c r="K275" s="360"/>
-      <c r="L275" s="360"/>
-      <c r="M275" s="360"/>
-      <c r="N275" s="314"/>
-      <c r="O275" s="352"/>
-      <c r="S275" s="361"/>
-      <c r="U275" s="363"/>
+      <c r="A275" s="368"/>
+      <c r="B275" s="322"/>
+      <c r="I275" s="357"/>
+      <c r="J275" s="358"/>
+      <c r="K275" s="359"/>
+      <c r="L275" s="359"/>
+      <c r="M275" s="359"/>
+      <c r="N275" s="313"/>
+      <c r="O275" s="351"/>
+      <c r="S275" s="360"/>
+      <c r="U275" s="362"/>
       <c r="V275"/>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A276" s="322"/>
-      <c r="B276" s="323"/>
-      <c r="I276" s="379"/>
-      <c r="J276" s="356"/>
-      <c r="K276" s="356"/>
-      <c r="N276" s="314"/>
-      <c r="O276" s="352"/>
-      <c r="S276" s="361"/>
-      <c r="U276" s="363"/>
+      <c r="A276" s="321"/>
+      <c r="B276" s="322"/>
+      <c r="I276" s="378"/>
+      <c r="J276" s="355"/>
+      <c r="K276" s="355"/>
+      <c r="N276" s="313"/>
+      <c r="O276" s="351"/>
+      <c r="S276" s="360"/>
+      <c r="U276" s="362"/>
       <c r="V276"/>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="369"/>
-      <c r="S277" s="361"/>
-      <c r="U277" s="363"/>
+      <c r="A277" s="368"/>
+      <c r="S277" s="360"/>
+      <c r="U277" s="362"/>
       <c r="V277"/>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="322"/>
-      <c r="S278" s="361"/>
-      <c r="U278" s="363"/>
+      <c r="A278" s="321"/>
+      <c r="S278" s="360"/>
+      <c r="U278" s="362"/>
       <c r="V278"/>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="322"/>
-      <c r="B279" s="380"/>
-      <c r="C279" s="380"/>
-      <c r="D279" s="380"/>
-      <c r="E279" s="381"/>
-      <c r="F279" s="382"/>
-      <c r="G279" s="383"/>
-      <c r="H279" s="384"/>
-      <c r="I279" s="385"/>
+      <c r="A279" s="321"/>
+      <c r="B279" s="379"/>
+      <c r="C279" s="379"/>
+      <c r="D279" s="379"/>
+      <c r="E279" s="380"/>
+      <c r="F279" s="381"/>
+      <c r="G279" s="382"/>
+      <c r="H279" s="383"/>
+      <c r="I279" s="384"/>
       <c r="J279"/>
       <c r="K279"/>
       <c r="L279"/>
       <c r="M279"/>
-      <c r="P279" s="386"/>
-      <c r="Q279" s="361"/>
-      <c r="S279" s="361"/>
-      <c r="U279" s="363"/>
+      <c r="P279" s="385"/>
+      <c r="Q279" s="360"/>
+      <c r="S279" s="360"/>
+      <c r="U279" s="362"/>
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="369"/>
-      <c r="B280" s="380"/>
-      <c r="C280" s="380"/>
-      <c r="D280" s="380"/>
-      <c r="E280" s="381"/>
-      <c r="F280" s="382"/>
-      <c r="G280" s="383"/>
-      <c r="H280" s="384"/>
-      <c r="I280" s="385"/>
+      <c r="A280" s="368"/>
+      <c r="B280" s="379"/>
+      <c r="C280" s="379"/>
+      <c r="D280" s="379"/>
+      <c r="E280" s="380"/>
+      <c r="F280" s="381"/>
+      <c r="G280" s="382"/>
+      <c r="H280" s="383"/>
+      <c r="I280" s="384"/>
       <c r="J280"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
-      <c r="P280" s="386"/>
-      <c r="Q280" s="361"/>
-      <c r="S280" s="361"/>
-      <c r="U280" s="363"/>
+      <c r="P280" s="385"/>
+      <c r="Q280" s="360"/>
+      <c r="S280" s="360"/>
+      <c r="U280" s="362"/>
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="369"/>
-      <c r="B281" s="380"/>
-      <c r="C281" s="380"/>
-      <c r="D281" s="380"/>
-      <c r="E281" s="381"/>
-      <c r="F281" s="382"/>
-      <c r="G281" s="383"/>
-      <c r="H281" s="384"/>
-      <c r="I281" s="385"/>
+      <c r="A281" s="368"/>
+      <c r="B281" s="379"/>
+      <c r="C281" s="379"/>
+      <c r="D281" s="379"/>
+      <c r="E281" s="380"/>
+      <c r="F281" s="381"/>
+      <c r="G281" s="382"/>
+      <c r="H281" s="383"/>
+      <c r="I281" s="384"/>
       <c r="J281"/>
       <c r="K281"/>
       <c r="L281"/>
       <c r="M281"/>
-      <c r="P281" s="386"/>
-      <c r="Q281" s="361"/>
-      <c r="S281" s="361"/>
-      <c r="U281" s="363"/>
+      <c r="P281" s="385"/>
+      <c r="Q281" s="360"/>
+      <c r="S281" s="360"/>
+      <c r="U281" s="362"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="369"/>
-      <c r="B282" s="380"/>
-      <c r="C282" s="380"/>
-      <c r="D282" s="380"/>
-      <c r="E282" s="381"/>
-      <c r="F282" s="382"/>
-      <c r="G282" s="383"/>
-      <c r="H282" s="384"/>
-      <c r="I282" s="385"/>
+      <c r="A282" s="368"/>
+      <c r="B282" s="379"/>
+      <c r="C282" s="379"/>
+      <c r="D282" s="379"/>
+      <c r="E282" s="380"/>
+      <c r="F282" s="381"/>
+      <c r="G282" s="382"/>
+      <c r="H282" s="383"/>
+      <c r="I282" s="384"/>
       <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
-      <c r="P282" s="386"/>
-      <c r="Q282" s="361"/>
-      <c r="S282" s="361"/>
-      <c r="U282" s="363"/>
+      <c r="P282" s="385"/>
+      <c r="Q282" s="360"/>
+      <c r="S282" s="360"/>
+      <c r="U282" s="362"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="387"/>
-      <c r="B283" s="380"/>
-      <c r="C283" s="380"/>
-      <c r="D283" s="380"/>
-      <c r="E283" s="381"/>
-      <c r="F283" s="382"/>
-      <c r="G283" s="383"/>
-      <c r="H283" s="384"/>
-      <c r="I283" s="385"/>
+      <c r="A283" s="386"/>
+      <c r="B283" s="379"/>
+      <c r="C283" s="379"/>
+      <c r="D283" s="379"/>
+      <c r="E283" s="380"/>
+      <c r="F283" s="381"/>
+      <c r="G283" s="382"/>
+      <c r="H283" s="383"/>
+      <c r="I283" s="384"/>
       <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
-      <c r="P283" s="386"/>
-      <c r="Q283" s="361"/>
-      <c r="S283" s="361"/>
-      <c r="U283" s="363"/>
+      <c r="P283" s="385"/>
+      <c r="Q283" s="360"/>
+      <c r="S283" s="360"/>
+      <c r="U283" s="362"/>
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="335"/>
-      <c r="B284" s="380"/>
-      <c r="C284" s="380"/>
-      <c r="D284" s="380"/>
-      <c r="E284" s="381"/>
-      <c r="F284" s="382"/>
-      <c r="G284" s="383"/>
-      <c r="H284" s="384"/>
-      <c r="I284" s="385"/>
+      <c r="A284" s="334"/>
+      <c r="B284" s="379"/>
+      <c r="C284" s="379"/>
+      <c r="D284" s="379"/>
+      <c r="E284" s="380"/>
+      <c r="F284" s="381"/>
+      <c r="G284" s="382"/>
+      <c r="H284" s="383"/>
+      <c r="I284" s="384"/>
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
       <c r="M284"/>
-      <c r="P284" s="386"/>
-      <c r="Q284" s="361"/>
-      <c r="S284" s="361"/>
-      <c r="U284" s="363"/>
+      <c r="P284" s="385"/>
+      <c r="Q284" s="360"/>
+      <c r="S284" s="360"/>
+      <c r="U284" s="362"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="322"/>
-      <c r="B285" s="380"/>
-      <c r="C285" s="380"/>
-      <c r="D285" s="380"/>
-      <c r="E285" s="381"/>
-      <c r="F285" s="382"/>
-      <c r="G285" s="383"/>
-      <c r="H285" s="384"/>
-      <c r="I285" s="385"/>
+      <c r="A285" s="321"/>
+      <c r="B285" s="379"/>
+      <c r="C285" s="379"/>
+      <c r="D285" s="379"/>
+      <c r="E285" s="380"/>
+      <c r="F285" s="381"/>
+      <c r="G285" s="382"/>
+      <c r="H285" s="383"/>
+      <c r="I285" s="384"/>
       <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
-      <c r="P285" s="386"/>
-      <c r="Q285" s="361"/>
-      <c r="S285" s="361"/>
-      <c r="U285" s="363"/>
+      <c r="P285" s="385"/>
+      <c r="Q285" s="360"/>
+      <c r="S285" s="360"/>
+      <c r="U285" s="362"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="322"/>
-      <c r="B286" s="380"/>
-      <c r="C286" s="380"/>
-      <c r="D286" s="380"/>
-      <c r="E286" s="381"/>
-      <c r="F286" s="382"/>
-      <c r="G286" s="383"/>
-      <c r="H286" s="384"/>
-      <c r="I286" s="385"/>
+      <c r="A286" s="321"/>
+      <c r="B286" s="379"/>
+      <c r="C286" s="379"/>
+      <c r="D286" s="379"/>
+      <c r="E286" s="380"/>
+      <c r="F286" s="381"/>
+      <c r="G286" s="382"/>
+      <c r="H286" s="383"/>
+      <c r="I286" s="384"/>
       <c r="J286"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
-      <c r="P286" s="386"/>
-      <c r="Q286" s="361"/>
-      <c r="S286" s="361"/>
-      <c r="U286" s="363"/>
+      <c r="P286" s="385"/>
+      <c r="Q286" s="360"/>
+      <c r="S286" s="360"/>
+      <c r="U286" s="362"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="322"/>
-      <c r="B287" s="380"/>
-      <c r="C287" s="380"/>
-      <c r="D287" s="380"/>
-      <c r="E287" s="381"/>
-      <c r="F287" s="382"/>
-      <c r="G287" s="383"/>
-      <c r="H287" s="384"/>
-      <c r="I287" s="385"/>
+      <c r="A287" s="321"/>
+      <c r="B287" s="379"/>
+      <c r="C287" s="379"/>
+      <c r="D287" s="379"/>
+      <c r="E287" s="380"/>
+      <c r="F287" s="381"/>
+      <c r="G287" s="382"/>
+      <c r="H287" s="383"/>
+      <c r="I287" s="384"/>
       <c r="J287"/>
       <c r="K287"/>
       <c r="L287"/>
       <c r="M287"/>
-      <c r="P287" s="386"/>
-      <c r="Q287" s="361"/>
-      <c r="S287" s="361"/>
-      <c r="U287" s="363"/>
+      <c r="P287" s="385"/>
+      <c r="Q287" s="360"/>
+      <c r="S287" s="360"/>
+      <c r="U287" s="362"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="322"/>
-      <c r="B288" s="380"/>
-      <c r="C288" s="380"/>
-      <c r="D288" s="380"/>
-      <c r="E288" s="381"/>
-      <c r="F288" s="382"/>
-      <c r="G288" s="383"/>
-      <c r="H288" s="384"/>
-      <c r="I288" s="385"/>
+      <c r="A288" s="321"/>
+      <c r="B288" s="379"/>
+      <c r="C288" s="379"/>
+      <c r="D288" s="379"/>
+      <c r="E288" s="380"/>
+      <c r="F288" s="381"/>
+      <c r="G288" s="382"/>
+      <c r="H288" s="383"/>
+      <c r="I288" s="384"/>
       <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
-      <c r="P288" s="386"/>
-      <c r="Q288" s="361"/>
-      <c r="S288" s="361"/>
-      <c r="U288" s="363"/>
+      <c r="P288" s="385"/>
+      <c r="Q288" s="360"/>
+      <c r="S288" s="360"/>
+      <c r="U288" s="362"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="322"/>
-      <c r="B289" s="380"/>
-      <c r="C289" s="380"/>
-      <c r="D289" s="380"/>
-      <c r="E289" s="381"/>
-      <c r="F289" s="382"/>
-      <c r="G289" s="383"/>
-      <c r="H289" s="384"/>
-      <c r="I289" s="385"/>
+      <c r="A289" s="321"/>
+      <c r="B289" s="379"/>
+      <c r="C289" s="379"/>
+      <c r="D289" s="379"/>
+      <c r="E289" s="380"/>
+      <c r="F289" s="381"/>
+      <c r="G289" s="382"/>
+      <c r="H289" s="383"/>
+      <c r="I289" s="384"/>
       <c r="J289"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
-      <c r="P289" s="386"/>
-      <c r="Q289" s="361"/>
-      <c r="S289" s="361"/>
-      <c r="U289" s="363"/>
+      <c r="P289" s="385"/>
+      <c r="Q289" s="360"/>
+      <c r="S289" s="360"/>
+      <c r="U289" s="362"/>
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="322"/>
-      <c r="B290" s="380"/>
-      <c r="C290" s="380"/>
-      <c r="D290" s="380"/>
-      <c r="E290" s="381"/>
-      <c r="F290" s="382"/>
-      <c r="G290" s="383"/>
-      <c r="H290" s="384"/>
-      <c r="I290" s="385"/>
+      <c r="A290" s="321"/>
+      <c r="B290" s="379"/>
+      <c r="C290" s="379"/>
+      <c r="D290" s="379"/>
+      <c r="E290" s="380"/>
+      <c r="F290" s="381"/>
+      <c r="G290" s="382"/>
+      <c r="H290" s="383"/>
+      <c r="I290" s="384"/>
       <c r="J290"/>
       <c r="K290"/>
       <c r="L290"/>
       <c r="M290"/>
-      <c r="P290" s="386"/>
-      <c r="Q290" s="361"/>
-      <c r="S290" s="361"/>
-      <c r="U290" s="363"/>
+      <c r="P290" s="385"/>
+      <c r="Q290" s="360"/>
+      <c r="S290" s="360"/>
+      <c r="U290" s="362"/>
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="322"/>
-      <c r="B291" s="380"/>
-      <c r="C291" s="380"/>
-      <c r="D291" s="380"/>
-      <c r="E291" s="381"/>
-      <c r="F291" s="382"/>
-      <c r="G291" s="383"/>
-      <c r="H291" s="384"/>
-      <c r="I291" s="385"/>
+      <c r="A291" s="321"/>
+      <c r="B291" s="379"/>
+      <c r="C291" s="379"/>
+      <c r="D291" s="379"/>
+      <c r="E291" s="380"/>
+      <c r="F291" s="381"/>
+      <c r="G291" s="382"/>
+      <c r="H291" s="383"/>
+      <c r="I291" s="384"/>
       <c r="J291"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
-      <c r="P291" s="386"/>
-      <c r="Q291" s="361"/>
-      <c r="S291" s="361"/>
-      <c r="U291" s="363"/>
+      <c r="P291" s="385"/>
+      <c r="Q291" s="360"/>
+      <c r="S291" s="360"/>
+      <c r="U291" s="362"/>
       <c r="V291"/>
     </row>
   </sheetData>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Transferencia S</t>
   </si>
   <si>
-    <t>19825--</t>
-  </si>
-  <si>
     <t>19851--</t>
   </si>
   <si>
@@ -230,15 +227,6 @@
     <t>Transferencai B</t>
   </si>
   <si>
-    <t>19795--</t>
-  </si>
-  <si>
-    <t>19812--</t>
-  </si>
-  <si>
-    <t>19818--</t>
-  </si>
-  <si>
     <t>19782--10487--NC-503</t>
   </si>
   <si>
@@ -252,6 +240,63 @@
   </si>
   <si>
     <t>19791--10495</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE   250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANALES  200  </t>
+  </si>
+  <si>
+    <t>CANALES     50</t>
+  </si>
+  <si>
+    <t>CANALES  200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROPECUARIA EL TOPETE  </t>
+  </si>
+  <si>
+    <t>CANALES  199-3</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE  198</t>
+  </si>
+  <si>
+    <t>PORSICOLA SOTO</t>
+  </si>
+  <si>
+    <t>FOLIO 10627</t>
+  </si>
+  <si>
+    <t>A-1022</t>
+  </si>
+  <si>
+    <t>19795--10500-NC-505</t>
+  </si>
+  <si>
+    <t>19795--6654</t>
+  </si>
+  <si>
+    <t>19812--10505</t>
+  </si>
+  <si>
+    <t>19812--10506</t>
+  </si>
+  <si>
+    <t>19818--10518</t>
+  </si>
+  <si>
+    <t>19818--10517</t>
+  </si>
+  <si>
+    <t>19825--10526</t>
+  </si>
+  <si>
+    <t>19833--10530</t>
+  </si>
+  <si>
+    <t>19825--10528</t>
   </si>
 </sst>
 </file>
@@ -2551,18 +2596,111 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2580,99 +2718,6 @@
     </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2965,10 +3010,10 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2997,18 +3042,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="404" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
-      <c r="H1" s="422"/>
-      <c r="I1" s="422"/>
-      <c r="J1" s="422"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
       <c r="K1" s="379"/>
       <c r="L1" s="379"/>
       <c r="M1" s="379"/>
@@ -3022,22 +3067,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="423" t="s">
+      <c r="W1" s="405" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="424"/>
+      <c r="X1" s="406"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="422"/>
-      <c r="B2" s="422"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
-      <c r="I2" s="422"/>
-      <c r="J2" s="422"/>
+      <c r="A2" s="404"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
       <c r="M2" s="381"/>
@@ -3091,10 +3136,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="425" t="s">
+      <c r="O3" s="407" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="426"/>
+      <c r="P3" s="408"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +3178,7 @@
         <v>44564</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="44">
         <v>21980</v>
@@ -3152,9 +3197,9 @@
         <v>824250</v>
       </c>
       <c r="O4" s="396" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="433">
+        <v>66</v>
+      </c>
+      <c r="P4" s="398">
         <v>44578</v>
       </c>
       <c r="Q4" s="49">
@@ -3191,7 +3236,7 @@
         <v>44564</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="64">
         <v>4770</v>
@@ -3209,10 +3254,10 @@
         <f>K5*I5-2500</f>
         <v>176375</v>
       </c>
-      <c r="O5" s="434" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="435">
+      <c r="O5" s="399" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="400">
         <v>44578</v>
       </c>
       <c r="Q5" s="66">
@@ -3248,8 +3293,8 @@
       <c r="G6" s="62">
         <v>44566</v>
       </c>
-      <c r="H6" s="438" t="s">
-        <v>71</v>
+      <c r="H6" s="403" t="s">
+        <v>67</v>
       </c>
       <c r="I6" s="64">
         <f>21870-109.35</f>
@@ -3268,10 +3313,10 @@
         <f t="shared" si="1"/>
         <v>816024.375</v>
       </c>
-      <c r="O6" s="434" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="435">
+      <c r="O6" s="399" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="400">
         <v>44580</v>
       </c>
       <c r="Q6" s="66">
@@ -3308,7 +3353,7 @@
         <v>44566</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="64">
         <v>5415</v>
@@ -3326,10 +3371,10 @@
         <f t="shared" si="1"/>
         <v>203062.5</v>
       </c>
-      <c r="O7" s="434" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="435">
+      <c r="O7" s="399" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="400">
         <v>44580</v>
       </c>
       <c r="Q7" s="66">
@@ -3366,7 +3411,7 @@
         <v>44568</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I8" s="64">
         <f>20760-103.8</f>
@@ -3386,7 +3431,7 @@
         <v>774607.5</v>
       </c>
       <c r="O8" s="90" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P8" s="91">
         <v>44582</v>
@@ -3425,7 +3470,7 @@
         <v>44568</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I9" s="64">
         <v>5595</v>
@@ -3444,7 +3489,7 @@
         <v>209812.5</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="91">
         <v>44582</v>
@@ -3466,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
         <v>40</v>
       </c>
@@ -3483,14 +3528,15 @@
         <v>44570</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I10" s="64">
-        <v>22600</v>
+        <f>22600-113</f>
+        <v>22487</v>
       </c>
       <c r="J10" s="45">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>587</v>
       </c>
       <c r="K10" s="46">
         <v>37.5</v>
@@ -3499,10 +3545,14 @@
       <c r="M10" s="65"/>
       <c r="N10" s="48">
         <f t="shared" si="1"/>
-        <v>847500</v>
-      </c>
-      <c r="O10" s="436"/>
-      <c r="P10" s="437"/>
+        <v>843262.5</v>
+      </c>
+      <c r="O10" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="402">
+        <v>44585</v>
+      </c>
       <c r="Q10" s="66">
         <v>25140</v>
       </c>
@@ -3537,7 +3587,7 @@
         <v>44570</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I11" s="64">
         <v>5535</v>
@@ -3555,8 +3605,12 @@
         <f t="shared" si="1"/>
         <v>207562.5</v>
       </c>
-      <c r="O11" s="436"/>
-      <c r="P11" s="437"/>
+      <c r="O11" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="402">
+        <v>44585</v>
+      </c>
       <c r="Q11" s="66">
         <v>0</v>
       </c>
@@ -3574,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="71" t="s">
         <v>21</v>
       </c>
@@ -3591,7 +3645,7 @@
         <v>44574</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I12" s="64">
         <v>24170</v>
@@ -3609,8 +3663,12 @@
         <f t="shared" si="1"/>
         <v>894290</v>
       </c>
-      <c r="O12" s="436"/>
-      <c r="P12" s="437"/>
+      <c r="O12" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="402">
+        <v>44587</v>
+      </c>
       <c r="Q12" s="66">
         <v>25140</v>
       </c>
@@ -3628,7 +3686,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
         <v>38</v>
       </c>
@@ -3645,7 +3703,7 @@
         <v>44574</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I13" s="64">
         <v>5995</v>
@@ -3663,8 +3721,12 @@
         <f t="shared" si="1"/>
         <v>221815</v>
       </c>
-      <c r="O13" s="436"/>
-      <c r="P13" s="437"/>
+      <c r="O13" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="402">
+        <v>44587</v>
+      </c>
       <c r="Q13" s="66">
         <v>0</v>
       </c>
@@ -3682,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>49</v>
       </c>
@@ -3699,7 +3761,7 @@
         <v>44575</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I14" s="64">
         <v>20605</v>
@@ -3717,8 +3779,12 @@
         <f t="shared" si="1"/>
         <v>762385</v>
       </c>
-      <c r="O14" s="436"/>
-      <c r="P14" s="437"/>
+      <c r="O14" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="402">
+        <v>44589</v>
+      </c>
       <c r="Q14" s="66">
         <v>25040</v>
       </c>
@@ -3736,7 +3802,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>38</v>
       </c>
@@ -3753,7 +3819,7 @@
         <v>44575</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I15" s="64">
         <v>5595</v>
@@ -3771,8 +3837,12 @@
         <f t="shared" si="1"/>
         <v>207015</v>
       </c>
-      <c r="O15" s="436"/>
-      <c r="P15" s="437"/>
+      <c r="O15" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="402">
+        <v>44589</v>
+      </c>
       <c r="Q15" s="66">
         <v>0</v>
       </c>
@@ -3790,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
         <v>51</v>
       </c>
@@ -3807,7 +3877,7 @@
         <v>44577</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I16" s="64">
         <v>22370</v>
@@ -3825,8 +3895,12 @@
         <f t="shared" si="1"/>
         <v>816505</v>
       </c>
-      <c r="O16" s="436"/>
-      <c r="P16" s="437"/>
+      <c r="O16" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="402">
+        <v>44592</v>
+      </c>
       <c r="Q16" s="66">
         <v>25140</v>
       </c>
@@ -3844,7 +3918,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
@@ -3861,7 +3935,7 @@
         <v>44577</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I17" s="64">
         <v>5755</v>
@@ -3879,8 +3953,12 @@
         <f t="shared" si="1"/>
         <v>210057.5</v>
       </c>
-      <c r="O17" s="436"/>
-      <c r="P17" s="437"/>
+      <c r="O17" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="402">
+        <v>44592</v>
+      </c>
       <c r="Q17" s="66">
         <v>0</v>
       </c>
@@ -3898,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
         <v>52</v>
       </c>
@@ -3914,8 +3992,8 @@
       <c r="G18" s="62">
         <v>44578</v>
       </c>
-      <c r="H18" s="63">
-        <v>19833</v>
+      <c r="H18" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="I18" s="64">
         <v>21630</v>
@@ -3933,8 +4011,12 @@
         <f t="shared" si="1"/>
         <v>789495</v>
       </c>
-      <c r="O18" s="436"/>
-      <c r="P18" s="437"/>
+      <c r="O18" s="401" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="402">
+        <v>44592</v>
+      </c>
       <c r="Q18" s="66">
         <v>19940</v>
       </c>
@@ -3969,7 +4051,7 @@
         <v>44581</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="64">
         <v>21970</v>
@@ -3987,8 +4069,8 @@
         <f t="shared" si="1"/>
         <v>790920</v>
       </c>
-      <c r="O19" s="436"/>
-      <c r="P19" s="437"/>
+      <c r="O19" s="401"/>
+      <c r="P19" s="402"/>
       <c r="Q19" s="79">
         <v>24940</v>
       </c>
@@ -4023,7 +4105,7 @@
         <v>44581</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="64">
         <v>5745</v>
@@ -4061,27 +4143,37 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
       <c r="E21" s="40"/>
       <c r="F21" s="61">
-        <v>0</v>
-      </c>
-      <c r="G21" s="62"/>
+        <v>22300</v>
+      </c>
+      <c r="G21" s="62">
+        <v>44582</v>
+      </c>
       <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+      <c r="I21" s="64">
+        <v>22350</v>
+      </c>
       <c r="J21" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="76"/>
+        <v>50</v>
+      </c>
+      <c r="K21" s="76">
+        <v>36</v>
+      </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>804600</v>
       </c>
       <c r="O21" s="90"/>
       <c r="P21" s="91"/>
@@ -4099,25 +4191,37 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>74</v>
+      </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="61">
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <v>44582</v>
+      </c>
       <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
+      <c r="I22" s="64">
+        <v>5420</v>
+      </c>
       <c r="J22" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="76"/>
+        <v>5420</v>
+      </c>
+      <c r="K22" s="76">
+        <v>36</v>
+      </c>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195120</v>
       </c>
       <c r="O22" s="90"/>
       <c r="P22" s="91"/>
@@ -4135,30 +4239,46 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="61">
+        <v>22730</v>
+      </c>
+      <c r="G23" s="62">
+        <v>44584</v>
+      </c>
       <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
+      <c r="I23" s="64">
+        <v>22840</v>
+      </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="76"/>
+        <v>110</v>
+      </c>
+      <c r="K23" s="76">
+        <v>36</v>
+      </c>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>822240</v>
       </c>
       <c r="O23" s="90"/>
       <c r="P23" s="91"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="67"/>
+      <c r="Q23" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R23" s="67">
+        <v>44592</v>
+      </c>
       <c r="S23" s="51"/>
       <c r="T23" s="52"/>
       <c r="U23" s="53"/>
@@ -4171,30 +4291,46 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>44584</v>
+      </c>
       <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="I24" s="64">
+        <v>5430</v>
+      </c>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="76"/>
+        <v>5430</v>
+      </c>
+      <c r="K24" s="76">
+        <v>36</v>
+      </c>
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="84">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="436"/>
+        <v>195480</v>
+      </c>
+      <c r="O24" s="401"/>
       <c r="P24" s="91"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="67"/>
+      <c r="Q24" s="79">
+        <v>0</v>
+      </c>
+      <c r="R24" s="67">
+        <v>44592</v>
+      </c>
       <c r="S24" s="85"/>
       <c r="T24" s="86"/>
       <c r="U24" s="53"/>
@@ -4207,30 +4343,46 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>77</v>
+      </c>
       <c r="C25" s="87"/>
       <c r="D25" s="88"/>
       <c r="E25" s="89"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
+      <c r="F25" s="61">
+        <v>17440</v>
+      </c>
+      <c r="G25" s="62">
+        <v>44586</v>
+      </c>
       <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="I25" s="64">
+        <v>21825</v>
+      </c>
       <c r="J25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="76"/>
+        <v>4385</v>
+      </c>
+      <c r="K25" s="76">
+        <v>36</v>
+      </c>
       <c r="L25" s="65"/>
       <c r="M25" s="65"/>
       <c r="N25" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>785700</v>
       </c>
       <c r="O25" s="90"/>
       <c r="P25" s="91"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="67"/>
+      <c r="Q25" s="79">
+        <v>20140</v>
+      </c>
+      <c r="R25" s="67">
+        <v>44592</v>
+      </c>
       <c r="S25" s="51"/>
       <c r="T25" s="52"/>
       <c r="U25" s="53"/>
@@ -4243,30 +4395,46 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" s="87"/>
       <c r="D26" s="88"/>
       <c r="E26" s="89"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="F26" s="61">
+        <v>18370</v>
+      </c>
+      <c r="G26" s="62">
+        <v>44588</v>
+      </c>
       <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="I26" s="64">
+        <v>22715</v>
+      </c>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="76"/>
+        <v>4345</v>
+      </c>
+      <c r="K26" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>806382.5</v>
       </c>
       <c r="O26" s="90"/>
       <c r="P26" s="91"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="67"/>
+      <c r="Q26" s="79">
+        <v>20140</v>
+      </c>
+      <c r="R26" s="67">
+        <v>44592</v>
+      </c>
       <c r="S26" s="51"/>
       <c r="T26" s="52"/>
       <c r="U26" s="53"/>
@@ -4279,30 +4447,46 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="61">
+        <v>23190</v>
+      </c>
+      <c r="G27" s="62">
+        <v>44589</v>
+      </c>
       <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+      <c r="I27" s="64">
+        <v>23240</v>
+      </c>
       <c r="J27" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="76"/>
+        <v>50</v>
+      </c>
+      <c r="K27" s="76">
+        <v>35</v>
+      </c>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>813400</v>
       </c>
       <c r="O27" s="90"/>
       <c r="P27" s="91"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="67"/>
+      <c r="Q27" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R27" s="67">
+        <v>44592</v>
+      </c>
       <c r="S27" s="92"/>
       <c r="T27" s="93"/>
       <c r="U27" s="53"/>
@@ -4315,30 +4499,46 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="F28" s="61">
+        <v>0</v>
+      </c>
+      <c r="G28" s="62">
+        <v>44589</v>
+      </c>
       <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
+      <c r="I28" s="64">
+        <v>5555</v>
+      </c>
       <c r="J28" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="76"/>
+        <v>5555</v>
+      </c>
+      <c r="K28" s="76">
+        <v>35</v>
+      </c>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>194425</v>
       </c>
       <c r="O28" s="90"/>
       <c r="P28" s="91"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
+      <c r="Q28" s="66">
+        <v>0</v>
+      </c>
+      <c r="R28" s="67">
+        <v>44592</v>
+      </c>
       <c r="S28" s="92"/>
       <c r="T28" s="93"/>
       <c r="U28" s="53"/>
@@ -4351,25 +4551,37 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>75</v>
+      </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="61">
+        <v>21760</v>
+      </c>
+      <c r="G29" s="62">
+        <v>44591</v>
+      </c>
       <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="I29" s="64">
+        <v>21820</v>
+      </c>
       <c r="J29" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="76"/>
+        <v>60</v>
+      </c>
+      <c r="K29" s="76">
+        <v>35</v>
+      </c>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>763700</v>
       </c>
       <c r="O29" s="90"/>
       <c r="P29" s="91"/>
@@ -4387,25 +4599,37 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="61">
+        <v>0</v>
+      </c>
+      <c r="G30" s="62">
+        <v>44591</v>
+      </c>
       <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
+      <c r="I30" s="64">
+        <v>5435</v>
+      </c>
       <c r="J30" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="76"/>
+        <v>5435</v>
+      </c>
+      <c r="K30" s="76">
+        <v>35</v>
+      </c>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="N30" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190225</v>
       </c>
       <c r="O30" s="90"/>
       <c r="P30" s="91"/>
@@ -5346,11 +5570,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="427"/>
+      <c r="A57" s="409"/>
       <c r="B57" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="429"/>
+      <c r="C57" s="411"/>
       <c r="D57" s="168"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5358,7 +5582,7 @@
       </c>
       <c r="F57" s="152"/>
       <c r="G57" s="153"/>
-      <c r="H57" s="415"/>
+      <c r="H57" s="413"/>
       <c r="I57" s="152"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5371,7 +5595,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="400"/>
+      <c r="O57" s="415"/>
       <c r="P57" s="417"/>
       <c r="Q57" s="167"/>
       <c r="R57" s="130"/>
@@ -5381,11 +5605,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="428"/>
+      <c r="A58" s="410"/>
       <c r="B58" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="430"/>
+      <c r="C58" s="412"/>
       <c r="D58" s="168"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5393,7 +5617,7 @@
       </c>
       <c r="F58" s="152"/>
       <c r="G58" s="153"/>
-      <c r="H58" s="416"/>
+      <c r="H58" s="414"/>
       <c r="I58" s="152"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5406,8 +5630,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="431"/>
-      <c r="P58" s="432"/>
+      <c r="O58" s="416"/>
+      <c r="P58" s="418"/>
       <c r="Q58" s="167"/>
       <c r="R58" s="130"/>
       <c r="S58" s="93"/>
@@ -5416,11 +5640,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="162" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="411"/>
+      <c r="A59" s="422"/>
       <c r="B59" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="413"/>
+      <c r="C59" s="424"/>
       <c r="D59" s="166"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5428,7 +5652,7 @@
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>
-      <c r="H59" s="415"/>
+      <c r="H59" s="413"/>
       <c r="I59" s="152"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5453,11 +5677,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="412"/>
+      <c r="A60" s="423"/>
       <c r="B60" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="414"/>
+      <c r="C60" s="425"/>
       <c r="D60" s="171"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5465,7 +5689,7 @@
       </c>
       <c r="F60" s="152"/>
       <c r="G60" s="153"/>
-      <c r="H60" s="416"/>
+      <c r="H60" s="414"/>
       <c r="I60" s="152"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5643,7 +5867,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="400"/>
+      <c r="O64" s="415"/>
       <c r="P64" s="417"/>
       <c r="Q64" s="167"/>
       <c r="R64" s="130"/>
@@ -5678,8 +5902,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="401"/>
-      <c r="P65" s="418"/>
+      <c r="O65" s="426"/>
+      <c r="P65" s="427"/>
       <c r="Q65" s="167"/>
       <c r="R65" s="130"/>
       <c r="S65" s="183"/>
@@ -5741,7 +5965,9 @@
       <c r="V66" s="54"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="185"/>
+      <c r="A67" s="185" t="s">
+        <v>58</v>
+      </c>
       <c r="B67" s="181"/>
       <c r="C67" s="174"/>
       <c r="D67" s="174"/>
@@ -5774,31 +6000,51 @@
       <c r="V67" s="54"/>
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="180"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="186"/>
+      <c r="A68" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="186" t="s">
+        <v>80</v>
+      </c>
       <c r="D68" s="174"/>
       <c r="E68" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F68" s="152"/>
-      <c r="G68" s="153"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="152"/>
+      <c r="F68" s="152">
+        <v>430</v>
+      </c>
+      <c r="G68" s="153">
+        <v>44582</v>
+      </c>
+      <c r="H68" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" s="152">
+        <v>430</v>
+      </c>
       <c r="J68" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K68" s="46"/>
+      <c r="K68" s="46">
+        <v>65</v>
+      </c>
       <c r="L68" s="65"/>
       <c r="M68" s="100"/>
       <c r="N68" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="167"/>
-      <c r="P68" s="184"/>
+        <v>27950</v>
+      </c>
+      <c r="O68" s="167" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" s="184">
+        <v>44585</v>
+      </c>
       <c r="Q68" s="167"/>
       <c r="R68" s="130"/>
       <c r="S68" s="183"/>
@@ -5929,8 +6175,8 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="419"/>
-      <c r="P72" s="408"/>
+      <c r="O72" s="428"/>
+      <c r="P72" s="419"/>
       <c r="Q72" s="170"/>
       <c r="R72" s="130"/>
       <c r="S72" s="183"/>
@@ -5962,8 +6208,8 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="420"/>
-      <c r="P73" s="409"/>
+      <c r="O73" s="429"/>
+      <c r="P73" s="420"/>
       <c r="Q73" s="170"/>
       <c r="R73" s="130"/>
       <c r="S73" s="183"/>
@@ -5995,8 +6241,8 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="420"/>
-      <c r="P74" s="409"/>
+      <c r="O74" s="429"/>
+      <c r="P74" s="420"/>
       <c r="Q74" s="170"/>
       <c r="R74" s="130"/>
       <c r="S74" s="183"/>
@@ -6028,8 +6274,8 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="421"/>
-      <c r="P75" s="410"/>
+      <c r="O75" s="430"/>
+      <c r="P75" s="421"/>
       <c r="Q75" s="170"/>
       <c r="R75" s="130"/>
       <c r="S75" s="183"/>
@@ -6127,8 +6373,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="400"/>
-      <c r="P78" s="406"/>
+      <c r="O78" s="415"/>
+      <c r="P78" s="437"/>
       <c r="Q78" s="167"/>
       <c r="R78" s="130"/>
       <c r="S78" s="183"/>
@@ -6160,8 +6406,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="401"/>
-      <c r="P79" s="407"/>
+      <c r="O79" s="426"/>
+      <c r="P79" s="438"/>
       <c r="Q79" s="167"/>
       <c r="R79" s="130"/>
       <c r="S79" s="183"/>
@@ -6193,8 +6439,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="400"/>
-      <c r="P80" s="406"/>
+      <c r="O80" s="415"/>
+      <c r="P80" s="437"/>
       <c r="Q80" s="167"/>
       <c r="R80" s="159"/>
       <c r="S80" s="183"/>
@@ -6226,8 +6472,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="401"/>
-      <c r="P81" s="407"/>
+      <c r="O81" s="426"/>
+      <c r="P81" s="438"/>
       <c r="Q81" s="167"/>
       <c r="R81" s="159"/>
       <c r="S81" s="183"/>
@@ -6385,8 +6631,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="101"/>
-      <c r="L86" s="398"/>
-      <c r="M86" s="399"/>
+      <c r="L86" s="431"/>
+      <c r="M86" s="432"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6418,8 +6664,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="101"/>
-      <c r="L87" s="398"/>
-      <c r="M87" s="399"/>
+      <c r="L87" s="431"/>
+      <c r="M87" s="432"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6622,8 +6868,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="400"/>
-      <c r="P93" s="402"/>
+      <c r="O93" s="415"/>
+      <c r="P93" s="433"/>
       <c r="Q93" s="167"/>
       <c r="R93" s="130"/>
       <c r="S93" s="183"/>
@@ -6655,8 +6901,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="401"/>
-      <c r="P94" s="403"/>
+      <c r="O94" s="426"/>
+      <c r="P94" s="434"/>
       <c r="Q94" s="167"/>
       <c r="R94" s="130"/>
       <c r="S94" s="183"/>
@@ -12048,14 +12294,14 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="404" t="s">
+      <c r="F258" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="404"/>
-      <c r="H258" s="405"/>
+      <c r="G258" s="435"/>
+      <c r="H258" s="436"/>
       <c r="I258" s="321">
         <f>SUM(I4:I257)</f>
-        <v>263348.66000000003</v>
+        <v>420295.66</v>
       </c>
       <c r="J258" s="322"/>
       <c r="K258" s="318"/>
@@ -12154,12 +12400,12 @@
       <c r="M262" s="340"/>
       <c r="N262" s="341">
         <f>SUM(N4:N261)</f>
-        <v>9784099.0429999996</v>
+        <v>15379084.043</v>
       </c>
       <c r="O262" s="342"/>
       <c r="Q262" s="343">
         <f>SUM(Q4:Q261)</f>
-        <v>220560</v>
+        <v>311120</v>
       </c>
       <c r="R262" s="8"/>
       <c r="S262" s="344">
@@ -12214,7 +12460,7 @@
       <c r="M265" s="356"/>
       <c r="N265" s="357">
         <f>V262+S262+Q262+N262+L262</f>
-        <v>10004659.043</v>
+        <v>15690204.043</v>
       </c>
       <c r="O265" s="358"/>
       <c r="R265" s="328"/>
@@ -12626,6 +12872,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L86:M87"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="O72:O75"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -12634,21 +12895,6 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="L86:M87"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>19825--10528</t>
+  </si>
+  <si>
+    <t>19856--</t>
   </si>
 </sst>
 </file>
@@ -2614,6 +2617,78 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,82 +2716,10 @@
     <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3013,7 +3016,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3042,18 +3045,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="404" t="s">
+      <c r="A1" s="428" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
+      <c r="F1" s="428"/>
+      <c r="G1" s="428"/>
+      <c r="H1" s="428"/>
+      <c r="I1" s="428"/>
+      <c r="J1" s="428"/>
       <c r="K1" s="379"/>
       <c r="L1" s="379"/>
       <c r="M1" s="379"/>
@@ -3067,22 +3070,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="405" t="s">
+      <c r="W1" s="429" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="406"/>
+      <c r="X1" s="430"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="404"/>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
+      <c r="A2" s="428"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="428"/>
+      <c r="G2" s="428"/>
+      <c r="H2" s="428"/>
+      <c r="I2" s="428"/>
+      <c r="J2" s="428"/>
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
       <c r="M2" s="381"/>
@@ -3136,10 +3139,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="407" t="s">
+      <c r="O3" s="431" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="408"/>
+      <c r="P3" s="432"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4158,7 +4161,9 @@
       <c r="G21" s="62">
         <v>44582</v>
       </c>
-      <c r="H21" s="63"/>
+      <c r="H21" s="63" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" s="64">
         <v>22350</v>
       </c>
@@ -4177,8 +4182,12 @@
       </c>
       <c r="O21" s="90"/>
       <c r="P21" s="91"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="67"/>
+      <c r="Q21" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R21" s="67">
+        <v>44582</v>
+      </c>
       <c r="S21" s="51"/>
       <c r="T21" s="52"/>
       <c r="U21" s="53"/>
@@ -4206,7 +4215,9 @@
       <c r="G22" s="62">
         <v>44582</v>
       </c>
-      <c r="H22" s="63"/>
+      <c r="H22" s="63" t="s">
+        <v>91</v>
+      </c>
       <c r="I22" s="64">
         <v>5420</v>
       </c>
@@ -4225,8 +4236,12 @@
       </c>
       <c r="O22" s="90"/>
       <c r="P22" s="91"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="67"/>
+      <c r="Q22" s="79">
+        <v>0</v>
+      </c>
+      <c r="R22" s="67">
+        <v>44582</v>
+      </c>
       <c r="S22" s="51"/>
       <c r="T22" s="52"/>
       <c r="U22" s="53"/>
@@ -5570,11 +5585,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="409"/>
+      <c r="A57" s="433"/>
       <c r="B57" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="411"/>
+      <c r="C57" s="435"/>
       <c r="D57" s="168"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5582,7 +5597,7 @@
       </c>
       <c r="F57" s="152"/>
       <c r="G57" s="153"/>
-      <c r="H57" s="413"/>
+      <c r="H57" s="421"/>
       <c r="I57" s="152"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5595,8 +5610,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="415"/>
-      <c r="P57" s="417"/>
+      <c r="O57" s="406"/>
+      <c r="P57" s="423"/>
       <c r="Q57" s="167"/>
       <c r="R57" s="130"/>
       <c r="S57" s="93"/>
@@ -5605,11 +5620,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="410"/>
+      <c r="A58" s="434"/>
       <c r="B58" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="412"/>
+      <c r="C58" s="436"/>
       <c r="D58" s="168"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5617,7 +5632,7 @@
       </c>
       <c r="F58" s="152"/>
       <c r="G58" s="153"/>
-      <c r="H58" s="414"/>
+      <c r="H58" s="422"/>
       <c r="I58" s="152"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5630,8 +5645,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="416"/>
-      <c r="P58" s="418"/>
+      <c r="O58" s="437"/>
+      <c r="P58" s="438"/>
       <c r="Q58" s="167"/>
       <c r="R58" s="130"/>
       <c r="S58" s="93"/>
@@ -5640,11 +5655,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="162" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="422"/>
+      <c r="A59" s="417"/>
       <c r="B59" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="424"/>
+      <c r="C59" s="419"/>
       <c r="D59" s="166"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5652,7 +5667,7 @@
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>
-      <c r="H59" s="413"/>
+      <c r="H59" s="421"/>
       <c r="I59" s="152"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5677,11 +5692,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="423"/>
+      <c r="A60" s="418"/>
       <c r="B60" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="425"/>
+      <c r="C60" s="420"/>
       <c r="D60" s="171"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5689,7 +5704,7 @@
       </c>
       <c r="F60" s="152"/>
       <c r="G60" s="153"/>
-      <c r="H60" s="414"/>
+      <c r="H60" s="422"/>
       <c r="I60" s="152"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5867,8 +5882,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="415"/>
-      <c r="P64" s="417"/>
+      <c r="O64" s="406"/>
+      <c r="P64" s="423"/>
       <c r="Q64" s="167"/>
       <c r="R64" s="130"/>
       <c r="S64" s="183"/>
@@ -5902,8 +5917,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="426"/>
-      <c r="P65" s="427"/>
+      <c r="O65" s="407"/>
+      <c r="P65" s="424"/>
       <c r="Q65" s="167"/>
       <c r="R65" s="130"/>
       <c r="S65" s="183"/>
@@ -6175,8 +6190,8 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="428"/>
-      <c r="P72" s="419"/>
+      <c r="O72" s="425"/>
+      <c r="P72" s="414"/>
       <c r="Q72" s="170"/>
       <c r="R72" s="130"/>
       <c r="S72" s="183"/>
@@ -6208,8 +6223,8 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="429"/>
-      <c r="P73" s="420"/>
+      <c r="O73" s="426"/>
+      <c r="P73" s="415"/>
       <c r="Q73" s="170"/>
       <c r="R73" s="130"/>
       <c r="S73" s="183"/>
@@ -6241,8 +6256,8 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="429"/>
-      <c r="P74" s="420"/>
+      <c r="O74" s="426"/>
+      <c r="P74" s="415"/>
       <c r="Q74" s="170"/>
       <c r="R74" s="130"/>
       <c r="S74" s="183"/>
@@ -6274,8 +6289,8 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="430"/>
-      <c r="P75" s="421"/>
+      <c r="O75" s="427"/>
+      <c r="P75" s="416"/>
       <c r="Q75" s="170"/>
       <c r="R75" s="130"/>
       <c r="S75" s="183"/>
@@ -6373,8 +6388,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="415"/>
-      <c r="P78" s="437"/>
+      <c r="O78" s="406"/>
+      <c r="P78" s="412"/>
       <c r="Q78" s="167"/>
       <c r="R78" s="130"/>
       <c r="S78" s="183"/>
@@ -6406,8 +6421,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="426"/>
-      <c r="P79" s="438"/>
+      <c r="O79" s="407"/>
+      <c r="P79" s="413"/>
       <c r="Q79" s="167"/>
       <c r="R79" s="130"/>
       <c r="S79" s="183"/>
@@ -6439,8 +6454,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="415"/>
-      <c r="P80" s="437"/>
+      <c r="O80" s="406"/>
+      <c r="P80" s="412"/>
       <c r="Q80" s="167"/>
       <c r="R80" s="159"/>
       <c r="S80" s="183"/>
@@ -6472,8 +6487,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="426"/>
-      <c r="P81" s="438"/>
+      <c r="O81" s="407"/>
+      <c r="P81" s="413"/>
       <c r="Q81" s="167"/>
       <c r="R81" s="159"/>
       <c r="S81" s="183"/>
@@ -6631,8 +6646,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="101"/>
-      <c r="L86" s="431"/>
-      <c r="M86" s="432"/>
+      <c r="L86" s="404"/>
+      <c r="M86" s="405"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6664,8 +6679,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="101"/>
-      <c r="L87" s="431"/>
-      <c r="M87" s="432"/>
+      <c r="L87" s="404"/>
+      <c r="M87" s="405"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6868,8 +6883,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="415"/>
-      <c r="P93" s="433"/>
+      <c r="O93" s="406"/>
+      <c r="P93" s="408"/>
       <c r="Q93" s="167"/>
       <c r="R93" s="130"/>
       <c r="S93" s="183"/>
@@ -6901,8 +6916,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="426"/>
-      <c r="P94" s="434"/>
+      <c r="O94" s="407"/>
+      <c r="P94" s="409"/>
       <c r="Q94" s="167"/>
       <c r="R94" s="130"/>
       <c r="S94" s="183"/>
@@ -12294,11 +12309,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="435" t="s">
+      <c r="F258" s="410" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="435"/>
-      <c r="H258" s="436"/>
+      <c r="G258" s="410"/>
+      <c r="H258" s="411"/>
       <c r="I258" s="321">
         <f>SUM(I4:I257)</f>
         <v>420295.66</v>
@@ -12405,7 +12420,7 @@
       <c r="O262" s="342"/>
       <c r="Q262" s="343">
         <f>SUM(Q4:Q261)</f>
-        <v>311120</v>
+        <v>336260</v>
       </c>
       <c r="R262" s="8"/>
       <c r="S262" s="344">
@@ -12460,7 +12475,7 @@
       <c r="M265" s="356"/>
       <c r="N265" s="357">
         <f>V262+S262+Q262+N262+L262</f>
-        <v>15690204.043</v>
+        <v>15715344.043</v>
       </c>
       <c r="O265" s="358"/>
       <c r="R265" s="328"/>
@@ -12872,6 +12887,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="O72:O75"/>
     <mergeCell ref="L86:M87"/>
     <mergeCell ref="O93:O94"/>
     <mergeCell ref="P93:P94"/>
@@ -12880,21 +12910,6 @@
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="O80:O81"/>
     <mergeCell ref="P80:P81"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>19856--</t>
+  </si>
+  <si>
+    <t>0870 Y.</t>
   </si>
 </sst>
 </file>
@@ -2617,18 +2620,93 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,81 +2723,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3013,10 +3016,10 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3045,18 +3048,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="404" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
       <c r="K1" s="379"/>
       <c r="L1" s="379"/>
       <c r="M1" s="379"/>
@@ -3070,22 +3073,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="429" t="s">
+      <c r="W1" s="405" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="430"/>
+      <c r="X1" s="406"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="428"/>
-      <c r="B2" s="428"/>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="428"/>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="428"/>
-      <c r="I2" s="428"/>
-      <c r="J2" s="428"/>
+      <c r="A2" s="404"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
       <c r="M2" s="381"/>
@@ -3139,10 +3142,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="431" t="s">
+      <c r="O3" s="407" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="432"/>
+      <c r="P3" s="408"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3171,7 +3174,9 @@
       <c r="B4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41">
@@ -3229,7 +3234,9 @@
       <c r="B5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="D5" s="60"/>
       <c r="E5" s="40"/>
       <c r="F5" s="61">
@@ -5585,11 +5592,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="433"/>
+      <c r="A57" s="409"/>
       <c r="B57" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="435"/>
+      <c r="C57" s="411"/>
       <c r="D57" s="168"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5597,7 +5604,7 @@
       </c>
       <c r="F57" s="152"/>
       <c r="G57" s="153"/>
-      <c r="H57" s="421"/>
+      <c r="H57" s="413"/>
       <c r="I57" s="152"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5610,8 +5617,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="406"/>
-      <c r="P57" s="423"/>
+      <c r="O57" s="415"/>
+      <c r="P57" s="417"/>
       <c r="Q57" s="167"/>
       <c r="R57" s="130"/>
       <c r="S57" s="93"/>
@@ -5620,11 +5627,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="434"/>
+      <c r="A58" s="410"/>
       <c r="B58" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="436"/>
+      <c r="C58" s="412"/>
       <c r="D58" s="168"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5632,7 +5639,7 @@
       </c>
       <c r="F58" s="152"/>
       <c r="G58" s="153"/>
-      <c r="H58" s="422"/>
+      <c r="H58" s="414"/>
       <c r="I58" s="152"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5645,8 +5652,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="437"/>
-      <c r="P58" s="438"/>
+      <c r="O58" s="416"/>
+      <c r="P58" s="418"/>
       <c r="Q58" s="167"/>
       <c r="R58" s="130"/>
       <c r="S58" s="93"/>
@@ -5655,11 +5662,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="162" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="417"/>
+      <c r="A59" s="422"/>
       <c r="B59" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="419"/>
+      <c r="C59" s="424"/>
       <c r="D59" s="166"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5667,7 +5674,7 @@
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>
-      <c r="H59" s="421"/>
+      <c r="H59" s="413"/>
       <c r="I59" s="152"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5692,11 +5699,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="418"/>
+      <c r="A60" s="423"/>
       <c r="B60" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="420"/>
+      <c r="C60" s="425"/>
       <c r="D60" s="171"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5704,7 +5711,7 @@
       </c>
       <c r="F60" s="152"/>
       <c r="G60" s="153"/>
-      <c r="H60" s="422"/>
+      <c r="H60" s="414"/>
       <c r="I60" s="152"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5882,8 +5889,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="406"/>
-      <c r="P64" s="423"/>
+      <c r="O64" s="415"/>
+      <c r="P64" s="417"/>
       <c r="Q64" s="167"/>
       <c r="R64" s="130"/>
       <c r="S64" s="183"/>
@@ -5917,8 +5924,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="407"/>
-      <c r="P65" s="424"/>
+      <c r="O65" s="426"/>
+      <c r="P65" s="427"/>
       <c r="Q65" s="167"/>
       <c r="R65" s="130"/>
       <c r="S65" s="183"/>
@@ -6190,8 +6197,8 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="425"/>
-      <c r="P72" s="414"/>
+      <c r="O72" s="428"/>
+      <c r="P72" s="419"/>
       <c r="Q72" s="170"/>
       <c r="R72" s="130"/>
       <c r="S72" s="183"/>
@@ -6223,8 +6230,8 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="426"/>
-      <c r="P73" s="415"/>
+      <c r="O73" s="429"/>
+      <c r="P73" s="420"/>
       <c r="Q73" s="170"/>
       <c r="R73" s="130"/>
       <c r="S73" s="183"/>
@@ -6256,8 +6263,8 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="426"/>
-      <c r="P74" s="415"/>
+      <c r="O74" s="429"/>
+      <c r="P74" s="420"/>
       <c r="Q74" s="170"/>
       <c r="R74" s="130"/>
       <c r="S74" s="183"/>
@@ -6289,8 +6296,8 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="427"/>
-      <c r="P75" s="416"/>
+      <c r="O75" s="430"/>
+      <c r="P75" s="421"/>
       <c r="Q75" s="170"/>
       <c r="R75" s="130"/>
       <c r="S75" s="183"/>
@@ -6388,8 +6395,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="406"/>
-      <c r="P78" s="412"/>
+      <c r="O78" s="415"/>
+      <c r="P78" s="437"/>
       <c r="Q78" s="167"/>
       <c r="R78" s="130"/>
       <c r="S78" s="183"/>
@@ -6421,8 +6428,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="407"/>
-      <c r="P79" s="413"/>
+      <c r="O79" s="426"/>
+      <c r="P79" s="438"/>
       <c r="Q79" s="167"/>
       <c r="R79" s="130"/>
       <c r="S79" s="183"/>
@@ -6454,8 +6461,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="406"/>
-      <c r="P80" s="412"/>
+      <c r="O80" s="415"/>
+      <c r="P80" s="437"/>
       <c r="Q80" s="167"/>
       <c r="R80" s="159"/>
       <c r="S80" s="183"/>
@@ -6487,8 +6494,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="407"/>
-      <c r="P81" s="413"/>
+      <c r="O81" s="426"/>
+      <c r="P81" s="438"/>
       <c r="Q81" s="167"/>
       <c r="R81" s="159"/>
       <c r="S81" s="183"/>
@@ -6646,8 +6653,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="101"/>
-      <c r="L86" s="404"/>
-      <c r="M86" s="405"/>
+      <c r="L86" s="431"/>
+      <c r="M86" s="432"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6679,8 +6686,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="101"/>
-      <c r="L87" s="404"/>
-      <c r="M87" s="405"/>
+      <c r="L87" s="431"/>
+      <c r="M87" s="432"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6883,8 +6890,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="406"/>
-      <c r="P93" s="408"/>
+      <c r="O93" s="415"/>
+      <c r="P93" s="433"/>
       <c r="Q93" s="167"/>
       <c r="R93" s="130"/>
       <c r="S93" s="183"/>
@@ -6916,8 +6923,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="407"/>
-      <c r="P94" s="409"/>
+      <c r="O94" s="426"/>
+      <c r="P94" s="434"/>
       <c r="Q94" s="167"/>
       <c r="R94" s="130"/>
       <c r="S94" s="183"/>
@@ -12309,11 +12316,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="410" t="s">
+      <c r="F258" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="410"/>
-      <c r="H258" s="411"/>
+      <c r="G258" s="435"/>
+      <c r="H258" s="436"/>
       <c r="I258" s="321">
         <f>SUM(I4:I257)</f>
         <v>420295.66</v>
@@ -12887,6 +12894,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L86:M87"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="O72:O75"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -12895,21 +12917,6 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="L86:M87"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>AGROPECUARIA EL TOPETE  247</t>
-  </si>
-  <si>
-    <t>CANALES 49</t>
   </si>
   <si>
     <t>AGROPECUARIA EL TOPETE   250-1</t>
@@ -303,6 +300,18 @@
   </si>
   <si>
     <t>0870 Y.</t>
+  </si>
+  <si>
+    <t>0899 Y</t>
+  </si>
+  <si>
+    <t>CANALES 49-2</t>
+  </si>
+  <si>
+    <t>0911 Y</t>
+  </si>
+  <si>
+    <t>0922 Y</t>
   </si>
 </sst>
 </file>
@@ -3016,10 +3025,10 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3175,7 +3184,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
@@ -3186,7 +3195,7 @@
         <v>44564</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="44">
         <v>21980</v>
@@ -3205,7 +3214,7 @@
         <v>824250</v>
       </c>
       <c r="O4" s="396" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="398">
         <v>44578</v>
@@ -3235,7 +3244,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="40"/>
@@ -3246,7 +3255,7 @@
         <v>44564</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="64">
         <v>4770</v>
@@ -3265,7 +3274,7 @@
         <v>176375</v>
       </c>
       <c r="O5" s="399" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="400">
         <v>44578</v>
@@ -3294,7 +3303,9 @@
       <c r="B6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="60"/>
       <c r="E6" s="40"/>
       <c r="F6" s="61">
@@ -3304,7 +3315,7 @@
         <v>44566</v>
       </c>
       <c r="H6" s="403" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="64">
         <f>21870-109.35</f>
@@ -3324,7 +3335,7 @@
         <v>816024.375</v>
       </c>
       <c r="O6" s="399" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="400">
         <v>44580</v>
@@ -3351,9 +3362,11 @@
         <v>22</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="59"/>
+        <v>93</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="60"/>
       <c r="E7" s="40"/>
       <c r="F7" s="61">
@@ -3363,7 +3376,7 @@
         <v>44566</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="64">
         <v>5415</v>
@@ -3382,7 +3395,7 @@
         <v>203062.5</v>
       </c>
       <c r="O7" s="399" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P7" s="400">
         <v>44580</v>
@@ -3406,12 +3419,14 @@
     </row>
     <row r="8" spans="1:24" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="59" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="60"/>
       <c r="E8" s="40"/>
       <c r="F8" s="61">
@@ -3421,7 +3436,7 @@
         <v>44568</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="64">
         <f>20760-103.8</f>
@@ -3441,7 +3456,7 @@
         <v>774607.5</v>
       </c>
       <c r="O8" s="90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="91">
         <v>44582</v>
@@ -3465,12 +3480,14 @@
     </row>
     <row r="9" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="59" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" s="60"/>
       <c r="E9" s="40"/>
       <c r="F9" s="61">
@@ -3480,7 +3497,7 @@
         <v>44568</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="64">
         <v>5595</v>
@@ -3499,7 +3516,7 @@
         <v>209812.5</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="91">
         <v>44582</v>
@@ -3523,12 +3540,14 @@
     </row>
     <row r="10" spans="1:24" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="59"/>
+        <v>41</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" s="72"/>
       <c r="E10" s="40"/>
       <c r="F10" s="61">
@@ -3538,7 +3557,7 @@
         <v>44570</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="64">
         <f>22600-113</f>
@@ -3558,7 +3577,7 @@
         <v>843262.5</v>
       </c>
       <c r="O10" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="402">
         <v>44585</v>
@@ -3580,14 +3599,16 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="59"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>95</v>
+      </c>
       <c r="D11" s="60"/>
       <c r="E11" s="40"/>
       <c r="F11" s="61">
@@ -3597,7 +3618,7 @@
         <v>44570</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="64">
         <v>5535</v>
@@ -3616,7 +3637,7 @@
         <v>207562.5</v>
       </c>
       <c r="O11" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="402">
         <v>44585</v>
@@ -3643,7 +3664,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="60"/>
@@ -3655,7 +3676,7 @@
         <v>44574</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="64">
         <v>24170</v>
@@ -3674,7 +3695,7 @@
         <v>894290</v>
       </c>
       <c r="O12" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="402">
         <v>44587</v>
@@ -3698,7 +3719,7 @@
     </row>
     <row r="13" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>33</v>
@@ -3713,7 +3734,7 @@
         <v>44574</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="64">
         <v>5995</v>
@@ -3732,7 +3753,7 @@
         <v>221815</v>
       </c>
       <c r="O13" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="402">
         <v>44587</v>
@@ -3756,10 +3777,10 @@
     </row>
     <row r="14" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="58" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>50</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
@@ -3771,7 +3792,7 @@
         <v>44575</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="64">
         <v>20605</v>
@@ -3790,7 +3811,7 @@
         <v>762385</v>
       </c>
       <c r="O14" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="402">
         <v>44589</v>
@@ -3814,10 +3835,10 @@
     </row>
     <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>39</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
@@ -3829,7 +3850,7 @@
         <v>44575</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="64">
         <v>5595</v>
@@ -3848,7 +3869,7 @@
         <v>207015</v>
       </c>
       <c r="O15" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="402">
         <v>44589</v>
@@ -3872,7 +3893,7 @@
     </row>
     <row r="16" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="58" t="s">
         <v>32</v>
@@ -3887,7 +3908,7 @@
         <v>44577</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="64">
         <v>22370</v>
@@ -3906,7 +3927,7 @@
         <v>816505</v>
       </c>
       <c r="O16" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="402">
         <v>44592</v>
@@ -3930,10 +3951,10 @@
     </row>
     <row r="17" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
@@ -3945,7 +3966,7 @@
         <v>44577</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="64">
         <v>5755</v>
@@ -3964,7 +3985,7 @@
         <v>210057.5</v>
       </c>
       <c r="O17" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="402">
         <v>44592</v>
@@ -3988,10 +4009,10 @@
     </row>
     <row r="18" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
@@ -4003,7 +4024,7 @@
         <v>44578</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="64">
         <v>21630</v>
@@ -4022,7 +4043,7 @@
         <v>789495</v>
       </c>
       <c r="O18" s="401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="402">
         <v>44592</v>
@@ -4046,10 +4067,10 @@
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="58" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
@@ -4061,7 +4082,7 @@
         <v>44581</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="64">
         <v>21970</v>
@@ -4100,10 +4121,10 @@
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="58" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
@@ -4115,7 +4136,7 @@
         <v>44581</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="64">
         <v>5745</v>
@@ -4154,10 +4175,10 @@
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>73</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -4169,7 +4190,7 @@
         <v>44582</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="64">
         <v>22350</v>
@@ -4211,7 +4232,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
@@ -4223,7 +4244,7 @@
         <v>44582</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I22" s="64">
         <v>5420</v>
@@ -4262,10 +4283,10 @@
     </row>
     <row r="23" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
@@ -4366,10 +4387,10 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="58" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>77</v>
       </c>
       <c r="C25" s="87"/>
       <c r="D25" s="88"/>
@@ -4418,10 +4439,10 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="87"/>
       <c r="D26" s="88"/>
@@ -4470,10 +4491,10 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
@@ -4522,7 +4543,7 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
@@ -4574,10 +4595,10 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
@@ -4622,7 +4643,7 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="94" t="s">
         <v>33</v>
@@ -5503,13 +5524,13 @@
     </row>
     <row r="55" spans="1:24" s="162" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="149" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="151"/>
       <c r="E55" s="40">
@@ -5542,7 +5563,7 @@
         <v>167804</v>
       </c>
       <c r="O55" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P55" s="163">
         <v>44572</v>
@@ -5768,13 +5789,13 @@
     </row>
     <row r="62" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="177" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="395" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="395" t="s">
+      <c r="C62" s="178" t="s">
         <v>46</v>
-      </c>
-      <c r="C62" s="178" t="s">
-        <v>47</v>
       </c>
       <c r="D62" s="179"/>
       <c r="E62" s="40">
@@ -5788,7 +5809,7 @@
         <v>44565</v>
       </c>
       <c r="H62" s="154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" s="152">
         <v>410</v>
@@ -5807,7 +5828,7 @@
         <v>26650</v>
       </c>
       <c r="O62" s="167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P62" s="163">
         <v>44572</v>
@@ -5821,13 +5842,13 @@
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="397" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="386" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="386" t="s">
+      <c r="C63" s="182" t="s">
         <v>56</v>
-      </c>
-      <c r="C63" s="182" t="s">
-        <v>57</v>
       </c>
       <c r="D63" s="384"/>
       <c r="E63" s="40"/>
@@ -5865,7 +5886,7 @@
     </row>
     <row r="64" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="180" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="181"/>
       <c r="C64" s="186"/>
@@ -5900,7 +5921,7 @@
     </row>
     <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="180" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="181"/>
       <c r="C65" s="186"/>
@@ -5935,13 +5956,13 @@
     </row>
     <row r="66" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="180" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="181" t="s">
-        <v>46</v>
-      </c>
       <c r="C66" s="186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="174"/>
       <c r="E66" s="60">
@@ -5955,7 +5976,7 @@
         <v>44579</v>
       </c>
       <c r="H66" s="154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I66" s="152">
         <v>300</v>
@@ -5974,7 +5995,7 @@
         <v>19500</v>
       </c>
       <c r="O66" s="167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P66" s="184">
         <v>44579</v>
@@ -5988,7 +6009,7 @@
     </row>
     <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="185" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="181"/>
       <c r="C67" s="174"/>
@@ -6023,13 +6044,13 @@
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="180" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="181" t="s">
-        <v>46</v>
-      </c>
       <c r="C68" s="186" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="174"/>
       <c r="E68" s="60">
@@ -6043,7 +6064,7 @@
         <v>44582</v>
       </c>
       <c r="H68" s="154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I68" s="152">
         <v>430</v>
@@ -6062,7 +6083,7 @@
         <v>27950</v>
       </c>
       <c r="O68" s="167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P68" s="184">
         <v>44585</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>0060 Z</t>
+  </si>
+  <si>
+    <t>0073 Z</t>
+  </si>
+  <si>
+    <t>0085 Z</t>
   </si>
 </sst>
 </file>
@@ -2662,6 +2668,78 @@
     <xf numFmtId="4" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2689,82 +2767,10 @@
     <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3058,10 +3064,10 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3090,18 +3096,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="431" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="407"/>
-      <c r="C1" s="407"/>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
       <c r="K1" s="378"/>
       <c r="L1" s="378"/>
       <c r="M1" s="378"/>
@@ -3115,22 +3121,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="408" t="s">
+      <c r="W1" s="432" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="409"/>
+      <c r="X1" s="433"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="407"/>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
+      <c r="A2" s="431"/>
+      <c r="B2" s="431"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="431"/>
+      <c r="J2" s="431"/>
       <c r="K2" s="380"/>
       <c r="L2" s="380"/>
       <c r="M2" s="380"/>
@@ -3184,10 +3190,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="410" t="s">
+      <c r="O3" s="434" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="411"/>
+      <c r="P3" s="435"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4555,7 +4561,9 @@
       <c r="B27" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="59" t="s">
+        <v>104</v>
+      </c>
       <c r="D27" s="60"/>
       <c r="E27" s="40"/>
       <c r="F27" s="61">
@@ -4607,7 +4615,9 @@
       <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="59" t="s">
+        <v>104</v>
+      </c>
       <c r="D28" s="60"/>
       <c r="E28" s="40"/>
       <c r="F28" s="61">
@@ -4659,7 +4669,9 @@
       <c r="B29" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="59" t="s">
+        <v>105</v>
+      </c>
       <c r="D29" s="60"/>
       <c r="E29" s="40"/>
       <c r="F29" s="61">
@@ -4707,7 +4719,9 @@
       <c r="B30" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="59" t="s">
+        <v>105</v>
+      </c>
       <c r="D30" s="60"/>
       <c r="E30" s="40"/>
       <c r="F30" s="61">
@@ -5672,11 +5686,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="412"/>
+      <c r="A57" s="436"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="414"/>
+      <c r="C57" s="438"/>
       <c r="D57" s="167"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5684,7 +5698,7 @@
       </c>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
-      <c r="H57" s="416"/>
+      <c r="H57" s="424"/>
       <c r="I57" s="151"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5697,8 +5711,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="418"/>
-      <c r="P57" s="420"/>
+      <c r="O57" s="409"/>
+      <c r="P57" s="426"/>
       <c r="Q57" s="166"/>
       <c r="R57" s="129"/>
       <c r="S57" s="92"/>
@@ -5707,11 +5721,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="413"/>
+      <c r="A58" s="437"/>
       <c r="B58" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="415"/>
+      <c r="C58" s="439"/>
       <c r="D58" s="167"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5719,7 +5733,7 @@
       </c>
       <c r="F58" s="151"/>
       <c r="G58" s="152"/>
-      <c r="H58" s="417"/>
+      <c r="H58" s="425"/>
       <c r="I58" s="151"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5732,8 +5746,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="419"/>
-      <c r="P58" s="421"/>
+      <c r="O58" s="440"/>
+      <c r="P58" s="441"/>
       <c r="Q58" s="166"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -5742,11 +5756,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="425"/>
+      <c r="A59" s="420"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="427"/>
+      <c r="C59" s="422"/>
       <c r="D59" s="165"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5754,7 +5768,7 @@
       </c>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="416"/>
+      <c r="H59" s="424"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5779,11 +5793,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="426"/>
+      <c r="A60" s="421"/>
       <c r="B60" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="428"/>
+      <c r="C60" s="423"/>
       <c r="D60" s="170"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5791,7 +5805,7 @@
       </c>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="417"/>
+      <c r="H60" s="425"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5969,8 +5983,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="418"/>
-      <c r="P64" s="420"/>
+      <c r="O64" s="409"/>
+      <c r="P64" s="426"/>
       <c r="Q64" s="166"/>
       <c r="R64" s="129"/>
       <c r="S64" s="182"/>
@@ -6004,8 +6018,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="429"/>
-      <c r="P65" s="430"/>
+      <c r="O65" s="410"/>
+      <c r="P65" s="427"/>
       <c r="Q65" s="166"/>
       <c r="R65" s="129"/>
       <c r="S65" s="182"/>
@@ -6277,8 +6291,8 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="431"/>
-      <c r="P72" s="422"/>
+      <c r="O72" s="428"/>
+      <c r="P72" s="417"/>
       <c r="Q72" s="169"/>
       <c r="R72" s="129"/>
       <c r="S72" s="182"/>
@@ -6310,8 +6324,8 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="432"/>
-      <c r="P73" s="423"/>
+      <c r="O73" s="429"/>
+      <c r="P73" s="418"/>
       <c r="Q73" s="169"/>
       <c r="R73" s="129"/>
       <c r="S73" s="182"/>
@@ -6343,8 +6357,8 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="432"/>
-      <c r="P74" s="423"/>
+      <c r="O74" s="429"/>
+      <c r="P74" s="418"/>
       <c r="Q74" s="169"/>
       <c r="R74" s="129"/>
       <c r="S74" s="182"/>
@@ -6376,8 +6390,8 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="433"/>
-      <c r="P75" s="424"/>
+      <c r="O75" s="430"/>
+      <c r="P75" s="419"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="129"/>
       <c r="S75" s="182"/>
@@ -6475,8 +6489,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="418"/>
-      <c r="P78" s="440"/>
+      <c r="O78" s="409"/>
+      <c r="P78" s="415"/>
       <c r="Q78" s="166"/>
       <c r="R78" s="129"/>
       <c r="S78" s="182"/>
@@ -6508,8 +6522,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="429"/>
-      <c r="P79" s="441"/>
+      <c r="O79" s="410"/>
+      <c r="P79" s="416"/>
       <c r="Q79" s="166"/>
       <c r="R79" s="129"/>
       <c r="S79" s="182"/>
@@ -6541,8 +6555,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="418"/>
-      <c r="P80" s="440"/>
+      <c r="O80" s="409"/>
+      <c r="P80" s="415"/>
       <c r="Q80" s="166"/>
       <c r="R80" s="158"/>
       <c r="S80" s="182"/>
@@ -6574,8 +6588,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="429"/>
-      <c r="P81" s="441"/>
+      <c r="O81" s="410"/>
+      <c r="P81" s="416"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="158"/>
       <c r="S81" s="182"/>
@@ -6733,8 +6747,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="100"/>
-      <c r="L86" s="434"/>
-      <c r="M86" s="435"/>
+      <c r="L86" s="407"/>
+      <c r="M86" s="408"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6766,8 +6780,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="434"/>
-      <c r="M87" s="435"/>
+      <c r="L87" s="407"/>
+      <c r="M87" s="408"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6970,8 +6984,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="418"/>
-      <c r="P93" s="436"/>
+      <c r="O93" s="409"/>
+      <c r="P93" s="411"/>
       <c r="Q93" s="166"/>
       <c r="R93" s="129"/>
       <c r="S93" s="182"/>
@@ -7003,8 +7017,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="429"/>
-      <c r="P94" s="437"/>
+      <c r="O94" s="410"/>
+      <c r="P94" s="412"/>
       <c r="Q94" s="166"/>
       <c r="R94" s="129"/>
       <c r="S94" s="182"/>
@@ -12396,11 +12410,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="438" t="s">
+      <c r="F258" s="413" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="438"/>
-      <c r="H258" s="439"/>
+      <c r="G258" s="413"/>
+      <c r="H258" s="414"/>
       <c r="I258" s="320">
         <f>SUM(I4:I257)</f>
         <v>420295.66</v>
@@ -12974,6 +12988,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="O72:O75"/>
     <mergeCell ref="L86:M87"/>
     <mergeCell ref="O93:O94"/>
     <mergeCell ref="P93:P94"/>
@@ -12982,21 +13011,6 @@
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="O80:O81"/>
     <mergeCell ref="P80:P81"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ENTRADAS OBRADOR ENERO 2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>0085 Z</t>
+  </si>
+  <si>
+    <t>945 Y-10,470 kg--949 Y--11,370 kg--957 Y--990 kg--0010 Z--837.2 kg 259pzas</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1571,12 +1574,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2080,9 +2109,6 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2656,9 +2682,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="19" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2698,15 +2721,6 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,15 +2745,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2772,6 +2777,15 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3064,24 +3078,24 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="313" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="313" customWidth="1"/>
-    <col min="4" max="4" width="11" style="313" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="334" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="314" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="315" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="318" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="314" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="366"/>
+    <col min="2" max="2" width="28.5703125" style="312" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="312" customWidth="1"/>
+    <col min="4" max="4" width="11" style="312" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="333" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="313" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="314" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="317" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="313" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="365"/>
     <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.42578125" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -3089,30 +3103,30 @@
     <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="377" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="351" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="330"/>
-    <col min="22" max="22" width="11.42578125" style="345"/>
+    <col min="19" max="19" width="12.42578125" style="376" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="350" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="329"/>
+    <col min="22" max="22" width="11.42578125" style="344"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="423" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="431"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
-      <c r="O1" s="379"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
+      <c r="H1" s="423"/>
+      <c r="I1" s="423"/>
+      <c r="J1" s="423"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="378"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
       <c r="U1" s="6" t="s">
@@ -3121,27 +3135,27 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="432" t="s">
+      <c r="W1" s="424" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="433"/>
+      <c r="X1" s="425"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="431"/>
-      <c r="B2" s="431"/>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="431"/>
-      <c r="I2" s="431"/>
-      <c r="J2" s="431"/>
-      <c r="K2" s="380"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="380"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="382"/>
+      <c r="A2" s="423"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="380"/>
+      <c r="O2" s="381"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
@@ -3190,10 +3204,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="434" t="s">
+      <c r="O3" s="426" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="435"/>
+      <c r="P3" s="427"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3252,10 +3266,10 @@
         <f t="shared" ref="N4:N153" si="1">K4*I4</f>
         <v>824250</v>
       </c>
-      <c r="O4" s="395" t="s">
+      <c r="O4" s="394" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="397">
+      <c r="P4" s="396">
         <v>44578</v>
       </c>
       <c r="Q4" s="49">
@@ -3312,10 +3326,10 @@
         <f>K5*I5-2500</f>
         <v>176375</v>
       </c>
-      <c r="O5" s="398" t="s">
+      <c r="O5" s="397" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="399">
+      <c r="P5" s="398">
         <v>44578</v>
       </c>
       <c r="Q5" s="66">
@@ -3353,7 +3367,7 @@
       <c r="G6" s="62">
         <v>44566</v>
       </c>
-      <c r="H6" s="402" t="s">
+      <c r="H6" s="401" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="64">
@@ -3373,10 +3387,10 @@
         <f t="shared" si="1"/>
         <v>816024.375</v>
       </c>
-      <c r="O6" s="398" t="s">
+      <c r="O6" s="397" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="399">
+      <c r="P6" s="398">
         <v>44580</v>
       </c>
       <c r="Q6" s="66">
@@ -3433,10 +3447,10 @@
         <f t="shared" si="1"/>
         <v>203062.5</v>
       </c>
-      <c r="O7" s="398" t="s">
+      <c r="O7" s="397" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="399">
+      <c r="P7" s="398">
         <v>44580</v>
       </c>
       <c r="Q7" s="66">
@@ -3615,10 +3629,10 @@
         <f t="shared" si="1"/>
         <v>843262.5</v>
       </c>
-      <c r="O10" s="400" t="s">
+      <c r="O10" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="401">
+      <c r="P10" s="400">
         <v>44585</v>
       </c>
       <c r="Q10" s="66">
@@ -3675,10 +3689,10 @@
         <f t="shared" si="1"/>
         <v>207562.5</v>
       </c>
-      <c r="O11" s="400" t="s">
+      <c r="O11" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="401">
+      <c r="P11" s="400">
         <v>44585</v>
       </c>
       <c r="Q11" s="66">
@@ -3705,10 +3719,12 @@
       <c r="B12" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="403"/>
-      <c r="D12" s="404"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="406">
+      <c r="C12" s="434" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="402"/>
+      <c r="E12" s="403"/>
+      <c r="F12" s="404">
         <v>23670</v>
       </c>
       <c r="G12" s="62">
@@ -3733,10 +3749,10 @@
         <f t="shared" si="1"/>
         <v>894290</v>
       </c>
-      <c r="O12" s="400" t="s">
+      <c r="O12" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="401">
+      <c r="P12" s="400">
         <v>44587</v>
       </c>
       <c r="Q12" s="66">
@@ -3763,10 +3779,10 @@
       <c r="B13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="403"/>
-      <c r="D13" s="404"/>
-      <c r="E13" s="405"/>
-      <c r="F13" s="406">
+      <c r="C13" s="435"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="403"/>
+      <c r="F13" s="404">
         <v>0</v>
       </c>
       <c r="G13" s="62">
@@ -3791,10 +3807,10 @@
         <f t="shared" si="1"/>
         <v>221815</v>
       </c>
-      <c r="O13" s="400" t="s">
+      <c r="O13" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="401">
+      <c r="P13" s="400">
         <v>44587</v>
       </c>
       <c r="Q13" s="66">
@@ -3851,10 +3867,10 @@
         <f t="shared" si="1"/>
         <v>762385</v>
       </c>
-      <c r="O14" s="400" t="s">
+      <c r="O14" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="401">
+      <c r="P14" s="400">
         <v>44589</v>
       </c>
       <c r="Q14" s="66">
@@ -3911,10 +3927,10 @@
         <f t="shared" si="1"/>
         <v>207015</v>
       </c>
-      <c r="O15" s="400" t="s">
+      <c r="O15" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="401">
+      <c r="P15" s="400">
         <v>44589</v>
       </c>
       <c r="Q15" s="66">
@@ -3971,10 +3987,10 @@
         <f t="shared" si="1"/>
         <v>816505</v>
       </c>
-      <c r="O16" s="400" t="s">
+      <c r="O16" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="401">
+      <c r="P16" s="400">
         <v>44592</v>
       </c>
       <c r="Q16" s="66">
@@ -4031,10 +4047,10 @@
         <f t="shared" si="1"/>
         <v>210057.5</v>
       </c>
-      <c r="O17" s="400" t="s">
+      <c r="O17" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="401">
+      <c r="P17" s="400">
         <v>44592</v>
       </c>
       <c r="Q17" s="66">
@@ -4091,10 +4107,10 @@
         <f t="shared" si="1"/>
         <v>789495</v>
       </c>
-      <c r="O18" s="400" t="s">
+      <c r="O18" s="399" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="401">
+      <c r="P18" s="400">
         <v>44592</v>
       </c>
       <c r="Q18" s="66">
@@ -4151,8 +4167,8 @@
         <f t="shared" si="1"/>
         <v>790920</v>
       </c>
-      <c r="O19" s="400"/>
-      <c r="P19" s="401"/>
+      <c r="O19" s="399"/>
+      <c r="P19" s="400"/>
       <c r="Q19" s="79">
         <v>24940</v>
       </c>
@@ -4427,7 +4443,7 @@
         <f t="shared" si="1"/>
         <v>195480</v>
       </c>
-      <c r="O24" s="400"/>
+      <c r="O24" s="399"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="79">
         <v>0</v>
@@ -5686,11 +5702,11 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="436"/>
+      <c r="A57" s="428"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="438"/>
+      <c r="C57" s="430"/>
       <c r="D57" s="167"/>
       <c r="E57" s="40">
         <f t="shared" si="2"/>
@@ -5698,7 +5714,7 @@
       </c>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
-      <c r="H57" s="424"/>
+      <c r="H57" s="419"/>
       <c r="I57" s="151"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -5711,8 +5727,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="409"/>
-      <c r="P57" s="426"/>
+      <c r="O57" s="407"/>
+      <c r="P57" s="421"/>
       <c r="Q57" s="166"/>
       <c r="R57" s="129"/>
       <c r="S57" s="92"/>
@@ -5721,11 +5737,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="437"/>
+      <c r="A58" s="429"/>
       <c r="B58" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="439"/>
+      <c r="C58" s="431"/>
       <c r="D58" s="167"/>
       <c r="E58" s="40">
         <f t="shared" si="2"/>
@@ -5733,7 +5749,7 @@
       </c>
       <c r="F58" s="151"/>
       <c r="G58" s="152"/>
-      <c r="H58" s="425"/>
+      <c r="H58" s="420"/>
       <c r="I58" s="151"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -5746,8 +5762,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="440"/>
-      <c r="P58" s="441"/>
+      <c r="O58" s="432"/>
+      <c r="P58" s="433"/>
       <c r="Q58" s="166"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -5756,11 +5772,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="420"/>
+      <c r="A59" s="415"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="422"/>
+      <c r="C59" s="417"/>
       <c r="D59" s="165"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -5768,7 +5784,7 @@
       </c>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="424"/>
+      <c r="H59" s="419"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -5793,11 +5809,11 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="421"/>
+      <c r="A60" s="416"/>
       <c r="B60" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="423"/>
+      <c r="C60" s="418"/>
       <c r="D60" s="170"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -5805,7 +5821,7 @@
       </c>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="425"/>
+      <c r="H60" s="420"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -5864,7 +5880,7 @@
       <c r="A62" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="394" t="s">
+      <c r="B62" s="393" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="177" t="s">
@@ -5914,24 +5930,24 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="396" t="s">
+      <c r="A63" s="395" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="385" t="s">
+      <c r="B63" s="384" t="s">
         <v>55</v>
       </c>
       <c r="C63" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="383"/>
+      <c r="D63" s="382"/>
       <c r="E63" s="40"/>
-      <c r="F63" s="386">
+      <c r="F63" s="385">
         <v>18647.810000000001</v>
       </c>
       <c r="G63" s="188">
         <v>44567</v>
       </c>
-      <c r="H63" s="384"/>
+      <c r="H63" s="383"/>
       <c r="I63" s="151">
         <v>18647.810000000001</v>
       </c>
@@ -5970,7 +5986,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="391"/>
+      <c r="H64" s="390"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -5983,8 +5999,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="409"/>
-      <c r="P64" s="426"/>
+      <c r="O64" s="407"/>
+      <c r="P64" s="421"/>
       <c r="Q64" s="166"/>
       <c r="R64" s="129"/>
       <c r="S64" s="182"/>
@@ -6005,7 +6021,7 @@
       </c>
       <c r="F65" s="151"/>
       <c r="G65" s="152"/>
-      <c r="H65" s="391"/>
+      <c r="H65" s="390"/>
       <c r="I65" s="151"/>
       <c r="J65" s="45">
         <f t="shared" si="0"/>
@@ -6018,8 +6034,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="410"/>
-      <c r="P65" s="427"/>
+      <c r="O65" s="408"/>
+      <c r="P65" s="422"/>
       <c r="Q65" s="166"/>
       <c r="R65" s="129"/>
       <c r="S65" s="182"/>
@@ -6234,7 +6250,7 @@
       <c r="U70" s="53"/>
       <c r="V70" s="54"/>
     </row>
-    <row r="71" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="179"/>
       <c r="B71" s="180"/>
       <c r="C71" s="185"/>
@@ -6277,8 +6293,8 @@
         <v>0</v>
       </c>
       <c r="F72" s="151"/>
-      <c r="G72" s="392"/>
-      <c r="H72" s="393"/>
+      <c r="G72" s="391"/>
+      <c r="H72" s="392"/>
       <c r="I72" s="151"/>
       <c r="J72" s="45">
         <f>I72-F72</f>
@@ -6291,8 +6307,8 @@
         <f>K72*I72</f>
         <v>0</v>
       </c>
-      <c r="O72" s="428"/>
-      <c r="P72" s="417"/>
+      <c r="O72" s="166"/>
+      <c r="P72" s="436"/>
       <c r="Q72" s="169"/>
       <c r="R72" s="129"/>
       <c r="S72" s="182"/>
@@ -6310,8 +6326,8 @@
         <v>0</v>
       </c>
       <c r="F73" s="151"/>
-      <c r="G73" s="392"/>
-      <c r="H73" s="393"/>
+      <c r="G73" s="391"/>
+      <c r="H73" s="392"/>
       <c r="I73" s="151"/>
       <c r="J73" s="45">
         <f>I73-F73</f>
@@ -6324,8 +6340,8 @@
         <f>K73*I73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="429"/>
-      <c r="P73" s="418"/>
+      <c r="O73" s="166"/>
+      <c r="P73" s="436"/>
       <c r="Q73" s="169"/>
       <c r="R73" s="129"/>
       <c r="S73" s="182"/>
@@ -6343,8 +6359,8 @@
         <v>0</v>
       </c>
       <c r="F74" s="151"/>
-      <c r="G74" s="392"/>
-      <c r="H74" s="393"/>
+      <c r="G74" s="391"/>
+      <c r="H74" s="392"/>
       <c r="I74" s="151"/>
       <c r="J74" s="45">
         <f>I74-F74</f>
@@ -6357,8 +6373,8 @@
         <f>K74*I74</f>
         <v>0</v>
       </c>
-      <c r="O74" s="429"/>
-      <c r="P74" s="418"/>
+      <c r="O74" s="166"/>
+      <c r="P74" s="436"/>
       <c r="Q74" s="169"/>
       <c r="R74" s="129"/>
       <c r="S74" s="182"/>
@@ -6366,7 +6382,7 @@
       <c r="U74" s="53"/>
       <c r="V74" s="54"/>
     </row>
-    <row r="75" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="179"/>
       <c r="B75" s="186"/>
       <c r="C75" s="185"/>
@@ -6376,8 +6392,8 @@
         <v>0</v>
       </c>
       <c r="F75" s="151"/>
-      <c r="G75" s="392"/>
-      <c r="H75" s="393"/>
+      <c r="G75" s="391"/>
+      <c r="H75" s="392"/>
       <c r="I75" s="151"/>
       <c r="J75" s="45">
         <f>I75-F75</f>
@@ -6390,8 +6406,8 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="430"/>
-      <c r="P75" s="419"/>
+      <c r="O75" s="166"/>
+      <c r="P75" s="436"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="129"/>
       <c r="S75" s="182"/>
@@ -6423,9 +6439,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O76" s="174"/>
-      <c r="P76" s="191"/>
-      <c r="Q76" s="166"/>
+      <c r="O76" s="166"/>
+      <c r="P76" s="183"/>
+      <c r="Q76" s="169"/>
       <c r="R76" s="129"/>
       <c r="S76" s="182"/>
       <c r="T76" s="52"/>
@@ -6436,7 +6452,7 @@
       <c r="A77" s="179"/>
       <c r="B77" s="180"/>
       <c r="C77" s="185"/>
-      <c r="D77" s="192"/>
+      <c r="D77" s="191"/>
       <c r="E77" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6469,14 +6485,14 @@
       <c r="A78" s="179"/>
       <c r="B78" s="180"/>
       <c r="C78" s="185"/>
-      <c r="D78" s="192"/>
+      <c r="D78" s="191"/>
       <c r="E78" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="151"/>
       <c r="G78" s="152"/>
-      <c r="H78" s="393"/>
+      <c r="H78" s="392"/>
       <c r="I78" s="151"/>
       <c r="J78" s="45">
         <f t="shared" si="0"/>
@@ -6489,8 +6505,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="409"/>
-      <c r="P78" s="415"/>
+      <c r="O78" s="407"/>
+      <c r="P78" s="413"/>
       <c r="Q78" s="166"/>
       <c r="R78" s="129"/>
       <c r="S78" s="182"/>
@@ -6502,14 +6518,14 @@
       <c r="A79" s="179"/>
       <c r="B79" s="180"/>
       <c r="C79" s="185"/>
-      <c r="D79" s="192"/>
+      <c r="D79" s="191"/>
       <c r="E79" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="151"/>
       <c r="G79" s="152"/>
-      <c r="H79" s="393"/>
+      <c r="H79" s="392"/>
       <c r="I79" s="151"/>
       <c r="J79" s="45">
         <f t="shared" si="0"/>
@@ -6522,8 +6538,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="410"/>
-      <c r="P79" s="416"/>
+      <c r="O79" s="408"/>
+      <c r="P79" s="414"/>
       <c r="Q79" s="166"/>
       <c r="R79" s="129"/>
       <c r="S79" s="182"/>
@@ -6535,14 +6551,14 @@
       <c r="A80" s="179"/>
       <c r="B80" s="180"/>
       <c r="C80" s="185"/>
-      <c r="D80" s="193"/>
+      <c r="D80" s="192"/>
       <c r="E80" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="151"/>
       <c r="G80" s="152"/>
-      <c r="H80" s="393"/>
+      <c r="H80" s="392"/>
       <c r="I80" s="151"/>
       <c r="J80" s="45">
         <f t="shared" si="0"/>
@@ -6555,8 +6571,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="409"/>
-      <c r="P80" s="415"/>
+      <c r="O80" s="407"/>
+      <c r="P80" s="413"/>
       <c r="Q80" s="166"/>
       <c r="R80" s="158"/>
       <c r="S80" s="182"/>
@@ -6568,14 +6584,14 @@
       <c r="A81" s="179"/>
       <c r="B81" s="180"/>
       <c r="C81" s="185"/>
-      <c r="D81" s="193"/>
+      <c r="D81" s="192"/>
       <c r="E81" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F81" s="151"/>
       <c r="G81" s="152"/>
-      <c r="H81" s="393"/>
+      <c r="H81" s="392"/>
       <c r="I81" s="151"/>
       <c r="J81" s="45">
         <f t="shared" si="0"/>
@@ -6588,8 +6604,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="410"/>
-      <c r="P81" s="416"/>
+      <c r="O81" s="408"/>
+      <c r="P81" s="414"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="158"/>
       <c r="S81" s="182"/>
@@ -6600,8 +6616,8 @@
     <row r="82" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="71"/>
       <c r="B82" s="180"/>
-      <c r="C82" s="194"/>
-      <c r="D82" s="195"/>
+      <c r="C82" s="193"/>
+      <c r="D82" s="194"/>
       <c r="E82" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6633,8 +6649,8 @@
     <row r="83" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="71"/>
       <c r="B83" s="180"/>
-      <c r="C83" s="196"/>
-      <c r="D83" s="195"/>
+      <c r="C83" s="195"/>
+      <c r="D83" s="194"/>
       <c r="E83" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6655,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="166"/>
-      <c r="P83" s="197"/>
+      <c r="P83" s="196"/>
       <c r="Q83" s="166"/>
       <c r="R83" s="158"/>
       <c r="S83" s="182"/>
@@ -6666,8 +6682,8 @@
     <row r="84" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="71"/>
       <c r="B84" s="180"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="198"/>
+      <c r="C84" s="194"/>
+      <c r="D84" s="197"/>
       <c r="E84" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6688,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="166"/>
-      <c r="P84" s="197"/>
+      <c r="P84" s="196"/>
       <c r="Q84" s="166"/>
       <c r="R84" s="158"/>
       <c r="S84" s="182"/>
@@ -6697,17 +6713,17 @@
       <c r="V84" s="160"/>
     </row>
     <row r="85" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="199"/>
+      <c r="A85" s="198"/>
       <c r="B85" s="127"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="200"/>
+      <c r="C85" s="191"/>
+      <c r="D85" s="199"/>
       <c r="E85" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F85" s="64"/>
       <c r="G85" s="117"/>
-      <c r="H85" s="201"/>
+      <c r="H85" s="200"/>
       <c r="I85" s="64"/>
       <c r="J85" s="45">
         <f t="shared" si="0"/>
@@ -6721,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="166"/>
-      <c r="P85" s="197"/>
+      <c r="P85" s="196"/>
       <c r="Q85" s="166"/>
       <c r="R85" s="129"/>
       <c r="S85" s="182"/>
@@ -6730,31 +6746,31 @@
       <c r="V85" s="54"/>
     </row>
     <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="199"/>
+      <c r="A86" s="198"/>
       <c r="B86" s="127"/>
-      <c r="C86" s="202"/>
-      <c r="D86" s="200"/>
+      <c r="C86" s="201"/>
+      <c r="D86" s="199"/>
       <c r="E86" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86" s="64"/>
       <c r="G86" s="117"/>
-      <c r="H86" s="201"/>
+      <c r="H86" s="200"/>
       <c r="I86" s="64"/>
       <c r="J86" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K86" s="100"/>
-      <c r="L86" s="407"/>
-      <c r="M86" s="408"/>
+      <c r="L86" s="405"/>
+      <c r="M86" s="406"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O86" s="166"/>
-      <c r="P86" s="197"/>
+      <c r="P86" s="196"/>
       <c r="Q86" s="166"/>
       <c r="R86" s="129"/>
       <c r="S86" s="182"/>
@@ -6763,31 +6779,31 @@
       <c r="V86" s="54"/>
     </row>
     <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="199"/>
+      <c r="A87" s="198"/>
       <c r="B87" s="127"/>
-      <c r="C87" s="203"/>
-      <c r="D87" s="200"/>
+      <c r="C87" s="202"/>
+      <c r="D87" s="199"/>
       <c r="E87" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F87" s="64"/>
       <c r="G87" s="117"/>
-      <c r="H87" s="201"/>
+      <c r="H87" s="200"/>
       <c r="I87" s="64"/>
       <c r="J87" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="407"/>
-      <c r="M87" s="408"/>
+      <c r="L87" s="405"/>
+      <c r="M87" s="406"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O87" s="166"/>
-      <c r="P87" s="197"/>
+      <c r="P87" s="196"/>
       <c r="Q87" s="166"/>
       <c r="R87" s="129"/>
       <c r="S87" s="182"/>
@@ -6796,31 +6812,31 @@
       <c r="V87" s="54"/>
     </row>
     <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="204"/>
+      <c r="A88" s="203"/>
       <c r="B88" s="127"/>
-      <c r="C88" s="205"/>
-      <c r="D88" s="200"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="199"/>
       <c r="E88" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="64"/>
       <c r="G88" s="117"/>
-      <c r="H88" s="201"/>
+      <c r="H88" s="200"/>
       <c r="I88" s="64"/>
       <c r="J88" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="206"/>
-      <c r="M88" s="206"/>
+      <c r="L88" s="205"/>
+      <c r="M88" s="205"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O88" s="166"/>
-      <c r="P88" s="197"/>
+      <c r="P88" s="196"/>
       <c r="Q88" s="166"/>
       <c r="R88" s="129"/>
       <c r="S88" s="182"/>
@@ -6829,31 +6845,31 @@
       <c r="V88" s="54"/>
     </row>
     <row r="89" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="207"/>
+      <c r="A89" s="206"/>
       <c r="B89" s="127"/>
-      <c r="C89" s="208"/>
-      <c r="D89" s="200"/>
+      <c r="C89" s="207"/>
+      <c r="D89" s="199"/>
       <c r="E89" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F89" s="64"/>
       <c r="G89" s="117"/>
-      <c r="H89" s="201"/>
+      <c r="H89" s="200"/>
       <c r="I89" s="64"/>
       <c r="J89" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K89" s="100"/>
-      <c r="L89" s="206"/>
-      <c r="M89" s="206"/>
+      <c r="L89" s="205"/>
+      <c r="M89" s="205"/>
       <c r="N89" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O89" s="166"/>
-      <c r="P89" s="197"/>
+      <c r="P89" s="196"/>
       <c r="Q89" s="166"/>
       <c r="R89" s="129"/>
       <c r="S89" s="182"/>
@@ -6862,17 +6878,17 @@
       <c r="V89" s="54"/>
     </row>
     <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="209"/>
+      <c r="A90" s="208"/>
       <c r="B90" s="127"/>
-      <c r="C90" s="200"/>
-      <c r="D90" s="200"/>
+      <c r="C90" s="199"/>
+      <c r="D90" s="199"/>
       <c r="E90" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="64"/>
       <c r="G90" s="117"/>
-      <c r="H90" s="201"/>
+      <c r="H90" s="200"/>
       <c r="I90" s="64"/>
       <c r="J90" s="45">
         <f t="shared" si="0"/>
@@ -6886,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="166"/>
-      <c r="P90" s="197"/>
+      <c r="P90" s="196"/>
       <c r="Q90" s="166"/>
       <c r="R90" s="129"/>
       <c r="S90" s="182"/>
@@ -6895,17 +6911,17 @@
       <c r="V90" s="54"/>
     </row>
     <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="209"/>
+      <c r="A91" s="208"/>
       <c r="B91" s="127"/>
-      <c r="C91" s="200"/>
-      <c r="D91" s="200"/>
+      <c r="C91" s="199"/>
+      <c r="D91" s="199"/>
       <c r="E91" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F91" s="64"/>
       <c r="G91" s="117"/>
-      <c r="H91" s="201"/>
+      <c r="H91" s="200"/>
       <c r="I91" s="64"/>
       <c r="J91" s="45">
         <f t="shared" si="0"/>
@@ -6919,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="166"/>
-      <c r="P91" s="197"/>
+      <c r="P91" s="196"/>
       <c r="Q91" s="166"/>
       <c r="R91" s="129"/>
       <c r="S91" s="182"/>
@@ -6928,17 +6944,17 @@
       <c r="V91" s="54"/>
     </row>
     <row r="92" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="209"/>
+      <c r="A92" s="208"/>
       <c r="B92" s="127"/>
-      <c r="C92" s="200"/>
-      <c r="D92" s="200"/>
+      <c r="C92" s="199"/>
+      <c r="D92" s="199"/>
       <c r="E92" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="64"/>
       <c r="G92" s="117"/>
-      <c r="H92" s="201"/>
+      <c r="H92" s="200"/>
       <c r="I92" s="64"/>
       <c r="J92" s="45">
         <f t="shared" si="0"/>
@@ -6952,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="166"/>
-      <c r="P92" s="197"/>
+      <c r="P92" s="196"/>
       <c r="Q92" s="166"/>
       <c r="R92" s="129"/>
       <c r="S92" s="182"/>
@@ -6961,17 +6977,17 @@
       <c r="V92" s="54"/>
     </row>
     <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="199"/>
+      <c r="A93" s="198"/>
       <c r="B93" s="127"/>
-      <c r="C93" s="192"/>
-      <c r="D93" s="200"/>
+      <c r="C93" s="191"/>
+      <c r="D93" s="199"/>
       <c r="E93" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="64"/>
       <c r="G93" s="117"/>
-      <c r="H93" s="201"/>
+      <c r="H93" s="200"/>
       <c r="I93" s="64"/>
       <c r="J93" s="45">
         <f t="shared" si="0"/>
@@ -6984,8 +7000,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="409"/>
-      <c r="P93" s="411"/>
+      <c r="O93" s="407"/>
+      <c r="P93" s="409"/>
       <c r="Q93" s="166"/>
       <c r="R93" s="129"/>
       <c r="S93" s="182"/>
@@ -6994,17 +7010,17 @@
       <c r="V93" s="54"/>
     </row>
     <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="199"/>
+      <c r="A94" s="198"/>
       <c r="B94" s="127"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="200"/>
+      <c r="C94" s="191"/>
+      <c r="D94" s="199"/>
       <c r="E94" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="117"/>
-      <c r="H94" s="201"/>
+      <c r="H94" s="200"/>
       <c r="I94" s="64"/>
       <c r="J94" s="45">
         <f t="shared" si="0"/>
@@ -7017,8 +7033,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="410"/>
-      <c r="P94" s="412"/>
+      <c r="O94" s="408"/>
+      <c r="P94" s="410"/>
       <c r="Q94" s="166"/>
       <c r="R94" s="129"/>
       <c r="S94" s="182"/>
@@ -7029,15 +7045,15 @@
     <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="127"/>
       <c r="B95" s="127"/>
-      <c r="C95" s="200"/>
-      <c r="D95" s="200"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
       <c r="E95" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="64"/>
       <c r="G95" s="117"/>
-      <c r="H95" s="201"/>
+      <c r="H95" s="200"/>
       <c r="I95" s="64"/>
       <c r="J95" s="45">
         <f t="shared" si="0"/>
@@ -7051,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="166"/>
-      <c r="P95" s="197"/>
+      <c r="P95" s="196"/>
       <c r="Q95" s="166"/>
       <c r="R95" s="129"/>
       <c r="S95" s="182"/>
@@ -7062,15 +7078,15 @@
     <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="127"/>
       <c r="B96" s="127"/>
-      <c r="C96" s="200"/>
-      <c r="D96" s="200"/>
+      <c r="C96" s="199"/>
+      <c r="D96" s="199"/>
       <c r="E96" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="64"/>
       <c r="G96" s="117"/>
-      <c r="H96" s="201"/>
+      <c r="H96" s="200"/>
       <c r="I96" s="64"/>
       <c r="J96" s="45">
         <f t="shared" si="0"/>
@@ -7084,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="166"/>
-      <c r="P96" s="197"/>
+      <c r="P96" s="196"/>
       <c r="Q96" s="166"/>
       <c r="R96" s="129"/>
       <c r="S96" s="182"/>
@@ -7095,8 +7111,8 @@
     <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="113"/>
       <c r="B97" s="127"/>
-      <c r="C97" s="210"/>
-      <c r="D97" s="210"/>
+      <c r="C97" s="209"/>
+      <c r="D97" s="209"/>
       <c r="E97" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7117,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="166"/>
-      <c r="P97" s="197"/>
+      <c r="P97" s="196"/>
       <c r="Q97" s="166"/>
       <c r="R97" s="129"/>
       <c r="S97" s="182"/>
@@ -7127,9 +7143,9 @@
     </row>
     <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A98" s="179"/>
-      <c r="B98" s="199"/>
-      <c r="C98" s="205"/>
-      <c r="D98" s="205"/>
+      <c r="B98" s="198"/>
+      <c r="C98" s="204"/>
+      <c r="D98" s="204"/>
       <c r="E98" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7150,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="166"/>
-      <c r="P98" s="197"/>
+      <c r="P98" s="196"/>
       <c r="Q98" s="166"/>
       <c r="R98" s="129"/>
       <c r="S98" s="182"/>
@@ -7160,9 +7176,9 @@
     </row>
     <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A99" s="179"/>
-      <c r="B99" s="199"/>
-      <c r="C99" s="210"/>
-      <c r="D99" s="210"/>
+      <c r="B99" s="198"/>
+      <c r="C99" s="209"/>
+      <c r="D99" s="209"/>
       <c r="E99" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7183,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="166"/>
-      <c r="P99" s="197"/>
+      <c r="P99" s="196"/>
       <c r="Q99" s="166"/>
       <c r="R99" s="129"/>
       <c r="S99" s="182"/>
@@ -7193,9 +7209,9 @@
     </row>
     <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A100" s="179"/>
-      <c r="B100" s="199"/>
-      <c r="C100" s="210"/>
-      <c r="D100" s="210"/>
+      <c r="B100" s="198"/>
+      <c r="C100" s="209"/>
+      <c r="D100" s="209"/>
       <c r="E100" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7216,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="166"/>
-      <c r="P100" s="197"/>
+      <c r="P100" s="196"/>
       <c r="Q100" s="166"/>
       <c r="R100" s="129"/>
       <c r="S100" s="182"/>
@@ -7227,8 +7243,8 @@
     <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="118"/>
       <c r="B101" s="127"/>
-      <c r="C101" s="210"/>
-      <c r="D101" s="210"/>
+      <c r="C101" s="209"/>
+      <c r="D101" s="209"/>
       <c r="E101" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7249,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="166"/>
-      <c r="P101" s="197"/>
+      <c r="P101" s="196"/>
       <c r="Q101" s="166"/>
       <c r="R101" s="129"/>
       <c r="S101" s="182"/>
@@ -7260,8 +7276,8 @@
     <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="118"/>
       <c r="B102" s="127"/>
-      <c r="C102" s="210"/>
-      <c r="D102" s="210"/>
+      <c r="C102" s="209"/>
+      <c r="D102" s="209"/>
       <c r="E102" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7282,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="166"/>
-      <c r="P102" s="197"/>
+      <c r="P102" s="196"/>
       <c r="Q102" s="166"/>
       <c r="R102" s="129"/>
       <c r="S102" s="182"/>
@@ -7293,8 +7309,8 @@
     <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="118"/>
       <c r="B103" s="127"/>
-      <c r="C103" s="210"/>
-      <c r="D103" s="210"/>
+      <c r="C103" s="209"/>
+      <c r="D103" s="209"/>
       <c r="E103" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7315,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="166"/>
-      <c r="P103" s="197"/>
+      <c r="P103" s="196"/>
       <c r="Q103" s="166"/>
       <c r="R103" s="129"/>
       <c r="S103" s="182"/>
@@ -7325,9 +7341,9 @@
     </row>
     <row r="104" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="127"/>
-      <c r="B104" s="211"/>
-      <c r="C104" s="210"/>
-      <c r="D104" s="210"/>
+      <c r="B104" s="210"/>
+      <c r="C104" s="209"/>
+      <c r="D104" s="209"/>
       <c r="E104" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7348,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="166"/>
-      <c r="P104" s="197"/>
+      <c r="P104" s="196"/>
       <c r="Q104" s="166"/>
       <c r="R104" s="129"/>
       <c r="S104" s="182"/>
@@ -7359,8 +7375,8 @@
     <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="127"/>
       <c r="B105" s="127"/>
-      <c r="C105" s="210"/>
-      <c r="D105" s="210"/>
+      <c r="C105" s="209"/>
+      <c r="D105" s="209"/>
       <c r="E105" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7381,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="166"/>
-      <c r="P105" s="197"/>
+      <c r="P105" s="196"/>
       <c r="Q105" s="166"/>
       <c r="R105" s="129"/>
       <c r="S105" s="182"/>
@@ -7392,8 +7408,8 @@
     <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="127"/>
       <c r="B106" s="127"/>
-      <c r="C106" s="210"/>
-      <c r="D106" s="210"/>
+      <c r="C106" s="209"/>
+      <c r="D106" s="209"/>
       <c r="E106" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7414,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="166"/>
-      <c r="P106" s="197"/>
+      <c r="P106" s="196"/>
       <c r="Q106" s="166"/>
       <c r="R106" s="129"/>
       <c r="S106" s="182"/>
@@ -7425,8 +7441,8 @@
     <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="179"/>
       <c r="B107" s="127"/>
-      <c r="C107" s="210"/>
-      <c r="D107" s="210"/>
+      <c r="C107" s="209"/>
+      <c r="D107" s="209"/>
       <c r="E107" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7447,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="166"/>
-      <c r="P107" s="197"/>
+      <c r="P107" s="196"/>
       <c r="Q107" s="166"/>
       <c r="R107" s="129"/>
       <c r="S107" s="182"/>
@@ -7458,15 +7474,15 @@
     <row r="108" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="171"/>
       <c r="B108" s="171"/>
-      <c r="C108" s="387"/>
-      <c r="D108" s="387"/>
-      <c r="E108" s="388">
+      <c r="C108" s="386"/>
+      <c r="D108" s="386"/>
+      <c r="E108" s="387">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F108" s="44"/>
-      <c r="G108" s="389"/>
-      <c r="H108" s="390"/>
+      <c r="G108" s="388"/>
+      <c r="H108" s="389"/>
       <c r="I108" s="64"/>
       <c r="J108" s="45">
         <f t="shared" si="0"/>
@@ -7480,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="166"/>
-      <c r="P108" s="197"/>
+      <c r="P108" s="196"/>
       <c r="Q108" s="166"/>
       <c r="R108" s="129"/>
       <c r="S108" s="182"/>
@@ -7491,8 +7507,8 @@
     <row r="109" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="127"/>
       <c r="B109" s="127"/>
-      <c r="C109" s="210"/>
-      <c r="D109" s="210"/>
+      <c r="C109" s="209"/>
+      <c r="D109" s="209"/>
       <c r="E109" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7513,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="166"/>
-      <c r="P109" s="197"/>
+      <c r="P109" s="196"/>
       <c r="Q109" s="166"/>
       <c r="R109" s="129"/>
       <c r="S109" s="182"/>
@@ -7522,10 +7538,10 @@
       <c r="V109" s="54"/>
     </row>
     <row r="110" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="199"/>
+      <c r="A110" s="198"/>
       <c r="B110" s="127"/>
-      <c r="C110" s="210"/>
-      <c r="D110" s="210"/>
+      <c r="C110" s="209"/>
+      <c r="D110" s="209"/>
       <c r="E110" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7546,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="166"/>
-      <c r="P110" s="197"/>
+      <c r="P110" s="196"/>
       <c r="Q110" s="166"/>
       <c r="R110" s="129"/>
       <c r="S110" s="182"/>
@@ -7555,10 +7571,10 @@
       <c r="V110" s="54"/>
     </row>
     <row r="111" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="199"/>
+      <c r="A111" s="198"/>
       <c r="B111" s="127"/>
-      <c r="C111" s="210"/>
-      <c r="D111" s="210"/>
+      <c r="C111" s="209"/>
+      <c r="D111" s="209"/>
       <c r="E111" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7579,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="166"/>
-      <c r="P111" s="197"/>
+      <c r="P111" s="196"/>
       <c r="Q111" s="166"/>
       <c r="R111" s="129"/>
       <c r="S111" s="182"/>
@@ -7588,10 +7604,10 @@
       <c r="V111" s="54"/>
     </row>
     <row r="112" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="199"/>
+      <c r="A112" s="198"/>
       <c r="B112" s="127"/>
-      <c r="C112" s="210"/>
-      <c r="D112" s="210"/>
+      <c r="C112" s="209"/>
+      <c r="D112" s="209"/>
       <c r="E112" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7612,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="166"/>
-      <c r="P112" s="197"/>
+      <c r="P112" s="196"/>
       <c r="Q112" s="166"/>
       <c r="R112" s="129"/>
       <c r="S112" s="182"/>
@@ -7623,8 +7639,8 @@
     <row r="113" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="127"/>
       <c r="B113" s="127"/>
-      <c r="C113" s="210"/>
-      <c r="D113" s="210"/>
+      <c r="C113" s="209"/>
+      <c r="D113" s="209"/>
       <c r="E113" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7645,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="166"/>
-      <c r="P113" s="197"/>
+      <c r="P113" s="196"/>
       <c r="Q113" s="166"/>
       <c r="R113" s="129"/>
       <c r="S113" s="182"/>
@@ -7656,8 +7672,8 @@
     <row r="114" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="184"/>
       <c r="B114" s="127"/>
-      <c r="C114" s="210"/>
-      <c r="D114" s="210"/>
+      <c r="C114" s="209"/>
+      <c r="D114" s="209"/>
       <c r="E114" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7678,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="166"/>
-      <c r="P114" s="197"/>
+      <c r="P114" s="196"/>
       <c r="Q114" s="166"/>
       <c r="R114" s="129"/>
       <c r="S114" s="182"/>
@@ -7689,8 +7705,8 @@
     <row r="115" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="118"/>
       <c r="B115" s="127"/>
-      <c r="C115" s="210"/>
-      <c r="D115" s="210"/>
+      <c r="C115" s="209"/>
+      <c r="D115" s="209"/>
       <c r="E115" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7711,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="166"/>
-      <c r="P115" s="197"/>
+      <c r="P115" s="196"/>
       <c r="Q115" s="166"/>
       <c r="R115" s="129"/>
       <c r="S115" s="182"/>
@@ -7722,8 +7738,8 @@
     <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="118"/>
       <c r="B116" s="127"/>
-      <c r="C116" s="210"/>
-      <c r="D116" s="210"/>
+      <c r="C116" s="209"/>
+      <c r="D116" s="209"/>
       <c r="E116" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7744,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="166"/>
-      <c r="P116" s="197"/>
+      <c r="P116" s="196"/>
       <c r="Q116" s="166"/>
       <c r="R116" s="129"/>
       <c r="S116" s="182"/>
@@ -7753,10 +7769,10 @@
       <c r="V116" s="54"/>
     </row>
     <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="212"/>
+      <c r="A117" s="211"/>
       <c r="B117" s="127"/>
-      <c r="C117" s="210"/>
-      <c r="D117" s="210"/>
+      <c r="C117" s="209"/>
+      <c r="D117" s="209"/>
       <c r="E117" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7777,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="166"/>
-      <c r="P117" s="197"/>
+      <c r="P117" s="196"/>
       <c r="Q117" s="166"/>
       <c r="R117" s="129"/>
       <c r="S117" s="182"/>
@@ -7786,10 +7802,10 @@
       <c r="V117" s="54"/>
     </row>
     <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="213"/>
+      <c r="A118" s="212"/>
       <c r="B118" s="127"/>
-      <c r="C118" s="210"/>
-      <c r="D118" s="210"/>
+      <c r="C118" s="209"/>
+      <c r="D118" s="209"/>
       <c r="E118" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7810,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="166"/>
-      <c r="P118" s="197"/>
+      <c r="P118" s="196"/>
       <c r="Q118" s="166"/>
       <c r="R118" s="129"/>
       <c r="S118" s="182"/>
@@ -7819,10 +7835,10 @@
       <c r="V118" s="54"/>
     </row>
     <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="214"/>
+      <c r="A119" s="213"/>
       <c r="B119" s="127"/>
-      <c r="C119" s="210"/>
-      <c r="D119" s="210"/>
+      <c r="C119" s="209"/>
+      <c r="D119" s="209"/>
       <c r="E119" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7843,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="166"/>
-      <c r="P119" s="197"/>
+      <c r="P119" s="196"/>
       <c r="Q119" s="166"/>
       <c r="R119" s="129"/>
       <c r="S119" s="182"/>
@@ -7852,10 +7868,10 @@
       <c r="V119" s="54"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="214"/>
+      <c r="A120" s="213"/>
       <c r="B120" s="127"/>
-      <c r="C120" s="208"/>
-      <c r="D120" s="208"/>
+      <c r="C120" s="207"/>
+      <c r="D120" s="207"/>
       <c r="E120" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7876,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="166"/>
-      <c r="P120" s="197"/>
+      <c r="P120" s="196"/>
       <c r="Q120" s="166"/>
       <c r="R120" s="129"/>
       <c r="S120" s="182"/>
@@ -7885,17 +7901,17 @@
       <c r="V120" s="54"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="213"/>
+      <c r="A121" s="212"/>
       <c r="B121" s="127"/>
-      <c r="C121" s="210"/>
-      <c r="D121" s="210"/>
+      <c r="C121" s="209"/>
+      <c r="D121" s="209"/>
       <c r="E121" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F121" s="64"/>
       <c r="G121" s="117"/>
-      <c r="H121" s="215"/>
+      <c r="H121" s="214"/>
       <c r="I121" s="64"/>
       <c r="J121" s="45">
         <f t="shared" si="0"/>
@@ -7909,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="166"/>
-      <c r="P121" s="197"/>
+      <c r="P121" s="196"/>
       <c r="Q121" s="166"/>
       <c r="R121" s="129"/>
       <c r="S121" s="182"/>
@@ -7918,17 +7934,17 @@
       <c r="V121" s="54"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="213"/>
+      <c r="A122" s="212"/>
       <c r="B122" s="127"/>
-      <c r="C122" s="208"/>
-      <c r="D122" s="208"/>
+      <c r="C122" s="207"/>
+      <c r="D122" s="207"/>
       <c r="E122" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F122" s="64"/>
       <c r="G122" s="117"/>
-      <c r="H122" s="215"/>
+      <c r="H122" s="214"/>
       <c r="I122" s="64"/>
       <c r="J122" s="45">
         <f t="shared" si="0"/>
@@ -7942,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="166"/>
-      <c r="P122" s="197"/>
+      <c r="P122" s="196"/>
       <c r="Q122" s="166"/>
       <c r="R122" s="129"/>
       <c r="S122" s="182"/>
@@ -7951,17 +7967,17 @@
       <c r="V122" s="54"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="213"/>
+      <c r="A123" s="212"/>
       <c r="B123" s="127"/>
-      <c r="C123" s="210"/>
-      <c r="D123" s="210"/>
+      <c r="C123" s="209"/>
+      <c r="D123" s="209"/>
       <c r="E123" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F123" s="64"/>
       <c r="G123" s="117"/>
-      <c r="H123" s="215"/>
+      <c r="H123" s="214"/>
       <c r="I123" s="64"/>
       <c r="J123" s="45">
         <f t="shared" si="0"/>
@@ -7975,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="166"/>
-      <c r="P123" s="197"/>
+      <c r="P123" s="196"/>
       <c r="Q123" s="166"/>
       <c r="R123" s="129"/>
       <c r="S123" s="182"/>
@@ -7984,17 +8000,17 @@
       <c r="V123" s="54"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="213"/>
+      <c r="A124" s="212"/>
       <c r="B124" s="127"/>
-      <c r="C124" s="205"/>
-      <c r="D124" s="205"/>
+      <c r="C124" s="204"/>
+      <c r="D124" s="204"/>
       <c r="E124" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F124" s="64"/>
       <c r="G124" s="117"/>
-      <c r="H124" s="215"/>
+      <c r="H124" s="214"/>
       <c r="I124" s="64"/>
       <c r="J124" s="45">
         <f t="shared" si="0"/>
@@ -8019,15 +8035,15 @@
     <row r="125" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="127"/>
       <c r="B125" s="127"/>
-      <c r="C125" s="210"/>
-      <c r="D125" s="210"/>
+      <c r="C125" s="209"/>
+      <c r="D125" s="209"/>
       <c r="E125" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F125" s="64"/>
       <c r="G125" s="117"/>
-      <c r="H125" s="216"/>
+      <c r="H125" s="215"/>
       <c r="I125" s="64"/>
       <c r="J125" s="45">
         <f t="shared" si="0"/>
@@ -8041,9 +8057,9 @@
         <v>0</v>
       </c>
       <c r="O125" s="166"/>
-      <c r="P125" s="217"/>
+      <c r="P125" s="216"/>
       <c r="Q125" s="166"/>
-      <c r="R125" s="218"/>
+      <c r="R125" s="217"/>
       <c r="S125" s="182"/>
       <c r="T125" s="52"/>
       <c r="U125" s="53"/>
@@ -8052,15 +8068,15 @@
     <row r="126" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="127"/>
       <c r="B126" s="127"/>
-      <c r="C126" s="210"/>
-      <c r="D126" s="210"/>
+      <c r="C126" s="209"/>
+      <c r="D126" s="209"/>
       <c r="E126" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F126" s="64"/>
       <c r="G126" s="117"/>
-      <c r="H126" s="216"/>
+      <c r="H126" s="215"/>
       <c r="I126" s="64"/>
       <c r="J126" s="45">
         <f t="shared" si="0"/>
@@ -8074,9 +8090,9 @@
         <v>0</v>
       </c>
       <c r="O126" s="166"/>
-      <c r="P126" s="217"/>
+      <c r="P126" s="216"/>
       <c r="Q126" s="166"/>
-      <c r="R126" s="218"/>
+      <c r="R126" s="217"/>
       <c r="S126" s="182"/>
       <c r="T126" s="52"/>
       <c r="U126" s="53"/>
@@ -8085,15 +8101,15 @@
     <row r="127" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="127"/>
       <c r="B127" s="127"/>
-      <c r="C127" s="210"/>
-      <c r="D127" s="210"/>
+      <c r="C127" s="209"/>
+      <c r="D127" s="209"/>
       <c r="E127" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F127" s="64"/>
       <c r="G127" s="117"/>
-      <c r="H127" s="216"/>
+      <c r="H127" s="215"/>
       <c r="I127" s="64"/>
       <c r="J127" s="45">
         <f t="shared" si="0"/>
@@ -8107,9 +8123,9 @@
         <v>0</v>
       </c>
       <c r="O127" s="166"/>
-      <c r="P127" s="217"/>
+      <c r="P127" s="216"/>
       <c r="Q127" s="166"/>
-      <c r="R127" s="218"/>
+      <c r="R127" s="217"/>
       <c r="S127" s="182"/>
       <c r="T127" s="52"/>
       <c r="U127" s="53"/>
@@ -8118,15 +8134,15 @@
     <row r="128" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="127"/>
       <c r="B128" s="127"/>
-      <c r="C128" s="210"/>
-      <c r="D128" s="210"/>
+      <c r="C128" s="209"/>
+      <c r="D128" s="209"/>
       <c r="E128" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F128" s="64"/>
       <c r="G128" s="117"/>
-      <c r="H128" s="216"/>
+      <c r="H128" s="215"/>
       <c r="I128" s="64"/>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -8140,9 +8156,9 @@
         <v>0</v>
       </c>
       <c r="O128" s="166"/>
-      <c r="P128" s="217"/>
+      <c r="P128" s="216"/>
       <c r="Q128" s="166"/>
-      <c r="R128" s="218"/>
+      <c r="R128" s="217"/>
       <c r="S128" s="182"/>
       <c r="T128" s="52"/>
       <c r="U128" s="53"/>
@@ -8151,15 +8167,15 @@
     <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="113"/>
       <c r="B129" s="127"/>
-      <c r="C129" s="210"/>
-      <c r="D129" s="210"/>
+      <c r="C129" s="209"/>
+      <c r="D129" s="209"/>
       <c r="E129" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F129" s="64"/>
       <c r="G129" s="117"/>
-      <c r="H129" s="219"/>
+      <c r="H129" s="218"/>
       <c r="I129" s="64"/>
       <c r="J129" s="45">
         <f t="shared" si="0"/>
@@ -8173,9 +8189,9 @@
         <v>0</v>
       </c>
       <c r="O129" s="98"/>
-      <c r="P129" s="220"/>
-      <c r="Q129" s="221"/>
-      <c r="R129" s="218"/>
+      <c r="P129" s="219"/>
+      <c r="Q129" s="220"/>
+      <c r="R129" s="217"/>
       <c r="S129" s="182"/>
       <c r="T129" s="52"/>
       <c r="U129" s="53"/>
@@ -8184,15 +8200,15 @@
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="127"/>
       <c r="B130" s="127"/>
-      <c r="C130" s="210"/>
-      <c r="D130" s="210"/>
+      <c r="C130" s="209"/>
+      <c r="D130" s="209"/>
       <c r="E130" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F130" s="64"/>
       <c r="G130" s="117"/>
-      <c r="H130" s="219"/>
+      <c r="H130" s="218"/>
       <c r="I130" s="64"/>
       <c r="J130" s="45">
         <f t="shared" si="0"/>
@@ -8206,9 +8222,9 @@
         <v>0</v>
       </c>
       <c r="O130" s="98"/>
-      <c r="P130" s="220"/>
-      <c r="Q130" s="221"/>
-      <c r="R130" s="218"/>
+      <c r="P130" s="219"/>
+      <c r="Q130" s="220"/>
+      <c r="R130" s="217"/>
       <c r="S130" s="182"/>
       <c r="T130" s="52"/>
       <c r="U130" s="53"/>
@@ -8217,15 +8233,15 @@
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="118"/>
       <c r="B131" s="127"/>
-      <c r="C131" s="222"/>
-      <c r="D131" s="222"/>
+      <c r="C131" s="221"/>
+      <c r="D131" s="221"/>
       <c r="E131" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F131" s="64"/>
       <c r="G131" s="117"/>
-      <c r="H131" s="219"/>
+      <c r="H131" s="218"/>
       <c r="I131" s="64"/>
       <c r="J131" s="45">
         <f t="shared" si="0"/>
@@ -8239,9 +8255,9 @@
         <v>0</v>
       </c>
       <c r="O131" s="98"/>
-      <c r="P131" s="220"/>
-      <c r="Q131" s="221"/>
-      <c r="R131" s="218"/>
+      <c r="P131" s="219"/>
+      <c r="Q131" s="220"/>
+      <c r="R131" s="217"/>
       <c r="S131" s="182"/>
       <c r="T131" s="52"/>
       <c r="U131" s="53"/>
@@ -8250,15 +8266,15 @@
     <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="118"/>
       <c r="B132" s="127"/>
-      <c r="C132" s="222"/>
-      <c r="D132" s="222"/>
+      <c r="C132" s="221"/>
+      <c r="D132" s="221"/>
       <c r="E132" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F132" s="64"/>
       <c r="G132" s="117"/>
-      <c r="H132" s="219"/>
+      <c r="H132" s="218"/>
       <c r="I132" s="64"/>
       <c r="J132" s="45">
         <f t="shared" si="0"/>
@@ -8272,9 +8288,9 @@
         <v>0</v>
       </c>
       <c r="O132" s="98"/>
-      <c r="P132" s="220"/>
-      <c r="Q132" s="221"/>
-      <c r="R132" s="218"/>
+      <c r="P132" s="219"/>
+      <c r="Q132" s="220"/>
+      <c r="R132" s="217"/>
       <c r="S132" s="182"/>
       <c r="T132" s="52"/>
       <c r="U132" s="53"/>
@@ -8283,15 +8299,15 @@
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="118"/>
       <c r="B133" s="127"/>
-      <c r="C133" s="222"/>
-      <c r="D133" s="222"/>
+      <c r="C133" s="221"/>
+      <c r="D133" s="221"/>
       <c r="E133" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F133" s="64"/>
       <c r="G133" s="117"/>
-      <c r="H133" s="219"/>
+      <c r="H133" s="218"/>
       <c r="I133" s="64"/>
       <c r="J133" s="45">
         <f t="shared" si="0"/>
@@ -8305,9 +8321,9 @@
         <v>0</v>
       </c>
       <c r="O133" s="98"/>
-      <c r="P133" s="220"/>
-      <c r="Q133" s="221"/>
-      <c r="R133" s="218"/>
+      <c r="P133" s="219"/>
+      <c r="Q133" s="220"/>
+      <c r="R133" s="217"/>
       <c r="S133" s="182"/>
       <c r="T133" s="52"/>
       <c r="U133" s="53"/>
@@ -8316,15 +8332,15 @@
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="118"/>
       <c r="B134" s="127"/>
-      <c r="C134" s="222"/>
-      <c r="D134" s="222"/>
+      <c r="C134" s="221"/>
+      <c r="D134" s="221"/>
       <c r="E134" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F134" s="64"/>
       <c r="G134" s="117"/>
-      <c r="H134" s="219"/>
+      <c r="H134" s="218"/>
       <c r="I134" s="64"/>
       <c r="J134" s="45">
         <f t="shared" si="0"/>
@@ -8338,9 +8354,9 @@
         <v>0</v>
       </c>
       <c r="O134" s="98"/>
-      <c r="P134" s="220"/>
-      <c r="Q134" s="221"/>
-      <c r="R134" s="218"/>
+      <c r="P134" s="219"/>
+      <c r="Q134" s="220"/>
+      <c r="R134" s="217"/>
       <c r="S134" s="182"/>
       <c r="T134" s="52"/>
       <c r="U134" s="53"/>
@@ -8349,15 +8365,15 @@
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="118"/>
       <c r="B135" s="127"/>
-      <c r="C135" s="222"/>
-      <c r="D135" s="222"/>
+      <c r="C135" s="221"/>
+      <c r="D135" s="221"/>
       <c r="E135" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F135" s="64"/>
       <c r="G135" s="117"/>
-      <c r="H135" s="219"/>
+      <c r="H135" s="218"/>
       <c r="I135" s="64"/>
       <c r="J135" s="45">
         <f t="shared" si="0"/>
@@ -8371,26 +8387,26 @@
         <v>0</v>
       </c>
       <c r="O135" s="98"/>
-      <c r="P135" s="220"/>
-      <c r="Q135" s="221"/>
-      <c r="R135" s="218"/>
+      <c r="P135" s="219"/>
+      <c r="Q135" s="220"/>
+      <c r="R135" s="217"/>
       <c r="S135" s="182"/>
       <c r="T135" s="52"/>
       <c r="U135" s="53"/>
       <c r="V135" s="54"/>
     </row>
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="213"/>
+      <c r="A136" s="212"/>
       <c r="B136" s="127"/>
-      <c r="C136" s="210"/>
-      <c r="D136" s="210"/>
+      <c r="C136" s="209"/>
+      <c r="D136" s="209"/>
       <c r="E136" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F136" s="64"/>
       <c r="G136" s="117"/>
-      <c r="H136" s="219"/>
+      <c r="H136" s="218"/>
       <c r="I136" s="64"/>
       <c r="J136" s="45">
         <f t="shared" si="0"/>
@@ -8404,26 +8420,26 @@
         <v>0</v>
       </c>
       <c r="O136" s="98"/>
-      <c r="P136" s="220"/>
-      <c r="Q136" s="221"/>
-      <c r="R136" s="218"/>
+      <c r="P136" s="219"/>
+      <c r="Q136" s="220"/>
+      <c r="R136" s="217"/>
       <c r="S136" s="182"/>
       <c r="T136" s="52"/>
       <c r="U136" s="53"/>
       <c r="V136" s="54"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="223"/>
+      <c r="A137" s="222"/>
       <c r="B137" s="127"/>
-      <c r="C137" s="203"/>
-      <c r="D137" s="203"/>
+      <c r="C137" s="202"/>
+      <c r="D137" s="202"/>
       <c r="E137" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F137" s="64"/>
       <c r="G137" s="117"/>
-      <c r="H137" s="215"/>
+      <c r="H137" s="214"/>
       <c r="I137" s="64"/>
       <c r="J137" s="45">
         <f t="shared" si="0"/>
@@ -8437,26 +8453,26 @@
         <v>0</v>
       </c>
       <c r="O137" s="98"/>
-      <c r="P137" s="220"/>
-      <c r="Q137" s="221"/>
-      <c r="R137" s="218"/>
+      <c r="P137" s="219"/>
+      <c r="Q137" s="220"/>
+      <c r="R137" s="217"/>
       <c r="S137" s="182"/>
       <c r="T137" s="52"/>
       <c r="U137" s="53"/>
       <c r="V137" s="54"/>
     </row>
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="223"/>
+      <c r="A138" s="222"/>
       <c r="B138" s="127"/>
-      <c r="C138" s="203"/>
-      <c r="D138" s="203"/>
+      <c r="C138" s="202"/>
+      <c r="D138" s="202"/>
       <c r="E138" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F138" s="64"/>
       <c r="G138" s="117"/>
-      <c r="H138" s="215"/>
+      <c r="H138" s="214"/>
       <c r="I138" s="64"/>
       <c r="J138" s="45">
         <f t="shared" si="0"/>
@@ -8470,26 +8486,26 @@
         <v>0</v>
       </c>
       <c r="O138" s="98"/>
-      <c r="P138" s="220"/>
-      <c r="Q138" s="224"/>
-      <c r="R138" s="218"/>
+      <c r="P138" s="219"/>
+      <c r="Q138" s="223"/>
+      <c r="R138" s="217"/>
       <c r="S138" s="182"/>
       <c r="T138" s="52"/>
       <c r="U138" s="53"/>
       <c r="V138" s="54"/>
     </row>
     <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="223"/>
+      <c r="A139" s="222"/>
       <c r="B139" s="127"/>
-      <c r="C139" s="203"/>
-      <c r="D139" s="203"/>
+      <c r="C139" s="202"/>
+      <c r="D139" s="202"/>
       <c r="E139" s="40">
         <f t="shared" ref="E139:E202" si="4">D139*F139</f>
         <v>0</v>
       </c>
       <c r="F139" s="64"/>
       <c r="G139" s="117"/>
-      <c r="H139" s="215"/>
+      <c r="H139" s="214"/>
       <c r="I139" s="64"/>
       <c r="J139" s="45">
         <f t="shared" si="0"/>
@@ -8503,26 +8519,26 @@
         <v>0</v>
       </c>
       <c r="O139" s="98"/>
-      <c r="P139" s="220"/>
-      <c r="Q139" s="221"/>
-      <c r="R139" s="218"/>
+      <c r="P139" s="219"/>
+      <c r="Q139" s="220"/>
+      <c r="R139" s="217"/>
       <c r="S139" s="182"/>
       <c r="T139" s="52"/>
       <c r="U139" s="53"/>
       <c r="V139" s="54"/>
     </row>
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="213"/>
+      <c r="A140" s="212"/>
       <c r="B140" s="127"/>
-      <c r="C140" s="210"/>
-      <c r="D140" s="210"/>
+      <c r="C140" s="209"/>
+      <c r="D140" s="209"/>
       <c r="E140" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F140" s="64"/>
       <c r="G140" s="117"/>
-      <c r="H140" s="215"/>
+      <c r="H140" s="214"/>
       <c r="I140" s="64"/>
       <c r="J140" s="45">
         <f t="shared" si="0"/>
@@ -8536,26 +8552,26 @@
         <v>0</v>
       </c>
       <c r="O140" s="98"/>
-      <c r="P140" s="225"/>
-      <c r="Q140" s="221"/>
-      <c r="R140" s="218"/>
+      <c r="P140" s="224"/>
+      <c r="Q140" s="220"/>
+      <c r="R140" s="217"/>
       <c r="S140" s="182"/>
       <c r="T140" s="52"/>
       <c r="U140" s="53"/>
       <c r="V140" s="54"/>
     </row>
     <row r="141" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="213"/>
+      <c r="A141" s="212"/>
       <c r="B141" s="127"/>
-      <c r="C141" s="210"/>
-      <c r="D141" s="210"/>
+      <c r="C141" s="209"/>
+      <c r="D141" s="209"/>
       <c r="E141" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F141" s="64"/>
       <c r="G141" s="117"/>
-      <c r="H141" s="226"/>
+      <c r="H141" s="225"/>
       <c r="I141" s="64"/>
       <c r="J141" s="45">
         <f t="shared" si="0"/>
@@ -8569,26 +8585,26 @@
         <v>0</v>
       </c>
       <c r="O141" s="98"/>
-      <c r="P141" s="225"/>
-      <c r="Q141" s="221"/>
-      <c r="R141" s="218"/>
+      <c r="P141" s="224"/>
+      <c r="Q141" s="220"/>
+      <c r="R141" s="217"/>
       <c r="S141" s="182"/>
       <c r="T141" s="52"/>
       <c r="U141" s="53"/>
       <c r="V141" s="54"/>
     </row>
     <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="213"/>
+      <c r="A142" s="212"/>
       <c r="B142" s="127"/>
-      <c r="C142" s="210"/>
-      <c r="D142" s="210"/>
+      <c r="C142" s="209"/>
+      <c r="D142" s="209"/>
       <c r="E142" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F142" s="64"/>
       <c r="G142" s="117"/>
-      <c r="H142" s="227"/>
+      <c r="H142" s="226"/>
       <c r="I142" s="64"/>
       <c r="J142" s="45">
         <f t="shared" si="0"/>
@@ -8602,26 +8618,26 @@
         <v>0</v>
       </c>
       <c r="O142" s="98"/>
-      <c r="P142" s="225"/>
-      <c r="Q142" s="221"/>
-      <c r="R142" s="218"/>
+      <c r="P142" s="224"/>
+      <c r="Q142" s="220"/>
+      <c r="R142" s="217"/>
       <c r="S142" s="182"/>
       <c r="T142" s="52"/>
       <c r="U142" s="53"/>
       <c r="V142" s="54"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="213"/>
+      <c r="A143" s="212"/>
       <c r="B143" s="127"/>
-      <c r="C143" s="210"/>
-      <c r="D143" s="210"/>
+      <c r="C143" s="209"/>
+      <c r="D143" s="209"/>
       <c r="E143" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F143" s="64"/>
       <c r="G143" s="117"/>
-      <c r="H143" s="215"/>
+      <c r="H143" s="214"/>
       <c r="I143" s="64"/>
       <c r="J143" s="45">
         <f t="shared" si="0"/>
@@ -8635,26 +8651,26 @@
         <v>0</v>
       </c>
       <c r="O143" s="98"/>
-      <c r="P143" s="225"/>
-      <c r="Q143" s="221"/>
-      <c r="R143" s="218"/>
+      <c r="P143" s="224"/>
+      <c r="Q143" s="220"/>
+      <c r="R143" s="217"/>
       <c r="S143" s="182"/>
       <c r="T143" s="52"/>
       <c r="U143" s="53"/>
       <c r="V143" s="54"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="228"/>
+      <c r="A144" s="227"/>
       <c r="B144" s="127"/>
-      <c r="C144" s="210"/>
-      <c r="D144" s="210"/>
+      <c r="C144" s="209"/>
+      <c r="D144" s="209"/>
       <c r="E144" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F144" s="64"/>
       <c r="G144" s="117"/>
-      <c r="H144" s="229"/>
+      <c r="H144" s="228"/>
       <c r="I144" s="64"/>
       <c r="J144" s="45">
         <f t="shared" si="0"/>
@@ -8667,27 +8683,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O144" s="230"/>
-      <c r="P144" s="231"/>
-      <c r="Q144" s="232"/>
-      <c r="R144" s="233"/>
+      <c r="O144" s="229"/>
+      <c r="P144" s="230"/>
+      <c r="Q144" s="231"/>
+      <c r="R144" s="232"/>
       <c r="S144" s="182"/>
       <c r="T144" s="52"/>
       <c r="U144" s="53"/>
       <c r="V144" s="54"/>
     </row>
     <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="234"/>
+      <c r="A145" s="233"/>
       <c r="B145" s="127"/>
-      <c r="C145" s="210"/>
-      <c r="D145" s="210"/>
+      <c r="C145" s="209"/>
+      <c r="D145" s="209"/>
       <c r="E145" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F145" s="64"/>
-      <c r="G145" s="235"/>
-      <c r="H145" s="236"/>
+      <c r="G145" s="234"/>
+      <c r="H145" s="235"/>
       <c r="I145" s="64"/>
       <c r="J145" s="45">
         <f t="shared" si="0"/>
@@ -8700,27 +8716,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O145" s="237"/>
-      <c r="P145" s="238"/>
-      <c r="Q145" s="221"/>
-      <c r="R145" s="218"/>
+      <c r="O145" s="236"/>
+      <c r="P145" s="237"/>
+      <c r="Q145" s="220"/>
+      <c r="R145" s="217"/>
       <c r="S145" s="182"/>
       <c r="T145" s="52"/>
       <c r="U145" s="53"/>
       <c r="V145" s="54"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="214"/>
+      <c r="A146" s="213"/>
       <c r="B146" s="127"/>
-      <c r="C146" s="210"/>
-      <c r="D146" s="210"/>
+      <c r="C146" s="209"/>
+      <c r="D146" s="209"/>
       <c r="E146" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F146" s="64"/>
-      <c r="G146" s="238"/>
-      <c r="H146" s="229"/>
+      <c r="G146" s="237"/>
+      <c r="H146" s="228"/>
       <c r="I146" s="64"/>
       <c r="J146" s="45">
         <f t="shared" si="0"/>
@@ -8733,33 +8749,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O146" s="237"/>
-      <c r="P146" s="238"/>
-      <c r="Q146" s="221"/>
-      <c r="R146" s="218"/>
+      <c r="O146" s="236"/>
+      <c r="P146" s="237"/>
+      <c r="Q146" s="220"/>
+      <c r="R146" s="217"/>
       <c r="S146" s="182"/>
       <c r="T146" s="52"/>
       <c r="U146" s="53"/>
       <c r="V146" s="54"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="214"/>
+      <c r="A147" s="213"/>
       <c r="B147" s="127"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="210"/>
+      <c r="C147" s="209"/>
+      <c r="D147" s="209"/>
       <c r="E147" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F147" s="64"/>
-      <c r="G147" s="238"/>
-      <c r="H147" s="236"/>
+      <c r="G147" s="237"/>
+      <c r="H147" s="235"/>
       <c r="I147" s="64"/>
       <c r="J147" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K147" s="239"/>
+      <c r="K147" s="238"/>
       <c r="L147" s="99"/>
       <c r="M147" s="99" t="s">
         <v>26</v>
@@ -8768,60 +8784,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O147" s="230"/>
-      <c r="P147" s="231"/>
-      <c r="Q147" s="232"/>
-      <c r="R147" s="233"/>
+      <c r="O147" s="229"/>
+      <c r="P147" s="230"/>
+      <c r="Q147" s="231"/>
+      <c r="R147" s="232"/>
       <c r="S147" s="182"/>
       <c r="T147" s="52"/>
       <c r="U147" s="53"/>
       <c r="V147" s="54"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="213"/>
+      <c r="A148" s="212"/>
       <c r="B148" s="127"/>
-      <c r="C148" s="210"/>
-      <c r="D148" s="210"/>
+      <c r="C148" s="209"/>
+      <c r="D148" s="209"/>
       <c r="E148" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F148" s="64"/>
-      <c r="G148" s="238"/>
-      <c r="H148" s="236"/>
+      <c r="G148" s="237"/>
+      <c r="H148" s="235"/>
       <c r="I148" s="64"/>
       <c r="J148" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K148" s="239"/>
+      <c r="K148" s="238"/>
       <c r="L148" s="99"/>
       <c r="M148" s="99"/>
       <c r="N148" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O148" s="237"/>
-      <c r="P148" s="238"/>
-      <c r="Q148" s="221"/>
-      <c r="R148" s="218"/>
+      <c r="O148" s="236"/>
+      <c r="P148" s="237"/>
+      <c r="Q148" s="220"/>
+      <c r="R148" s="217"/>
       <c r="S148" s="182"/>
       <c r="T148" s="52"/>
       <c r="U148" s="53"/>
       <c r="V148" s="54"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="223"/>
+      <c r="A149" s="222"/>
       <c r="B149" s="127"/>
-      <c r="C149" s="240"/>
-      <c r="D149" s="240"/>
+      <c r="C149" s="239"/>
+      <c r="D149" s="239"/>
       <c r="E149" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F149" s="64"/>
-      <c r="G149" s="238"/>
-      <c r="H149" s="241"/>
+      <c r="G149" s="237"/>
+      <c r="H149" s="240"/>
       <c r="I149" s="64"/>
       <c r="J149" s="45">
         <f t="shared" si="0"/>
@@ -8834,8 +8850,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O149" s="242"/>
-      <c r="P149" s="243"/>
+      <c r="O149" s="241"/>
+      <c r="P149" s="242"/>
       <c r="Q149" s="128"/>
       <c r="R149" s="129"/>
       <c r="S149" s="182"/>
@@ -8844,413 +8860,413 @@
       <c r="V149" s="54"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="244"/>
+      <c r="A150" s="243"/>
       <c r="B150" s="127"/>
-      <c r="C150" s="210"/>
-      <c r="D150" s="210"/>
+      <c r="C150" s="209"/>
+      <c r="D150" s="209"/>
       <c r="E150" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F150" s="64"/>
-      <c r="G150" s="238"/>
-      <c r="H150" s="215"/>
+      <c r="G150" s="237"/>
+      <c r="H150" s="214"/>
       <c r="I150" s="64"/>
       <c r="J150" s="45">
         <f t="shared" ref="J150:J213" si="5">I150-F150</f>
         <v>0</v>
       </c>
-      <c r="K150" s="239"/>
-      <c r="L150" s="245"/>
-      <c r="M150" s="245"/>
+      <c r="K150" s="238"/>
+      <c r="L150" s="244"/>
+      <c r="M150" s="244"/>
       <c r="N150" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O150" s="242"/>
-      <c r="P150" s="243"/>
-      <c r="Q150" s="232"/>
-      <c r="R150" s="233"/>
+      <c r="O150" s="241"/>
+      <c r="P150" s="242"/>
+      <c r="Q150" s="231"/>
+      <c r="R150" s="232"/>
       <c r="S150" s="182"/>
       <c r="T150" s="52"/>
       <c r="U150" s="53"/>
       <c r="V150" s="54"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="213"/>
+      <c r="A151" s="212"/>
       <c r="B151" s="127"/>
-      <c r="C151" s="210"/>
-      <c r="D151" s="210"/>
+      <c r="C151" s="209"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F151" s="64"/>
-      <c r="G151" s="238"/>
-      <c r="H151" s="215"/>
+      <c r="G151" s="237"/>
+      <c r="H151" s="214"/>
       <c r="I151" s="64"/>
       <c r="J151" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K151" s="239"/>
-      <c r="L151" s="245"/>
-      <c r="M151" s="245"/>
+      <c r="K151" s="238"/>
+      <c r="L151" s="244"/>
+      <c r="M151" s="244"/>
       <c r="N151" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O151" s="98"/>
-      <c r="P151" s="220"/>
-      <c r="Q151" s="232"/>
-      <c r="R151" s="233"/>
+      <c r="P151" s="219"/>
+      <c r="Q151" s="231"/>
+      <c r="R151" s="232"/>
       <c r="S151" s="182"/>
       <c r="T151" s="52"/>
       <c r="U151" s="53"/>
       <c r="V151" s="54"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="214"/>
+      <c r="A152" s="213"/>
       <c r="B152" s="127"/>
-      <c r="C152" s="210"/>
-      <c r="D152" s="210"/>
+      <c r="C152" s="209"/>
+      <c r="D152" s="209"/>
       <c r="E152" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F152" s="64"/>
-      <c r="G152" s="238"/>
-      <c r="H152" s="246"/>
+      <c r="G152" s="237"/>
+      <c r="H152" s="245"/>
       <c r="I152" s="64"/>
       <c r="J152" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K152" s="247"/>
-      <c r="L152" s="245"/>
-      <c r="M152" s="245"/>
-      <c r="N152" s="248">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O152" s="237"/>
-      <c r="P152" s="238"/>
-      <c r="Q152" s="232"/>
-      <c r="R152" s="233"/>
+      <c r="K152" s="246"/>
+      <c r="L152" s="244"/>
+      <c r="M152" s="244"/>
+      <c r="N152" s="247">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="236"/>
+      <c r="P152" s="237"/>
+      <c r="Q152" s="231"/>
+      <c r="R152" s="232"/>
       <c r="S152" s="182"/>
       <c r="T152" s="52"/>
       <c r="U152" s="53"/>
       <c r="V152" s="54"/>
     </row>
     <row r="153" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="214"/>
+      <c r="A153" s="213"/>
       <c r="B153" s="127"/>
-      <c r="C153" s="210"/>
-      <c r="D153" s="210"/>
+      <c r="C153" s="209"/>
+      <c r="D153" s="209"/>
       <c r="E153" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153" s="64"/>
-      <c r="G153" s="238"/>
-      <c r="H153" s="215"/>
+      <c r="G153" s="237"/>
+      <c r="H153" s="214"/>
       <c r="I153" s="64"/>
       <c r="J153" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K153" s="249"/>
-      <c r="L153" s="250"/>
-      <c r="M153" s="250"/>
-      <c r="N153" s="248">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O153" s="230"/>
-      <c r="P153" s="231"/>
-      <c r="Q153" s="232"/>
-      <c r="R153" s="233"/>
+      <c r="K153" s="248"/>
+      <c r="L153" s="249"/>
+      <c r="M153" s="249"/>
+      <c r="N153" s="247">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="229"/>
+      <c r="P153" s="230"/>
+      <c r="Q153" s="231"/>
+      <c r="R153" s="232"/>
       <c r="S153" s="182"/>
       <c r="T153" s="52"/>
       <c r="U153" s="53"/>
       <c r="V153" s="54"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="251"/>
+      <c r="A154" s="250"/>
       <c r="B154" s="127"/>
-      <c r="C154" s="210"/>
-      <c r="D154" s="210"/>
+      <c r="C154" s="209"/>
+      <c r="D154" s="209"/>
       <c r="E154" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F154" s="252"/>
-      <c r="G154" s="238"/>
-      <c r="H154" s="227"/>
+      <c r="F154" s="251"/>
+      <c r="G154" s="237"/>
+      <c r="H154" s="226"/>
       <c r="I154" s="64"/>
       <c r="J154" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K154" s="249"/>
-      <c r="L154" s="253"/>
-      <c r="M154" s="253"/>
-      <c r="N154" s="248">
+      <c r="K154" s="248"/>
+      <c r="L154" s="252"/>
+      <c r="M154" s="252"/>
+      <c r="N154" s="247">
         <f>K154*I154</f>
         <v>0</v>
       </c>
-      <c r="O154" s="237"/>
-      <c r="P154" s="238"/>
-      <c r="Q154" s="232"/>
-      <c r="R154" s="233"/>
+      <c r="O154" s="236"/>
+      <c r="P154" s="237"/>
+      <c r="Q154" s="231"/>
+      <c r="R154" s="232"/>
       <c r="S154" s="182"/>
       <c r="T154" s="52"/>
       <c r="U154" s="53"/>
       <c r="V154" s="54"/>
     </row>
     <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="228"/>
+      <c r="A155" s="227"/>
       <c r="B155" s="127"/>
-      <c r="C155" s="210"/>
-      <c r="D155" s="210"/>
+      <c r="C155" s="209"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F155" s="64"/>
-      <c r="G155" s="238"/>
-      <c r="H155" s="215"/>
+      <c r="G155" s="237"/>
+      <c r="H155" s="214"/>
       <c r="I155" s="64"/>
       <c r="J155" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K155" s="249"/>
-      <c r="L155" s="245"/>
-      <c r="M155" s="245"/>
-      <c r="N155" s="248">
+      <c r="K155" s="248"/>
+      <c r="L155" s="244"/>
+      <c r="M155" s="244"/>
+      <c r="N155" s="247">
         <f t="shared" ref="N155:N239" si="6">K155*I155</f>
         <v>0</v>
       </c>
-      <c r="O155" s="230"/>
-      <c r="P155" s="231"/>
-      <c r="Q155" s="232"/>
-      <c r="R155" s="233"/>
+      <c r="O155" s="229"/>
+      <c r="P155" s="230"/>
+      <c r="Q155" s="231"/>
+      <c r="R155" s="232"/>
       <c r="S155" s="182"/>
       <c r="T155" s="52"/>
       <c r="U155" s="53"/>
       <c r="V155" s="54"/>
     </row>
     <row r="156" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="214"/>
+      <c r="A156" s="213"/>
       <c r="B156" s="127"/>
-      <c r="C156" s="210"/>
-      <c r="D156" s="210"/>
+      <c r="C156" s="209"/>
+      <c r="D156" s="209"/>
       <c r="E156" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F156" s="64"/>
-      <c r="G156" s="238"/>
-      <c r="H156" s="254"/>
+      <c r="G156" s="237"/>
+      <c r="H156" s="253"/>
       <c r="I156" s="64"/>
       <c r="J156" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K156" s="100"/>
-      <c r="L156" s="245"/>
-      <c r="M156" s="245"/>
+      <c r="L156" s="244"/>
+      <c r="M156" s="244"/>
       <c r="N156" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O156" s="230"/>
-      <c r="P156" s="231"/>
-      <c r="Q156" s="232"/>
-      <c r="R156" s="233"/>
+      <c r="O156" s="229"/>
+      <c r="P156" s="230"/>
+      <c r="Q156" s="231"/>
+      <c r="R156" s="232"/>
       <c r="S156" s="182"/>
       <c r="T156" s="52"/>
       <c r="U156" s="53"/>
       <c r="V156" s="54"/>
     </row>
     <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="214"/>
+      <c r="A157" s="213"/>
       <c r="B157" s="127"/>
-      <c r="C157" s="210"/>
-      <c r="D157" s="210"/>
+      <c r="C157" s="209"/>
+      <c r="D157" s="209"/>
       <c r="E157" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F157" s="64"/>
-      <c r="G157" s="238"/>
-      <c r="H157" s="229"/>
+      <c r="G157" s="237"/>
+      <c r="H157" s="228"/>
       <c r="I157" s="64"/>
       <c r="J157" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K157" s="249"/>
-      <c r="L157" s="245"/>
-      <c r="M157" s="245"/>
-      <c r="N157" s="248">
+      <c r="K157" s="248"/>
+      <c r="L157" s="244"/>
+      <c r="M157" s="244"/>
+      <c r="N157" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O157" s="230"/>
-      <c r="P157" s="231"/>
-      <c r="Q157" s="232"/>
-      <c r="R157" s="233"/>
+      <c r="O157" s="229"/>
+      <c r="P157" s="230"/>
+      <c r="Q157" s="231"/>
+      <c r="R157" s="232"/>
       <c r="S157" s="182"/>
       <c r="T157" s="52"/>
       <c r="U157" s="53"/>
       <c r="V157" s="54"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="214"/>
+      <c r="A158" s="213"/>
       <c r="B158" s="127"/>
-      <c r="C158" s="210"/>
-      <c r="D158" s="210"/>
+      <c r="C158" s="209"/>
+      <c r="D158" s="209"/>
       <c r="E158" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F158" s="64"/>
-      <c r="G158" s="238"/>
-      <c r="H158" s="255"/>
+      <c r="G158" s="237"/>
+      <c r="H158" s="254"/>
       <c r="I158" s="64"/>
       <c r="J158" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K158" s="249"/>
-      <c r="L158" s="245"/>
-      <c r="M158" s="245"/>
-      <c r="N158" s="248">
+      <c r="K158" s="248"/>
+      <c r="L158" s="244"/>
+      <c r="M158" s="244"/>
+      <c r="N158" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O158" s="230"/>
-      <c r="P158" s="231"/>
-      <c r="Q158" s="232"/>
-      <c r="R158" s="233"/>
+      <c r="O158" s="229"/>
+      <c r="P158" s="230"/>
+      <c r="Q158" s="231"/>
+      <c r="R158" s="232"/>
       <c r="S158" s="182"/>
       <c r="T158" s="52"/>
       <c r="U158" s="53"/>
       <c r="V158" s="54"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="214"/>
+      <c r="A159" s="213"/>
       <c r="B159" s="127"/>
-      <c r="C159" s="210"/>
-      <c r="D159" s="210"/>
+      <c r="C159" s="209"/>
+      <c r="D159" s="209"/>
       <c r="E159" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159" s="64"/>
-      <c r="G159" s="238"/>
-      <c r="H159" s="256"/>
+      <c r="G159" s="237"/>
+      <c r="H159" s="255"/>
       <c r="I159" s="64"/>
       <c r="J159" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K159" s="249"/>
-      <c r="L159" s="257"/>
-      <c r="M159" s="257"/>
-      <c r="N159" s="248">
+      <c r="K159" s="248"/>
+      <c r="L159" s="256"/>
+      <c r="M159" s="256"/>
+      <c r="N159" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O159" s="230"/>
-      <c r="P159" s="231"/>
-      <c r="Q159" s="232"/>
-      <c r="R159" s="233"/>
+      <c r="O159" s="229"/>
+      <c r="P159" s="230"/>
+      <c r="Q159" s="231"/>
+      <c r="R159" s="232"/>
       <c r="S159" s="182"/>
       <c r="T159" s="52"/>
       <c r="U159" s="53"/>
       <c r="V159" s="54"/>
     </row>
     <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="214"/>
+      <c r="A160" s="213"/>
       <c r="B160" s="127"/>
-      <c r="C160" s="210"/>
-      <c r="D160" s="210"/>
+      <c r="C160" s="209"/>
+      <c r="D160" s="209"/>
       <c r="E160" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F160" s="64"/>
-      <c r="G160" s="238"/>
-      <c r="H160" s="255"/>
+      <c r="G160" s="237"/>
+      <c r="H160" s="254"/>
       <c r="I160" s="64"/>
       <c r="J160" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K160" s="249"/>
-      <c r="L160" s="257"/>
-      <c r="M160" s="257"/>
-      <c r="N160" s="248">
+      <c r="K160" s="248"/>
+      <c r="L160" s="256"/>
+      <c r="M160" s="256"/>
+      <c r="N160" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O160" s="230"/>
-      <c r="P160" s="231"/>
-      <c r="Q160" s="232"/>
-      <c r="R160" s="233"/>
+      <c r="O160" s="229"/>
+      <c r="P160" s="230"/>
+      <c r="Q160" s="231"/>
+      <c r="R160" s="232"/>
       <c r="S160" s="182"/>
       <c r="T160" s="52"/>
       <c r="U160" s="53"/>
       <c r="V160" s="54"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="214"/>
+      <c r="A161" s="213"/>
       <c r="B161" s="127"/>
-      <c r="C161" s="210"/>
-      <c r="D161" s="210"/>
+      <c r="C161" s="209"/>
+      <c r="D161" s="209"/>
       <c r="E161" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161" s="64"/>
-      <c r="G161" s="238"/>
-      <c r="H161" s="255"/>
+      <c r="G161" s="237"/>
+      <c r="H161" s="254"/>
       <c r="I161" s="64"/>
       <c r="J161" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K161" s="249"/>
-      <c r="L161" s="257"/>
-      <c r="M161" s="257"/>
-      <c r="N161" s="248">
+      <c r="K161" s="248"/>
+      <c r="L161" s="256"/>
+      <c r="M161" s="256"/>
+      <c r="N161" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O161" s="230"/>
-      <c r="P161" s="231"/>
-      <c r="Q161" s="232"/>
-      <c r="R161" s="233"/>
+      <c r="O161" s="229"/>
+      <c r="P161" s="230"/>
+      <c r="Q161" s="231"/>
+      <c r="R161" s="232"/>
       <c r="S161" s="182"/>
       <c r="T161" s="52"/>
       <c r="U161" s="53"/>
       <c r="V161" s="54"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="214"/>
+      <c r="A162" s="213"/>
       <c r="B162" s="127"/>
-      <c r="C162" s="210"/>
-      <c r="D162" s="210"/>
+      <c r="C162" s="209"/>
+      <c r="D162" s="209"/>
       <c r="E162" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F162" s="64"/>
-      <c r="G162" s="238"/>
-      <c r="H162" s="255"/>
+      <c r="G162" s="237"/>
+      <c r="H162" s="254"/>
       <c r="I162" s="64"/>
       <c r="J162" s="45">
         <f t="shared" si="5"/>
@@ -9263,27 +9279,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O162" s="230"/>
-      <c r="P162" s="231"/>
-      <c r="Q162" s="232"/>
-      <c r="R162" s="233"/>
+      <c r="O162" s="229"/>
+      <c r="P162" s="230"/>
+      <c r="Q162" s="231"/>
+      <c r="R162" s="232"/>
       <c r="S162" s="182"/>
       <c r="T162" s="52"/>
       <c r="U162" s="53"/>
       <c r="V162" s="54"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="214"/>
+      <c r="A163" s="213"/>
       <c r="B163" s="127"/>
-      <c r="C163" s="258"/>
-      <c r="D163" s="258"/>
+      <c r="C163" s="257"/>
+      <c r="D163" s="257"/>
       <c r="E163" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F163" s="64"/>
-      <c r="G163" s="238"/>
-      <c r="H163" s="255"/>
+      <c r="G163" s="237"/>
+      <c r="H163" s="254"/>
       <c r="I163" s="64"/>
       <c r="J163" s="45">
         <f t="shared" si="5"/>
@@ -9296,8 +9312,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O163" s="237"/>
-      <c r="P163" s="259"/>
+      <c r="O163" s="236"/>
+      <c r="P163" s="258"/>
       <c r="Q163" s="128"/>
       <c r="R163" s="129"/>
       <c r="S163" s="182"/>
@@ -9306,17 +9322,17 @@
       <c r="V163" s="54"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="214"/>
+      <c r="A164" s="213"/>
       <c r="B164" s="127"/>
-      <c r="C164" s="258"/>
-      <c r="D164" s="258"/>
+      <c r="C164" s="257"/>
+      <c r="D164" s="257"/>
       <c r="E164" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F164" s="64"/>
-      <c r="G164" s="238"/>
-      <c r="H164" s="255"/>
+      <c r="G164" s="237"/>
+      <c r="H164" s="254"/>
       <c r="I164" s="64"/>
       <c r="J164" s="45">
         <f t="shared" si="5"/>
@@ -9329,8 +9345,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O164" s="237"/>
-      <c r="P164" s="259"/>
+      <c r="O164" s="236"/>
+      <c r="P164" s="258"/>
       <c r="Q164" s="128"/>
       <c r="R164" s="129"/>
       <c r="S164" s="182"/>
@@ -9341,15 +9357,15 @@
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="118"/>
       <c r="B165" s="127"/>
-      <c r="C165" s="240"/>
-      <c r="D165" s="240"/>
+      <c r="C165" s="239"/>
+      <c r="D165" s="239"/>
       <c r="E165" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F165" s="64"/>
-      <c r="G165" s="238"/>
-      <c r="H165" s="241"/>
+      <c r="G165" s="237"/>
+      <c r="H165" s="240"/>
       <c r="I165" s="64"/>
       <c r="J165" s="45">
         <f t="shared" si="5"/>
@@ -9363,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="98"/>
-      <c r="P165" s="220"/>
+      <c r="P165" s="219"/>
       <c r="Q165" s="128"/>
       <c r="R165" s="129"/>
       <c r="S165" s="182"/>
@@ -9372,16 +9388,16 @@
       <c r="V165" s="54"/>
     </row>
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="214"/>
+      <c r="A166" s="213"/>
       <c r="B166" s="127"/>
-      <c r="C166" s="260"/>
-      <c r="D166" s="260"/>
+      <c r="C166" s="259"/>
+      <c r="D166" s="259"/>
       <c r="E166" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166" s="64"/>
-      <c r="G166" s="238"/>
+      <c r="G166" s="237"/>
       <c r="H166" s="63"/>
       <c r="I166" s="64"/>
       <c r="J166" s="45">
@@ -9396,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="98"/>
-      <c r="P166" s="220"/>
+      <c r="P166" s="219"/>
       <c r="Q166" s="128"/>
       <c r="R166" s="129"/>
       <c r="S166" s="182"/>
@@ -9405,17 +9421,17 @@
       <c r="V166" s="54"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="223"/>
+      <c r="A167" s="222"/>
       <c r="B167" s="127"/>
-      <c r="C167" s="240"/>
-      <c r="D167" s="240"/>
+      <c r="C167" s="239"/>
+      <c r="D167" s="239"/>
       <c r="E167" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F167" s="64"/>
-      <c r="G167" s="238"/>
-      <c r="H167" s="241"/>
+      <c r="G167" s="237"/>
+      <c r="H167" s="240"/>
       <c r="I167" s="64"/>
       <c r="J167" s="45">
         <f t="shared" si="5"/>
@@ -9429,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="98"/>
-      <c r="P167" s="220"/>
+      <c r="P167" s="219"/>
       <c r="Q167" s="128"/>
       <c r="R167" s="129"/>
       <c r="S167" s="182"/>
@@ -9438,17 +9454,17 @@
       <c r="V167" s="54"/>
     </row>
     <row r="168" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="261"/>
-      <c r="B168" s="262"/>
-      <c r="C168" s="222"/>
-      <c r="D168" s="222"/>
+      <c r="A168" s="260"/>
+      <c r="B168" s="261"/>
+      <c r="C168" s="221"/>
+      <c r="D168" s="221"/>
       <c r="E168" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F168" s="64"/>
-      <c r="G168" s="238"/>
-      <c r="H168" s="241"/>
+      <c r="G168" s="237"/>
+      <c r="H168" s="240"/>
       <c r="I168" s="64"/>
       <c r="J168" s="45">
         <f t="shared" si="5"/>
@@ -9461,8 +9477,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O168" s="242"/>
-      <c r="P168" s="243"/>
+      <c r="O168" s="241"/>
+      <c r="P168" s="242"/>
       <c r="Q168" s="128"/>
       <c r="R168" s="129"/>
       <c r="S168" s="182"/>
@@ -9471,17 +9487,17 @@
       <c r="V168" s="54"/>
     </row>
     <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="223"/>
+      <c r="A169" s="222"/>
       <c r="B169" s="127"/>
-      <c r="C169" s="263"/>
-      <c r="D169" s="263"/>
+      <c r="C169" s="262"/>
+      <c r="D169" s="262"/>
       <c r="E169" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F169" s="64"/>
-      <c r="G169" s="238"/>
-      <c r="H169" s="241"/>
+      <c r="G169" s="237"/>
+      <c r="H169" s="240"/>
       <c r="I169" s="64"/>
       <c r="J169" s="45">
         <f t="shared" si="5"/>
@@ -9495,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="98"/>
-      <c r="P169" s="220"/>
+      <c r="P169" s="219"/>
       <c r="Q169" s="128"/>
       <c r="R169" s="129"/>
       <c r="S169" s="182"/>
@@ -9504,17 +9520,17 @@
       <c r="V169" s="54"/>
     </row>
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="223"/>
+      <c r="A170" s="222"/>
       <c r="B170" s="127"/>
-      <c r="C170" s="263"/>
-      <c r="D170" s="263"/>
+      <c r="C170" s="262"/>
+      <c r="D170" s="262"/>
       <c r="E170" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170" s="64"/>
-      <c r="G170" s="238"/>
-      <c r="H170" s="241"/>
+      <c r="G170" s="237"/>
+      <c r="H170" s="240"/>
       <c r="I170" s="64"/>
       <c r="J170" s="45">
         <f t="shared" si="5"/>
@@ -9528,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="98"/>
-      <c r="P170" s="220"/>
+      <c r="P170" s="219"/>
       <c r="Q170" s="128"/>
       <c r="R170" s="129"/>
       <c r="S170" s="182"/>
@@ -9537,17 +9553,17 @@
       <c r="V170" s="54"/>
     </row>
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="264"/>
+      <c r="A171" s="263"/>
       <c r="B171" s="127"/>
-      <c r="C171" s="265"/>
-      <c r="D171" s="265"/>
+      <c r="C171" s="264"/>
+      <c r="D171" s="264"/>
       <c r="E171" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F171" s="64"/>
-      <c r="G171" s="238"/>
-      <c r="H171" s="241"/>
+      <c r="G171" s="237"/>
+      <c r="H171" s="240"/>
       <c r="I171" s="64"/>
       <c r="J171" s="45">
         <f t="shared" si="5"/>
@@ -9561,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="O171" s="98"/>
-      <c r="P171" s="220"/>
+      <c r="P171" s="219"/>
       <c r="Q171" s="128"/>
       <c r="R171" s="129"/>
       <c r="S171" s="182"/>
@@ -9570,17 +9586,17 @@
       <c r="V171" s="54"/>
     </row>
     <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="223"/>
+      <c r="A172" s="222"/>
       <c r="B172" s="127"/>
-      <c r="C172" s="266"/>
-      <c r="D172" s="266"/>
+      <c r="C172" s="265"/>
+      <c r="D172" s="265"/>
       <c r="E172" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F172" s="64"/>
-      <c r="G172" s="267"/>
-      <c r="H172" s="241"/>
+      <c r="G172" s="266"/>
+      <c r="H172" s="240"/>
       <c r="I172" s="64"/>
       <c r="J172" s="45">
         <f t="shared" si="5"/>
@@ -9593,8 +9609,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O172" s="268"/>
-      <c r="P172" s="269"/>
+      <c r="O172" s="267"/>
+      <c r="P172" s="268"/>
       <c r="Q172" s="128"/>
       <c r="R172" s="129"/>
       <c r="S172" s="182"/>
@@ -9603,17 +9619,17 @@
       <c r="V172" s="54"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="223"/>
+      <c r="A173" s="222"/>
       <c r="B173" s="127"/>
-      <c r="C173" s="266"/>
-      <c r="D173" s="266"/>
+      <c r="C173" s="265"/>
+      <c r="D173" s="265"/>
       <c r="E173" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F173" s="64"/>
       <c r="G173" s="117"/>
-      <c r="H173" s="241"/>
+      <c r="H173" s="240"/>
       <c r="I173" s="64"/>
       <c r="J173" s="45">
         <f t="shared" si="5"/>
@@ -9626,8 +9642,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O173" s="268"/>
-      <c r="P173" s="269"/>
+      <c r="O173" s="267"/>
+      <c r="P173" s="268"/>
       <c r="Q173" s="128"/>
       <c r="R173" s="129"/>
       <c r="S173" s="182"/>
@@ -9636,18 +9652,18 @@
       <c r="V173" s="54"/>
     </row>
     <row r="174" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="223"/>
-      <c r="B174" s="213"/>
-      <c r="C174" s="270"/>
-      <c r="D174" s="270"/>
+      <c r="A174" s="222"/>
+      <c r="B174" s="212"/>
+      <c r="C174" s="269"/>
+      <c r="D174" s="269"/>
       <c r="E174" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F174" s="271"/>
-      <c r="G174" s="238"/>
-      <c r="H174" s="272"/>
-      <c r="I174" s="271"/>
+      <c r="F174" s="270"/>
+      <c r="G174" s="237"/>
+      <c r="H174" s="271"/>
+      <c r="I174" s="270"/>
       <c r="J174" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9656,28 +9672,28 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O174" s="273"/>
-      <c r="P174" s="259"/>
-      <c r="Q174" s="274"/>
-      <c r="R174" s="275"/>
-      <c r="S174" s="276"/>
-      <c r="T174" s="277"/>
-      <c r="U174" s="278"/>
-      <c r="V174" s="279"/>
+      <c r="O174" s="272"/>
+      <c r="P174" s="258"/>
+      <c r="Q174" s="273"/>
+      <c r="R174" s="274"/>
+      <c r="S174" s="275"/>
+      <c r="T174" s="276"/>
+      <c r="U174" s="277"/>
+      <c r="V174" s="278"/>
     </row>
     <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="223"/>
+      <c r="A175" s="222"/>
       <c r="B175" s="127"/>
-      <c r="C175" s="265"/>
-      <c r="D175" s="265"/>
+      <c r="C175" s="264"/>
+      <c r="D175" s="264"/>
       <c r="E175" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F175" s="271"/>
-      <c r="G175" s="238"/>
-      <c r="H175" s="272"/>
-      <c r="I175" s="271"/>
+      <c r="F175" s="270"/>
+      <c r="G175" s="237"/>
+      <c r="H175" s="271"/>
+      <c r="I175" s="270"/>
       <c r="J175" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9686,27 +9702,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O175" s="273"/>
-      <c r="P175" s="259"/>
-      <c r="Q175" s="274"/>
-      <c r="R175" s="275"/>
-      <c r="S175" s="276"/>
-      <c r="T175" s="277"/>
-      <c r="U175" s="278"/>
-      <c r="V175" s="279"/>
+      <c r="O175" s="272"/>
+      <c r="P175" s="258"/>
+      <c r="Q175" s="273"/>
+      <c r="R175" s="274"/>
+      <c r="S175" s="275"/>
+      <c r="T175" s="276"/>
+      <c r="U175" s="277"/>
+      <c r="V175" s="278"/>
     </row>
     <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="223"/>
+      <c r="A176" s="222"/>
       <c r="B176" s="127"/>
-      <c r="C176" s="265"/>
-      <c r="D176" s="265"/>
+      <c r="C176" s="264"/>
+      <c r="D176" s="264"/>
       <c r="E176" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F176" s="64"/>
-      <c r="G176" s="238"/>
-      <c r="H176" s="241"/>
+      <c r="G176" s="237"/>
+      <c r="H176" s="240"/>
       <c r="I176" s="64"/>
       <c r="J176" s="45">
         <f t="shared" si="5"/>
@@ -9720,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="98"/>
-      <c r="P176" s="220"/>
+      <c r="P176" s="219"/>
       <c r="Q176" s="128"/>
       <c r="R176" s="129"/>
       <c r="S176" s="182"/>
@@ -9729,17 +9745,17 @@
       <c r="V176" s="54"/>
     </row>
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="223"/>
+      <c r="A177" s="222"/>
       <c r="B177" s="127"/>
-      <c r="C177" s="265"/>
-      <c r="D177" s="265"/>
+      <c r="C177" s="264"/>
+      <c r="D177" s="264"/>
       <c r="E177" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F177" s="64"/>
-      <c r="G177" s="238"/>
-      <c r="H177" s="241"/>
+      <c r="G177" s="237"/>
+      <c r="H177" s="240"/>
       <c r="I177" s="64"/>
       <c r="J177" s="45">
         <f t="shared" si="5"/>
@@ -9753,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="O177" s="98"/>
-      <c r="P177" s="220"/>
+      <c r="P177" s="219"/>
       <c r="Q177" s="128"/>
       <c r="R177" s="129"/>
       <c r="S177" s="182"/>
@@ -9762,17 +9778,17 @@
       <c r="V177" s="54"/>
     </row>
     <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="223"/>
+      <c r="A178" s="222"/>
       <c r="B178" s="127"/>
-      <c r="C178" s="280"/>
-      <c r="D178" s="280"/>
+      <c r="C178" s="279"/>
+      <c r="D178" s="279"/>
       <c r="E178" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F178" s="64"/>
-      <c r="G178" s="267"/>
-      <c r="H178" s="241"/>
+      <c r="G178" s="266"/>
+      <c r="H178" s="240"/>
       <c r="I178" s="64"/>
       <c r="J178" s="45">
         <f t="shared" si="5"/>
@@ -9786,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="98"/>
-      <c r="P178" s="220"/>
+      <c r="P178" s="219"/>
       <c r="Q178" s="128"/>
       <c r="R178" s="129"/>
       <c r="S178" s="182"/>
@@ -9795,17 +9811,17 @@
       <c r="V178" s="54"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="223"/>
+      <c r="A179" s="222"/>
       <c r="B179" s="127"/>
-      <c r="C179" s="280"/>
-      <c r="D179" s="280"/>
+      <c r="C179" s="279"/>
+      <c r="D179" s="279"/>
       <c r="E179" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F179" s="64"/>
-      <c r="G179" s="267"/>
-      <c r="H179" s="241"/>
+      <c r="G179" s="266"/>
+      <c r="H179" s="240"/>
       <c r="I179" s="64"/>
       <c r="J179" s="45">
         <f t="shared" si="5"/>
@@ -9819,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="O179" s="98"/>
-      <c r="P179" s="220"/>
+      <c r="P179" s="219"/>
       <c r="Q179" s="128"/>
       <c r="R179" s="129"/>
       <c r="S179" s="182"/>
@@ -9828,17 +9844,17 @@
       <c r="V179" s="54"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="223"/>
+      <c r="A180" s="222"/>
       <c r="B180" s="127"/>
-      <c r="C180" s="280"/>
-      <c r="D180" s="280"/>
+      <c r="C180" s="279"/>
+      <c r="D180" s="279"/>
       <c r="E180" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F180" s="64"/>
-      <c r="G180" s="267"/>
-      <c r="H180" s="241"/>
+      <c r="G180" s="266"/>
+      <c r="H180" s="240"/>
       <c r="I180" s="64"/>
       <c r="J180" s="45">
         <f t="shared" si="5"/>
@@ -9852,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="98"/>
-      <c r="P180" s="220"/>
+      <c r="P180" s="219"/>
       <c r="Q180" s="128"/>
       <c r="R180" s="129"/>
       <c r="S180" s="182"/>
@@ -9861,17 +9877,17 @@
       <c r="V180" s="54"/>
     </row>
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="223"/>
-      <c r="B181" s="213"/>
-      <c r="C181" s="281"/>
-      <c r="D181" s="281"/>
+      <c r="A181" s="222"/>
+      <c r="B181" s="212"/>
+      <c r="C181" s="280"/>
+      <c r="D181" s="280"/>
       <c r="E181" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F181" s="64"/>
-      <c r="G181" s="267"/>
-      <c r="H181" s="241"/>
+      <c r="G181" s="266"/>
+      <c r="H181" s="240"/>
       <c r="I181" s="64"/>
       <c r="J181" s="45">
         <f t="shared" si="5"/>
@@ -9885,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="98"/>
-      <c r="P181" s="220"/>
+      <c r="P181" s="219"/>
       <c r="Q181" s="128"/>
       <c r="R181" s="129"/>
       <c r="S181" s="182"/>
@@ -9894,17 +9910,17 @@
       <c r="V181" s="54"/>
     </row>
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="223"/>
+      <c r="A182" s="222"/>
       <c r="B182" s="127"/>
-      <c r="C182" s="280"/>
-      <c r="D182" s="280"/>
+      <c r="C182" s="279"/>
+      <c r="D182" s="279"/>
       <c r="E182" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F182" s="64"/>
-      <c r="G182" s="267"/>
-      <c r="H182" s="241"/>
+      <c r="G182" s="266"/>
+      <c r="H182" s="240"/>
       <c r="I182" s="64"/>
       <c r="J182" s="45">
         <f t="shared" si="5"/>
@@ -9918,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="98"/>
-      <c r="P182" s="220"/>
+      <c r="P182" s="219"/>
       <c r="Q182" s="128"/>
       <c r="R182" s="129"/>
       <c r="S182" s="182"/>
@@ -9927,17 +9943,17 @@
       <c r="V182" s="54"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="223"/>
+      <c r="A183" s="222"/>
       <c r="B183" s="127"/>
-      <c r="C183" s="260"/>
-      <c r="D183" s="260"/>
+      <c r="C183" s="259"/>
+      <c r="D183" s="259"/>
       <c r="E183" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F183" s="64"/>
-      <c r="G183" s="238"/>
-      <c r="H183" s="241"/>
+      <c r="G183" s="237"/>
+      <c r="H183" s="240"/>
       <c r="I183" s="64"/>
       <c r="J183" s="45">
         <f t="shared" si="5"/>
@@ -9951,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="98"/>
-      <c r="P183" s="220"/>
+      <c r="P183" s="219"/>
       <c r="Q183" s="128"/>
       <c r="R183" s="129"/>
       <c r="S183" s="182"/>
@@ -9960,17 +9976,17 @@
       <c r="V183" s="54"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="223"/>
+      <c r="A184" s="222"/>
       <c r="B184" s="127"/>
-      <c r="C184" s="260"/>
-      <c r="D184" s="260"/>
+      <c r="C184" s="259"/>
+      <c r="D184" s="259"/>
       <c r="E184" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F184" s="64"/>
-      <c r="G184" s="238"/>
-      <c r="H184" s="241"/>
+      <c r="G184" s="237"/>
+      <c r="H184" s="240"/>
       <c r="I184" s="64"/>
       <c r="J184" s="45">
         <f t="shared" si="5"/>
@@ -9984,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="98"/>
-      <c r="P184" s="220"/>
+      <c r="P184" s="219"/>
       <c r="Q184" s="128"/>
       <c r="R184" s="129"/>
       <c r="S184" s="182"/>
@@ -9993,17 +10009,17 @@
       <c r="V184" s="54"/>
     </row>
     <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="223"/>
+      <c r="A185" s="222"/>
       <c r="B185" s="127"/>
-      <c r="C185" s="260"/>
-      <c r="D185" s="260"/>
+      <c r="C185" s="259"/>
+      <c r="D185" s="259"/>
       <c r="E185" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F185" s="64"/>
-      <c r="G185" s="238"/>
-      <c r="H185" s="241"/>
+      <c r="G185" s="237"/>
+      <c r="H185" s="240"/>
       <c r="I185" s="64"/>
       <c r="J185" s="45">
         <f t="shared" si="5"/>
@@ -10017,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="O185" s="98"/>
-      <c r="P185" s="220"/>
+      <c r="P185" s="219"/>
       <c r="Q185" s="128"/>
       <c r="R185" s="129"/>
       <c r="S185" s="182"/>
@@ -10026,17 +10042,17 @@
       <c r="V185" s="54"/>
     </row>
     <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="223"/>
+      <c r="A186" s="222"/>
       <c r="B186" s="127"/>
-      <c r="C186" s="260"/>
-      <c r="D186" s="260"/>
+      <c r="C186" s="259"/>
+      <c r="D186" s="259"/>
       <c r="E186" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F186" s="64"/>
-      <c r="G186" s="238"/>
-      <c r="H186" s="241"/>
+      <c r="G186" s="237"/>
+      <c r="H186" s="240"/>
       <c r="I186" s="64"/>
       <c r="J186" s="45">
         <f t="shared" si="5"/>
@@ -10050,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="98"/>
-      <c r="P186" s="220"/>
+      <c r="P186" s="219"/>
       <c r="Q186" s="128"/>
       <c r="R186" s="129"/>
       <c r="S186" s="182"/>
@@ -10059,17 +10075,17 @@
       <c r="V186" s="54"/>
     </row>
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="264"/>
-      <c r="B187" s="213"/>
-      <c r="C187" s="265"/>
-      <c r="D187" s="265"/>
+      <c r="A187" s="263"/>
+      <c r="B187" s="212"/>
+      <c r="C187" s="264"/>
+      <c r="D187" s="264"/>
       <c r="E187" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F187" s="64"/>
-      <c r="G187" s="238"/>
-      <c r="H187" s="241"/>
+      <c r="G187" s="237"/>
+      <c r="H187" s="240"/>
       <c r="I187" s="64"/>
       <c r="J187" s="45">
         <f t="shared" si="5"/>
@@ -10083,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="98"/>
-      <c r="P187" s="220"/>
+      <c r="P187" s="219"/>
       <c r="Q187" s="128"/>
       <c r="R187" s="129"/>
       <c r="S187" s="182"/>
@@ -10092,17 +10108,17 @@
       <c r="V187" s="54"/>
     </row>
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="282"/>
+      <c r="A188" s="281"/>
       <c r="B188" s="127"/>
-      <c r="C188" s="266"/>
-      <c r="D188" s="266"/>
+      <c r="C188" s="265"/>
+      <c r="D188" s="265"/>
       <c r="E188" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F188" s="64"/>
       <c r="G188" s="117"/>
-      <c r="H188" s="241"/>
+      <c r="H188" s="240"/>
       <c r="I188" s="64"/>
       <c r="J188" s="45">
         <f t="shared" si="5"/>
@@ -10115,8 +10131,8 @@
         <f>K188*I188</f>
         <v>0</v>
       </c>
-      <c r="O188" s="268"/>
-      <c r="P188" s="269"/>
+      <c r="O188" s="267"/>
+      <c r="P188" s="268"/>
       <c r="Q188" s="128"/>
       <c r="R188" s="129"/>
       <c r="S188" s="182"/>
@@ -10125,17 +10141,17 @@
       <c r="V188" s="54"/>
     </row>
     <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="223"/>
-      <c r="B189" s="213"/>
-      <c r="C189" s="283"/>
-      <c r="D189" s="283"/>
+      <c r="A189" s="222"/>
+      <c r="B189" s="212"/>
+      <c r="C189" s="282"/>
+      <c r="D189" s="282"/>
       <c r="E189" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F189" s="64"/>
-      <c r="G189" s="238"/>
-      <c r="H189" s="241"/>
+      <c r="G189" s="237"/>
+      <c r="H189" s="240"/>
       <c r="I189" s="64"/>
       <c r="J189" s="45">
         <f t="shared" si="5"/>
@@ -10149,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="O189" s="98"/>
-      <c r="P189" s="220"/>
+      <c r="P189" s="219"/>
       <c r="Q189" s="128"/>
       <c r="R189" s="129"/>
       <c r="S189" s="182"/>
@@ -10158,17 +10174,17 @@
       <c r="V189" s="54"/>
     </row>
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="223"/>
-      <c r="B190" s="213"/>
-      <c r="C190" s="283"/>
-      <c r="D190" s="283"/>
+      <c r="A190" s="222"/>
+      <c r="B190" s="212"/>
+      <c r="C190" s="282"/>
+      <c r="D190" s="282"/>
       <c r="E190" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F190" s="64"/>
-      <c r="G190" s="238"/>
-      <c r="H190" s="241"/>
+      <c r="G190" s="237"/>
+      <c r="H190" s="240"/>
       <c r="I190" s="64"/>
       <c r="J190" s="45">
         <f t="shared" si="5"/>
@@ -10182,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="98"/>
-      <c r="P190" s="220"/>
+      <c r="P190" s="219"/>
       <c r="Q190" s="128"/>
       <c r="R190" s="129"/>
       <c r="S190" s="182"/>
@@ -10191,17 +10207,17 @@
       <c r="V190" s="54"/>
     </row>
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="223"/>
-      <c r="B191" s="213"/>
-      <c r="C191" s="283"/>
-      <c r="D191" s="283"/>
+      <c r="A191" s="222"/>
+      <c r="B191" s="212"/>
+      <c r="C191" s="282"/>
+      <c r="D191" s="282"/>
       <c r="E191" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F191" s="64"/>
-      <c r="G191" s="238"/>
-      <c r="H191" s="241"/>
+      <c r="G191" s="237"/>
+      <c r="H191" s="240"/>
       <c r="I191" s="64"/>
       <c r="J191" s="45">
         <f t="shared" si="5"/>
@@ -10215,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="O191" s="98"/>
-      <c r="P191" s="220"/>
+      <c r="P191" s="219"/>
       <c r="Q191" s="128"/>
       <c r="R191" s="129"/>
       <c r="S191" s="182"/>
@@ -10224,17 +10240,17 @@
       <c r="V191" s="54"/>
     </row>
     <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="223"/>
-      <c r="B192" s="213"/>
-      <c r="C192" s="283"/>
-      <c r="D192" s="283"/>
+      <c r="A192" s="222"/>
+      <c r="B192" s="212"/>
+      <c r="C192" s="282"/>
+      <c r="D192" s="282"/>
       <c r="E192" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F192" s="284"/>
-      <c r="G192" s="267"/>
-      <c r="H192" s="241"/>
+      <c r="F192" s="283"/>
+      <c r="G192" s="266"/>
+      <c r="H192" s="240"/>
       <c r="I192" s="64"/>
       <c r="J192" s="45">
         <f t="shared" si="5"/>
@@ -10248,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="98"/>
-      <c r="P192" s="220"/>
+      <c r="P192" s="219"/>
       <c r="Q192" s="128"/>
       <c r="R192" s="129"/>
       <c r="S192" s="182"/>
@@ -10257,17 +10273,17 @@
       <c r="V192" s="54"/>
     </row>
     <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="223"/>
-      <c r="B193" s="213"/>
-      <c r="C193" s="283"/>
-      <c r="D193" s="283"/>
+      <c r="A193" s="222"/>
+      <c r="B193" s="212"/>
+      <c r="C193" s="282"/>
+      <c r="D193" s="282"/>
       <c r="E193" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F193" s="284"/>
-      <c r="G193" s="267"/>
-      <c r="H193" s="241"/>
+      <c r="F193" s="283"/>
+      <c r="G193" s="266"/>
+      <c r="H193" s="240"/>
       <c r="I193" s="64"/>
       <c r="J193" s="45">
         <f t="shared" si="5"/>
@@ -10281,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="O193" s="98"/>
-      <c r="P193" s="220"/>
+      <c r="P193" s="219"/>
       <c r="Q193" s="128"/>
       <c r="R193" s="129"/>
       <c r="S193" s="182"/>
@@ -10290,17 +10306,17 @@
       <c r="V193" s="54"/>
     </row>
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="223"/>
-      <c r="B194" s="213"/>
-      <c r="C194" s="283"/>
-      <c r="D194" s="283"/>
+      <c r="A194" s="222"/>
+      <c r="B194" s="212"/>
+      <c r="C194" s="282"/>
+      <c r="D194" s="282"/>
       <c r="E194" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F194" s="284"/>
-      <c r="G194" s="267"/>
-      <c r="H194" s="241"/>
+      <c r="F194" s="283"/>
+      <c r="G194" s="266"/>
+      <c r="H194" s="240"/>
       <c r="I194" s="64"/>
       <c r="J194" s="45">
         <f t="shared" si="5"/>
@@ -10314,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="O194" s="98"/>
-      <c r="P194" s="220"/>
+      <c r="P194" s="219"/>
       <c r="Q194" s="128"/>
       <c r="R194" s="129"/>
       <c r="S194" s="182"/>
@@ -10323,17 +10339,17 @@
       <c r="V194" s="54"/>
     </row>
     <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="223"/>
-      <c r="B195" s="213"/>
-      <c r="C195" s="283"/>
-      <c r="D195" s="283"/>
+      <c r="A195" s="222"/>
+      <c r="B195" s="212"/>
+      <c r="C195" s="282"/>
+      <c r="D195" s="282"/>
       <c r="E195" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F195" s="284"/>
-      <c r="G195" s="267"/>
-      <c r="H195" s="241"/>
+      <c r="F195" s="283"/>
+      <c r="G195" s="266"/>
+      <c r="H195" s="240"/>
       <c r="I195" s="64"/>
       <c r="J195" s="45">
         <f t="shared" si="5"/>
@@ -10347,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="98"/>
-      <c r="P195" s="220"/>
+      <c r="P195" s="219"/>
       <c r="Q195" s="128"/>
       <c r="R195" s="129"/>
       <c r="S195" s="182"/>
@@ -10356,17 +10372,17 @@
       <c r="V195" s="54"/>
     </row>
     <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="223"/>
-      <c r="B196" s="213"/>
-      <c r="C196" s="283"/>
-      <c r="D196" s="283"/>
+      <c r="A196" s="222"/>
+      <c r="B196" s="212"/>
+      <c r="C196" s="282"/>
+      <c r="D196" s="282"/>
       <c r="E196" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F196" s="284"/>
-      <c r="G196" s="267"/>
-      <c r="H196" s="241"/>
+      <c r="F196" s="283"/>
+      <c r="G196" s="266"/>
+      <c r="H196" s="240"/>
       <c r="I196" s="64"/>
       <c r="J196" s="45">
         <f t="shared" si="5"/>
@@ -10380,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="O196" s="98"/>
-      <c r="P196" s="220"/>
+      <c r="P196" s="219"/>
       <c r="Q196" s="128"/>
       <c r="R196" s="129"/>
       <c r="S196" s="182"/>
@@ -10389,17 +10405,17 @@
       <c r="V196" s="54"/>
     </row>
     <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="223"/>
-      <c r="B197" s="213"/>
-      <c r="C197" s="283"/>
-      <c r="D197" s="283"/>
+      <c r="A197" s="222"/>
+      <c r="B197" s="212"/>
+      <c r="C197" s="282"/>
+      <c r="D197" s="282"/>
       <c r="E197" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F197" s="284"/>
-      <c r="G197" s="267"/>
-      <c r="H197" s="241"/>
+      <c r="F197" s="283"/>
+      <c r="G197" s="266"/>
+      <c r="H197" s="240"/>
       <c r="I197" s="64"/>
       <c r="J197" s="45">
         <f t="shared" si="5"/>
@@ -10413,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="O197" s="98"/>
-      <c r="P197" s="220"/>
+      <c r="P197" s="219"/>
       <c r="Q197" s="128"/>
       <c r="R197" s="129"/>
       <c r="S197" s="182"/>
@@ -10422,17 +10438,17 @@
       <c r="V197" s="54"/>
     </row>
     <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="223"/>
-      <c r="B198" s="213"/>
-      <c r="C198" s="283"/>
-      <c r="D198" s="283"/>
+      <c r="A198" s="222"/>
+      <c r="B198" s="212"/>
+      <c r="C198" s="282"/>
+      <c r="D198" s="282"/>
       <c r="E198" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F198" s="284"/>
-      <c r="G198" s="267"/>
-      <c r="H198" s="241"/>
+      <c r="F198" s="283"/>
+      <c r="G198" s="266"/>
+      <c r="H198" s="240"/>
       <c r="I198" s="64"/>
       <c r="J198" s="45">
         <f t="shared" si="5"/>
@@ -10446,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="O198" s="98"/>
-      <c r="P198" s="220"/>
+      <c r="P198" s="219"/>
       <c r="Q198" s="128"/>
       <c r="R198" s="129"/>
       <c r="S198" s="182"/>
@@ -10455,17 +10471,17 @@
       <c r="V198" s="54"/>
     </row>
     <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="223"/>
-      <c r="B199" s="213"/>
-      <c r="C199" s="283"/>
-      <c r="D199" s="283"/>
+      <c r="A199" s="222"/>
+      <c r="B199" s="212"/>
+      <c r="C199" s="282"/>
+      <c r="D199" s="282"/>
       <c r="E199" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F199" s="64"/>
-      <c r="G199" s="267"/>
-      <c r="H199" s="241"/>
+      <c r="G199" s="266"/>
+      <c r="H199" s="240"/>
       <c r="I199" s="64"/>
       <c r="J199" s="45">
         <f t="shared" si="5"/>
@@ -10479,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="O199" s="98"/>
-      <c r="P199" s="220"/>
+      <c r="P199" s="219"/>
       <c r="Q199" s="128"/>
       <c r="R199" s="129"/>
       <c r="S199" s="182"/>
@@ -10488,17 +10504,17 @@
       <c r="V199" s="54"/>
     </row>
     <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="223"/>
-      <c r="B200" s="213"/>
-      <c r="C200" s="260"/>
-      <c r="D200" s="260"/>
+      <c r="A200" s="222"/>
+      <c r="B200" s="212"/>
+      <c r="C200" s="259"/>
+      <c r="D200" s="259"/>
       <c r="E200" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F200" s="64"/>
-      <c r="G200" s="238"/>
-      <c r="H200" s="241"/>
+      <c r="G200" s="237"/>
+      <c r="H200" s="240"/>
       <c r="I200" s="64"/>
       <c r="J200" s="45">
         <f t="shared" si="5"/>
@@ -10512,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="O200" s="98"/>
-      <c r="P200" s="220"/>
+      <c r="P200" s="219"/>
       <c r="Q200" s="128"/>
       <c r="R200" s="129"/>
       <c r="S200" s="182"/>
@@ -10521,17 +10537,17 @@
       <c r="V200" s="54"/>
     </row>
     <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="223"/>
-      <c r="B201" s="213"/>
-      <c r="C201" s="260"/>
-      <c r="D201" s="260"/>
+      <c r="A201" s="222"/>
+      <c r="B201" s="212"/>
+      <c r="C201" s="259"/>
+      <c r="D201" s="259"/>
       <c r="E201" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F201" s="64"/>
-      <c r="G201" s="238"/>
-      <c r="H201" s="241"/>
+      <c r="G201" s="237"/>
+      <c r="H201" s="240"/>
       <c r="I201" s="64"/>
       <c r="J201" s="45">
         <f t="shared" si="5"/>
@@ -10545,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="98"/>
-      <c r="P201" s="220"/>
+      <c r="P201" s="219"/>
       <c r="Q201" s="128"/>
       <c r="R201" s="129"/>
       <c r="S201" s="182"/>
@@ -10554,17 +10570,17 @@
       <c r="V201" s="54"/>
     </row>
     <row r="202" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="223"/>
-      <c r="B202" s="213"/>
-      <c r="C202" s="260"/>
-      <c r="D202" s="260"/>
+      <c r="A202" s="222"/>
+      <c r="B202" s="212"/>
+      <c r="C202" s="259"/>
+      <c r="D202" s="259"/>
       <c r="E202" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F202" s="64"/>
-      <c r="G202" s="238"/>
-      <c r="H202" s="241"/>
+      <c r="G202" s="237"/>
+      <c r="H202" s="240"/>
       <c r="I202" s="64"/>
       <c r="J202" s="45">
         <f t="shared" si="5"/>
@@ -10578,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="98"/>
-      <c r="P202" s="220"/>
+      <c r="P202" s="219"/>
       <c r="Q202" s="128"/>
       <c r="R202" s="129"/>
       <c r="S202" s="182"/>
@@ -10587,17 +10603,17 @@
       <c r="V202" s="54"/>
     </row>
     <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="223"/>
-      <c r="B203" s="213"/>
-      <c r="C203" s="260"/>
-      <c r="D203" s="260"/>
+      <c r="A203" s="222"/>
+      <c r="B203" s="212"/>
+      <c r="C203" s="259"/>
+      <c r="D203" s="259"/>
       <c r="E203" s="40">
         <f t="shared" ref="E203:E261" si="7">D203*F203</f>
         <v>0</v>
       </c>
       <c r="F203" s="64"/>
-      <c r="G203" s="238"/>
-      <c r="H203" s="241"/>
+      <c r="G203" s="237"/>
+      <c r="H203" s="240"/>
       <c r="I203" s="64"/>
       <c r="J203" s="45">
         <f t="shared" si="5"/>
@@ -10611,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="98"/>
-      <c r="P203" s="220"/>
+      <c r="P203" s="219"/>
       <c r="Q203" s="128"/>
       <c r="R203" s="129"/>
       <c r="S203" s="182"/>
@@ -10620,17 +10636,17 @@
       <c r="V203" s="54"/>
     </row>
     <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="223"/>
-      <c r="B204" s="213"/>
-      <c r="C204" s="260"/>
-      <c r="D204" s="260"/>
+      <c r="A204" s="222"/>
+      <c r="B204" s="212"/>
+      <c r="C204" s="259"/>
+      <c r="D204" s="259"/>
       <c r="E204" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F204" s="64"/>
-      <c r="G204" s="238"/>
-      <c r="H204" s="241"/>
+      <c r="G204" s="237"/>
+      <c r="H204" s="240"/>
       <c r="I204" s="64"/>
       <c r="J204" s="45">
         <f t="shared" si="5"/>
@@ -10644,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="O204" s="98"/>
-      <c r="P204" s="220"/>
+      <c r="P204" s="219"/>
       <c r="Q204" s="128"/>
       <c r="R204" s="129"/>
       <c r="S204" s="182"/>
@@ -10653,17 +10669,17 @@
       <c r="V204" s="54"/>
     </row>
     <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="223"/>
-      <c r="B205" s="213"/>
-      <c r="C205" s="260"/>
-      <c r="D205" s="260"/>
+      <c r="A205" s="222"/>
+      <c r="B205" s="212"/>
+      <c r="C205" s="259"/>
+      <c r="D205" s="259"/>
       <c r="E205" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F205" s="64"/>
-      <c r="G205" s="238"/>
-      <c r="H205" s="241"/>
+      <c r="G205" s="237"/>
+      <c r="H205" s="240"/>
       <c r="I205" s="64"/>
       <c r="J205" s="45">
         <f t="shared" si="5"/>
@@ -10677,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="98"/>
-      <c r="P205" s="220"/>
+      <c r="P205" s="219"/>
       <c r="Q205" s="128"/>
       <c r="R205" s="129"/>
       <c r="S205" s="182"/>
@@ -10686,17 +10702,17 @@
       <c r="V205" s="54"/>
     </row>
     <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="223"/>
-      <c r="B206" s="213"/>
-      <c r="C206" s="260"/>
-      <c r="D206" s="260"/>
+      <c r="A206" s="222"/>
+      <c r="B206" s="212"/>
+      <c r="C206" s="259"/>
+      <c r="D206" s="259"/>
       <c r="E206" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F206" s="64"/>
-      <c r="G206" s="238"/>
-      <c r="H206" s="241"/>
+      <c r="G206" s="237"/>
+      <c r="H206" s="240"/>
       <c r="I206" s="64"/>
       <c r="J206" s="45">
         <f t="shared" si="5"/>
@@ -10710,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="98"/>
-      <c r="P206" s="220"/>
+      <c r="P206" s="219"/>
       <c r="Q206" s="128"/>
       <c r="R206" s="129"/>
       <c r="S206" s="182"/>
@@ -10719,17 +10735,17 @@
       <c r="V206" s="54"/>
     </row>
     <row r="207" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="223"/>
-      <c r="B207" s="213"/>
-      <c r="C207" s="260"/>
-      <c r="D207" s="260"/>
+      <c r="A207" s="222"/>
+      <c r="B207" s="212"/>
+      <c r="C207" s="259"/>
+      <c r="D207" s="259"/>
       <c r="E207" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F207" s="64"/>
-      <c r="G207" s="238"/>
-      <c r="H207" s="241"/>
+      <c r="G207" s="237"/>
+      <c r="H207" s="240"/>
       <c r="I207" s="64"/>
       <c r="J207" s="45">
         <f t="shared" si="5"/>
@@ -10743,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="O207" s="98"/>
-      <c r="P207" s="220"/>
+      <c r="P207" s="219"/>
       <c r="Q207" s="128"/>
       <c r="R207" s="129"/>
       <c r="S207" s="182"/>
@@ -10752,10 +10768,10 @@
       <c r="V207" s="54"/>
     </row>
     <row r="208" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="213"/>
-      <c r="B208" s="270"/>
-      <c r="C208" s="260"/>
-      <c r="D208" s="260"/>
+      <c r="A208" s="212"/>
+      <c r="B208" s="269"/>
+      <c r="C208" s="259"/>
+      <c r="D208" s="259"/>
       <c r="E208" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -10776,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="98"/>
-      <c r="P208" s="220"/>
+      <c r="P208" s="219"/>
       <c r="Q208" s="128"/>
       <c r="R208" s="129"/>
       <c r="S208" s="182"/>
@@ -10785,17 +10801,17 @@
       <c r="V208" s="54"/>
     </row>
     <row r="209" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="282"/>
-      <c r="B209" s="213"/>
-      <c r="C209" s="260"/>
-      <c r="D209" s="260"/>
+      <c r="A209" s="281"/>
+      <c r="B209" s="212"/>
+      <c r="C209" s="259"/>
+      <c r="D209" s="259"/>
       <c r="E209" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F209" s="64"/>
-      <c r="G209" s="238"/>
-      <c r="H209" s="241"/>
+      <c r="G209" s="237"/>
+      <c r="H209" s="240"/>
       <c r="I209" s="64"/>
       <c r="J209" s="45">
         <f t="shared" si="5"/>
@@ -10809,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="98"/>
-      <c r="P209" s="220"/>
+      <c r="P209" s="219"/>
       <c r="Q209" s="128"/>
       <c r="R209" s="129"/>
       <c r="S209" s="182"/>
@@ -10818,17 +10834,17 @@
       <c r="V209" s="54"/>
     </row>
     <row r="210" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="282"/>
-      <c r="B210" s="213"/>
-      <c r="C210" s="260"/>
-      <c r="D210" s="260"/>
+      <c r="A210" s="281"/>
+      <c r="B210" s="212"/>
+      <c r="C210" s="259"/>
+      <c r="D210" s="259"/>
       <c r="E210" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F210" s="64"/>
-      <c r="G210" s="238"/>
-      <c r="H210" s="241"/>
+      <c r="G210" s="237"/>
+      <c r="H210" s="240"/>
       <c r="I210" s="64"/>
       <c r="J210" s="45">
         <f t="shared" si="5"/>
@@ -10842,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="98"/>
-      <c r="P210" s="220"/>
+      <c r="P210" s="219"/>
       <c r="Q210" s="128"/>
       <c r="R210" s="129"/>
       <c r="S210" s="182"/>
@@ -10851,17 +10867,17 @@
       <c r="V210" s="54"/>
     </row>
     <row r="211" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="282"/>
-      <c r="B211" s="213"/>
-      <c r="C211" s="260"/>
-      <c r="D211" s="260"/>
+      <c r="A211" s="281"/>
+      <c r="B211" s="212"/>
+      <c r="C211" s="259"/>
+      <c r="D211" s="259"/>
       <c r="E211" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F211" s="64"/>
-      <c r="G211" s="238"/>
-      <c r="H211" s="241"/>
+      <c r="G211" s="237"/>
+      <c r="H211" s="240"/>
       <c r="I211" s="64"/>
       <c r="J211" s="45">
         <f t="shared" si="5"/>
@@ -10875,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="98"/>
-      <c r="P211" s="220"/>
+      <c r="P211" s="219"/>
       <c r="Q211" s="128"/>
       <c r="R211" s="129"/>
       <c r="S211" s="182"/>
@@ -10884,17 +10900,17 @@
       <c r="V211" s="54"/>
     </row>
     <row r="212" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="282"/>
-      <c r="B212" s="213"/>
-      <c r="C212" s="260"/>
-      <c r="D212" s="260"/>
+      <c r="A212" s="281"/>
+      <c r="B212" s="212"/>
+      <c r="C212" s="259"/>
+      <c r="D212" s="259"/>
       <c r="E212" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F212" s="64"/>
-      <c r="G212" s="238"/>
-      <c r="H212" s="241"/>
+      <c r="G212" s="237"/>
+      <c r="H212" s="240"/>
       <c r="I212" s="64"/>
       <c r="J212" s="45">
         <f t="shared" si="5"/>
@@ -10908,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="O212" s="98"/>
-      <c r="P212" s="220"/>
+      <c r="P212" s="219"/>
       <c r="Q212" s="128"/>
       <c r="R212" s="129"/>
       <c r="S212" s="182"/>
@@ -10917,17 +10933,17 @@
       <c r="V212" s="54"/>
     </row>
     <row r="213" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="285"/>
-      <c r="B213" s="213"/>
-      <c r="C213" s="260"/>
-      <c r="D213" s="260"/>
+      <c r="A213" s="284"/>
+      <c r="B213" s="212"/>
+      <c r="C213" s="259"/>
+      <c r="D213" s="259"/>
       <c r="E213" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F213" s="64"/>
-      <c r="G213" s="238"/>
-      <c r="H213" s="241"/>
+      <c r="G213" s="237"/>
+      <c r="H213" s="240"/>
       <c r="I213" s="64"/>
       <c r="J213" s="45">
         <f t="shared" si="5"/>
@@ -10941,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="98"/>
-      <c r="P213" s="220"/>
+      <c r="P213" s="219"/>
       <c r="Q213" s="128"/>
       <c r="R213" s="129"/>
       <c r="S213" s="182"/>
@@ -10950,17 +10966,17 @@
       <c r="V213" s="54"/>
     </row>
     <row r="214" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="223"/>
-      <c r="B214" s="213"/>
-      <c r="C214" s="260"/>
-      <c r="D214" s="260"/>
+      <c r="A214" s="222"/>
+      <c r="B214" s="212"/>
+      <c r="C214" s="259"/>
+      <c r="D214" s="259"/>
       <c r="E214" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F214" s="64"/>
-      <c r="G214" s="238"/>
-      <c r="H214" s="241"/>
+      <c r="G214" s="237"/>
+      <c r="H214" s="240"/>
       <c r="I214" s="64"/>
       <c r="J214" s="45">
         <f t="shared" ref="J214:J257" si="8">I214-F214</f>
@@ -10974,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="98"/>
-      <c r="P214" s="220"/>
+      <c r="P214" s="219"/>
       <c r="Q214" s="128"/>
       <c r="R214" s="129"/>
       <c r="S214" s="182"/>
@@ -10983,17 +10999,17 @@
       <c r="V214" s="54"/>
     </row>
     <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="223"/>
-      <c r="B215" s="213"/>
-      <c r="C215" s="260"/>
-      <c r="D215" s="260"/>
+      <c r="A215" s="222"/>
+      <c r="B215" s="212"/>
+      <c r="C215" s="259"/>
+      <c r="D215" s="259"/>
       <c r="E215" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F215" s="64"/>
-      <c r="G215" s="238"/>
-      <c r="H215" s="241"/>
+      <c r="G215" s="237"/>
+      <c r="H215" s="240"/>
       <c r="I215" s="64"/>
       <c r="J215" s="45">
         <f t="shared" si="8"/>
@@ -11007,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="O215" s="98"/>
-      <c r="P215" s="220"/>
+      <c r="P215" s="219"/>
       <c r="Q215" s="128"/>
       <c r="R215" s="129"/>
       <c r="S215" s="182"/>
@@ -11016,17 +11032,17 @@
       <c r="V215" s="54"/>
     </row>
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="223"/>
-      <c r="B216" s="213"/>
-      <c r="C216" s="260"/>
-      <c r="D216" s="260"/>
+      <c r="A216" s="222"/>
+      <c r="B216" s="212"/>
+      <c r="C216" s="259"/>
+      <c r="D216" s="259"/>
       <c r="E216" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F216" s="64"/>
-      <c r="G216" s="238"/>
-      <c r="H216" s="241"/>
+      <c r="G216" s="237"/>
+      <c r="H216" s="240"/>
       <c r="I216" s="64"/>
       <c r="J216" s="45">
         <f t="shared" si="8"/>
@@ -11040,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="O216" s="98"/>
-      <c r="P216" s="220"/>
+      <c r="P216" s="219"/>
       <c r="Q216" s="128"/>
       <c r="R216" s="129"/>
       <c r="S216" s="182"/>
@@ -11049,17 +11065,17 @@
       <c r="V216" s="54"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="223"/>
-      <c r="B217" s="213"/>
-      <c r="C217" s="260"/>
-      <c r="D217" s="260"/>
+      <c r="A217" s="222"/>
+      <c r="B217" s="212"/>
+      <c r="C217" s="259"/>
+      <c r="D217" s="259"/>
       <c r="E217" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F217" s="64"/>
-      <c r="G217" s="238"/>
-      <c r="H217" s="241"/>
+      <c r="G217" s="237"/>
+      <c r="H217" s="240"/>
       <c r="I217" s="64"/>
       <c r="J217" s="45">
         <f t="shared" si="8"/>
@@ -11073,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="O217" s="98"/>
-      <c r="P217" s="220"/>
+      <c r="P217" s="219"/>
       <c r="Q217" s="128"/>
       <c r="R217" s="129"/>
       <c r="S217" s="182"/>
@@ -11082,17 +11098,17 @@
       <c r="V217" s="54"/>
     </row>
     <row r="218" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="223"/>
-      <c r="B218" s="213"/>
-      <c r="C218" s="260"/>
-      <c r="D218" s="260"/>
+      <c r="A218" s="222"/>
+      <c r="B218" s="212"/>
+      <c r="C218" s="259"/>
+      <c r="D218" s="259"/>
       <c r="E218" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F218" s="64"/>
-      <c r="G218" s="238"/>
-      <c r="H218" s="241"/>
+      <c r="G218" s="237"/>
+      <c r="H218" s="240"/>
       <c r="I218" s="64"/>
       <c r="J218" s="45">
         <f t="shared" si="8"/>
@@ -11106,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="O218" s="98"/>
-      <c r="P218" s="220"/>
+      <c r="P218" s="219"/>
       <c r="Q218" s="128"/>
       <c r="R218" s="129"/>
       <c r="S218" s="182"/>
@@ -11115,17 +11131,17 @@
       <c r="V218" s="54"/>
     </row>
     <row r="219" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="223"/>
-      <c r="B219" s="213"/>
-      <c r="C219" s="260"/>
-      <c r="D219" s="260"/>
+      <c r="A219" s="222"/>
+      <c r="B219" s="212"/>
+      <c r="C219" s="259"/>
+      <c r="D219" s="259"/>
       <c r="E219" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F219" s="64"/>
-      <c r="G219" s="238"/>
-      <c r="H219" s="241"/>
+      <c r="G219" s="237"/>
+      <c r="H219" s="240"/>
       <c r="I219" s="64"/>
       <c r="J219" s="45">
         <f t="shared" si="8"/>
@@ -11139,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="O219" s="98"/>
-      <c r="P219" s="220"/>
+      <c r="P219" s="219"/>
       <c r="Q219" s="128"/>
       <c r="R219" s="129"/>
       <c r="S219" s="182"/>
@@ -11148,17 +11164,17 @@
       <c r="V219" s="54"/>
     </row>
     <row r="220" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="223"/>
-      <c r="B220" s="213"/>
-      <c r="C220" s="260"/>
-      <c r="D220" s="260"/>
+      <c r="A220" s="222"/>
+      <c r="B220" s="212"/>
+      <c r="C220" s="259"/>
+      <c r="D220" s="259"/>
       <c r="E220" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F220" s="64"/>
-      <c r="G220" s="238"/>
-      <c r="H220" s="241"/>
+      <c r="G220" s="237"/>
+      <c r="H220" s="240"/>
       <c r="I220" s="64"/>
       <c r="J220" s="45">
         <f t="shared" si="8"/>
@@ -11172,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="98"/>
-      <c r="P220" s="220"/>
+      <c r="P220" s="219"/>
       <c r="Q220" s="128"/>
       <c r="R220" s="129"/>
       <c r="S220" s="182"/>
@@ -11181,17 +11197,17 @@
       <c r="V220" s="54"/>
     </row>
     <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="223"/>
-      <c r="B221" s="213"/>
-      <c r="C221" s="260"/>
-      <c r="D221" s="260"/>
+      <c r="A221" s="222"/>
+      <c r="B221" s="212"/>
+      <c r="C221" s="259"/>
+      <c r="D221" s="259"/>
       <c r="E221" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F221" s="64"/>
-      <c r="G221" s="238"/>
-      <c r="H221" s="241"/>
+      <c r="G221" s="237"/>
+      <c r="H221" s="240"/>
       <c r="I221" s="64"/>
       <c r="J221" s="45">
         <f t="shared" si="8"/>
@@ -11205,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="O221" s="98"/>
-      <c r="P221" s="220"/>
+      <c r="P221" s="219"/>
       <c r="Q221" s="128"/>
       <c r="R221" s="129"/>
       <c r="S221" s="182"/>
@@ -11214,17 +11230,17 @@
       <c r="V221" s="54"/>
     </row>
     <row r="222" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="223"/>
-      <c r="B222" s="213"/>
-      <c r="C222" s="260"/>
-      <c r="D222" s="260"/>
+      <c r="A222" s="222"/>
+      <c r="B222" s="212"/>
+      <c r="C222" s="259"/>
+      <c r="D222" s="259"/>
       <c r="E222" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F222" s="64"/>
-      <c r="G222" s="238"/>
-      <c r="H222" s="241"/>
+      <c r="G222" s="237"/>
+      <c r="H222" s="240"/>
       <c r="I222" s="64"/>
       <c r="J222" s="45">
         <f t="shared" si="8"/>
@@ -11238,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="O222" s="98"/>
-      <c r="P222" s="220"/>
+      <c r="P222" s="219"/>
       <c r="Q222" s="128"/>
       <c r="R222" s="129"/>
       <c r="S222" s="182"/>
@@ -11247,17 +11263,17 @@
       <c r="V222" s="54"/>
     </row>
     <row r="223" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="223"/>
-      <c r="B223" s="213"/>
-      <c r="C223" s="286"/>
-      <c r="D223" s="286"/>
+      <c r="A223" s="222"/>
+      <c r="B223" s="212"/>
+      <c r="C223" s="285"/>
+      <c r="D223" s="285"/>
       <c r="E223" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F223" s="64"/>
-      <c r="G223" s="238"/>
-      <c r="H223" s="241"/>
+      <c r="G223" s="237"/>
+      <c r="H223" s="240"/>
       <c r="I223" s="64"/>
       <c r="J223" s="45">
         <f t="shared" si="8"/>
@@ -11271,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="98"/>
-      <c r="P223" s="220"/>
+      <c r="P223" s="219"/>
       <c r="Q223" s="128"/>
       <c r="R223" s="129"/>
       <c r="S223" s="182"/>
@@ -11280,17 +11296,17 @@
       <c r="V223" s="54"/>
     </row>
     <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="223"/>
-      <c r="B224" s="213"/>
-      <c r="C224" s="260"/>
-      <c r="D224" s="260"/>
+      <c r="A224" s="222"/>
+      <c r="B224" s="212"/>
+      <c r="C224" s="259"/>
+      <c r="D224" s="259"/>
       <c r="E224" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F224" s="64"/>
-      <c r="G224" s="238"/>
-      <c r="H224" s="241"/>
+      <c r="G224" s="237"/>
+      <c r="H224" s="240"/>
       <c r="I224" s="64"/>
       <c r="J224" s="45">
         <f t="shared" si="8"/>
@@ -11304,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="O224" s="98"/>
-      <c r="P224" s="220"/>
+      <c r="P224" s="219"/>
       <c r="Q224" s="128"/>
       <c r="R224" s="129"/>
       <c r="S224" s="182"/>
@@ -11313,17 +11329,17 @@
       <c r="V224" s="54"/>
     </row>
     <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="223"/>
-      <c r="B225" s="213"/>
-      <c r="C225" s="280"/>
-      <c r="D225" s="280"/>
+      <c r="A225" s="222"/>
+      <c r="B225" s="212"/>
+      <c r="C225" s="279"/>
+      <c r="D225" s="279"/>
       <c r="E225" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F225" s="64"/>
-      <c r="G225" s="238"/>
-      <c r="H225" s="241"/>
+      <c r="G225" s="237"/>
+      <c r="H225" s="240"/>
       <c r="I225" s="64"/>
       <c r="J225" s="45">
         <f t="shared" si="8"/>
@@ -11337,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="O225" s="98"/>
-      <c r="P225" s="220"/>
+      <c r="P225" s="219"/>
       <c r="Q225" s="128"/>
       <c r="R225" s="129"/>
       <c r="S225" s="182"/>
@@ -11346,17 +11362,17 @@
       <c r="V225" s="54"/>
     </row>
     <row r="226" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="223"/>
-      <c r="B226" s="213"/>
-      <c r="C226" s="281"/>
-      <c r="D226" s="281"/>
+      <c r="A226" s="222"/>
+      <c r="B226" s="212"/>
+      <c r="C226" s="280"/>
+      <c r="D226" s="280"/>
       <c r="E226" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F226" s="64"/>
-      <c r="G226" s="238"/>
-      <c r="H226" s="241"/>
+      <c r="G226" s="237"/>
+      <c r="H226" s="240"/>
       <c r="I226" s="64"/>
       <c r="J226" s="45">
         <f t="shared" si="8"/>
@@ -11370,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="O226" s="98"/>
-      <c r="P226" s="220"/>
+      <c r="P226" s="219"/>
       <c r="Q226" s="128"/>
       <c r="R226" s="129"/>
       <c r="S226" s="182"/>
@@ -11379,17 +11395,17 @@
       <c r="V226" s="54"/>
     </row>
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="223"/>
-      <c r="B227" s="213"/>
-      <c r="C227" s="281"/>
-      <c r="D227" s="281"/>
+      <c r="A227" s="222"/>
+      <c r="B227" s="212"/>
+      <c r="C227" s="280"/>
+      <c r="D227" s="280"/>
       <c r="E227" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F227" s="64"/>
-      <c r="G227" s="238"/>
-      <c r="H227" s="241"/>
+      <c r="G227" s="237"/>
+      <c r="H227" s="240"/>
       <c r="I227" s="64"/>
       <c r="J227" s="45">
         <f t="shared" si="8"/>
@@ -11403,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="O227" s="98"/>
-      <c r="P227" s="220"/>
+      <c r="P227" s="219"/>
       <c r="Q227" s="128"/>
       <c r="R227" s="129"/>
       <c r="S227" s="182"/>
@@ -11412,17 +11428,17 @@
       <c r="V227" s="54"/>
     </row>
     <row r="228" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="223"/>
-      <c r="B228" s="213"/>
-      <c r="C228" s="280"/>
-      <c r="D228" s="280"/>
+      <c r="A228" s="222"/>
+      <c r="B228" s="212"/>
+      <c r="C228" s="279"/>
+      <c r="D228" s="279"/>
       <c r="E228" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F228" s="64"/>
-      <c r="G228" s="238"/>
-      <c r="H228" s="241"/>
+      <c r="G228" s="237"/>
+      <c r="H228" s="240"/>
       <c r="I228" s="64"/>
       <c r="J228" s="45">
         <f t="shared" si="8"/>
@@ -11436,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="O228" s="98"/>
-      <c r="P228" s="220"/>
+      <c r="P228" s="219"/>
       <c r="Q228" s="128"/>
       <c r="R228" s="129"/>
       <c r="S228" s="182"/>
@@ -11445,17 +11461,17 @@
       <c r="V228" s="54"/>
     </row>
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="223"/>
-      <c r="B229" s="213"/>
-      <c r="C229" s="265"/>
-      <c r="D229" s="265"/>
+      <c r="A229" s="222"/>
+      <c r="B229" s="212"/>
+      <c r="C229" s="264"/>
+      <c r="D229" s="264"/>
       <c r="E229" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F229" s="64"/>
-      <c r="G229" s="238"/>
-      <c r="H229" s="241"/>
+      <c r="G229" s="237"/>
+      <c r="H229" s="240"/>
       <c r="I229" s="64"/>
       <c r="J229" s="45">
         <f t="shared" si="8"/>
@@ -11469,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="O229" s="98"/>
-      <c r="P229" s="220"/>
+      <c r="P229" s="219"/>
       <c r="Q229" s="128"/>
       <c r="R229" s="129"/>
       <c r="S229" s="182"/>
@@ -11478,17 +11494,17 @@
       <c r="V229" s="54"/>
     </row>
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="223"/>
-      <c r="B230" s="213"/>
-      <c r="C230" s="210"/>
-      <c r="D230" s="210"/>
+      <c r="A230" s="222"/>
+      <c r="B230" s="212"/>
+      <c r="C230" s="209"/>
+      <c r="D230" s="209"/>
       <c r="E230" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F230" s="64"/>
-      <c r="G230" s="238"/>
-      <c r="H230" s="241"/>
+      <c r="G230" s="237"/>
+      <c r="H230" s="240"/>
       <c r="I230" s="64"/>
       <c r="J230" s="45">
         <f t="shared" si="8"/>
@@ -11502,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="O230" s="98"/>
-      <c r="P230" s="220"/>
+      <c r="P230" s="219"/>
       <c r="Q230" s="128"/>
       <c r="R230" s="129"/>
       <c r="S230" s="182"/>
@@ -11511,17 +11527,17 @@
       <c r="V230" s="54"/>
     </row>
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="214"/>
-      <c r="B231" s="213"/>
-      <c r="C231" s="240"/>
-      <c r="D231" s="240"/>
+      <c r="A231" s="213"/>
+      <c r="B231" s="212"/>
+      <c r="C231" s="239"/>
+      <c r="D231" s="239"/>
       <c r="E231" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F231" s="64"/>
-      <c r="G231" s="238"/>
-      <c r="H231" s="241"/>
+      <c r="G231" s="237"/>
+      <c r="H231" s="240"/>
       <c r="I231" s="64"/>
       <c r="J231" s="45">
         <f t="shared" si="8"/>
@@ -11535,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="O231" s="98"/>
-      <c r="P231" s="220"/>
+      <c r="P231" s="219"/>
       <c r="Q231" s="128"/>
       <c r="R231" s="129"/>
       <c r="S231" s="182"/>
@@ -11544,17 +11560,17 @@
       <c r="V231" s="54"/>
     </row>
     <row r="232" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="223"/>
-      <c r="B232" s="213"/>
-      <c r="C232" s="240"/>
-      <c r="D232" s="240"/>
+      <c r="A232" s="222"/>
+      <c r="B232" s="212"/>
+      <c r="C232" s="239"/>
+      <c r="D232" s="239"/>
       <c r="E232" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F232" s="64"/>
-      <c r="G232" s="238"/>
-      <c r="H232" s="241"/>
+      <c r="G232" s="237"/>
+      <c r="H232" s="240"/>
       <c r="I232" s="64"/>
       <c r="J232" s="45">
         <f t="shared" si="8"/>
@@ -11568,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="O232" s="98"/>
-      <c r="P232" s="220"/>
+      <c r="P232" s="219"/>
       <c r="Q232" s="128"/>
       <c r="R232" s="129"/>
       <c r="S232" s="182"/>
@@ -11577,17 +11593,17 @@
       <c r="V232" s="54"/>
     </row>
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="223"/>
-      <c r="B233" s="213"/>
-      <c r="C233" s="240"/>
-      <c r="D233" s="240"/>
+      <c r="A233" s="222"/>
+      <c r="B233" s="212"/>
+      <c r="C233" s="239"/>
+      <c r="D233" s="239"/>
       <c r="E233" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F233" s="64"/>
-      <c r="G233" s="238"/>
-      <c r="H233" s="241"/>
+      <c r="G233" s="237"/>
+      <c r="H233" s="240"/>
       <c r="I233" s="64"/>
       <c r="J233" s="45">
         <f t="shared" si="8"/>
@@ -11601,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="O233" s="98"/>
-      <c r="P233" s="220"/>
+      <c r="P233" s="219"/>
       <c r="Q233" s="128"/>
       <c r="R233" s="129"/>
       <c r="S233" s="182"/>
@@ -11610,17 +11626,17 @@
       <c r="V233" s="54"/>
     </row>
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="287"/>
-      <c r="B234" s="288"/>
-      <c r="C234" s="240"/>
-      <c r="D234" s="240"/>
+      <c r="A234" s="286"/>
+      <c r="B234" s="287"/>
+      <c r="C234" s="239"/>
+      <c r="D234" s="239"/>
       <c r="E234" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F234" s="64"/>
-      <c r="G234" s="238"/>
-      <c r="H234" s="241"/>
+      <c r="G234" s="237"/>
+      <c r="H234" s="240"/>
       <c r="I234" s="64"/>
       <c r="J234" s="45">
         <f t="shared" si="8"/>
@@ -11634,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="98"/>
-      <c r="P234" s="220"/>
+      <c r="P234" s="219"/>
       <c r="Q234" s="128"/>
       <c r="R234" s="129"/>
       <c r="S234" s="182"/>
@@ -11643,16 +11659,16 @@
       <c r="V234" s="54"/>
     </row>
     <row r="235" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="214"/>
-      <c r="B235" s="288"/>
-      <c r="C235" s="240"/>
-      <c r="D235" s="240"/>
+      <c r="A235" s="213"/>
+      <c r="B235" s="287"/>
+      <c r="C235" s="239"/>
+      <c r="D235" s="239"/>
       <c r="E235" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F235" s="64"/>
-      <c r="G235" s="238"/>
+      <c r="G235" s="237"/>
       <c r="H235" s="63"/>
       <c r="I235" s="64"/>
       <c r="J235" s="45">
@@ -11667,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="O235" s="98"/>
-      <c r="P235" s="220"/>
+      <c r="P235" s="219"/>
       <c r="Q235" s="128"/>
       <c r="R235" s="129"/>
       <c r="S235" s="182"/>
@@ -11676,17 +11692,17 @@
       <c r="V235" s="54"/>
     </row>
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="214"/>
-      <c r="B236" s="288"/>
-      <c r="C236" s="240"/>
-      <c r="D236" s="240"/>
+      <c r="A236" s="213"/>
+      <c r="B236" s="287"/>
+      <c r="C236" s="239"/>
+      <c r="D236" s="239"/>
       <c r="E236" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F236" s="64"/>
-      <c r="G236" s="238"/>
-      <c r="H236" s="241"/>
+      <c r="G236" s="237"/>
+      <c r="H236" s="240"/>
       <c r="I236" s="64"/>
       <c r="J236" s="45">
         <f t="shared" si="8"/>
@@ -11700,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="O236" s="98"/>
-      <c r="P236" s="220"/>
+      <c r="P236" s="219"/>
       <c r="Q236" s="128"/>
       <c r="R236" s="129"/>
       <c r="S236" s="182"/>
@@ -11709,17 +11725,17 @@
       <c r="V236" s="54"/>
     </row>
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="223"/>
-      <c r="B237" s="288"/>
-      <c r="C237" s="222"/>
-      <c r="D237" s="222"/>
+      <c r="A237" s="222"/>
+      <c r="B237" s="287"/>
+      <c r="C237" s="221"/>
+      <c r="D237" s="221"/>
       <c r="E237" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F237" s="64"/>
-      <c r="G237" s="238"/>
-      <c r="H237" s="241"/>
+      <c r="G237" s="237"/>
+      <c r="H237" s="240"/>
       <c r="I237" s="64"/>
       <c r="J237" s="45">
         <f t="shared" si="8"/>
@@ -11733,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="O237" s="98"/>
-      <c r="P237" s="220"/>
+      <c r="P237" s="219"/>
       <c r="Q237" s="128"/>
       <c r="R237" s="129"/>
       <c r="S237" s="182"/>
@@ -11742,17 +11758,17 @@
       <c r="V237" s="54"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="223"/>
-      <c r="B238" s="288"/>
-      <c r="C238" s="222"/>
-      <c r="D238" s="222"/>
+      <c r="A238" s="222"/>
+      <c r="B238" s="287"/>
+      <c r="C238" s="221"/>
+      <c r="D238" s="221"/>
       <c r="E238" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F238" s="64"/>
-      <c r="G238" s="238"/>
-      <c r="H238" s="241"/>
+      <c r="G238" s="237"/>
+      <c r="H238" s="240"/>
       <c r="I238" s="64"/>
       <c r="J238" s="45">
         <f t="shared" si="8"/>
@@ -11766,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="O238" s="98"/>
-      <c r="P238" s="220"/>
+      <c r="P238" s="219"/>
       <c r="Q238" s="128"/>
       <c r="R238" s="129"/>
       <c r="S238" s="182"/>
@@ -11775,17 +11791,17 @@
       <c r="V238" s="54"/>
     </row>
     <row r="239" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="214"/>
-      <c r="B239" s="288"/>
-      <c r="C239" s="258"/>
-      <c r="D239" s="258"/>
+      <c r="A239" s="213"/>
+      <c r="B239" s="287"/>
+      <c r="C239" s="257"/>
+      <c r="D239" s="257"/>
       <c r="E239" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239" s="64"/>
-      <c r="G239" s="238"/>
-      <c r="H239" s="255"/>
+      <c r="G239" s="237"/>
+      <c r="H239" s="254"/>
       <c r="I239" s="64"/>
       <c r="J239" s="45">
         <f t="shared" si="8"/>
@@ -11798,8 +11814,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O239" s="237"/>
-      <c r="P239" s="259"/>
+      <c r="O239" s="236"/>
+      <c r="P239" s="258"/>
       <c r="Q239" s="128"/>
       <c r="R239" s="129"/>
       <c r="S239" s="182"/>
@@ -11808,31 +11824,31 @@
       <c r="V239" s="54"/>
     </row>
     <row r="240" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="214"/>
-      <c r="B240" s="288"/>
-      <c r="C240" s="192"/>
-      <c r="D240" s="192"/>
+      <c r="A240" s="213"/>
+      <c r="B240" s="287"/>
+      <c r="C240" s="191"/>
+      <c r="D240" s="191"/>
       <c r="E240" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F240" s="64"/>
-      <c r="G240" s="238"/>
-      <c r="H240" s="255"/>
+      <c r="G240" s="237"/>
+      <c r="H240" s="254"/>
       <c r="I240" s="64"/>
       <c r="J240" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K240" s="100"/>
-      <c r="L240" s="289"/>
-      <c r="M240" s="290"/>
+      <c r="L240" s="288"/>
+      <c r="M240" s="289"/>
       <c r="N240" s="77">
         <f t="shared" ref="N240:N249" si="9">K240*I240-M240</f>
         <v>0</v>
       </c>
-      <c r="O240" s="237"/>
-      <c r="P240" s="259"/>
+      <c r="O240" s="236"/>
+      <c r="P240" s="258"/>
       <c r="Q240" s="128"/>
       <c r="R240" s="129"/>
       <c r="S240" s="182"/>
@@ -11841,31 +11857,31 @@
       <c r="V240" s="54"/>
     </row>
     <row r="241" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="214"/>
-      <c r="B241" s="291"/>
-      <c r="C241" s="203"/>
-      <c r="D241" s="203"/>
+      <c r="A241" s="213"/>
+      <c r="B241" s="290"/>
+      <c r="C241" s="202"/>
+      <c r="D241" s="202"/>
       <c r="E241" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F241" s="203"/>
-      <c r="G241" s="292"/>
-      <c r="H241" s="293"/>
+      <c r="F241" s="202"/>
+      <c r="G241" s="291"/>
+      <c r="H241" s="292"/>
       <c r="I241" s="116"/>
       <c r="J241" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K241" s="100"/>
-      <c r="L241" s="289"/>
-      <c r="M241" s="290"/>
+      <c r="L241" s="288"/>
+      <c r="M241" s="289"/>
       <c r="N241" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O241" s="237"/>
-      <c r="P241" s="259"/>
+      <c r="O241" s="236"/>
+      <c r="P241" s="258"/>
       <c r="Q241" s="128"/>
       <c r="R241" s="129"/>
       <c r="S241" s="182"/>
@@ -11874,31 +11890,31 @@
       <c r="V241" s="54"/>
     </row>
     <row r="242" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="214"/>
-      <c r="B242" s="291"/>
-      <c r="C242" s="203"/>
-      <c r="D242" s="203"/>
+      <c r="A242" s="213"/>
+      <c r="B242" s="290"/>
+      <c r="C242" s="202"/>
+      <c r="D242" s="202"/>
       <c r="E242" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F242" s="203"/>
-      <c r="G242" s="292"/>
-      <c r="H242" s="293"/>
+      <c r="F242" s="202"/>
+      <c r="G242" s="291"/>
+      <c r="H242" s="292"/>
       <c r="I242" s="116"/>
       <c r="J242" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K242" s="100"/>
-      <c r="L242" s="289"/>
-      <c r="M242" s="290"/>
+      <c r="L242" s="288"/>
+      <c r="M242" s="289"/>
       <c r="N242" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O242" s="237"/>
-      <c r="P242" s="259"/>
+      <c r="O242" s="236"/>
+      <c r="P242" s="258"/>
       <c r="Q242" s="128"/>
       <c r="R242" s="129"/>
       <c r="S242" s="182"/>
@@ -11907,31 +11923,31 @@
       <c r="V242" s="54"/>
     </row>
     <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="214"/>
-      <c r="B243" s="294"/>
-      <c r="C243" s="203"/>
-      <c r="D243" s="203"/>
+      <c r="A243" s="213"/>
+      <c r="B243" s="293"/>
+      <c r="C243" s="202"/>
+      <c r="D243" s="202"/>
       <c r="E243" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F243" s="203"/>
-      <c r="G243" s="292"/>
-      <c r="H243" s="293"/>
+      <c r="F243" s="202"/>
+      <c r="G243" s="291"/>
+      <c r="H243" s="292"/>
       <c r="I243" s="116"/>
       <c r="J243" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K243" s="100"/>
-      <c r="L243" s="289"/>
-      <c r="M243" s="290"/>
+      <c r="L243" s="288"/>
+      <c r="M243" s="289"/>
       <c r="N243" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O243" s="98"/>
-      <c r="P243" s="225"/>
+      <c r="P243" s="224"/>
       <c r="Q243" s="128"/>
       <c r="R243" s="129"/>
       <c r="S243" s="182"/>
@@ -11940,31 +11956,31 @@
       <c r="V243" s="54"/>
     </row>
     <row r="244" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="214"/>
-      <c r="B244" s="294"/>
-      <c r="C244" s="203"/>
-      <c r="D244" s="203"/>
+      <c r="A244" s="213"/>
+      <c r="B244" s="293"/>
+      <c r="C244" s="202"/>
+      <c r="D244" s="202"/>
       <c r="E244" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F244" s="203"/>
-      <c r="G244" s="292"/>
-      <c r="H244" s="293"/>
+      <c r="F244" s="202"/>
+      <c r="G244" s="291"/>
+      <c r="H244" s="292"/>
       <c r="I244" s="116"/>
       <c r="J244" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K244" s="100"/>
-      <c r="L244" s="289"/>
-      <c r="M244" s="290"/>
+      <c r="L244" s="288"/>
+      <c r="M244" s="289"/>
       <c r="N244" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O244" s="98"/>
-      <c r="P244" s="225"/>
+      <c r="P244" s="224"/>
       <c r="Q244" s="128"/>
       <c r="R244" s="129"/>
       <c r="S244" s="182"/>
@@ -11973,31 +11989,31 @@
       <c r="V244" s="54"/>
     </row>
     <row r="245" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="214"/>
-      <c r="B245" s="294"/>
-      <c r="C245" s="203"/>
-      <c r="D245" s="203"/>
+      <c r="A245" s="213"/>
+      <c r="B245" s="293"/>
+      <c r="C245" s="202"/>
+      <c r="D245" s="202"/>
       <c r="E245" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F245" s="203"/>
-      <c r="G245" s="292"/>
-      <c r="H245" s="293"/>
+      <c r="F245" s="202"/>
+      <c r="G245" s="291"/>
+      <c r="H245" s="292"/>
       <c r="I245" s="116"/>
       <c r="J245" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K245" s="100"/>
-      <c r="L245" s="289"/>
-      <c r="M245" s="290"/>
+      <c r="L245" s="288"/>
+      <c r="M245" s="289"/>
       <c r="N245" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O245" s="98"/>
-      <c r="P245" s="225"/>
+      <c r="P245" s="224"/>
       <c r="Q245" s="128"/>
       <c r="R245" s="129"/>
       <c r="S245" s="182"/>
@@ -12006,31 +12022,31 @@
       <c r="V245" s="54"/>
     </row>
     <row r="246" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="214"/>
-      <c r="B246" s="213"/>
-      <c r="C246" s="295"/>
-      <c r="D246" s="296"/>
+      <c r="A246" s="213"/>
+      <c r="B246" s="212"/>
+      <c r="C246" s="294"/>
+      <c r="D246" s="295"/>
       <c r="E246" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F246" s="44"/>
-      <c r="G246" s="297"/>
-      <c r="H246" s="298"/>
+      <c r="G246" s="296"/>
+      <c r="H246" s="297"/>
       <c r="I246" s="64"/>
       <c r="J246" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K246" s="100"/>
-      <c r="L246" s="289"/>
-      <c r="M246" s="299"/>
+      <c r="L246" s="288"/>
+      <c r="M246" s="298"/>
       <c r="N246" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O246" s="237"/>
-      <c r="P246" s="259"/>
+      <c r="O246" s="236"/>
+      <c r="P246" s="258"/>
       <c r="Q246" s="128"/>
       <c r="R246" s="129"/>
       <c r="S246" s="182"/>
@@ -12039,31 +12055,31 @@
       <c r="V246" s="54"/>
     </row>
     <row r="247" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="214"/>
-      <c r="B247" s="213"/>
-      <c r="C247" s="295"/>
-      <c r="D247" s="295"/>
+      <c r="A247" s="213"/>
+      <c r="B247" s="212"/>
+      <c r="C247" s="294"/>
+      <c r="D247" s="294"/>
       <c r="E247" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F247" s="64"/>
-      <c r="G247" s="238"/>
-      <c r="H247" s="255"/>
+      <c r="G247" s="237"/>
+      <c r="H247" s="254"/>
       <c r="I247" s="64"/>
       <c r="J247" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K247" s="100"/>
-      <c r="L247" s="289"/>
-      <c r="M247" s="299"/>
+      <c r="L247" s="288"/>
+      <c r="M247" s="298"/>
       <c r="N247" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O247" s="237"/>
-      <c r="P247" s="259"/>
+      <c r="O247" s="236"/>
+      <c r="P247" s="258"/>
       <c r="Q247" s="128"/>
       <c r="R247" s="129"/>
       <c r="S247" s="182"/>
@@ -12072,31 +12088,31 @@
       <c r="V247" s="54"/>
     </row>
     <row r="248" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="214"/>
-      <c r="B248" s="213"/>
-      <c r="C248" s="295"/>
-      <c r="D248" s="295"/>
+      <c r="A248" s="213"/>
+      <c r="B248" s="212"/>
+      <c r="C248" s="294"/>
+      <c r="D248" s="294"/>
       <c r="E248" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F248" s="64"/>
-      <c r="G248" s="238"/>
-      <c r="H248" s="255"/>
+      <c r="G248" s="237"/>
+      <c r="H248" s="254"/>
       <c r="I248" s="64"/>
       <c r="J248" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K248" s="100"/>
-      <c r="L248" s="289"/>
-      <c r="M248" s="299"/>
+      <c r="L248" s="288"/>
+      <c r="M248" s="298"/>
       <c r="N248" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O248" s="237"/>
-      <c r="P248" s="259"/>
+      <c r="O248" s="236"/>
+      <c r="P248" s="258"/>
       <c r="Q248" s="128"/>
       <c r="R248" s="129"/>
       <c r="S248" s="182"/>
@@ -12105,31 +12121,31 @@
       <c r="V248" s="54"/>
     </row>
     <row r="249" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="214"/>
-      <c r="B249" s="213"/>
-      <c r="C249" s="300"/>
-      <c r="D249" s="300"/>
+      <c r="A249" s="213"/>
+      <c r="B249" s="212"/>
+      <c r="C249" s="299"/>
+      <c r="D249" s="299"/>
       <c r="E249" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F249" s="64"/>
-      <c r="G249" s="238"/>
-      <c r="H249" s="255"/>
+      <c r="G249" s="237"/>
+      <c r="H249" s="254"/>
       <c r="I249" s="64"/>
       <c r="J249" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K249" s="100"/>
-      <c r="L249" s="289"/>
-      <c r="M249" s="299"/>
+      <c r="L249" s="288"/>
+      <c r="M249" s="298"/>
       <c r="N249" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O249" s="237"/>
-      <c r="P249" s="259"/>
+      <c r="O249" s="236"/>
+      <c r="P249" s="258"/>
       <c r="Q249" s="128"/>
       <c r="R249" s="129"/>
       <c r="S249" s="182"/>
@@ -12138,856 +12154,856 @@
       <c r="V249" s="54"/>
     </row>
     <row r="250" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="301"/>
-      <c r="B250" s="213"/>
-      <c r="C250" s="213"/>
-      <c r="D250" s="213"/>
+      <c r="A250" s="300"/>
+      <c r="B250" s="212"/>
+      <c r="C250" s="212"/>
+      <c r="D250" s="212"/>
       <c r="E250" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F250" s="271"/>
-      <c r="G250" s="238"/>
-      <c r="H250" s="272"/>
-      <c r="I250" s="271">
+      <c r="F250" s="270"/>
+      <c r="G250" s="237"/>
+      <c r="H250" s="271"/>
+      <c r="I250" s="270">
         <v>0</v>
       </c>
       <c r="J250" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K250" s="302"/>
-      <c r="L250" s="302"/>
-      <c r="M250" s="302"/>
-      <c r="N250" s="303">
+      <c r="K250" s="301"/>
+      <c r="L250" s="301"/>
+      <c r="M250" s="301"/>
+      <c r="N250" s="302">
         <f t="shared" ref="N250:N261" si="10">K250*I250</f>
         <v>0</v>
       </c>
-      <c r="O250" s="304"/>
-      <c r="P250" s="259"/>
+      <c r="O250" s="303"/>
+      <c r="P250" s="258"/>
       <c r="Q250" s="128"/>
-      <c r="R250" s="305"/>
-      <c r="S250" s="306"/>
-      <c r="T250" s="307"/>
-      <c r="U250" s="275"/>
-      <c r="V250" s="279"/>
+      <c r="R250" s="304"/>
+      <c r="S250" s="305"/>
+      <c r="T250" s="306"/>
+      <c r="U250" s="274"/>
+      <c r="V250" s="278"/>
     </row>
     <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="301"/>
-      <c r="B251" s="213"/>
-      <c r="C251" s="213"/>
-      <c r="D251" s="213"/>
+      <c r="A251" s="300"/>
+      <c r="B251" s="212"/>
+      <c r="C251" s="212"/>
+      <c r="D251" s="212"/>
       <c r="E251" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F251" s="271"/>
-      <c r="G251" s="238"/>
-      <c r="H251" s="272"/>
-      <c r="I251" s="271">
+      <c r="F251" s="270"/>
+      <c r="G251" s="237"/>
+      <c r="H251" s="271"/>
+      <c r="I251" s="270">
         <v>0</v>
       </c>
       <c r="J251" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K251" s="302"/>
-      <c r="L251" s="302"/>
-      <c r="M251" s="302"/>
-      <c r="N251" s="303">
+      <c r="K251" s="301"/>
+      <c r="L251" s="301"/>
+      <c r="M251" s="301"/>
+      <c r="N251" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O251" s="304"/>
-      <c r="P251" s="259"/>
+      <c r="O251" s="303"/>
+      <c r="P251" s="258"/>
       <c r="Q251" s="128"/>
-      <c r="R251" s="305"/>
-      <c r="S251" s="306"/>
-      <c r="T251" s="307"/>
-      <c r="U251" s="275"/>
-      <c r="V251" s="279"/>
+      <c r="R251" s="304"/>
+      <c r="S251" s="305"/>
+      <c r="T251" s="306"/>
+      <c r="U251" s="274"/>
+      <c r="V251" s="278"/>
     </row>
     <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="301"/>
-      <c r="B252" s="213"/>
-      <c r="C252" s="213"/>
-      <c r="D252" s="213"/>
+      <c r="A252" s="300"/>
+      <c r="B252" s="212"/>
+      <c r="C252" s="212"/>
+      <c r="D252" s="212"/>
       <c r="E252" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F252" s="271"/>
-      <c r="G252" s="238"/>
-      <c r="H252" s="272"/>
-      <c r="I252" s="271">
+      <c r="F252" s="270"/>
+      <c r="G252" s="237"/>
+      <c r="H252" s="271"/>
+      <c r="I252" s="270">
         <v>0</v>
       </c>
       <c r="J252" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K252" s="302"/>
-      <c r="L252" s="302"/>
-      <c r="M252" s="302"/>
-      <c r="N252" s="303">
+      <c r="K252" s="301"/>
+      <c r="L252" s="301"/>
+      <c r="M252" s="301"/>
+      <c r="N252" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O252" s="304"/>
-      <c r="P252" s="259"/>
+      <c r="O252" s="303"/>
+      <c r="P252" s="258"/>
       <c r="Q252" s="128"/>
-      <c r="R252" s="305"/>
-      <c r="S252" s="306"/>
-      <c r="T252" s="307"/>
-      <c r="U252" s="275"/>
-      <c r="V252" s="279"/>
+      <c r="R252" s="304"/>
+      <c r="S252" s="305"/>
+      <c r="T252" s="306"/>
+      <c r="U252" s="274"/>
+      <c r="V252" s="278"/>
     </row>
     <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="301"/>
-      <c r="B253" s="213"/>
-      <c r="C253" s="213"/>
-      <c r="D253" s="213"/>
+      <c r="A253" s="300"/>
+      <c r="B253" s="212"/>
+      <c r="C253" s="212"/>
+      <c r="D253" s="212"/>
       <c r="E253" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F253" s="271"/>
-      <c r="G253" s="238"/>
-      <c r="H253" s="308"/>
-      <c r="I253" s="271">
+      <c r="F253" s="270"/>
+      <c r="G253" s="237"/>
+      <c r="H253" s="307"/>
+      <c r="I253" s="270">
         <v>0</v>
       </c>
       <c r="J253" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K253" s="302"/>
-      <c r="L253" s="302"/>
-      <c r="M253" s="302"/>
-      <c r="N253" s="303">
+      <c r="K253" s="301"/>
+      <c r="L253" s="301"/>
+      <c r="M253" s="301"/>
+      <c r="N253" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O253" s="304"/>
-      <c r="P253" s="259"/>
+      <c r="O253" s="303"/>
+      <c r="P253" s="258"/>
       <c r="Q253" s="128"/>
-      <c r="R253" s="305"/>
-      <c r="S253" s="306"/>
-      <c r="T253" s="307"/>
-      <c r="U253" s="275"/>
-      <c r="V253" s="279"/>
+      <c r="R253" s="304"/>
+      <c r="S253" s="305"/>
+      <c r="T253" s="306"/>
+      <c r="U253" s="274"/>
+      <c r="V253" s="278"/>
     </row>
     <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="309"/>
-      <c r="B254" s="213"/>
-      <c r="C254" s="213"/>
-      <c r="D254" s="213"/>
+      <c r="A254" s="308"/>
+      <c r="B254" s="212"/>
+      <c r="C254" s="212"/>
+      <c r="D254" s="212"/>
       <c r="E254" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F254" s="271"/>
-      <c r="G254" s="238"/>
-      <c r="H254" s="310"/>
-      <c r="I254" s="271">
+      <c r="F254" s="270"/>
+      <c r="G254" s="237"/>
+      <c r="H254" s="309"/>
+      <c r="I254" s="270">
         <v>0</v>
       </c>
       <c r="J254" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K254" s="302"/>
-      <c r="L254" s="302"/>
-      <c r="M254" s="302"/>
-      <c r="N254" s="303">
+      <c r="K254" s="301"/>
+      <c r="L254" s="301"/>
+      <c r="M254" s="301"/>
+      <c r="N254" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O254" s="304"/>
-      <c r="P254" s="259"/>
+      <c r="O254" s="303"/>
+      <c r="P254" s="258"/>
       <c r="Q254" s="128"/>
-      <c r="R254" s="305"/>
-      <c r="S254" s="306"/>
-      <c r="T254" s="307"/>
+      <c r="R254" s="304"/>
+      <c r="S254" s="305"/>
+      <c r="T254" s="306"/>
       <c r="U254" s="53"/>
       <c r="V254" s="54"/>
     </row>
     <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="311"/>
-      <c r="B255" s="312"/>
+      <c r="A255" s="310"/>
+      <c r="B255" s="311"/>
       <c r="E255" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H255" s="316"/>
-      <c r="I255" s="314">
+      <c r="H255" s="315"/>
+      <c r="I255" s="313">
         <v>0</v>
       </c>
       <c r="J255" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K255" s="317"/>
-      <c r="L255" s="317"/>
-      <c r="M255" s="317"/>
-      <c r="N255" s="303">
+      <c r="K255" s="316"/>
+      <c r="L255" s="316"/>
+      <c r="M255" s="316"/>
+      <c r="N255" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O255" s="304"/>
-      <c r="P255" s="259"/>
-      <c r="Q255" s="274"/>
-      <c r="R255" s="305"/>
-      <c r="S255" s="306"/>
-      <c r="T255" s="307"/>
+      <c r="O255" s="303"/>
+      <c r="P255" s="258"/>
+      <c r="Q255" s="273"/>
+      <c r="R255" s="304"/>
+      <c r="S255" s="305"/>
+      <c r="T255" s="306"/>
       <c r="U255" s="53"/>
       <c r="V255" s="54"/>
     </row>
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="311"/>
-      <c r="B256" s="312"/>
+      <c r="A256" s="310"/>
+      <c r="B256" s="311"/>
       <c r="E256" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I256" s="314">
+      <c r="I256" s="313">
         <v>0</v>
       </c>
       <c r="J256" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K256" s="317"/>
-      <c r="L256" s="317"/>
-      <c r="M256" s="317"/>
-      <c r="N256" s="303">
+      <c r="K256" s="316"/>
+      <c r="L256" s="316"/>
+      <c r="M256" s="316"/>
+      <c r="N256" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O256" s="304"/>
-      <c r="P256" s="259"/>
-      <c r="Q256" s="274"/>
-      <c r="R256" s="305"/>
-      <c r="S256" s="306"/>
-      <c r="T256" s="307"/>
+      <c r="O256" s="303"/>
+      <c r="P256" s="258"/>
+      <c r="Q256" s="273"/>
+      <c r="R256" s="304"/>
+      <c r="S256" s="305"/>
+      <c r="T256" s="306"/>
       <c r="U256" s="53"/>
       <c r="V256" s="54"/>
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="311"/>
-      <c r="B257" s="312"/>
+      <c r="A257" s="310"/>
+      <c r="B257" s="311"/>
       <c r="E257" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I257" s="319">
+      <c r="I257" s="318">
         <v>0</v>
       </c>
       <c r="J257" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K257" s="317"/>
-      <c r="L257" s="317"/>
-      <c r="M257" s="317"/>
-      <c r="N257" s="303">
+      <c r="K257" s="316"/>
+      <c r="L257" s="316"/>
+      <c r="M257" s="316"/>
+      <c r="N257" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O257" s="304"/>
-      <c r="P257" s="259"/>
-      <c r="Q257" s="274"/>
-      <c r="R257" s="305"/>
-      <c r="S257" s="306"/>
-      <c r="T257" s="307"/>
+      <c r="O257" s="303"/>
+      <c r="P257" s="258"/>
+      <c r="Q257" s="273"/>
+      <c r="R257" s="304"/>
+      <c r="S257" s="305"/>
+      <c r="T257" s="306"/>
       <c r="U257" s="53"/>
       <c r="V257" s="54"/>
     </row>
     <row r="258" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="311"/>
-      <c r="B258" s="312"/>
+      <c r="A258" s="310"/>
+      <c r="B258" s="311"/>
       <c r="E258" s="40" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="413" t="s">
+      <c r="F258" s="411" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="413"/>
-      <c r="H258" s="414"/>
-      <c r="I258" s="320">
+      <c r="G258" s="411"/>
+      <c r="H258" s="412"/>
+      <c r="I258" s="319">
         <f>SUM(I4:I257)</f>
         <v>420295.66</v>
       </c>
-      <c r="J258" s="321"/>
-      <c r="K258" s="317"/>
-      <c r="L258" s="322"/>
-      <c r="M258" s="317"/>
-      <c r="N258" s="303">
+      <c r="J258" s="320"/>
+      <c r="K258" s="316"/>
+      <c r="L258" s="321"/>
+      <c r="M258" s="316"/>
+      <c r="N258" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O258" s="304"/>
-      <c r="P258" s="259"/>
-      <c r="Q258" s="274"/>
-      <c r="R258" s="305"/>
-      <c r="S258" s="323"/>
-      <c r="T258" s="277"/>
-      <c r="U258" s="278"/>
+      <c r="O258" s="303"/>
+      <c r="P258" s="258"/>
+      <c r="Q258" s="273"/>
+      <c r="R258" s="304"/>
+      <c r="S258" s="322"/>
+      <c r="T258" s="276"/>
+      <c r="U258" s="277"/>
       <c r="V258" s="54"/>
     </row>
     <row r="259" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="324"/>
-      <c r="B259" s="312"/>
+      <c r="A259" s="323"/>
+      <c r="B259" s="311"/>
       <c r="E259" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I259" s="325"/>
-      <c r="J259" s="321"/>
-      <c r="K259" s="317"/>
-      <c r="L259" s="322"/>
-      <c r="M259" s="317"/>
-      <c r="N259" s="303">
+      <c r="I259" s="324"/>
+      <c r="J259" s="320"/>
+      <c r="K259" s="316"/>
+      <c r="L259" s="321"/>
+      <c r="M259" s="316"/>
+      <c r="N259" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O259" s="326"/>
+      <c r="O259" s="325"/>
       <c r="Q259" s="10"/>
-      <c r="R259" s="327"/>
-      <c r="S259" s="328"/>
-      <c r="T259" s="329"/>
+      <c r="R259" s="326"/>
+      <c r="S259" s="327"/>
+      <c r="T259" s="328"/>
       <c r="V259" s="15"/>
     </row>
     <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="311"/>
-      <c r="B260" s="312"/>
+      <c r="A260" s="310"/>
+      <c r="B260" s="311"/>
       <c r="E260" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J260" s="314"/>
-      <c r="K260" s="317"/>
-      <c r="L260" s="317"/>
-      <c r="M260" s="317"/>
-      <c r="N260" s="303">
+      <c r="J260" s="313"/>
+      <c r="K260" s="316"/>
+      <c r="L260" s="316"/>
+      <c r="M260" s="316"/>
+      <c r="N260" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O260" s="326"/>
+      <c r="O260" s="325"/>
       <c r="Q260" s="10"/>
-      <c r="R260" s="327"/>
-      <c r="S260" s="328"/>
-      <c r="T260" s="329"/>
+      <c r="R260" s="326"/>
+      <c r="S260" s="327"/>
+      <c r="T260" s="328"/>
       <c r="V260" s="15"/>
     </row>
     <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="311"/>
-      <c r="B261" s="312"/>
+      <c r="A261" s="310"/>
+      <c r="B261" s="311"/>
       <c r="E261" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J261" s="314"/>
-      <c r="K261" s="331"/>
-      <c r="N261" s="303">
+      <c r="J261" s="313"/>
+      <c r="K261" s="330"/>
+      <c r="N261" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O261" s="332"/>
+      <c r="O261" s="331"/>
       <c r="Q261" s="10"/>
-      <c r="R261" s="327"/>
-      <c r="S261" s="328"/>
-      <c r="T261" s="333"/>
+      <c r="R261" s="326"/>
+      <c r="S261" s="327"/>
+      <c r="T261" s="332"/>
       <c r="V261" s="15"/>
     </row>
     <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="311"/>
-      <c r="H262" s="335"/>
-      <c r="I262" s="336" t="s">
+      <c r="A262" s="310"/>
+      <c r="H262" s="334"/>
+      <c r="I262" s="335" t="s">
         <v>28</v>
       </c>
-      <c r="J262" s="337"/>
-      <c r="K262" s="337"/>
-      <c r="L262" s="338">
+      <c r="J262" s="336"/>
+      <c r="K262" s="336"/>
+      <c r="L262" s="337">
         <f>SUM(L250:L261)</f>
         <v>0</v>
       </c>
-      <c r="M262" s="339"/>
-      <c r="N262" s="340">
+      <c r="M262" s="338"/>
+      <c r="N262" s="339">
         <f>SUM(N4:N261)</f>
         <v>15379084.043</v>
       </c>
-      <c r="O262" s="341"/>
-      <c r="Q262" s="342">
+      <c r="O262" s="340"/>
+      <c r="Q262" s="341">
         <f>SUM(Q4:Q261)</f>
         <v>336260</v>
       </c>
       <c r="R262" s="8"/>
-      <c r="S262" s="343">
+      <c r="S262" s="342">
         <f>SUM(S17:S261)</f>
         <v>0</v>
       </c>
-      <c r="T262" s="344"/>
-      <c r="U262" s="345"/>
-      <c r="V262" s="346">
+      <c r="T262" s="343"/>
+      <c r="U262" s="344"/>
+      <c r="V262" s="345">
         <f>SUM(V250:V261)</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A263" s="311"/>
-      <c r="H263" s="335"/>
-      <c r="I263" s="347"/>
-      <c r="J263" s="348"/>
-      <c r="K263" s="349"/>
-      <c r="L263" s="349"/>
-      <c r="M263" s="349"/>
-      <c r="N263" s="303"/>
-      <c r="O263" s="341"/>
-      <c r="R263" s="327"/>
-      <c r="S263" s="350"/>
-      <c r="U263" s="352"/>
+      <c r="A263" s="310"/>
+      <c r="H263" s="334"/>
+      <c r="I263" s="346"/>
+      <c r="J263" s="347"/>
+      <c r="K263" s="348"/>
+      <c r="L263" s="348"/>
+      <c r="M263" s="348"/>
+      <c r="N263" s="302"/>
+      <c r="O263" s="340"/>
+      <c r="R263" s="326"/>
+      <c r="S263" s="349"/>
+      <c r="U263" s="351"/>
       <c r="V263"/>
     </row>
     <row r="264" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="311"/>
-      <c r="H264" s="335"/>
-      <c r="I264" s="347"/>
-      <c r="J264" s="348"/>
-      <c r="K264" s="349"/>
-      <c r="L264" s="349"/>
-      <c r="M264" s="349"/>
-      <c r="N264" s="303"/>
-      <c r="O264" s="341"/>
-      <c r="R264" s="327"/>
-      <c r="S264" s="350"/>
-      <c r="U264" s="352"/>
+      <c r="A264" s="310"/>
+      <c r="H264" s="334"/>
+      <c r="I264" s="346"/>
+      <c r="J264" s="347"/>
+      <c r="K264" s="348"/>
+      <c r="L264" s="348"/>
+      <c r="M264" s="348"/>
+      <c r="N264" s="302"/>
+      <c r="O264" s="340"/>
+      <c r="R264" s="326"/>
+      <c r="S264" s="349"/>
+      <c r="U264" s="351"/>
       <c r="V264"/>
     </row>
     <row r="265" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="311"/>
-      <c r="I265" s="353" t="s">
+      <c r="A265" s="310"/>
+      <c r="I265" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="J265" s="354"/>
-      <c r="K265" s="354"/>
-      <c r="L265" s="355"/>
-      <c r="M265" s="355"/>
-      <c r="N265" s="356">
+      <c r="J265" s="353"/>
+      <c r="K265" s="353"/>
+      <c r="L265" s="354"/>
+      <c r="M265" s="354"/>
+      <c r="N265" s="355">
         <f>V262+S262+Q262+N262+L262</f>
         <v>15715344.043</v>
       </c>
-      <c r="O265" s="357"/>
-      <c r="R265" s="327"/>
-      <c r="S265" s="350"/>
-      <c r="U265" s="352"/>
+      <c r="O265" s="356"/>
+      <c r="R265" s="326"/>
+      <c r="S265" s="349"/>
+      <c r="U265" s="351"/>
       <c r="V265"/>
     </row>
     <row r="266" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="358"/>
-      <c r="I266" s="359"/>
-      <c r="J266" s="360"/>
-      <c r="K266" s="360"/>
-      <c r="L266" s="361"/>
-      <c r="M266" s="361"/>
-      <c r="N266" s="362"/>
-      <c r="O266" s="363"/>
-      <c r="R266" s="327"/>
-      <c r="S266" s="350"/>
-      <c r="U266" s="352"/>
+      <c r="A266" s="357"/>
+      <c r="I266" s="358"/>
+      <c r="J266" s="359"/>
+      <c r="K266" s="359"/>
+      <c r="L266" s="360"/>
+      <c r="M266" s="360"/>
+      <c r="N266" s="361"/>
+      <c r="O266" s="362"/>
+      <c r="R266" s="326"/>
+      <c r="S266" s="349"/>
+      <c r="U266" s="351"/>
       <c r="V266"/>
     </row>
     <row r="267" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="358"/>
-      <c r="I267" s="347"/>
-      <c r="J267" s="348"/>
-      <c r="K267" s="349"/>
-      <c r="L267" s="349"/>
-      <c r="M267" s="349"/>
-      <c r="N267" s="303"/>
-      <c r="O267" s="341"/>
-      <c r="R267" s="327"/>
-      <c r="S267" s="350"/>
-      <c r="U267" s="352"/>
+      <c r="A267" s="357"/>
+      <c r="I267" s="346"/>
+      <c r="J267" s="347"/>
+      <c r="K267" s="348"/>
+      <c r="L267" s="348"/>
+      <c r="M267" s="348"/>
+      <c r="N267" s="302"/>
+      <c r="O267" s="340"/>
+      <c r="R267" s="326"/>
+      <c r="S267" s="349"/>
+      <c r="U267" s="351"/>
       <c r="V267"/>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A268" s="311"/>
-      <c r="I268" s="347"/>
-      <c r="J268" s="348"/>
-      <c r="K268" s="349"/>
-      <c r="L268" s="349"/>
-      <c r="M268" s="349"/>
-      <c r="N268" s="303"/>
-      <c r="O268" s="341"/>
-      <c r="R268" s="327"/>
-      <c r="S268" s="350"/>
-      <c r="U268" s="352"/>
+      <c r="A268" s="310"/>
+      <c r="I268" s="346"/>
+      <c r="J268" s="347"/>
+      <c r="K268" s="348"/>
+      <c r="L268" s="348"/>
+      <c r="M268" s="348"/>
+      <c r="N268" s="302"/>
+      <c r="O268" s="340"/>
+      <c r="R268" s="326"/>
+      <c r="S268" s="349"/>
+      <c r="U268" s="351"/>
       <c r="V268"/>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A269" s="311"/>
-      <c r="I269" s="347"/>
-      <c r="J269" s="364"/>
-      <c r="K269" s="349"/>
-      <c r="L269" s="349"/>
-      <c r="M269" s="349"/>
-      <c r="N269" s="303"/>
-      <c r="O269" s="365"/>
-      <c r="R269" s="327"/>
-      <c r="S269" s="350"/>
-      <c r="U269" s="352"/>
+      <c r="A269" s="310"/>
+      <c r="I269" s="346"/>
+      <c r="J269" s="363"/>
+      <c r="K269" s="348"/>
+      <c r="L269" s="348"/>
+      <c r="M269" s="348"/>
+      <c r="N269" s="302"/>
+      <c r="O269" s="364"/>
+      <c r="R269" s="326"/>
+      <c r="S269" s="349"/>
+      <c r="U269" s="351"/>
       <c r="V269"/>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A270" s="358"/>
-      <c r="N270" s="303"/>
-      <c r="O270" s="367"/>
-      <c r="R270" s="327"/>
-      <c r="S270" s="350"/>
-      <c r="U270" s="352"/>
+      <c r="A270" s="357"/>
+      <c r="N270" s="302"/>
+      <c r="O270" s="366"/>
+      <c r="R270" s="326"/>
+      <c r="S270" s="349"/>
+      <c r="U270" s="351"/>
       <c r="V270"/>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="358"/>
-      <c r="O271" s="367"/>
-      <c r="S271" s="350"/>
-      <c r="U271" s="352"/>
+      <c r="A271" s="357"/>
+      <c r="O271" s="366"/>
+      <c r="S271" s="349"/>
+      <c r="U271" s="351"/>
       <c r="V271"/>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="311"/>
-      <c r="B272" s="312"/>
-      <c r="N272" s="303"/>
-      <c r="O272" s="341"/>
-      <c r="S272" s="350"/>
-      <c r="U272" s="352"/>
+      <c r="A272" s="310"/>
+      <c r="B272" s="311"/>
+      <c r="N272" s="302"/>
+      <c r="O272" s="340"/>
+      <c r="S272" s="349"/>
+      <c r="U272" s="351"/>
       <c r="V272"/>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="358"/>
-      <c r="B273" s="312"/>
-      <c r="N273" s="303"/>
-      <c r="O273" s="341"/>
-      <c r="S273" s="350"/>
-      <c r="U273" s="352"/>
+      <c r="A273" s="357"/>
+      <c r="B273" s="311"/>
+      <c r="N273" s="302"/>
+      <c r="O273" s="340"/>
+      <c r="S273" s="349"/>
+      <c r="U273" s="351"/>
       <c r="V273"/>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="311"/>
-      <c r="B274" s="312"/>
-      <c r="I274" s="347"/>
-      <c r="J274" s="348"/>
-      <c r="K274" s="349"/>
-      <c r="L274" s="349"/>
-      <c r="M274" s="349"/>
-      <c r="N274" s="303"/>
-      <c r="O274" s="341"/>
-      <c r="S274" s="350"/>
-      <c r="U274" s="352"/>
+      <c r="A274" s="310"/>
+      <c r="B274" s="311"/>
+      <c r="I274" s="346"/>
+      <c r="J274" s="347"/>
+      <c r="K274" s="348"/>
+      <c r="L274" s="348"/>
+      <c r="M274" s="348"/>
+      <c r="N274" s="302"/>
+      <c r="O274" s="340"/>
+      <c r="S274" s="349"/>
+      <c r="U274" s="351"/>
       <c r="V274"/>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="358"/>
-      <c r="B275" s="312"/>
-      <c r="I275" s="347"/>
-      <c r="J275" s="348"/>
-      <c r="K275" s="349"/>
-      <c r="L275" s="349"/>
-      <c r="M275" s="349"/>
-      <c r="N275" s="303"/>
-      <c r="O275" s="341"/>
-      <c r="S275" s="350"/>
-      <c r="U275" s="352"/>
+      <c r="A275" s="357"/>
+      <c r="B275" s="311"/>
+      <c r="I275" s="346"/>
+      <c r="J275" s="347"/>
+      <c r="K275" s="348"/>
+      <c r="L275" s="348"/>
+      <c r="M275" s="348"/>
+      <c r="N275" s="302"/>
+      <c r="O275" s="340"/>
+      <c r="S275" s="349"/>
+      <c r="U275" s="351"/>
       <c r="V275"/>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A276" s="311"/>
-      <c r="B276" s="312"/>
-      <c r="I276" s="368"/>
-      <c r="J276" s="345"/>
-      <c r="K276" s="345"/>
-      <c r="N276" s="303"/>
-      <c r="O276" s="341"/>
-      <c r="S276" s="350"/>
-      <c r="U276" s="352"/>
+      <c r="A276" s="310"/>
+      <c r="B276" s="311"/>
+      <c r="I276" s="367"/>
+      <c r="J276" s="344"/>
+      <c r="K276" s="344"/>
+      <c r="N276" s="302"/>
+      <c r="O276" s="340"/>
+      <c r="S276" s="349"/>
+      <c r="U276" s="351"/>
       <c r="V276"/>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="358"/>
-      <c r="S277" s="350"/>
-      <c r="U277" s="352"/>
+      <c r="A277" s="357"/>
+      <c r="S277" s="349"/>
+      <c r="U277" s="351"/>
       <c r="V277"/>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="311"/>
-      <c r="S278" s="350"/>
-      <c r="U278" s="352"/>
+      <c r="A278" s="310"/>
+      <c r="S278" s="349"/>
+      <c r="U278" s="351"/>
       <c r="V278"/>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="311"/>
-      <c r="B279" s="369"/>
-      <c r="C279" s="369"/>
-      <c r="D279" s="369"/>
-      <c r="E279" s="370"/>
-      <c r="F279" s="371"/>
-      <c r="G279" s="372"/>
-      <c r="H279" s="373"/>
-      <c r="I279" s="374"/>
+      <c r="A279" s="310"/>
+      <c r="B279" s="368"/>
+      <c r="C279" s="368"/>
+      <c r="D279" s="368"/>
+      <c r="E279" s="369"/>
+      <c r="F279" s="370"/>
+      <c r="G279" s="371"/>
+      <c r="H279" s="372"/>
+      <c r="I279" s="373"/>
       <c r="J279"/>
       <c r="K279"/>
       <c r="L279"/>
       <c r="M279"/>
-      <c r="P279" s="375"/>
-      <c r="Q279" s="350"/>
-      <c r="S279" s="350"/>
-      <c r="U279" s="352"/>
+      <c r="P279" s="374"/>
+      <c r="Q279" s="349"/>
+      <c r="S279" s="349"/>
+      <c r="U279" s="351"/>
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="358"/>
-      <c r="B280" s="369"/>
-      <c r="C280" s="369"/>
-      <c r="D280" s="369"/>
-      <c r="E280" s="370"/>
-      <c r="F280" s="371"/>
-      <c r="G280" s="372"/>
-      <c r="H280" s="373"/>
-      <c r="I280" s="374"/>
+      <c r="A280" s="357"/>
+      <c r="B280" s="368"/>
+      <c r="C280" s="368"/>
+      <c r="D280" s="368"/>
+      <c r="E280" s="369"/>
+      <c r="F280" s="370"/>
+      <c r="G280" s="371"/>
+      <c r="H280" s="372"/>
+      <c r="I280" s="373"/>
       <c r="J280"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
-      <c r="P280" s="375"/>
-      <c r="Q280" s="350"/>
-      <c r="S280" s="350"/>
-      <c r="U280" s="352"/>
+      <c r="P280" s="374"/>
+      <c r="Q280" s="349"/>
+      <c r="S280" s="349"/>
+      <c r="U280" s="351"/>
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="358"/>
-      <c r="B281" s="369"/>
-      <c r="C281" s="369"/>
-      <c r="D281" s="369"/>
-      <c r="E281" s="370"/>
-      <c r="F281" s="371"/>
-      <c r="G281" s="372"/>
-      <c r="H281" s="373"/>
-      <c r="I281" s="374"/>
+      <c r="A281" s="357"/>
+      <c r="B281" s="368"/>
+      <c r="C281" s="368"/>
+      <c r="D281" s="368"/>
+      <c r="E281" s="369"/>
+      <c r="F281" s="370"/>
+      <c r="G281" s="371"/>
+      <c r="H281" s="372"/>
+      <c r="I281" s="373"/>
       <c r="J281"/>
       <c r="K281"/>
       <c r="L281"/>
       <c r="M281"/>
-      <c r="P281" s="375"/>
-      <c r="Q281" s="350"/>
-      <c r="S281" s="350"/>
-      <c r="U281" s="352"/>
+      <c r="P281" s="374"/>
+      <c r="Q281" s="349"/>
+      <c r="S281" s="349"/>
+      <c r="U281" s="351"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="358"/>
-      <c r="B282" s="369"/>
-      <c r="C282" s="369"/>
-      <c r="D282" s="369"/>
-      <c r="E282" s="370"/>
-      <c r="F282" s="371"/>
-      <c r="G282" s="372"/>
-      <c r="H282" s="373"/>
-      <c r="I282" s="374"/>
+      <c r="A282" s="357"/>
+      <c r="B282" s="368"/>
+      <c r="C282" s="368"/>
+      <c r="D282" s="368"/>
+      <c r="E282" s="369"/>
+      <c r="F282" s="370"/>
+      <c r="G282" s="371"/>
+      <c r="H282" s="372"/>
+      <c r="I282" s="373"/>
       <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
-      <c r="P282" s="375"/>
-      <c r="Q282" s="350"/>
-      <c r="S282" s="350"/>
-      <c r="U282" s="352"/>
+      <c r="P282" s="374"/>
+      <c r="Q282" s="349"/>
+      <c r="S282" s="349"/>
+      <c r="U282" s="351"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="376"/>
-      <c r="B283" s="369"/>
-      <c r="C283" s="369"/>
-      <c r="D283" s="369"/>
-      <c r="E283" s="370"/>
-      <c r="F283" s="371"/>
-      <c r="G283" s="372"/>
-      <c r="H283" s="373"/>
-      <c r="I283" s="374"/>
+      <c r="A283" s="375"/>
+      <c r="B283" s="368"/>
+      <c r="C283" s="368"/>
+      <c r="D283" s="368"/>
+      <c r="E283" s="369"/>
+      <c r="F283" s="370"/>
+      <c r="G283" s="371"/>
+      <c r="H283" s="372"/>
+      <c r="I283" s="373"/>
       <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
-      <c r="P283" s="375"/>
-      <c r="Q283" s="350"/>
-      <c r="S283" s="350"/>
-      <c r="U283" s="352"/>
+      <c r="P283" s="374"/>
+      <c r="Q283" s="349"/>
+      <c r="S283" s="349"/>
+      <c r="U283" s="351"/>
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="324"/>
-      <c r="B284" s="369"/>
-      <c r="C284" s="369"/>
-      <c r="D284" s="369"/>
-      <c r="E284" s="370"/>
-      <c r="F284" s="371"/>
-      <c r="G284" s="372"/>
-      <c r="H284" s="373"/>
-      <c r="I284" s="374"/>
+      <c r="A284" s="323"/>
+      <c r="B284" s="368"/>
+      <c r="C284" s="368"/>
+      <c r="D284" s="368"/>
+      <c r="E284" s="369"/>
+      <c r="F284" s="370"/>
+      <c r="G284" s="371"/>
+      <c r="H284" s="372"/>
+      <c r="I284" s="373"/>
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
       <c r="M284"/>
-      <c r="P284" s="375"/>
-      <c r="Q284" s="350"/>
-      <c r="S284" s="350"/>
-      <c r="U284" s="352"/>
+      <c r="P284" s="374"/>
+      <c r="Q284" s="349"/>
+      <c r="S284" s="349"/>
+      <c r="U284" s="351"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="311"/>
-      <c r="B285" s="369"/>
-      <c r="C285" s="369"/>
-      <c r="D285" s="369"/>
-      <c r="E285" s="370"/>
-      <c r="F285" s="371"/>
-      <c r="G285" s="372"/>
-      <c r="H285" s="373"/>
-      <c r="I285" s="374"/>
+      <c r="A285" s="310"/>
+      <c r="B285" s="368"/>
+      <c r="C285" s="368"/>
+      <c r="D285" s="368"/>
+      <c r="E285" s="369"/>
+      <c r="F285" s="370"/>
+      <c r="G285" s="371"/>
+      <c r="H285" s="372"/>
+      <c r="I285" s="373"/>
       <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
-      <c r="P285" s="375"/>
-      <c r="Q285" s="350"/>
-      <c r="S285" s="350"/>
-      <c r="U285" s="352"/>
+      <c r="P285" s="374"/>
+      <c r="Q285" s="349"/>
+      <c r="S285" s="349"/>
+      <c r="U285" s="351"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="311"/>
-      <c r="B286" s="369"/>
-      <c r="C286" s="369"/>
-      <c r="D286" s="369"/>
-      <c r="E286" s="370"/>
-      <c r="F286" s="371"/>
-      <c r="G286" s="372"/>
-      <c r="H286" s="373"/>
-      <c r="I286" s="374"/>
+      <c r="A286" s="310"/>
+      <c r="B286" s="368"/>
+      <c r="C286" s="368"/>
+      <c r="D286" s="368"/>
+      <c r="E286" s="369"/>
+      <c r="F286" s="370"/>
+      <c r="G286" s="371"/>
+      <c r="H286" s="372"/>
+      <c r="I286" s="373"/>
       <c r="J286"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
-      <c r="P286" s="375"/>
-      <c r="Q286" s="350"/>
-      <c r="S286" s="350"/>
-      <c r="U286" s="352"/>
+      <c r="P286" s="374"/>
+      <c r="Q286" s="349"/>
+      <c r="S286" s="349"/>
+      <c r="U286" s="351"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="311"/>
-      <c r="B287" s="369"/>
-      <c r="C287" s="369"/>
-      <c r="D287" s="369"/>
-      <c r="E287" s="370"/>
-      <c r="F287" s="371"/>
-      <c r="G287" s="372"/>
-      <c r="H287" s="373"/>
-      <c r="I287" s="374"/>
+      <c r="A287" s="310"/>
+      <c r="B287" s="368"/>
+      <c r="C287" s="368"/>
+      <c r="D287" s="368"/>
+      <c r="E287" s="369"/>
+      <c r="F287" s="370"/>
+      <c r="G287" s="371"/>
+      <c r="H287" s="372"/>
+      <c r="I287" s="373"/>
       <c r="J287"/>
       <c r="K287"/>
       <c r="L287"/>
       <c r="M287"/>
-      <c r="P287" s="375"/>
-      <c r="Q287" s="350"/>
-      <c r="S287" s="350"/>
-      <c r="U287" s="352"/>
+      <c r="P287" s="374"/>
+      <c r="Q287" s="349"/>
+      <c r="S287" s="349"/>
+      <c r="U287" s="351"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="311"/>
-      <c r="B288" s="369"/>
-      <c r="C288" s="369"/>
-      <c r="D288" s="369"/>
-      <c r="E288" s="370"/>
-      <c r="F288" s="371"/>
-      <c r="G288" s="372"/>
-      <c r="H288" s="373"/>
-      <c r="I288" s="374"/>
+      <c r="A288" s="310"/>
+      <c r="B288" s="368"/>
+      <c r="C288" s="368"/>
+      <c r="D288" s="368"/>
+      <c r="E288" s="369"/>
+      <c r="F288" s="370"/>
+      <c r="G288" s="371"/>
+      <c r="H288" s="372"/>
+      <c r="I288" s="373"/>
       <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
-      <c r="P288" s="375"/>
-      <c r="Q288" s="350"/>
-      <c r="S288" s="350"/>
-      <c r="U288" s="352"/>
+      <c r="P288" s="374"/>
+      <c r="Q288" s="349"/>
+      <c r="S288" s="349"/>
+      <c r="U288" s="351"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="311"/>
-      <c r="B289" s="369"/>
-      <c r="C289" s="369"/>
-      <c r="D289" s="369"/>
-      <c r="E289" s="370"/>
-      <c r="F289" s="371"/>
-      <c r="G289" s="372"/>
-      <c r="H289" s="373"/>
-      <c r="I289" s="374"/>
+      <c r="A289" s="310"/>
+      <c r="B289" s="368"/>
+      <c r="C289" s="368"/>
+      <c r="D289" s="368"/>
+      <c r="E289" s="369"/>
+      <c r="F289" s="370"/>
+      <c r="G289" s="371"/>
+      <c r="H289" s="372"/>
+      <c r="I289" s="373"/>
       <c r="J289"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
-      <c r="P289" s="375"/>
-      <c r="Q289" s="350"/>
-      <c r="S289" s="350"/>
-      <c r="U289" s="352"/>
+      <c r="P289" s="374"/>
+      <c r="Q289" s="349"/>
+      <c r="S289" s="349"/>
+      <c r="U289" s="351"/>
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="311"/>
-      <c r="B290" s="369"/>
-      <c r="C290" s="369"/>
-      <c r="D290" s="369"/>
-      <c r="E290" s="370"/>
-      <c r="F290" s="371"/>
-      <c r="G290" s="372"/>
-      <c r="H290" s="373"/>
-      <c r="I290" s="374"/>
+      <c r="A290" s="310"/>
+      <c r="B290" s="368"/>
+      <c r="C290" s="368"/>
+      <c r="D290" s="368"/>
+      <c r="E290" s="369"/>
+      <c r="F290" s="370"/>
+      <c r="G290" s="371"/>
+      <c r="H290" s="372"/>
+      <c r="I290" s="373"/>
       <c r="J290"/>
       <c r="K290"/>
       <c r="L290"/>
       <c r="M290"/>
-      <c r="P290" s="375"/>
-      <c r="Q290" s="350"/>
-      <c r="S290" s="350"/>
-      <c r="U290" s="352"/>
+      <c r="P290" s="374"/>
+      <c r="Q290" s="349"/>
+      <c r="S290" s="349"/>
+      <c r="U290" s="351"/>
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="311"/>
-      <c r="B291" s="369"/>
-      <c r="C291" s="369"/>
-      <c r="D291" s="369"/>
-      <c r="E291" s="370"/>
-      <c r="F291" s="371"/>
-      <c r="G291" s="372"/>
-      <c r="H291" s="373"/>
-      <c r="I291" s="374"/>
+      <c r="A291" s="310"/>
+      <c r="B291" s="368"/>
+      <c r="C291" s="368"/>
+      <c r="D291" s="368"/>
+      <c r="E291" s="369"/>
+      <c r="F291" s="370"/>
+      <c r="G291" s="371"/>
+      <c r="H291" s="372"/>
+      <c r="I291" s="373"/>
       <c r="J291"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
-      <c r="P291" s="375"/>
-      <c r="Q291" s="350"/>
-      <c r="S291" s="350"/>
-      <c r="U291" s="352"/>
+      <c r="P291" s="374"/>
+      <c r="Q291" s="349"/>
+      <c r="S291" s="349"/>
+      <c r="U291" s="351"/>
       <c r="V291"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -12996,13 +13012,12 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
-    <mergeCell ref="O72:O75"/>
     <mergeCell ref="L86:M87"/>
     <mergeCell ref="O93:O94"/>
     <mergeCell ref="P93:P94"/>
